--- a/IVFmilan/src/main/java/com_Milan_TestData/Milandata.xlsx
+++ b/IVFmilan/src/main/java/com_Milan_TestData/Milandata.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18615" windowHeight="4980"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17520" windowHeight="4590"/>
   </bookViews>
   <sheets>
     <sheet name="HomePage" sheetId="1" r:id="rId1"/>
+    <sheet name="Vitals" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <oleSize ref="A1:X13"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:Q13"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,34 +21,46 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>PatientName</t>
   </si>
   <si>
-    <t>Ms.Amarjeet Kour</t>
+    <t>BPDiastolic </t>
   </si>
   <si>
-    <t>Parag</t>
+    <t>BPSystolicval</t>
   </si>
   <si>
-    <t>Par</t>
+    <t>Mr.Laxmi Date
+PUN-GEM-2018-05-007</t>
   </si>
   <si>
-    <t>Pa</t>
+    <t>Ms.Bhagashree Date
+PUN-GEM-2018-05-006</t>
+  </si>
+  <si>
+    <t>Ms.Alaguram
+RJPN.0000001905</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF545454"/>
+      <name val="Open_sansregular"/>
     </font>
   </fonts>
   <fills count="2">
@@ -70,8 +83,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -352,42 +366,224 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1"/>
+    <row r="6" spans="1:1"/>
+    <row r="7" spans="1:1"/>
+    <row r="8" spans="1:1"/>
+    <row r="9" spans="1:1"/>
+    <row r="10" spans="1:1"/>
+    <row r="11" spans="1:1"/>
+    <row r="12" spans="1:1"/>
+    <row r="13" spans="1:1"/>
+    <row r="14" spans="1:1"/>
+    <row r="15" spans="1:1"/>
+    <row r="16" spans="1:1"/>
+    <row r="17" spans="1:1"/>
+    <row r="18" spans="1:1"/>
+    <row r="19" spans="1:1"/>
+    <row r="20" spans="1:1"/>
+    <row r="21" spans="1:1"/>
+    <row r="22" spans="1:1"/>
+    <row r="23" spans="1:1"/>
+    <row r="24" spans="1:1"/>
+    <row r="25" spans="1:1"/>
+    <row r="26" spans="1:1"/>
+    <row r="27" spans="1:1"/>
+    <row r="28" spans="1:1"/>
+    <row r="29" spans="1:1"/>
+    <row r="30" spans="1:1"/>
+    <row r="31" spans="1:1"/>
+    <row r="32" spans="1:1"/>
+    <row r="33" spans="1:1"/>
+    <row r="34" spans="1:1"/>
+    <row r="35" spans="1:1"/>
+    <row r="36" spans="1:1"/>
+    <row r="37" spans="1:1"/>
+    <row r="38" spans="1:1"/>
+    <row r="39" spans="1:1"/>
+    <row r="40" spans="1:1"/>
+    <row r="41" spans="1:1"/>
+    <row r="42" spans="1:1"/>
+    <row r="43" spans="1:1"/>
+    <row r="44" spans="1:1"/>
+    <row r="45" spans="1:1"/>
+    <row r="46" spans="1:1"/>
+    <row r="47" spans="1:1"/>
+    <row r="48" spans="1:1"/>
+    <row r="49" spans="1:1"/>
+    <row r="50" spans="1:1"/>
+    <row r="51" spans="1:1"/>
+    <row r="52" spans="1:1"/>
+    <row r="53" spans="1:1"/>
+    <row r="54" spans="1:1"/>
+    <row r="55" spans="1:1"/>
+    <row r="56" spans="1:1"/>
+    <row r="57" spans="1:1"/>
+    <row r="58" spans="1:1"/>
+    <row r="59" spans="1:1"/>
+    <row r="60" spans="1:1"/>
+    <row r="61" spans="1:1"/>
+    <row r="62" spans="1:1"/>
+    <row r="63" spans="1:1"/>
+    <row r="64" spans="1:1"/>
+    <row r="65" spans="1:1"/>
+    <row r="66" spans="1:1"/>
+    <row r="67" spans="1:1"/>
+    <row r="68" spans="1:1"/>
+    <row r="69" spans="1:1"/>
+    <row r="70" spans="1:1"/>
+    <row r="71" spans="1:1"/>
+    <row r="72" spans="1:1"/>
+    <row r="73" spans="1:1"/>
+    <row r="74" spans="1:1"/>
+    <row r="75" spans="1:1"/>
+    <row r="76" spans="1:1"/>
+    <row r="77" spans="1:1"/>
+    <row r="78" spans="1:1"/>
+    <row r="79" spans="1:1"/>
+    <row r="80" spans="1:1"/>
+    <row r="81" spans="1:1"/>
+    <row r="82" spans="1:1"/>
+    <row r="83" spans="1:1"/>
+    <row r="84" spans="1:1"/>
+    <row r="85" spans="1:1"/>
+    <row r="86" spans="1:1"/>
+    <row r="87" spans="1:1"/>
+    <row r="88" spans="1:1"/>
+    <row r="89" spans="1:1"/>
+    <row r="90" spans="1:1"/>
+    <row r="91" spans="1:1"/>
+    <row r="92" spans="1:1"/>
+    <row r="93" spans="1:1"/>
+    <row r="94" spans="1:1"/>
+    <row r="95" spans="1:1"/>
+    <row r="96" spans="1:1"/>
+    <row r="97" spans="1:1"/>
+    <row r="98" spans="1:1"/>
+    <row r="99" spans="1:1"/>
+    <row r="100" spans="1:1"/>
+    <row r="101" spans="1:1"/>
+    <row r="102" spans="1:1"/>
+    <row r="103" spans="1:1"/>
+    <row r="104" spans="1:1"/>
+    <row r="105" spans="1:1"/>
+    <row r="106" spans="1:1"/>
+    <row r="107" spans="1:1"/>
+    <row r="108" spans="1:1"/>
+    <row r="109" spans="1:1"/>
+    <row r="110" spans="1:1"/>
+    <row r="111" spans="1:1"/>
+    <row r="112" spans="1:1"/>
+    <row r="113" spans="1:1"/>
+    <row r="114" spans="1:1"/>
+    <row r="115" spans="1:1"/>
+    <row r="116" spans="1:1"/>
+    <row r="117" spans="1:1"/>
+    <row r="118" spans="1:1"/>
+    <row r="119" spans="1:1"/>
+    <row r="120" spans="1:1"/>
+    <row r="121" spans="1:1"/>
+    <row r="122" spans="1:1"/>
+    <row r="123" spans="1:1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
+    <row r="2" spans="1:2" customFormat="1">
+      <c r="A2">
+        <v>89</v>
+      </c>
+      <c r="B2" s="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" customFormat="1">
+      <c r="A3">
+        <v>90</v>
+      </c>
+      <c r="B3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" customFormat="1">
+      <c r="A4">
+        <v>100</v>
+      </c>
+      <c r="B4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" customFormat="1">
+      <c r="A5">
+        <v>120</v>
+      </c>
+      <c r="B5">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" customFormat="1">
+      <c r="A6">
+        <v>121</v>
+      </c>
+      <c r="B6">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/IVFmilan/src/main/java/com_Milan_TestData/Milandata.xlsx
+++ b/IVFmilan/src/main/java/com_Milan_TestData/Milandata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17520" windowHeight="4590"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17160" windowHeight="7995"/>
   </bookViews>
   <sheets>
     <sheet name="HomePage" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
   <calcPr calcId="0"/>
   <oleSize ref="A1:Q13"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="10">
   <si>
     <t>PatientName</t>
   </si>
@@ -32,22 +32,39 @@
     <t>BPSystolicval</t>
   </si>
   <si>
-    <t>Mr.Laxmi Date
-PUN-GEM-2018-05-007</t>
-  </si>
-  <si>
-    <t>Ms.Bhagashree Date
-PUN-GEM-2018-05-006</t>
-  </si>
-  <si>
-    <t>Ms.Alaguram
-RJPN.0000001905</t>
+    <t>Ms.Pratiksha K K
+PUN-GEM-2018-04-001</t>
+  </si>
+  <si>
+    <t>Mr.Pratik K K
+PUN-GEM-2018-04-002</t>
+  </si>
+  <si>
+    <t>Mr.Sachin Kumar
+PUN-GEM-2018-05-005</t>
+  </si>
+  <si>
+    <t>Ms.Mukulika Panda
+RJPN.0000001907</t>
+  </si>
+  <si>
+    <t>Mr.Sunil
+RJPN.0000001904</t>
+  </si>
+  <si>
+    <t>Ms.Hema
+PUN-GEM-2018-04-005</t>
+  </si>
+  <si>
+    <t>Mr.Ram
+PUN-GEM-2018-04-006</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -369,12 +386,12 @@
   <dimension ref="A1:A123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="40.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="21.890625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -394,16 +411,44 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:1"/>
-    <row r="6" spans="1:1"/>
-    <row r="7" spans="1:1"/>
-    <row r="8" spans="1:1"/>
-    <row r="9" spans="1:1"/>
-    <row r="10" spans="1:1"/>
-    <row r="11" spans="1:1"/>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+    </row>
     <row r="12" spans="1:1"/>
     <row r="13" spans="1:1"/>
     <row r="14" spans="1:1"/>
@@ -531,8 +576,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" customFormat="1">

--- a/IVFmilan/src/main/java/com_Milan_TestData/Milandata.xlsx
+++ b/IVFmilan/src/main/java/com_Milan_TestData/Milandata.xlsx
@@ -2,18 +2,22 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Parag\Git\IVFmilan\src\main\java\com_Milan_TestData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17160" windowHeight="7995"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17520" windowHeight="4590" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="HomePage" sheetId="1" r:id="rId1"/>
     <sheet name="Vitals" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:Q13"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -21,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
   <si>
     <t>PatientName</t>
   </si>
@@ -30,18 +34,6 @@
   </si>
   <si>
     <t>BPSystolicval</t>
-  </si>
-  <si>
-    <t>Ms.Pratiksha K K
-PUN-GEM-2018-04-001</t>
-  </si>
-  <si>
-    <t>Mr.Pratik K K
-PUN-GEM-2018-04-002</t>
-  </si>
-  <si>
-    <t>Mr.Sachin Kumar
-PUN-GEM-2018-05-005</t>
   </si>
   <si>
     <t>Ms.Mukulika Panda
@@ -58,13 +50,78 @@
   <si>
     <t>Mr.Ram
 PUN-GEM-2018-04-006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pratiksha </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pratik </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sachin </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mukulika </t>
+  </si>
+  <si>
+    <t>"89"</t>
+  </si>
+  <si>
+    <t>"90"</t>
+  </si>
+  <si>
+    <t>"100"</t>
+  </si>
+  <si>
+    <t>"120"</t>
+  </si>
+  <si>
+    <t>"121"</t>
+  </si>
+  <si>
+    <t>"59"</t>
+  </si>
+  <si>
+    <t>"60"</t>
+  </si>
+  <si>
+    <t>"70"</t>
+  </si>
+  <si>
+    <t>"80"</t>
+  </si>
+  <si>
+    <t>"81"</t>
+  </si>
+  <si>
+    <t>BMI</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>Height</t>
+  </si>
+  <si>
+    <t>BPSystolicvalPass</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BPDiastolicPass </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -100,9 +157,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -383,15 +445,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A123"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="21.890625" collapsed="true"/>
+    <col min="1" max="1" width="37.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -400,167 +463,55 @@
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>3</v>
+      <c r="A2" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>4</v>
+      <c r="A3" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1"/>
-    <row r="13" spans="1:1"/>
-    <row r="14" spans="1:1"/>
-    <row r="15" spans="1:1"/>
-    <row r="16" spans="1:1"/>
-    <row r="17" spans="1:1"/>
-    <row r="18" spans="1:1"/>
-    <row r="19" spans="1:1"/>
-    <row r="20" spans="1:1"/>
-    <row r="21" spans="1:1"/>
-    <row r="22" spans="1:1"/>
-    <row r="23" spans="1:1"/>
-    <row r="24" spans="1:1"/>
-    <row r="25" spans="1:1"/>
-    <row r="26" spans="1:1"/>
-    <row r="27" spans="1:1"/>
-    <row r="28" spans="1:1"/>
-    <row r="29" spans="1:1"/>
-    <row r="30" spans="1:1"/>
-    <row r="31" spans="1:1"/>
-    <row r="32" spans="1:1"/>
-    <row r="33" spans="1:1"/>
-    <row r="34" spans="1:1"/>
-    <row r="35" spans="1:1"/>
-    <row r="36" spans="1:1"/>
-    <row r="37" spans="1:1"/>
-    <row r="38" spans="1:1"/>
-    <row r="39" spans="1:1"/>
-    <row r="40" spans="1:1"/>
-    <row r="41" spans="1:1"/>
-    <row r="42" spans="1:1"/>
-    <row r="43" spans="1:1"/>
-    <row r="44" spans="1:1"/>
-    <row r="45" spans="1:1"/>
-    <row r="46" spans="1:1"/>
-    <row r="47" spans="1:1"/>
-    <row r="48" spans="1:1"/>
-    <row r="49" spans="1:1"/>
-    <row r="50" spans="1:1"/>
-    <row r="51" spans="1:1"/>
-    <row r="52" spans="1:1"/>
-    <row r="53" spans="1:1"/>
-    <row r="54" spans="1:1"/>
-    <row r="55" spans="1:1"/>
-    <row r="56" spans="1:1"/>
-    <row r="57" spans="1:1"/>
-    <row r="58" spans="1:1"/>
-    <row r="59" spans="1:1"/>
-    <row r="60" spans="1:1"/>
-    <row r="61" spans="1:1"/>
-    <row r="62" spans="1:1"/>
-    <row r="63" spans="1:1"/>
-    <row r="64" spans="1:1"/>
-    <row r="65" spans="1:1"/>
-    <row r="66" spans="1:1"/>
-    <row r="67" spans="1:1"/>
-    <row r="68" spans="1:1"/>
-    <row r="69" spans="1:1"/>
-    <row r="70" spans="1:1"/>
-    <row r="71" spans="1:1"/>
-    <row r="72" spans="1:1"/>
-    <row r="73" spans="1:1"/>
-    <row r="74" spans="1:1"/>
-    <row r="75" spans="1:1"/>
-    <row r="76" spans="1:1"/>
-    <row r="77" spans="1:1"/>
-    <row r="78" spans="1:1"/>
-    <row r="79" spans="1:1"/>
-    <row r="80" spans="1:1"/>
-    <row r="81" spans="1:1"/>
-    <row r="82" spans="1:1"/>
-    <row r="83" spans="1:1"/>
-    <row r="84" spans="1:1"/>
-    <row r="85" spans="1:1"/>
-    <row r="86" spans="1:1"/>
-    <row r="87" spans="1:1"/>
-    <row r="88" spans="1:1"/>
-    <row r="89" spans="1:1"/>
-    <row r="90" spans="1:1"/>
-    <row r="91" spans="1:1"/>
-    <row r="92" spans="1:1"/>
-    <row r="93" spans="1:1"/>
-    <row r="94" spans="1:1"/>
-    <row r="95" spans="1:1"/>
-    <row r="96" spans="1:1"/>
-    <row r="97" spans="1:1"/>
-    <row r="98" spans="1:1"/>
-    <row r="99" spans="1:1"/>
-    <row r="100" spans="1:1"/>
-    <row r="101" spans="1:1"/>
-    <row r="102" spans="1:1"/>
-    <row r="103" spans="1:1"/>
-    <row r="104" spans="1:1"/>
-    <row r="105" spans="1:1"/>
-    <row r="106" spans="1:1"/>
-    <row r="107" spans="1:1"/>
-    <row r="108" spans="1:1"/>
-    <row r="109" spans="1:1"/>
-    <row r="110" spans="1:1"/>
-    <row r="111" spans="1:1"/>
-    <row r="112" spans="1:1"/>
-    <row r="113" spans="1:1"/>
-    <row r="114" spans="1:1"/>
-    <row r="115" spans="1:1"/>
-    <row r="116" spans="1:1"/>
-    <row r="117" spans="1:1"/>
-    <row r="118" spans="1:1"/>
-    <row r="119" spans="1:1"/>
-    <row r="120" spans="1:1"/>
-    <row r="121" spans="1:1"/>
-    <row r="122" spans="1:1"/>
-    <row r="123" spans="1:1"/>
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -568,67 +519,142 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="3" max="3" width="42.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="42.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="26.140625" customWidth="1"/>
+    <col min="7" max="7" width="31.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" customFormat="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" customFormat="1">
+      <c r="F1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2">
-        <v>89</v>
-      </c>
-      <c r="B2" s="1">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" customFormat="1">
+        <v>60</v>
+      </c>
+      <c r="B2">
+        <v>180</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" customFormat="1">
+        <v>170</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>100</v>
       </c>
       <c r="B4">
+        <v>160</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>90</v>
+      </c>
+      <c r="B5">
+        <v>150</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
         <v>70</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" customFormat="1">
-      <c r="A5">
-        <v>120</v>
-      </c>
-      <c r="B5">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" customFormat="1">
-      <c r="A6">
-        <v>121</v>
-      </c>
-      <c r="B6">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2"/>
+      <c r="C6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/IVFmilan/src/main/java/com_Milan_TestData/Milandata.xlsx
+++ b/IVFmilan/src/main/java/com_Milan_TestData/Milandata.xlsx
@@ -15,7 +15,7 @@
     <sheet name="HomePage" sheetId="1" r:id="rId1"/>
     <sheet name="Vitals" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>PatientName</t>
   </si>
@@ -64,21 +64,6 @@
     <t xml:space="preserve">Mukulika </t>
   </si>
   <si>
-    <t>"89"</t>
-  </si>
-  <si>
-    <t>"90"</t>
-  </si>
-  <si>
-    <t>"100"</t>
-  </si>
-  <si>
-    <t>"120"</t>
-  </si>
-  <si>
-    <t>"121"</t>
-  </si>
-  <si>
     <t>"59"</t>
   </si>
   <si>
@@ -101,9 +86,6 @@
   </si>
   <si>
     <t>Height</t>
-  </si>
-  <si>
-    <t>BPSystolicvalPass</t>
   </si>
   <si>
     <t>Fail</t>
@@ -157,7 +139,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -165,6 +147,8 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -520,139 +504,143 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="42.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="42.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="26.140625" customWidth="1"/>
-    <col min="7" max="7" width="31.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="26.140625" customWidth="1"/>
+    <col min="6" max="6" width="31.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>60</v>
       </c>
       <c r="B2">
         <v>180</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5">
+        <v>89</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="E2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="6">
+        <f>BMI(A2,B2)</f>
+        <v>18.518518518518519</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>80</v>
       </c>
       <c r="B3">
         <v>170</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="5">
+        <v>90</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="E3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>20</v>
+      </c>
+      <c r="F3" s="6">
+        <f>BMI(A3,B3)</f>
+        <v>27.681660899653981</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>100</v>
       </c>
       <c r="B4">
         <v>160</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="5">
+        <v>100</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="E4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>20</v>
+      </c>
+      <c r="F4" s="6">
+        <f>BMI(A4,B4)</f>
+        <v>39.062499999999993</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>90</v>
       </c>
       <c r="B5">
         <v>150</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="5">
+        <v>120</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="E5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>20</v>
+      </c>
+      <c r="F5" s="6">
+        <f>BMI(A5,B5)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>70</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="B6">
+        <v>100</v>
+      </c>
+      <c r="C6" s="5">
+        <v>121</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="E6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
+      </c>
+      <c r="F6" s="6">
+        <f>BMI(A6,B6)</f>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/IVFmilan/src/main/java/com_Milan_TestData/Milandata.xlsx
+++ b/IVFmilan/src/main/java/com_Milan_TestData/Milandata.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>PatientName</t>
   </si>
@@ -64,6 +64,36 @@
     <t xml:space="preserve">Mukulika </t>
   </si>
   <si>
+    <t>BMI</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>Height</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temperature </t>
+  </si>
+  <si>
+    <t>"89"</t>
+  </si>
+  <si>
+    <t>"90"</t>
+  </si>
+  <si>
+    <t>"100"</t>
+  </si>
+  <si>
+    <t>"120"</t>
+  </si>
+  <si>
+    <t>"121"</t>
+  </si>
+  <si>
     <t>"59"</t>
   </si>
   <si>
@@ -77,24 +107,6 @@
   </si>
   <si>
     <t>"81"</t>
-  </si>
-  <si>
-    <t>BMI</t>
-  </si>
-  <si>
-    <t>Weight</t>
-  </si>
-  <si>
-    <t>Height</t>
-  </si>
-  <si>
-    <t>Fail</t>
-  </si>
-  <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BPDiastolicPass </t>
   </si>
 </sst>
 </file>
@@ -104,7 +116,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,13 +130,27 @@
       <color rgb="FF545454"/>
       <name val="Open_sansregular"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -139,9 +165,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -149,6 +174,9 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -447,17 +475,17 @@
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -467,7 +495,7 @@
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -504,146 +532,165 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="42.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="26.140625" customWidth="1"/>
-    <col min="6" max="6" width="31.85546875" customWidth="1"/>
+    <col min="5" max="6" width="12.42578125" customWidth="1"/>
+    <col min="7" max="7" width="31.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="1:7" s="7" customFormat="1">
+      <c r="A1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="E1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>60</v>
       </c>
       <c r="B2">
         <v>180</v>
       </c>
-      <c r="C2" s="5">
-        <v>89</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="6">
+      <c r="C2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="3">
+        <v>59</v>
+      </c>
+      <c r="F2" s="3">
+        <v>96</v>
+      </c>
+      <c r="G2" s="4">
         <f>BMI(A2,B2)</f>
         <v>18.518518518518519</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>80</v>
       </c>
       <c r="B3">
         <v>170</v>
       </c>
-      <c r="C3" s="5">
-        <v>90</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="6">
+      <c r="C3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="2">
+        <v>60</v>
+      </c>
+      <c r="F3" s="2">
+        <v>97.8</v>
+      </c>
+      <c r="G3" s="5">
         <f>BMI(A3,B3)</f>
         <v>27.681660899653981</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>100</v>
       </c>
       <c r="B4">
         <v>160</v>
       </c>
-      <c r="C4" s="5">
-        <v>100</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="6">
+      <c r="C4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="2">
+        <v>80</v>
+      </c>
+      <c r="F4" s="2">
+        <v>99</v>
+      </c>
+      <c r="G4" s="5">
         <f>BMI(A4,B4)</f>
         <v>39.062499999999993</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>90</v>
       </c>
       <c r="B5">
         <v>150</v>
       </c>
-      <c r="C5" s="5">
-        <v>120</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="6">
+      <c r="C5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="2">
+        <v>99</v>
+      </c>
+      <c r="F5" s="2">
+        <v>100</v>
+      </c>
+      <c r="G5" s="5">
         <f>BMI(A5,B5)</f>
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>70</v>
       </c>
       <c r="B6">
         <v>100</v>
       </c>
-      <c r="C6" s="5">
-        <v>121</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="6">
+      <c r="C6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="2">
+        <v>101</v>
+      </c>
+      <c r="F6" s="2">
+        <v>101</v>
+      </c>
+      <c r="G6" s="5">
         <f>BMI(A6,B6)</f>
         <v>70</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/IVFmilan/src/main/java/com_Milan_TestData/Milandata.xlsx
+++ b/IVFmilan/src/main/java/com_Milan_TestData/Milandata.xlsx
@@ -79,6 +79,21 @@
     <t xml:space="preserve">Temperature </t>
   </si>
   <si>
+    <t>"59"</t>
+  </si>
+  <si>
+    <t>"60"</t>
+  </si>
+  <si>
+    <t>"70"</t>
+  </si>
+  <si>
+    <t>"80"</t>
+  </si>
+  <si>
+    <t>"81"</t>
+  </si>
+  <si>
     <t>"89"</t>
   </si>
   <si>
@@ -92,21 +107,6 @@
   </si>
   <si>
     <t>"121"</t>
-  </si>
-  <si>
-    <t>"59"</t>
-  </si>
-  <si>
-    <t>"60"</t>
-  </si>
-  <si>
-    <t>"70"</t>
-  </si>
-  <si>
-    <t>"80"</t>
-  </si>
-  <si>
-    <t>"81"</t>
   </si>
 </sst>
 </file>
@@ -535,7 +535,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -577,10 +577,10 @@
         <v>180</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>21</v>
       </c>
       <c r="E2" s="3">
         <v>59</v>
@@ -601,10 +601,10 @@
         <v>170</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="E3" s="2">
         <v>60</v>
@@ -625,10 +625,10 @@
         <v>160</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>23</v>
       </c>
       <c r="E4" s="2">
         <v>80</v>
@@ -649,10 +649,10 @@
         <v>150</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="E5" s="2">
         <v>99</v>
@@ -673,10 +673,10 @@
         <v>100</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>25</v>
       </c>
       <c r="E6" s="2">
         <v>101</v>

--- a/IVFmilan/src/main/java/com_Milan_TestData/Milandata.xlsx
+++ b/IVFmilan/src/main/java/com_Milan_TestData/Milandata.xlsx
@@ -9,11 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17520" windowHeight="4590" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17520" windowHeight="4590" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="HomePage" sheetId="1" r:id="rId1"/>
     <sheet name="Vitals" sheetId="2" r:id="rId2"/>
+    <sheet name="SexualHistory" sheetId="3" r:id="rId3"/>
+    <sheet name="pastMedicationHistory" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="56">
   <si>
     <t>PatientName</t>
   </si>
@@ -107,6 +109,96 @@
   </si>
   <si>
     <t>"121"</t>
+  </si>
+  <si>
+    <t>In relationship sinceY</t>
+  </si>
+  <si>
+    <t>In relationship sinceM</t>
+  </si>
+  <si>
+    <t>Trying to concieve sinceY</t>
+  </si>
+  <si>
+    <t>Trying to concieve sinceM</t>
+  </si>
+  <si>
+    <t>Contraception</t>
+  </si>
+  <si>
+    <t>Method of Contraception</t>
+  </si>
+  <si>
+    <t>DurationY</t>
+  </si>
+  <si>
+    <t>DurationM</t>
+  </si>
+  <si>
+    <t>Infertility Type</t>
+  </si>
+  <si>
+    <t>Female Infertility</t>
+  </si>
+  <si>
+    <t>Frequency of intercourse</t>
+  </si>
+  <si>
+    <t>Sexual Dysfunction</t>
+  </si>
+  <si>
+    <t>Dyspareunia</t>
+  </si>
+  <si>
+    <t>Sexual Dysfunction Text</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Condoms</t>
+  </si>
+  <si>
+    <t>Contraceptive Pills</t>
+  </si>
+  <si>
+    <t>IUD - Copper T</t>
+  </si>
+  <si>
+    <t>Tubal sterilization</t>
+  </si>
+  <si>
+    <t>Primary</t>
+  </si>
+  <si>
+    <t>Secondary</t>
+  </si>
+  <si>
+    <t>Weekly Twice</t>
+  </si>
+  <si>
+    <t>Weekly Once</t>
+  </si>
+  <si>
+    <t>Fortnightly once</t>
+  </si>
+  <si>
+    <t>Monthly once</t>
+  </si>
+  <si>
+    <t>Irregular</t>
+  </si>
+  <si>
+    <t>Infrequent</t>
+  </si>
+  <si>
+    <t>Lubrication used</t>
+  </si>
+  <si>
+    <t>Search</t>
   </si>
 </sst>
 </file>
@@ -165,7 +257,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -177,6 +269,8 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -534,8 +628,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -588,9 +682,9 @@
       <c r="F2" s="3">
         <v>96</v>
       </c>
-      <c r="G2" s="4">
-        <f>BMI(A2,B2)</f>
-        <v>18.518518518518519</v>
+      <c r="G2" s="4" t="e">
+        <f ca="1">BMI(A2,B2)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -612,9 +706,9 @@
       <c r="F3" s="2">
         <v>97.8</v>
       </c>
-      <c r="G3" s="5">
-        <f>BMI(A3,B3)</f>
-        <v>27.681660899653981</v>
+      <c r="G3" s="5" t="e">
+        <f ca="1">BMI(A3,B3)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -636,9 +730,9 @@
       <c r="F4" s="2">
         <v>99</v>
       </c>
-      <c r="G4" s="5">
-        <f>BMI(A4,B4)</f>
-        <v>39.062499999999993</v>
+      <c r="G4" s="5" t="e">
+        <f ca="1">BMI(A4,B4)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -660,9 +754,9 @@
       <c r="F5" s="2">
         <v>100</v>
       </c>
-      <c r="G5" s="5">
-        <f>BMI(A5,B5)</f>
-        <v>40</v>
+      <c r="G5" s="5" t="e">
+        <f ca="1">BMI(A5,B5)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -684,13 +778,553 @@
       <c r="F6" s="2">
         <v>101</v>
       </c>
-      <c r="G6" s="5">
-        <f>BMI(A6,B6)</f>
-        <v>70</v>
+      <c r="G6" s="5" t="e">
+        <f ca="1">BMI(A6,B6)</f>
+        <v>#NAME?</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:O27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" s="10" customFormat="1">
+      <c r="A1" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" t="s">
+        <v>40</v>
+      </c>
+      <c r="O2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="K4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="K5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="K6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="K7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="G8">
+        <v>6</v>
+      </c>
+      <c r="H8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>7</v>
+      </c>
+      <c r="G9">
+        <v>7</v>
+      </c>
+      <c r="H9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <v>8</v>
+      </c>
+      <c r="G10">
+        <v>8</v>
+      </c>
+      <c r="H10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>9</v>
+      </c>
+      <c r="D11">
+        <v>9</v>
+      </c>
+      <c r="G11">
+        <v>9</v>
+      </c>
+      <c r="H11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <v>10</v>
+      </c>
+      <c r="G12">
+        <v>10</v>
+      </c>
+      <c r="H12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>11</v>
+      </c>
+      <c r="D13">
+        <v>11</v>
+      </c>
+      <c r="G13">
+        <v>11</v>
+      </c>
+      <c r="H13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>12</v>
+      </c>
+      <c r="G14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="C15">
+        <v>13</v>
+      </c>
+      <c r="G15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="C16">
+        <v>14</v>
+      </c>
+      <c r="G16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>15</v>
+      </c>
+      <c r="G17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>16</v>
+      </c>
+      <c r="G18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>17</v>
+      </c>
+      <c r="G19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>18</v>
+      </c>
+      <c r="G20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>19</v>
+      </c>
+      <c r="J21" t="e">
+        <f ca="1">SexualDysfunction(L2,"abcd")</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" s="10" customFormat="1">
+      <c r="A1" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/IVFmilan/src/main/java/com_Milan_TestData/Milandata.xlsx
+++ b/IVFmilan/src/main/java/com_Milan_TestData/Milandata.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17520" windowHeight="4590" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17520" windowHeight="4590" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="HomePage" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="68">
   <si>
     <t>PatientName</t>
   </si>
@@ -198,7 +198,43 @@
     <t>Lubrication used</t>
   </si>
   <si>
-    <t>Search</t>
+    <t>SearchBYA</t>
+  </si>
+  <si>
+    <t>SearchBYB</t>
+  </si>
+  <si>
+    <t>SearchBYC</t>
+  </si>
+  <si>
+    <t>SearchBYD</t>
+  </si>
+  <si>
+    <t>ACETAMINOPHEN &amp; TRAMADOL HYDROCHLORIDE</t>
+  </si>
+  <si>
+    <t>ADAPALENE</t>
+  </si>
+  <si>
+    <t>ADENOSINE</t>
+  </si>
+  <si>
+    <t>ADRENALINE BI TARTARATE</t>
+  </si>
+  <si>
+    <t>ADRENALINE BITARTARATE</t>
+  </si>
+  <si>
+    <t>CHORIOGONADOTROPIN ALFA – r – dna -HUMAN CHORIONIC GONADOTROPIN</t>
+  </si>
+  <si>
+    <t>CHORIONIC GONADOTROPIN</t>
+  </si>
+  <si>
+    <t>CHORIONIX GONADOTROPHIN</t>
+  </si>
+  <si>
+    <t>Mr.RaviP</t>
   </si>
 </sst>
 </file>
@@ -257,7 +293,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -271,6 +307,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -552,10 +589,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -563,8 +600,8 @@
     <col min="1" max="1" width="37.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
+    <row r="1" spans="1:1" s="10" customFormat="1">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
     </row>
@@ -618,8 +655,14 @@
         <v>6</v>
       </c>
     </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>67</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -628,16 +671,16 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="17.140625" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="6" width="12.42578125" customWidth="1"/>
-    <col min="7" max="7" width="31.85546875" customWidth="1"/>
+    <col min="5" max="6" width="12.42578125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="31.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="7" customFormat="1">
@@ -682,9 +725,9 @@
       <c r="F2" s="3">
         <v>96</v>
       </c>
-      <c r="G2" s="4" t="e">
-        <f ca="1">BMI(A2,B2)</f>
-        <v>#NAME?</v>
+      <c r="G2" s="5">
+        <f>BMI(A2,B2)</f>
+        <v>18.518518518518519</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -706,9 +749,9 @@
       <c r="F3" s="2">
         <v>97.8</v>
       </c>
-      <c r="G3" s="5" t="e">
-        <f ca="1">BMI(A3,B3)</f>
-        <v>#NAME?</v>
+      <c r="G3" s="5">
+        <f>BMI(A3,B3)</f>
+        <v>27.681660899653981</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -730,9 +773,9 @@
       <c r="F4" s="2">
         <v>99</v>
       </c>
-      <c r="G4" s="5" t="e">
-        <f ca="1">BMI(A4,B4)</f>
-        <v>#NAME?</v>
+      <c r="G4" s="5">
+        <f>BMI(A4,B4)</f>
+        <v>39.062499999999993</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -754,9 +797,9 @@
       <c r="F5" s="2">
         <v>100</v>
       </c>
-      <c r="G5" s="5" t="e">
-        <f ca="1">BMI(A5,B5)</f>
-        <v>#NAME?</v>
+      <c r="G5" s="5">
+        <f>BMI(A5,B5)</f>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -778,9 +821,9 @@
       <c r="F6" s="2">
         <v>101</v>
       </c>
-      <c r="G6" s="5" t="e">
-        <f ca="1">BMI(A6,B6)</f>
-        <v>#NAME?</v>
+      <c r="G6" s="5">
+        <f>BMI(A6,B6)</f>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -795,25 +838,25 @@
   <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="22.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="12" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="10" customFormat="1">
@@ -1308,23 +1351,86 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="71.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="10" customFormat="1">
+    <row r="1" spans="1:7" s="10" customFormat="1">
       <c r="A1" s="10" t="s">
         <v>55</v>
       </c>
+      <c r="B1" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="10" customFormat="1">
+      <c r="A2" s="11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/IVFmilan/src/main/java/com_Milan_TestData/Milandata.xlsx
+++ b/IVFmilan/src/main/java/com_Milan_TestData/Milandata.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17520" windowHeight="4590" activeTab="1"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="17520" windowHeight="4590"/>
   </bookViews>
   <sheets>
-    <sheet name="HomePage" sheetId="1" r:id="rId1"/>
-    <sheet name="Vitals" sheetId="2" r:id="rId2"/>
-    <sheet name="SexualHistory" sheetId="3" r:id="rId3"/>
-    <sheet name="pastMedicationHistory" sheetId="4" r:id="rId4"/>
+    <sheet name="LoginPage" sheetId="5" r:id="rId1"/>
+    <sheet name="HomePage" sheetId="1" r:id="rId2"/>
+    <sheet name="Vitals" sheetId="2" r:id="rId3"/>
+    <sheet name="SexualHistory" sheetId="3" r:id="rId4"/>
+    <sheet name="pastMedicationHistory" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="77">
   <si>
     <t>PatientName</t>
   </si>
@@ -36,14 +37,6 @@
   </si>
   <si>
     <t>BPSystolicval</t>
-  </si>
-  <si>
-    <t>Ms.Mukulika Panda
-RJPN.0000001907</t>
-  </si>
-  <si>
-    <t>Mr.Sunil
-RJPN.0000001904</t>
   </si>
   <si>
     <t>Ms.Hema
@@ -234,7 +227,40 @@
     <t>CHORIONIX GONADOTROPHIN</t>
   </si>
   <si>
-    <t>Mr.RaviP</t>
+    <t>Mr.Ravi P</t>
+  </si>
+  <si>
+    <t>Ravi</t>
+  </si>
+  <si>
+    <t>Ms.Kaveri P</t>
+  </si>
+  <si>
+    <t>Sunil</t>
+  </si>
+  <si>
+    <t>Laxmi</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>Message</t>
+  </si>
+  <si>
+    <t>paresh</t>
+  </si>
+  <si>
+    <t>Enter correct username.</t>
+  </si>
+  <si>
+    <t>Please Enter Valid UserName and Password</t>
+  </si>
+  <si>
+    <t>Sunil.E</t>
   </si>
 </sst>
 </file>
@@ -588,11 +614,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="40.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="10" customFormat="1">
+      <c r="A1" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -607,57 +682,67 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>10</v>
+      <c r="A7" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" t="s">
-        <v>3</v>
+      <c r="A8" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
         <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -666,12 +751,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
@@ -685,10 +770,10 @@
   <sheetData>
     <row r="1" spans="1:7" s="7" customFormat="1">
       <c r="A1" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>2</v>
@@ -697,13 +782,13 @@
         <v>1</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -714,10 +799,10 @@
         <v>180</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E2" s="3">
         <v>59</v>
@@ -738,10 +823,10 @@
         <v>170</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E3" s="2">
         <v>60</v>
@@ -762,10 +847,10 @@
         <v>160</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E4" s="2">
         <v>80</v>
@@ -786,10 +871,10 @@
         <v>150</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E5" s="2">
         <v>99</v>
@@ -810,10 +895,10 @@
         <v>100</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E6" s="2">
         <v>101</v>
@@ -832,7 +917,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:O27"/>
@@ -861,49 +946,49 @@
   <sheetData>
     <row r="1" spans="1:15" s="10" customFormat="1">
       <c r="A1" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="D1" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="E1" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="H1" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="I1" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="K1" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="L1" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="M1" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="L1" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="M1" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="N1" s="10" t="s">
-        <v>38</v>
-      </c>
       <c r="O1" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -920,10 +1005,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" t="s">
         <v>40</v>
-      </c>
-      <c r="F2" t="s">
-        <v>42</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -932,19 +1017,19 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" t="s">
         <v>46</v>
       </c>
-      <c r="J2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K2" t="s">
-        <v>48</v>
-      </c>
       <c r="L2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -961,10 +1046,10 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" t="s">
         <v>41</v>
-      </c>
-      <c r="F3" t="s">
-        <v>43</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -973,19 +1058,19 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" t="s">
         <v>47</v>
       </c>
-      <c r="J3" t="s">
-        <v>41</v>
-      </c>
-      <c r="K3" t="s">
-        <v>49</v>
-      </c>
       <c r="L3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="O3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -1002,7 +1087,7 @@
         <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -1011,7 +1096,7 @@
         <v>2</v>
       </c>
       <c r="K4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -1028,7 +1113,7 @@
         <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G5">
         <v>3</v>
@@ -1037,7 +1122,7 @@
         <v>3</v>
       </c>
       <c r="K5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -1060,7 +1145,7 @@
         <v>4</v>
       </c>
       <c r="K6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -1083,7 +1168,7 @@
         <v>5</v>
       </c>
       <c r="K7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -1349,7 +1434,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G13"/>
@@ -1368,56 +1453,56 @@
   <sheetData>
     <row r="1" spans="1:7" s="10" customFormat="1">
       <c r="A1" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="D1" s="10" t="s">
         <v>56</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="10" customFormat="1">
       <c r="A2" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:7">

--- a/IVFmilan/src/main/java/com_Milan_TestData/Milandata.xlsx
+++ b/IVFmilan/src/main/java/com_Milan_TestData/Milandata.xlsx
@@ -9,14 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="17520" windowHeight="4590"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17520" windowHeight="4590" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="5" r:id="rId1"/>
     <sheet name="HomePage" sheetId="1" r:id="rId2"/>
-    <sheet name="Vitals" sheetId="2" r:id="rId3"/>
-    <sheet name="SexualHistory" sheetId="3" r:id="rId4"/>
-    <sheet name="pastMedicationHistory" sheetId="4" r:id="rId5"/>
+    <sheet name="Addictions" sheetId="6" r:id="rId3"/>
+    <sheet name="Vitals" sheetId="2" r:id="rId4"/>
+    <sheet name="SexualHistory" sheetId="3" r:id="rId5"/>
+    <sheet name="pastMedicationHistory" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="94">
   <si>
     <t>PatientName</t>
   </si>
@@ -261,6 +262,57 @@
   </si>
   <si>
     <t>Sunil.E</t>
+  </si>
+  <si>
+    <t>Current Status</t>
+  </si>
+  <si>
+    <t>Addiction</t>
+  </si>
+  <si>
+    <t>Since WhenM</t>
+  </si>
+  <si>
+    <t>Since WhenY</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>occasional</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Smoking</t>
+  </si>
+  <si>
+    <t>Alcohol</t>
+  </si>
+  <si>
+    <t>Tobacco</t>
+  </si>
+  <si>
+    <t>Drug Addiction</t>
+  </si>
+  <si>
+    <t>Caffeine Addiction</t>
+  </si>
+  <si>
+    <t>ml</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>"1"</t>
+  </si>
+  <si>
+    <t>"2"</t>
   </si>
 </sst>
 </file>
@@ -319,7 +371,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -334,6 +386,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -616,8 +669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -667,7 +720,7 @@
   <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -752,6 +805,230 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="12" customFormat="1">
+      <c r="A1" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="4">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="4">
+        <v>3</v>
+      </c>
+      <c r="D4" s="4">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="4">
+        <v>4</v>
+      </c>
+      <c r="D5" s="4">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="4">
+        <v>5</v>
+      </c>
+      <c r="D6" s="4">
+        <v>5</v>
+      </c>
+      <c r="F6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="C7" s="4">
+        <v>6</v>
+      </c>
+      <c r="D7" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="C8" s="4">
+        <v>7</v>
+      </c>
+      <c r="D8" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="C9" s="4">
+        <v>8</v>
+      </c>
+      <c r="D9" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="C10" s="4">
+        <v>9</v>
+      </c>
+      <c r="D10" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="C11" s="4">
+        <v>10</v>
+      </c>
+      <c r="D11" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="C12" s="4">
+        <v>11</v>
+      </c>
+      <c r="D12" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="C13" s="4"/>
+      <c r="D13" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="C14" s="4"/>
+      <c r="D14" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="C15" s="4"/>
+      <c r="D15" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="C16" s="4"/>
+      <c r="D16" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4">
+      <c r="C17" s="4"/>
+      <c r="D17" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4">
+      <c r="C18" s="4"/>
+      <c r="D18" s="4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4">
+      <c r="C19" s="4"/>
+      <c r="D19" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4">
+      <c r="C20" s="4"/>
+      <c r="D20" s="4">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G6"/>
@@ -917,7 +1194,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:O27"/>
@@ -1434,7 +1711,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G13"/>

--- a/IVFmilan/src/main/java/com_Milan_TestData/Milandata.xlsx
+++ b/IVFmilan/src/main/java/com_Milan_TestData/Milandata.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Parag\Git\IVFmilan\src\main\java\com_Milan_TestData\"/>
     </mc:Choice>
@@ -21,7 +21,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="109">
   <si>
     <t>PatientName</t>
   </si>
@@ -240,9 +240,6 @@
     <t>Sunil</t>
   </si>
   <si>
-    <t>Laxmi</t>
-  </si>
-  <si>
     <t>username</t>
   </si>
   <si>
@@ -267,9 +264,6 @@
     <t>Current Status</t>
   </si>
   <si>
-    <t>Addiction</t>
-  </si>
-  <si>
     <t>Since WhenM</t>
   </si>
   <si>
@@ -300,19 +294,70 @@
     <t>Caffeine Addiction</t>
   </si>
   <si>
-    <t>ml</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
     <t>Quantity</t>
   </si>
   <si>
-    <t>"1"</t>
-  </si>
-  <si>
-    <t>"2"</t>
+    <t>Addictionname</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>Record saved successfully!</t>
+  </si>
+  <si>
+    <t>Record updated successfully!</t>
+  </si>
+  <si>
+    <t>countNo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Laxmi</t>
+  </si>
+  <si>
+    <t>Hema</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>Teena </t>
+  </si>
+  <si>
+    <t>Shilpa</t>
+  </si>
+  <si>
+    <t>Smita</t>
   </si>
 </sst>
 </file>
@@ -371,7 +416,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -386,7 +431,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -670,42 +719,42 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="40.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="40.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="10" customFormat="1">
       <c r="A1" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" t="s">
         <v>73</v>
-      </c>
-      <c r="C2" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -717,15 +766,15 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A14"/>
+  <dimension ref="A1:A19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" s="10" customFormat="1">
@@ -759,13 +808,13 @@
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="1" t="s">
-        <v>68</v>
+      <c r="A7" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:1">
@@ -796,6 +845,31 @@
     <row r="14" spans="1:1">
       <c r="A14" t="s">
         <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -806,220 +880,157 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="15" width="17.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="15" width="13.7109375" collapsed="true"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" style="15" width="13.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="15" width="10.28515625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="15" width="12.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="15" width="29.85546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="15" width="8.8359375" collapsed="true"/>
+    <col min="9" max="16384" style="15" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="12" customFormat="1">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:8" s="14" customFormat="1">
+      <c r="A1" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C1" s="7" t="s">
+      <c r="E1" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="F2" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="H2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="E4" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="F1" s="8" t="s">
+      <c r="F4" s="15" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="5" spans="1:8">
+      <c r="A5" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="E2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F2" s="9" t="s">
+      <c r="C5" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" s="15" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="E5" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C6" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="15" t="s">
         <v>93</v>
-      </c>
-      <c r="D3" s="4">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C4" s="4">
-        <v>3</v>
-      </c>
-      <c r="D4" s="4">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>82</v>
-      </c>
-      <c r="F4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C5" s="4">
-        <v>4</v>
-      </c>
-      <c r="D5" s="4">
-        <v>4</v>
-      </c>
-      <c r="F5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>88</v>
-      </c>
-      <c r="C6" s="4">
-        <v>5</v>
-      </c>
-      <c r="D6" s="4">
-        <v>5</v>
-      </c>
-      <c r="F6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="C7" s="4">
-        <v>6</v>
-      </c>
-      <c r="D7" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="C8" s="4">
-        <v>7</v>
-      </c>
-      <c r="D8" s="4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="C9" s="4">
-        <v>8</v>
-      </c>
-      <c r="D9" s="4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="C10" s="4">
-        <v>9</v>
-      </c>
-      <c r="D10" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="C11" s="4">
-        <v>10</v>
-      </c>
-      <c r="D11" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="C12" s="4">
-        <v>11</v>
-      </c>
-      <c r="D12" s="4">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="C13" s="4"/>
-      <c r="D13" s="4">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="C14" s="4"/>
-      <c r="D14" s="4">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="C15" s="4"/>
-      <c r="D15" s="4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="C16" s="4"/>
-      <c r="D16" s="4">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="3:4">
-      <c r="C17" s="4"/>
-      <c r="D17" s="4">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="3:4">
-      <c r="C18" s="4"/>
-      <c r="D18" s="4">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="3:4">
-      <c r="C19" s="4"/>
-      <c r="D19" s="4">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="3:4">
-      <c r="C20" s="4"/>
-      <c r="D20" s="4">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1034,15 +1045,15 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="17.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="6" width="12.42578125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="31.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="5" max="6" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="31.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="7" customFormat="1">
@@ -1205,20 +1216,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="24.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="22.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="22.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="24.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="22.5703125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="10" customFormat="1">
@@ -1722,10 +1733,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="71.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="71.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="10" customFormat="1">

--- a/IVFmilan/src/main/java/com_Milan_TestData/Milandata.xlsx
+++ b/IVFmilan/src/main/java/com_Milan_TestData/Milandata.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Parag\Git\IVFmilan\src\main\java\com_Milan_TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17520" windowHeight="4590" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17520" windowHeight="4590" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="5" r:id="rId1"/>
@@ -21,7 +21,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="115">
   <si>
     <t>PatientName</t>
   </si>
@@ -51,15 +51,9 @@
     <t xml:space="preserve">Pratiksha </t>
   </si>
   <si>
-    <t xml:space="preserve">Pratik </t>
-  </si>
-  <si>
     <t xml:space="preserve">Sachin </t>
   </si>
   <si>
-    <t xml:space="preserve">Mukulika </t>
-  </si>
-  <si>
     <t>BMI</t>
   </si>
   <si>
@@ -237,9 +231,6 @@
     <t>Ms.Kaveri P</t>
   </si>
   <si>
-    <t>Sunil</t>
-  </si>
-  <si>
     <t>username</t>
   </si>
   <si>
@@ -358,6 +349,33 @@
   </si>
   <si>
     <t>Smita</t>
+  </si>
+  <si>
+    <t>Shyamli</t>
+  </si>
+  <si>
+    <t>Geeta</t>
+  </si>
+  <si>
+    <t>Mr.Laxmi Date</t>
+  </si>
+  <si>
+    <t>Mitali</t>
+  </si>
+  <si>
+    <t>RadioButtons</t>
+  </si>
+  <si>
+    <t>Couple</t>
+  </si>
+  <si>
+    <t>Donor</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>Karishma</t>
   </si>
 </sst>
 </file>
@@ -724,37 +742,37 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="40.28515625" collapsed="true"/>
+    <col min="3" max="3" width="40.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="10" customFormat="1">
       <c r="A1" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -766,110 +784,128 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A19"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
+    <col min="1" max="1" width="37.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="10" customFormat="1">
+    <row r="1" spans="1:2" s="10" customFormat="1">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
+      <c r="B1" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
+      <c r="B2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
+      <c r="B3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
+      <c r="B4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>108</v>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -882,155 +918,155 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="15" width="17.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="15" width="13.7109375" collapsed="true"/>
-    <col min="3" max="4" bestFit="true" customWidth="true" style="15" width="13.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="15" width="10.28515625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="15" width="12.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="15" width="29.85546875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="15" width="8.8359375" collapsed="true"/>
-    <col min="9" max="16384" style="15" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="17.85546875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.7109375" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="13.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="29.85546875" style="15" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="8.85546875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="16384" width="9.140625" style="15" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="14" customFormat="1">
       <c r="A1" s="12" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D1" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="E1" s="12" t="s">
-        <v>81</v>
-      </c>
       <c r="F1" s="13" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="15" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="15" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="15" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="15" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="15" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1050,18 +1086,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" customWidth="true" width="17.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="5" max="6" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="31.85546875" collapsed="true"/>
+    <col min="3" max="3" width="17.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="12.42578125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="31.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="7" customFormat="1">
       <c r="A1" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>2</v>
@@ -1070,13 +1106,13 @@
         <v>1</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1087,10 +1123,10 @@
         <v>180</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E2" s="3">
         <v>59</v>
@@ -1111,10 +1147,10 @@
         <v>170</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E3" s="2">
         <v>60</v>
@@ -1135,10 +1171,10 @@
         <v>160</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E4" s="2">
         <v>80</v>
@@ -1159,10 +1195,10 @@
         <v>150</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E5" s="2">
         <v>99</v>
@@ -1183,10 +1219,10 @@
         <v>100</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E6" s="2">
         <v>101</v>
@@ -1216,67 +1252,67 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="22.42578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="24.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="23.7109375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="22.5703125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="22.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="12" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="10" customFormat="1">
       <c r="A1" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="D1" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="E1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="H1" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="I1" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="K1" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="L1" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="M1" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="N1" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="L1" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="M1" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="N1" s="10" t="s">
-        <v>36</v>
-      </c>
       <c r="O1" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -1293,10 +1329,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" t="s">
         <v>38</v>
-      </c>
-      <c r="F2" t="s">
-        <v>40</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -1305,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" t="s">
         <v>44</v>
       </c>
-      <c r="J2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K2" t="s">
-        <v>46</v>
-      </c>
       <c r="L2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="O2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -1334,10 +1370,10 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" t="s">
         <v>39</v>
-      </c>
-      <c r="F3" t="s">
-        <v>41</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -1346,19 +1382,19 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" t="s">
         <v>45</v>
       </c>
-      <c r="J3" t="s">
-        <v>39</v>
-      </c>
-      <c r="K3" t="s">
-        <v>47</v>
-      </c>
       <c r="L3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -1375,7 +1411,7 @@
         <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -1384,7 +1420,7 @@
         <v>2</v>
       </c>
       <c r="K4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -1401,7 +1437,7 @@
         <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G5">
         <v>3</v>
@@ -1410,7 +1446,7 @@
         <v>3</v>
       </c>
       <c r="K5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -1433,7 +1469,7 @@
         <v>4</v>
       </c>
       <c r="K6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -1456,7 +1492,7 @@
         <v>5</v>
       </c>
       <c r="K7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -1733,64 +1769,64 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="71.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="1" max="1" width="71.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="10" customFormat="1">
       <c r="A1" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="D1" s="10" t="s">
         <v>54</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="10" customFormat="1">
       <c r="A2" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:7">

--- a/IVFmilan/src/main/java/com_Milan_TestData/Milandata.xlsx
+++ b/IVFmilan/src/main/java/com_Milan_TestData/Milandata.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Parag\Git\IVFmilan\src\main\java\com_Milan_TestData\"/>
     </mc:Choice>
@@ -14,14 +14,15 @@
   <sheets>
     <sheet name="LoginPage" sheetId="5" r:id="rId1"/>
     <sheet name="HomePage" sheetId="1" r:id="rId2"/>
-    <sheet name="Addictions" sheetId="6" r:id="rId3"/>
-    <sheet name="Vitals" sheetId="2" r:id="rId4"/>
-    <sheet name="SexualHistory" sheetId="3" r:id="rId5"/>
-    <sheet name="pastMedicationHistory" sheetId="4" r:id="rId6"/>
+    <sheet name="EMRPage" sheetId="7" r:id="rId3"/>
+    <sheet name="Addictions" sheetId="6" r:id="rId4"/>
+    <sheet name="Vitals" sheetId="2" r:id="rId5"/>
+    <sheet name="SexualHistory" sheetId="3" r:id="rId6"/>
+    <sheet name="pastMedicationHistory" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="122">
   <si>
     <t>PatientName</t>
   </si>
@@ -372,10 +373,31 @@
     <t>Donor</t>
   </si>
   <si>
-    <t>All</t>
-  </si>
-  <si>
     <t>Karishma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All </t>
+  </si>
+  <si>
+    <t>EMR Dashboard</t>
+  </si>
+  <si>
+    <t>History</t>
+  </si>
+  <si>
+    <t>Ms.Aarya</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Monica</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
   </si>
 </sst>
 </file>
@@ -434,7 +456,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -454,6 +476,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -742,7 +765,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="40.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="40.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="10" customFormat="1">
@@ -784,16 +807,16 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="48.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="10" customFormat="1">
@@ -809,7 +832,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -840,7 +863,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -884,28 +907,38 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>101</v>
+      <c r="A16" s="1" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="1" t="s">
+    <row r="19" spans="1:1">
+      <c r="A19" s="1" t="s">
         <v>103</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
         <v>106</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -916,157 +949,30 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.7109375" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="13.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="29.85546875" style="15" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="8.85546875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="16384" width="9.140625" style="15" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="14" customFormat="1">
-      <c r="A1" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="G1" s="13" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="H1" s="12" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="H2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>90</v>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -1076,6 +982,167 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="15" width="17.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="15" width="13.7109375" collapsed="true"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" style="15" width="13.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="15" width="10.28515625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="15" width="12.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="15" width="29.85546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="15" width="8.8359375" collapsed="true"/>
+    <col min="9" max="16384" style="15" width="9.140625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="14" customFormat="1">
+      <c r="A1" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="H2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G6"/>
@@ -1086,10 +1153,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="17.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="6" width="12.42578125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="31.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="5" max="6" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="31.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="7" customFormat="1">
@@ -1241,7 +1308,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:O27"/>
@@ -1252,20 +1319,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="24.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="22.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="22.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="24.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="22.5703125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="10" customFormat="1">
@@ -1758,7 +1825,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G13"/>
@@ -1769,10 +1836,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="71.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="71.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="10" customFormat="1">

--- a/IVFmilan/src/main/java/com_Milan_TestData/Milandata.xlsx
+++ b/IVFmilan/src/main/java/com_Milan_TestData/Milandata.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Parag\Git\IVFmilan\src\main\java\com_Milan_TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17520" windowHeight="4590" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17520" windowHeight="4590" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="5" r:id="rId1"/>
@@ -19,10 +19,11 @@
     <sheet name="Vitals" sheetId="2" r:id="rId5"/>
     <sheet name="SexualHistory" sheetId="3" r:id="rId6"/>
     <sheet name="pastMedicationHistory" sheetId="4" r:id="rId7"/>
+    <sheet name="Investigation" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="128">
   <si>
     <t>PatientName</t>
   </si>
@@ -388,16 +389,34 @@
     <t>Ms.Aarya</t>
   </si>
   <si>
+    <t>Search</t>
+  </si>
+  <si>
+    <t>ivf</t>
+  </si>
+  <si>
+    <t>Searchresult</t>
+  </si>
+  <si>
+    <t>465 IVF - 1ST CYCLE PACKAGE</t>
+  </si>
+  <si>
+    <t>469 REF. IVF PACKAGE</t>
+  </si>
+  <si>
+    <t>476 IVF PACKAGE - CYCLE 2 ONWARDS (PER CYCLE)</t>
+  </si>
+  <si>
+    <t>493 IVF DONOR PACKAGE - 1ST CYCLE</t>
+  </si>
+  <si>
+    <t>497 IVF DONOR PACKAGE - CYCLES 2 ONWARDS (PER CYCLE)</t>
+  </si>
+  <si>
     <t>0</t>
   </si>
   <si>
-    <t>Monica</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
+    <t>Nargis</t>
   </si>
 </sst>
 </file>
@@ -765,7 +784,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="40.28515625" collapsed="true"/>
+    <col min="3" max="3" width="40.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="10" customFormat="1">
@@ -815,8 +834,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="48.7109375" collapsed="true"/>
+    <col min="1" max="1" width="37.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="48.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="10" customFormat="1">
@@ -863,7 +882,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -957,7 +976,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -986,19 +1005,19 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="15" width="17.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="15" width="13.7109375" collapsed="true"/>
-    <col min="3" max="4" bestFit="true" customWidth="true" style="15" width="13.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="15" width="10.28515625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="15" width="12.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="15" width="29.85546875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="15" width="8.8359375" collapsed="true"/>
-    <col min="9" max="16384" style="15" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="17.85546875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.7109375" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="13.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="29.85546875" style="15" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="8.85546875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="16384" width="9.140625" style="15" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="14" customFormat="1">
@@ -1050,7 +1069,7 @@
         <v>97</v>
       </c>
       <c r="H2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1153,10 +1172,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" customWidth="true" width="17.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="5" max="6" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="31.85546875" collapsed="true"/>
+    <col min="3" max="3" width="17.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="12.42578125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="31.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="7" customFormat="1">
@@ -1319,20 +1338,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="22.42578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="24.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="23.7109375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="22.5703125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="22.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="12" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="10" customFormat="1">
@@ -1831,15 +1850,15 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="71.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="1" max="1" width="71.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="10" customFormat="1">
@@ -1909,4 +1928,59 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="46.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="10" customFormat="1">
+      <c r="A1" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="B3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="B4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="B5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="B6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/IVFmilan/src/main/java/com_Milan_TestData/Milandata.xlsx
+++ b/IVFmilan/src/main/java/com_Milan_TestData/Milandata.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17520" windowHeight="4590" firstSheet="1" activeTab="1"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="17520" windowHeight="4590" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="5" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="139">
   <si>
     <t>PatientName</t>
   </si>
@@ -398,6 +398,12 @@
     <t>Searchresult</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Nargis</t>
+  </si>
+  <si>
     <t>465 IVF - 1ST CYCLE PACKAGE</t>
   </si>
   <si>
@@ -413,10 +419,37 @@
     <t>497 IVF DONOR PACKAGE - CYCLES 2 ONWARDS (PER CYCLE)</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>Nargis</t>
+    <t>481 OPERATIVEHYSTEROLAPROSCOPY</t>
+  </si>
+  <si>
+    <t>REF. IVF PACKAGE</t>
+  </si>
+  <si>
+    <t>OPU</t>
+  </si>
+  <si>
+    <t>OI</t>
+  </si>
+  <si>
+    <t>FET</t>
+  </si>
+  <si>
+    <t>F-ICSI</t>
+  </si>
+  <si>
+    <t>OR - Linked</t>
+  </si>
+  <si>
+    <t>ER - Linked</t>
+  </si>
+  <si>
+    <t>Oocyte Recipient</t>
+  </si>
+  <si>
+    <t>Fash message</t>
+  </si>
+  <si>
+    <t>You can add only one cycle for same visit.</t>
   </si>
 </sst>
 </file>
@@ -828,8 +861,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -882,7 +915,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1069,7 +1102,7 @@
         <v>97</v>
       </c>
       <c r="H2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1333,7 +1366,7 @@
   <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1734,7 +1767,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1745,7 +1778,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1756,7 +1789,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:7">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1767,7 +1800,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:7">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1778,19 +1811,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:7">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="C21">
         <v>19</v>
       </c>
-      <c r="J21" t="e">
-        <f ca="1">SexualDysfunction(L2,"abcd")</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1798,7 +1827,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:7">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1806,7 +1835,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:7">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1814,7 +1843,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:7">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1822,7 +1851,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:7">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1830,7 +1859,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:7">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1932,51 +1961,92 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="46.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="54.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="10" customFormat="1">
+    <row r="1" spans="1:5" s="10" customFormat="1">
       <c r="A1" s="7" t="s">
         <v>118</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>119</v>
       </c>
       <c r="B2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>123</v>
+      </c>
+      <c r="C2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="B3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>124</v>
+      </c>
+      <c r="C3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="B4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>125</v>
+      </c>
+      <c r="C4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="B5" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>128</v>
+      </c>
+      <c r="C5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="B6" t="s">
-        <v>125</v>
+        <v>126</v>
+      </c>
+      <c r="C6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="B7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="C8" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/IVFmilan/src/main/java/com_Milan_TestData/Milandata.xlsx
+++ b/IVFmilan/src/main/java/com_Milan_TestData/Milandata.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="17520" windowHeight="4590" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17520" windowHeight="4590" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="5" r:id="rId1"/>
@@ -335,9 +335,6 @@
     <t>countNo</t>
   </si>
   <si>
-    <t xml:space="preserve"> Laxmi</t>
-  </si>
-  <si>
     <t>Hema</t>
   </si>
   <si>
@@ -450,6 +447,9 @@
   </si>
   <si>
     <t>You can add only one cycle for same visit.</t>
+  </si>
+  <si>
+    <t>Shaila</t>
   </si>
 </sst>
 </file>
@@ -861,8 +861,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -884,7 +884,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -892,7 +892,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -900,12 +900,12 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -915,12 +915,12 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>100</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -940,7 +940,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -955,42 +955,42 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1019,12 +1019,12 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -1102,7 +1102,7 @@
         <v>97</v>
       </c>
       <c r="H2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1179,7 +1179,7 @@
         <v>95</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E6" s="15" t="s">
         <v>48</v>
@@ -1963,8 +1963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C12:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1977,76 +1977,76 @@
   <sheetData>
     <row r="1" spans="1:5" s="10" customFormat="1">
       <c r="A1" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D1" s="7"/>
       <c r="E1" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="B3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="B4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="B5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="B6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="B7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="C8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/IVFmilan/src/main/java/com_Milan_TestData/Milandata.xlsx
+++ b/IVFmilan/src/main/java/com_Milan_TestData/Milandata.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Parag\Git\IVFmilan\src\main\java\com_Milan_TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17520" windowHeight="4590" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17520" windowHeight="4590" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="5" r:id="rId1"/>
@@ -20,10 +20,20 @@
     <sheet name="SexualHistory" sheetId="3" r:id="rId6"/>
     <sheet name="pastMedicationHistory" sheetId="4" r:id="rId7"/>
     <sheet name="Investigation" sheetId="8" r:id="rId8"/>
+    <sheet name="Investigationlist" sheetId="9" r:id="rId9"/>
   </sheets>
+  <definedNames>
+    <definedName name="ERLinked">Investigation!$I$2:$I$3</definedName>
+    <definedName name="FET">Investigation!$F$2</definedName>
+    <definedName name="IVFPackage">Investigation!$C$2:$C$8</definedName>
+    <definedName name="OI">Investigation!$E$2:$E$4</definedName>
+    <definedName name="Oocyte">Investigation!$J$2</definedName>
+    <definedName name="OPU">Investigation!$D$2:$D$5</definedName>
+    <definedName name="ORLinked">Investigation!$H$2:$H$5</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -31,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="153">
   <si>
     <t>PatientName</t>
   </si>
@@ -419,9 +429,6 @@
     <t>481 OPERATIVEHYSTEROLAPROSCOPY</t>
   </si>
   <si>
-    <t>REF. IVF PACKAGE</t>
-  </si>
-  <si>
     <t>OPU</t>
   </si>
   <si>
@@ -450,6 +457,51 @@
   </si>
   <si>
     <t>Shaila</t>
+  </si>
+  <si>
+    <t>ICSI</t>
+  </si>
+  <si>
+    <t>IVF</t>
+  </si>
+  <si>
+    <t>IVF-ICSI</t>
+  </si>
+  <si>
+    <t>IUI</t>
+  </si>
+  <si>
+    <t>IUI (D)</t>
+  </si>
+  <si>
+    <t>TI</t>
+  </si>
+  <si>
+    <t>IVF PACKAGE</t>
+  </si>
+  <si>
+    <t>DF-ICSI</t>
+  </si>
+  <si>
+    <t>Fresh Transfer</t>
+  </si>
+  <si>
+    <t>List1</t>
+  </si>
+  <si>
+    <t>List2</t>
+  </si>
+  <si>
+    <t>IVF PACKAG Count</t>
+  </si>
+  <si>
+    <t>Oocyte Freezing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F-ICSI </t>
+  </si>
+  <si>
+    <t>8</t>
   </si>
 </sst>
 </file>
@@ -809,6 +861,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -817,7 +870,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="40.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="40.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="10" customFormat="1">
@@ -861,14 +914,14 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="48.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="48.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="10" customFormat="1">
@@ -920,7 +973,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1001,6 +1054,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1009,7 +1063,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1035,6 +1089,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1043,14 +1098,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.7109375" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="13.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="29.85546875" style="15" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="8.85546875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="16384" width="9.140625" style="15" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="15" width="17.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="15" width="13.7109375" collapsed="true"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" style="15" width="13.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="15" width="10.28515625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="15" width="12.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="15" width="29.85546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="15" width="8.85546875" collapsed="true"/>
+    <col min="9" max="16384" style="15" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="14" customFormat="1">
@@ -1205,10 +1260,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="17.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="6" width="12.42578125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="31.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="5" max="6" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="31.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="7" customFormat="1">
@@ -1371,20 +1426,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="24.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="22.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="22.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="24.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="22.5703125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="10" customFormat="1">
@@ -1884,10 +1939,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="71.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="71.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="10" customFormat="1">
@@ -1961,21 +2016,23 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <sheetPr codeName="Sheet8"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C12:C13"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="54.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="54.28515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="4" max="10" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="17.875" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="38.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="10" customFormat="1">
+    <row r="1" spans="1:12" s="10" customFormat="1">
       <c r="A1" s="7" t="s">
         <v>117</v>
       </c>
@@ -1983,14 +2040,37 @@
         <v>119</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="D1" s="7"/>
       <c r="E1" s="7" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>129</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>118</v>
       </c>
@@ -1998,59 +2078,187 @@
         <v>122</v>
       </c>
       <c r="C2" t="s">
-        <v>129</v>
+        <v>128</v>
+      </c>
+      <c r="D2" t="s">
+        <v>138</v>
       </c>
       <c r="E2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>141</v>
+      </c>
+      <c r="F2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G2" t="s">
+        <v>131</v>
+      </c>
+      <c r="H2" t="s">
+        <v>145</v>
+      </c>
+      <c r="I2" t="s">
+        <v>130</v>
+      </c>
+      <c r="J2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K2" t="s">
+        <v>152</v>
+      </c>
+      <c r="L2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="B3" t="s">
         <v>123</v>
       </c>
       <c r="C3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>129</v>
+      </c>
+      <c r="D3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E3" t="s">
+        <v>142</v>
+      </c>
+      <c r="H3" t="s">
+        <v>138</v>
+      </c>
+      <c r="I3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="B4" t="s">
         <v>124</v>
       </c>
       <c r="C4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>130</v>
+      </c>
+      <c r="D4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E4" t="s">
+        <v>143</v>
+      </c>
+      <c r="H4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="B5" t="s">
         <v>127</v>
       </c>
       <c r="C5" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>151</v>
+      </c>
+      <c r="D5" t="s">
+        <v>150</v>
+      </c>
+      <c r="H5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="B6" t="s">
         <v>125</v>
       </c>
       <c r="C6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="B7" t="s">
         <v>126</v>
       </c>
       <c r="C7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="C8" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="C8" t="s">
-        <v>135</v>
-      </c>
-    </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10">
+      <formula1>"package+$A$10"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A11">
+      <formula1>IVFPackage</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B8">
+      <formula1>INDIRECT($A2)</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/IVFmilan/src/main/java/com_Milan_TestData/Milandata.xlsx
+++ b/IVFmilan/src/main/java/com_Milan_TestData/Milandata.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Parag\Git\IVFmilan\src\main\java\com_Milan_TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17520" windowHeight="4590" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17520" windowHeight="4590" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="5" r:id="rId1"/>
@@ -33,7 +33,7 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="155">
   <si>
     <t>PatientName</t>
   </si>
@@ -456,9 +456,6 @@
     <t>You can add only one cycle for same visit.</t>
   </si>
   <si>
-    <t>Shaila</t>
-  </si>
-  <si>
     <t>ICSI</t>
   </si>
   <si>
@@ -502,6 +499,15 @@
   </si>
   <si>
     <t>8</t>
+  </si>
+  <si>
+    <t>Record saved successfully</t>
+  </si>
+  <si>
+    <t>Laxmi</t>
+  </si>
+  <si>
+    <t>Ms.Nargis</t>
   </si>
 </sst>
 </file>
@@ -870,7 +876,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="40.28515625" collapsed="true"/>
+    <col min="3" max="3" width="40.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="10" customFormat="1">
@@ -912,16 +918,16 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="48.7109375" collapsed="true"/>
+    <col min="1" max="1" width="37.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="48.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="10" customFormat="1">
@@ -967,13 +973,13 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
-        <v>121</v>
+      <c r="A7" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
-        <v>137</v>
+      <c r="A8" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1013,7 +1019,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>116</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:1">
@@ -1023,7 +1029,7 @@
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:1">
@@ -1044,6 +1050,11 @@
     <row r="22" spans="1:1">
       <c r="A22" t="s">
         <v>112</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -1063,7 +1074,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1098,14 +1109,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="15" width="17.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="15" width="13.7109375" collapsed="true"/>
-    <col min="3" max="4" bestFit="true" customWidth="true" style="15" width="13.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="15" width="10.28515625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="15" width="12.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="15" width="29.85546875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="15" width="8.85546875" collapsed="true"/>
-    <col min="9" max="16384" style="15" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="17.85546875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.7109375" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="13.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="29.85546875" style="15" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="8.85546875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="16384" width="9.140625" style="15" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="14" customFormat="1">
@@ -1260,10 +1271,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" customWidth="true" width="17.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="5" max="6" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="31.85546875" collapsed="true"/>
+    <col min="3" max="3" width="17.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="12.42578125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="31.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="7" customFormat="1">
@@ -1426,20 +1437,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="22.42578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="24.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="23.7109375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="22.5703125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="22.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="12" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="10" customFormat="1">
@@ -1939,10 +1950,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="71.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="1" max="1" width="71.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="10" customFormat="1">
@@ -2019,17 +2030,17 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="54.28515625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="4" max="10" customWidth="true" width="17.42578125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="17.875" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="38.28515625" collapsed="true"/>
+    <col min="2" max="2" width="54.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="10" width="17.42578125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="38.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="10" customFormat="1">
@@ -2040,7 +2051,7 @@
         <v>119</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>128</v>
@@ -2064,7 +2075,7 @@
         <v>134</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L1" s="7" t="s">
         <v>135</v>
@@ -2081,10 +2092,10 @@
         <v>128</v>
       </c>
       <c r="D2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F2" t="s">
         <v>130</v>
@@ -2093,7 +2104,7 @@
         <v>131</v>
       </c>
       <c r="H2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I2" t="s">
         <v>130</v>
@@ -2102,10 +2113,10 @@
         <v>131</v>
       </c>
       <c r="K2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L2" t="s">
         <v>152</v>
-      </c>
-      <c r="L2" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2116,16 +2127,19 @@
         <v>129</v>
       </c>
       <c r="D3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I3" t="s">
-        <v>146</v>
+        <v>145</v>
+      </c>
+      <c r="L3" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2136,13 +2150,13 @@
         <v>130</v>
       </c>
       <c r="D4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2150,13 +2164,13 @@
         <v>127</v>
       </c>
       <c r="C5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -2201,15 +2215,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>147</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2217,7 +2231,7 @@
         <v>128</v>
       </c>
       <c r="B2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:2">

--- a/IVFmilan/src/main/java/com_Milan_TestData/Milandata.xlsx
+++ b/IVFmilan/src/main/java/com_Milan_TestData/Milandata.xlsx
@@ -21,6 +21,7 @@
     <sheet name="pastMedicationHistory" sheetId="4" r:id="rId7"/>
     <sheet name="Investigation" sheetId="8" r:id="rId8"/>
     <sheet name="Investigationlist" sheetId="9" r:id="rId9"/>
+    <sheet name="Allergies" sheetId="10" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="ERLinked">Investigation!$I$2:$I$3</definedName>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="158">
   <si>
     <t>PatientName</t>
   </si>
@@ -354,160 +355,169 @@
     <t>Teena </t>
   </si>
   <si>
+    <t>Smita</t>
+  </si>
+  <si>
+    <t>Shyamli</t>
+  </si>
+  <si>
+    <t>Geeta</t>
+  </si>
+  <si>
+    <t>Mr.Laxmi Date</t>
+  </si>
+  <si>
+    <t>Mitali</t>
+  </si>
+  <si>
+    <t>RadioButtons</t>
+  </si>
+  <si>
+    <t>Couple</t>
+  </si>
+  <si>
+    <t>Donor</t>
+  </si>
+  <si>
+    <t>Karishma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All </t>
+  </si>
+  <si>
+    <t>EMR Dashboard</t>
+  </si>
+  <si>
+    <t>History</t>
+  </si>
+  <si>
+    <t>Ms.Aarya</t>
+  </si>
+  <si>
+    <t>Search</t>
+  </si>
+  <si>
+    <t>ivf</t>
+  </si>
+  <si>
+    <t>Searchresult</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Nargis</t>
+  </si>
+  <si>
+    <t>465 IVF - 1ST CYCLE PACKAGE</t>
+  </si>
+  <si>
+    <t>469 REF. IVF PACKAGE</t>
+  </si>
+  <si>
+    <t>476 IVF PACKAGE - CYCLE 2 ONWARDS (PER CYCLE)</t>
+  </si>
+  <si>
+    <t>493 IVF DONOR PACKAGE - 1ST CYCLE</t>
+  </si>
+  <si>
+    <t>497 IVF DONOR PACKAGE - CYCLES 2 ONWARDS (PER CYCLE)</t>
+  </si>
+  <si>
+    <t>OPU</t>
+  </si>
+  <si>
+    <t>OI</t>
+  </si>
+  <si>
+    <t>FET</t>
+  </si>
+  <si>
+    <t>F-ICSI</t>
+  </si>
+  <si>
+    <t>OR - Linked</t>
+  </si>
+  <si>
+    <t>ER - Linked</t>
+  </si>
+  <si>
+    <t>Oocyte Recipient</t>
+  </si>
+  <si>
+    <t>Fash message</t>
+  </si>
+  <si>
+    <t>You can add only one cycle for same visit.</t>
+  </si>
+  <si>
+    <t>ICSI</t>
+  </si>
+  <si>
+    <t>IVF</t>
+  </si>
+  <si>
+    <t>IVF-ICSI</t>
+  </si>
+  <si>
+    <t>IUI</t>
+  </si>
+  <si>
+    <t>IUI (D)</t>
+  </si>
+  <si>
+    <t>TI</t>
+  </si>
+  <si>
+    <t>IVF PACKAGE</t>
+  </si>
+  <si>
+    <t>DF-ICSI</t>
+  </si>
+  <si>
+    <t>Fresh Transfer</t>
+  </si>
+  <si>
+    <t>List1</t>
+  </si>
+  <si>
+    <t>List2</t>
+  </si>
+  <si>
+    <t>IVF PACKAG Count</t>
+  </si>
+  <si>
+    <t>Oocyte Freezing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F-ICSI </t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>Record saved successfully</t>
+  </si>
+  <si>
+    <t>Laxmi</t>
+  </si>
+  <si>
+    <t>Ms.Nargis</t>
+  </si>
+  <si>
+    <t>504 IVF SURROGACY PACKAGE</t>
+  </si>
+  <si>
+    <t>,17 BETAESTRADIOL,foodAllergy,SkinAllergy,smokeAllergy</t>
+  </si>
+  <si>
+    <t>Nandita</t>
+  </si>
+  <si>
+    <t>Allergies</t>
+  </si>
+  <si>
     <t>Shilpa</t>
-  </si>
-  <si>
-    <t>Smita</t>
-  </si>
-  <si>
-    <t>Shyamli</t>
-  </si>
-  <si>
-    <t>Geeta</t>
-  </si>
-  <si>
-    <t>Mr.Laxmi Date</t>
-  </si>
-  <si>
-    <t>Mitali</t>
-  </si>
-  <si>
-    <t>RadioButtons</t>
-  </si>
-  <si>
-    <t>Couple</t>
-  </si>
-  <si>
-    <t>Donor</t>
-  </si>
-  <si>
-    <t>Karishma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All </t>
-  </si>
-  <si>
-    <t>EMR Dashboard</t>
-  </si>
-  <si>
-    <t>History</t>
-  </si>
-  <si>
-    <t>Ms.Aarya</t>
-  </si>
-  <si>
-    <t>Search</t>
-  </si>
-  <si>
-    <t>ivf</t>
-  </si>
-  <si>
-    <t>Searchresult</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>Nargis</t>
-  </si>
-  <si>
-    <t>465 IVF - 1ST CYCLE PACKAGE</t>
-  </si>
-  <si>
-    <t>469 REF. IVF PACKAGE</t>
-  </si>
-  <si>
-    <t>476 IVF PACKAGE - CYCLE 2 ONWARDS (PER CYCLE)</t>
-  </si>
-  <si>
-    <t>493 IVF DONOR PACKAGE - 1ST CYCLE</t>
-  </si>
-  <si>
-    <t>497 IVF DONOR PACKAGE - CYCLES 2 ONWARDS (PER CYCLE)</t>
-  </si>
-  <si>
-    <t>481 OPERATIVEHYSTEROLAPROSCOPY</t>
-  </si>
-  <si>
-    <t>OPU</t>
-  </si>
-  <si>
-    <t>OI</t>
-  </si>
-  <si>
-    <t>FET</t>
-  </si>
-  <si>
-    <t>F-ICSI</t>
-  </si>
-  <si>
-    <t>OR - Linked</t>
-  </si>
-  <si>
-    <t>ER - Linked</t>
-  </si>
-  <si>
-    <t>Oocyte Recipient</t>
-  </si>
-  <si>
-    <t>Fash message</t>
-  </si>
-  <si>
-    <t>You can add only one cycle for same visit.</t>
-  </si>
-  <si>
-    <t>ICSI</t>
-  </si>
-  <si>
-    <t>IVF</t>
-  </si>
-  <si>
-    <t>IVF-ICSI</t>
-  </si>
-  <si>
-    <t>IUI</t>
-  </si>
-  <si>
-    <t>IUI (D)</t>
-  </si>
-  <si>
-    <t>TI</t>
-  </si>
-  <si>
-    <t>IVF PACKAGE</t>
-  </si>
-  <si>
-    <t>DF-ICSI</t>
-  </si>
-  <si>
-    <t>Fresh Transfer</t>
-  </si>
-  <si>
-    <t>List1</t>
-  </si>
-  <si>
-    <t>List2</t>
-  </si>
-  <si>
-    <t>IVF PACKAG Count</t>
-  </si>
-  <si>
-    <t>Oocyte Freezing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F-ICSI </t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>Record saved successfully</t>
-  </si>
-  <si>
-    <t>Laxmi</t>
-  </si>
-  <si>
-    <t>Ms.Nargis</t>
   </si>
 </sst>
 </file>
@@ -566,7 +576,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -587,6 +597,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -915,13 +926,50 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="5" max="5" width="53.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="4:5">
+      <c r="D1" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="4:5">
+      <c r="E2" s="18" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="4:5">
+      <c r="E3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -935,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -943,7 +991,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -951,7 +999,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -959,12 +1007,12 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -973,13 +1021,16 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>103</v>
+      <c r="A7" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B7" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -999,7 +1050,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1014,12 +1065,12 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:1">
@@ -1029,7 +1080,7 @@
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:1">
@@ -1039,22 +1090,22 @@
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -1084,12 +1135,12 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -1168,7 +1219,7 @@
         <v>97</v>
       </c>
       <c r="H2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2036,7 +2087,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="54.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="55" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="10" width="17.42578125" customWidth="1" collapsed="1"/>
     <col min="11" max="11" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
@@ -2045,132 +2096,132 @@
   <sheetData>
     <row r="1" spans="1:12" s="10" customFormat="1">
       <c r="A1" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D1" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="K1" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="L1" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F2" t="s">
         <v>128</v>
       </c>
-      <c r="D2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E2" t="s">
-        <v>140</v>
-      </c>
-      <c r="F2" t="s">
-        <v>130</v>
-      </c>
       <c r="G2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="L2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="B3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="L3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="B4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="B5" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -2178,20 +2229,20 @@
         <v>125</v>
       </c>
       <c r="C6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="B7" t="s">
-        <v>126</v>
+        <v>153</v>
       </c>
       <c r="C7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="C8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -2220,48 +2271,48 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>

--- a/IVFmilan/src/main/java/com_Milan_TestData/Milandata.xlsx
+++ b/IVFmilan/src/main/java/com_Milan_TestData/Milandata.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Parag\Git\IVFmilan\src\main\java\com_Milan_TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17520" windowHeight="4590" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17520" windowHeight="4590" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="5" r:id="rId1"/>
@@ -34,7 +34,7 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="158">
   <si>
     <t>PatientName</t>
   </si>
@@ -382,9 +382,6 @@
     <t>Karishma</t>
   </si>
   <si>
-    <t xml:space="preserve">All </t>
-  </si>
-  <si>
     <t>EMR Dashboard</t>
   </si>
   <si>
@@ -502,9 +499,6 @@
     <t>Laxmi</t>
   </si>
   <si>
-    <t>Ms.Nargis</t>
-  </si>
-  <si>
     <t>504 IVF SURROGACY PACKAGE</t>
   </si>
   <si>
@@ -517,7 +511,13 @@
     <t>Allergies</t>
   </si>
   <si>
-    <t>Shilpa</t>
+    <t>Ms.Nandita</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>526 IVF - 1ST CYCLE - International Package - OMAN</t>
   </si>
 </sst>
 </file>
@@ -887,7 +887,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="40.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="40.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="10" customFormat="1">
@@ -936,12 +936,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="5" max="5" width="53.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="53.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="4:5">
       <c r="D1" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>68</v>
@@ -954,7 +954,7 @@
     </row>
     <row r="3" spans="4:5">
       <c r="E3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -968,14 +968,14 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="48.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="48.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="10" customFormat="1">
@@ -991,7 +991,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>112</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1021,16 +1021,13 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B7" t="s">
-        <v>155</v>
+      <c r="A7" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1070,7 +1067,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17" spans="1:1">
@@ -1080,7 +1077,7 @@
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:1">
@@ -1105,7 +1102,7 @@
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -1125,7 +1122,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1135,12 +1132,12 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1160,14 +1157,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.7109375" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="13.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="29.85546875" style="15" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="8.85546875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="16384" width="9.140625" style="15" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="15" width="17.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="15" width="13.7109375" collapsed="true"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" style="15" width="13.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="15" width="10.28515625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="15" width="12.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="15" width="29.85546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="15" width="8.85546875" collapsed="true"/>
+    <col min="9" max="16384" style="15" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="14" customFormat="1">
@@ -1219,7 +1216,7 @@
         <v>97</v>
       </c>
       <c r="H2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1317,15 +1314,15 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="17.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="6" width="12.42578125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="31.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="5" max="6" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="31.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="7" customFormat="1">
@@ -1488,20 +1485,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="24.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="22.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="22.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="24.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="22.5703125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="10" customFormat="1">
@@ -2001,10 +1998,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="71.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="71.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="10" customFormat="1">
@@ -2081,168 +2078,171 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="55" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="10" width="17.42578125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="38.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="55.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="4" max="10" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="17.875" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="38.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="10" customFormat="1">
       <c r="A1" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D1" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L1" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G2" t="s">
         <v>128</v>
       </c>
-      <c r="G2" t="s">
-        <v>129</v>
-      </c>
       <c r="H2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I2" t="s">
+        <v>127</v>
+      </c>
+      <c r="J2" t="s">
         <v>128</v>
       </c>
-      <c r="J2" t="s">
-        <v>129</v>
-      </c>
       <c r="K2" t="s">
+        <v>148</v>
+      </c>
+      <c r="L2" t="s">
         <v>149</v>
-      </c>
-      <c r="L2" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="B3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="B4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="B5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="B6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="B7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="B8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C8" t="s">
         <v>131</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="C8" t="s">
-        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -2266,53 +2266,53 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>144</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>

--- a/IVFmilan/src/main/java/com_Milan_TestData/Milandata.xlsx
+++ b/IVFmilan/src/main/java/com_Milan_TestData/Milandata.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="158">
   <si>
     <t>PatientName</t>
   </si>
@@ -1998,7 +1998,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="71.7109375" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="71.66796875" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>

--- a/IVFmilan/src/main/java/com_Milan_TestData/Milandata.xlsx
+++ b/IVFmilan/src/main/java/com_Milan_TestData/Milandata.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17520" windowHeight="4590" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17520" windowHeight="4590" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="5" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="159">
   <si>
     <t>PatientName</t>
   </si>
@@ -442,9 +442,6 @@
     <t>Oocyte Recipient</t>
   </si>
   <si>
-    <t>Fash message</t>
-  </si>
-  <si>
     <t>You can add only one cycle for same visit.</t>
   </si>
   <si>
@@ -493,9 +490,6 @@
     <t>8</t>
   </si>
   <si>
-    <t>Record saved successfully</t>
-  </si>
-  <si>
     <t>Laxmi</t>
   </si>
   <si>
@@ -505,9 +499,6 @@
     <t>,17 BETAESTRADIOL,foodAllergy,SkinAllergy,smokeAllergy</t>
   </si>
   <si>
-    <t>Nandita</t>
-  </si>
-  <si>
     <t>Allergies</t>
   </si>
   <si>
@@ -518,6 +509,18 @@
   </si>
   <si>
     <t>526 IVF - 1ST CYCLE - International Package - OMAN</t>
+  </si>
+  <si>
+    <t>Fashmessage</t>
+  </si>
+  <si>
+    <t>Record saved successfully.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geeta </t>
+  </si>
+  <si>
+    <t>Record deleted successfully.</t>
   </si>
 </sst>
 </file>
@@ -941,7 +944,7 @@
   <sheetData>
     <row r="1" spans="4:5">
       <c r="D1" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>68</v>
@@ -954,7 +957,7 @@
     </row>
     <row r="3" spans="4:5">
       <c r="E3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -969,7 +972,7 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -991,7 +994,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1022,12 +1025,12 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>153</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1067,12 +1070,12 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>100</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18" spans="1:1">
@@ -1998,7 +2001,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="71.66796875" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="71.7109375" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
@@ -2078,8 +2081,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2099,7 +2102,7 @@
         <v>117</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>125</v>
@@ -2123,10 +2126,10 @@
         <v>131</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>132</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -2140,10 +2143,10 @@
         <v>125</v>
       </c>
       <c r="D2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F2" t="s">
         <v>127</v>
@@ -2152,7 +2155,7 @@
         <v>128</v>
       </c>
       <c r="H2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I2" t="s">
         <v>127</v>
@@ -2161,10 +2164,10 @@
         <v>128</v>
       </c>
       <c r="K2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L2" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2175,19 +2178,19 @@
         <v>126</v>
       </c>
       <c r="D3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2198,13 +2201,16 @@
         <v>127</v>
       </c>
       <c r="D4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H4" t="s">
-        <v>135</v>
+        <v>134</v>
+      </c>
+      <c r="L4" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2212,13 +2218,13 @@
         <v>123</v>
       </c>
       <c r="C5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -2231,7 +2237,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="B7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C7" t="s">
         <v>130</v>
@@ -2239,7 +2245,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="B8" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C8" t="s">
         <v>131</v>
@@ -2261,7 +2267,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2271,10 +2277,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>143</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2282,7 +2288,7 @@
         <v>125</v>
       </c>
       <c r="B2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:2">

--- a/IVFmilan/src/main/java/com_Milan_TestData/Milandata.xlsx
+++ b/IVFmilan/src/main/java/com_Milan_TestData/Milandata.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="159">
   <si>
     <t>PatientName</t>
   </si>

--- a/IVFmilan/src/main/java/com_Milan_TestData/Milandata.xlsx
+++ b/IVFmilan/src/main/java/com_Milan_TestData/Milandata.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Parag\Git\IVFmilan\src\main\java\com_Milan_TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17520" windowHeight="4590" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17520" windowHeight="4590" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="5" r:id="rId1"/>
@@ -20,8 +20,9 @@
     <sheet name="SexualHistory" sheetId="3" r:id="rId6"/>
     <sheet name="pastMedicationHistory" sheetId="4" r:id="rId7"/>
     <sheet name="Investigation" sheetId="8" r:id="rId8"/>
-    <sheet name="Investigationlist" sheetId="9" r:id="rId9"/>
-    <sheet name="Allergies" sheetId="10" r:id="rId10"/>
+    <sheet name="CycleList" sheetId="11" r:id="rId9"/>
+    <sheet name="Investigationlist" sheetId="9" r:id="rId10"/>
+    <sheet name="Allergies" sheetId="10" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="ERLinked">Investigation!$I$2:$I$3</definedName>
@@ -34,7 +35,7 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="160">
   <si>
     <t>PatientName</t>
   </si>
@@ -521,6 +522,9 @@
   </si>
   <si>
     <t>Record deleted successfully.</t>
+  </si>
+  <si>
+    <t>ListTitle</t>
   </si>
 </sst>
 </file>
@@ -890,7 +894,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="40.28515625" collapsed="true"/>
+    <col min="3" max="3" width="40.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="10" customFormat="1">
@@ -930,6 +934,78 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A11">
+      <formula1>IVFPackage</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B8">
+      <formula1>INDIRECT($A2)</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D1:E3"/>
   <sheetViews>
@@ -939,7 +1015,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="53.7109375" collapsed="true"/>
+    <col min="5" max="5" width="53.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="4:5">
@@ -977,8 +1053,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="48.7109375" collapsed="true"/>
+    <col min="1" max="1" width="37.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="48.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="10" customFormat="1">
@@ -1125,7 +1201,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1160,14 +1236,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="15" width="17.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="15" width="13.7109375" collapsed="true"/>
-    <col min="3" max="4" bestFit="true" customWidth="true" style="15" width="13.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="15" width="10.28515625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="15" width="12.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="15" width="29.85546875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="15" width="8.85546875" collapsed="true"/>
-    <col min="9" max="16384" style="15" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="17.85546875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.7109375" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="13.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="29.85546875" style="15" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="8.85546875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="16384" width="9.140625" style="15" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="14" customFormat="1">
@@ -1322,10 +1398,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" customWidth="true" width="17.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="5" max="6" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="31.85546875" collapsed="true"/>
+    <col min="3" max="3" width="17.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="12.42578125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="31.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="7" customFormat="1">
@@ -1482,26 +1558,26 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="22.42578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="24.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="23.7109375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="22.5703125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="22.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="12" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="10" customFormat="1">
@@ -1552,16 +1628,16 @@
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2">
+      <c r="A2" s="2">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>0</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>0</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>0</v>
       </c>
       <c r="E2" t="s">
@@ -1570,10 +1646,10 @@
       <c r="F2" t="s">
         <v>38</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="2">
         <v>0</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="2">
         <v>0</v>
       </c>
       <c r="I2" t="s">
@@ -1593,16 +1669,16 @@
       </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>1</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>1</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>1</v>
       </c>
       <c r="E3" t="s">
@@ -1611,10 +1687,10 @@
       <c r="F3" t="s">
         <v>39</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="2">
         <v>1</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="2">
         <v>1</v>
       </c>
       <c r="I3" t="s">
@@ -1634,25 +1710,25 @@
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>2</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>2</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>2</v>
       </c>
       <c r="F4" t="s">
         <v>40</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="2">
         <v>2</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="2">
         <v>2</v>
       </c>
       <c r="K4" t="s">
@@ -1660,25 +1736,25 @@
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>3</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>3</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>3</v>
       </c>
       <c r="F5" t="s">
         <v>41</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="2">
         <v>3</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="2">
         <v>3</v>
       </c>
       <c r="K5" t="s">
@@ -1686,22 +1762,22 @@
       </c>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>4</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>4</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>4</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="2">
         <v>4</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="2">
         <v>4</v>
       </c>
       <c r="K6" t="s">
@@ -1709,22 +1785,22 @@
       </c>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7">
+      <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>5</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>5</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>5</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="2">
         <v>5</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="2">
         <v>5</v>
       </c>
       <c r="K7" t="s">
@@ -1732,255 +1808,255 @@
       </c>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8">
+      <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <v>6</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <v>6</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <v>6</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="2">
         <v>6</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="2">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9">
+      <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2">
         <v>7</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
         <v>7</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="2">
         <v>7</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="2">
         <v>7</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="2">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10">
+      <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="2">
         <v>8</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="2">
         <v>8</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="2">
         <v>8</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="2">
         <v>8</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="2">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11">
+      <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="2">
         <v>9</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="2">
         <v>9</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="2">
         <v>9</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="2">
         <v>9</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12">
+      <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="2">
         <v>10</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="2">
         <v>10</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="2">
         <v>10</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="2">
         <v>10</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="2">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13">
+      <c r="A13" s="2">
         <v>11</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="2">
         <v>11</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="2">
         <v>11</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="2">
         <v>11</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="2">
         <v>11</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="2">
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14">
+      <c r="A14" s="2">
         <v>12</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="2">
         <v>12</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="2">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15">
+      <c r="A15" s="2">
         <v>13</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="2">
         <v>13</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="2">
         <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16">
+      <c r="A16" s="2">
         <v>14</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="2">
         <v>14</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="2">
         <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17">
+      <c r="A17" s="2">
         <v>15</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="2">
         <v>15</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="2">
         <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18">
+      <c r="A18" s="2">
         <v>16</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="2">
         <v>16</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19">
+      <c r="A19" s="2">
         <v>17</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="2">
         <v>17</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="2">
         <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20">
+      <c r="A20" s="2">
         <v>18</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="2">
         <v>18</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="2">
         <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21">
+      <c r="A21" s="2">
         <v>19</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="2">
         <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22">
+      <c r="A22" s="2">
         <v>20</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="2">
         <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23">
+      <c r="A23" s="2">
         <v>21</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="2">
         <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24">
+      <c r="A24" s="2">
         <v>22</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="2">
         <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25">
+      <c r="A25" s="2">
         <v>23</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="2">
         <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26">
+      <c r="A26" s="2">
         <v>24</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="2">
         <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27">
+      <c r="A27" s="2">
         <v>25</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="2">
         <v>25</v>
       </c>
     </row>
@@ -2001,10 +2077,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="71.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="1" max="1" width="71.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="10" customFormat="1">
@@ -2081,17 +2157,17 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="55.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="4" max="10" customWidth="true" width="17.42578125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="17.875" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="38.28515625" collapsed="true"/>
+    <col min="2" max="2" width="55" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="10" width="17.42578125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="38.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="10" customFormat="1">
@@ -2264,72 +2340,21 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>131</v>
+    <row r="1" spans="1:1">
+      <c r="A1" s="7" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A11">
-      <formula1>IVFPackage</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B8">
-      <formula1>INDIRECT($A2)</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/IVFmilan/src/main/java/com_Milan_TestData/Milandata.xlsx
+++ b/IVFmilan/src/main/java/com_Milan_TestData/Milandata.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Parag\Git\IVFmilan\src\main\java\com_Milan_TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17520" windowHeight="4590" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17520" windowHeight="4590" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="5" r:id="rId1"/>
@@ -35,7 +35,7 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="161">
   <si>
     <t>PatientName</t>
   </si>
@@ -347,9 +347,6 @@
     <t>countNo</t>
   </si>
   <si>
-    <t>Hema</t>
-  </si>
-  <si>
     <t>20</t>
   </si>
   <si>
@@ -525,6 +522,12 @@
   </si>
   <si>
     <t>ListTitle</t>
+  </si>
+  <si>
+    <t>sudha</t>
+  </si>
+  <si>
+    <t>Aradhya</t>
   </si>
 </sst>
 </file>
@@ -534,7 +537,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -555,6 +558,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF545454"/>
+      <name val="Open_sansregular"/>
     </font>
   </fonts>
   <fills count="3">
@@ -583,7 +591,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -605,6 +613,7 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -894,7 +903,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="40.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="40.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="10" customFormat="1">
@@ -943,53 +952,53 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>142</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -1015,12 +1024,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="5" max="5" width="53.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="53.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="4:5">
       <c r="D1" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>68</v>
@@ -1033,7 +1042,7 @@
     </row>
     <row r="3" spans="4:5">
       <c r="E3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -1045,16 +1054,16 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="48.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="48.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="10" customFormat="1">
@@ -1062,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1070,7 +1079,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1078,7 +1087,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1086,12 +1095,12 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1100,13 +1109,13 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>100</v>
+      <c r="A7" s="19" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1126,7 +1135,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1141,47 +1150,52 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>114</v>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -1201,7 +1215,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1211,12 +1225,12 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -1236,14 +1250,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.7109375" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="13.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="29.85546875" style="15" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="8.85546875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="16384" width="9.140625" style="15" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="15" width="17.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="15" width="13.7109375" collapsed="true"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" style="15" width="13.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="15" width="10.28515625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="15" width="12.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="15" width="29.85546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="15" width="8.85546875" collapsed="true"/>
+    <col min="9" max="16384" style="15" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="14" customFormat="1">
@@ -1295,7 +1309,7 @@
         <v>97</v>
       </c>
       <c r="H2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1372,7 +1386,7 @@
         <v>95</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E6" s="15" t="s">
         <v>48</v>
@@ -1398,10 +1412,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="17.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="6" width="12.42578125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="31.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="5" max="6" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="31.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="7" customFormat="1">
@@ -1558,26 +1572,26 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="24.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="22.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="22.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="24.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="22.5703125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="10" customFormat="1">
@@ -2077,10 +2091,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="71.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="71.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="10" customFormat="1">
@@ -2163,168 +2177,168 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="55" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="10" width="17.42578125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="38.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="55.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="4" max="10" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="17.875" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="38.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="10" customFormat="1">
       <c r="A1" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D1" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="J1" s="7" t="s">
-        <v>131</v>
-      </c>
       <c r="K1" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G2" t="s">
         <v>127</v>
       </c>
-      <c r="G2" t="s">
-        <v>128</v>
-      </c>
       <c r="H2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I2" t="s">
+        <v>126</v>
+      </c>
+      <c r="J2" t="s">
         <v>127</v>
       </c>
-      <c r="J2" t="s">
-        <v>128</v>
-      </c>
       <c r="K2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="B3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="B4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="B5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="B6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="B7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="B8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -2350,7 +2364,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>

--- a/IVFmilan/src/main/java/com_Milan_TestData/Milandata.xlsx
+++ b/IVFmilan/src/main/java/com_Milan_TestData/Milandata.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Parag\Git\IVFmilan\src\main\java\com_Milan_TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17520" windowHeight="4590" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17520" windowHeight="4590" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="5" r:id="rId1"/>
@@ -35,7 +35,7 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="162">
   <si>
     <t>PatientName</t>
   </si>
@@ -528,6 +528,9 @@
   </si>
   <si>
     <t>Aradhya</t>
+  </si>
+  <si>
+    <t>Cycle List</t>
   </si>
 </sst>
 </file>
@@ -903,7 +906,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="40.28515625" collapsed="true"/>
+    <col min="3" max="3" width="40.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="10" customFormat="1">
@@ -952,7 +955,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1024,7 +1027,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="53.7109375" collapsed="true"/>
+    <col min="5" max="5" width="53.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="4:5">
@@ -1056,14 +1059,14 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="48.7109375" collapsed="true"/>
+    <col min="1" max="1" width="37.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="48.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="10" customFormat="1">
@@ -1215,7 +1218,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1250,14 +1253,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="15" width="17.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="15" width="13.7109375" collapsed="true"/>
-    <col min="3" max="4" bestFit="true" customWidth="true" style="15" width="13.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="15" width="10.28515625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="15" width="12.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="15" width="29.85546875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="15" width="8.85546875" collapsed="true"/>
-    <col min="9" max="16384" style="15" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="17.85546875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.7109375" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="13.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="29.85546875" style="15" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="8.85546875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="16384" width="9.140625" style="15" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="14" customFormat="1">
@@ -1412,10 +1415,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" customWidth="true" width="17.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="5" max="6" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="31.85546875" collapsed="true"/>
+    <col min="3" max="3" width="17.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="12.42578125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="31.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="7" customFormat="1">
@@ -1578,20 +1581,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="22.42578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="24.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="23.7109375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="22.5703125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="22.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="12" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="10" customFormat="1">
@@ -2091,10 +2094,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="71.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="1" max="1" width="71.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="10" customFormat="1">
@@ -2172,16 +2175,16 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="55.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="4" max="10" customWidth="true" width="17.42578125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="17.875" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="38.28515625" collapsed="true"/>
+    <col min="2" max="2" width="55" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="10" width="17.42578125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="38.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="10" customFormat="1">
@@ -2354,10 +2357,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2367,6 +2370,11 @@
         <v>158</v>
       </c>
     </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>161</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/IVFmilan/src/main/java/com_Milan_TestData/Milandata.xlsx
+++ b/IVFmilan/src/main/java/com_Milan_TestData/Milandata.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Parag\Git\IVFmilan\src\main\java\com_Milan_TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17520" windowHeight="4590" firstSheet="1" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17520" windowHeight="4590" firstSheet="4" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="5" r:id="rId1"/>
@@ -35,7 +35,7 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="177">
   <si>
     <t>PatientName</t>
   </si>
@@ -530,7 +530,52 @@
     <t>Aradhya</t>
   </si>
   <si>
-    <t>Cycle List</t>
+    <t>New Cycle</t>
+  </si>
+  <si>
+    <t>ProtocolName</t>
+  </si>
+  <si>
+    <t>ARTtype</t>
+  </si>
+  <si>
+    <t>ARTSubtype</t>
+  </si>
+  <si>
+    <t>Select</t>
+  </si>
+  <si>
+    <t>Agonist Depot</t>
+  </si>
+  <si>
+    <t>Antagonist</t>
+  </si>
+  <si>
+    <t>Flare</t>
+  </si>
+  <si>
+    <t>GnRh Long Protocol</t>
+  </si>
+  <si>
+    <t>Minimal Stimulation</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Recipient Antagonist</t>
+  </si>
+  <si>
+    <t>Recipient Depot</t>
+  </si>
+  <si>
+    <t>Ultrashort</t>
+  </si>
+  <si>
+    <t>Soft Protocol</t>
+  </si>
+  <si>
+    <t>Agonist Daily</t>
   </si>
 </sst>
 </file>
@@ -906,7 +951,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="40.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="40.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="10" customFormat="1">
@@ -955,7 +1000,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1022,12 +1067,12 @@
   <dimension ref="D1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="5" max="5" width="53.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="53.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="4:5">
@@ -1060,13 +1105,13 @@
   <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="48.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="48.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="10" customFormat="1">
@@ -1218,7 +1263,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1253,14 +1298,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.7109375" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="13.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="29.85546875" style="15" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="8.85546875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="16384" width="9.140625" style="15" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="15" width="17.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="15" width="13.7109375" collapsed="true"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" style="15" width="13.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="15" width="10.28515625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="15" width="12.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="15" width="29.85546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="15" width="8.85546875" collapsed="true"/>
+    <col min="9" max="16384" style="15" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="14" customFormat="1">
@@ -1415,10 +1460,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="17.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="6" width="12.42578125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="31.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="5" max="6" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="31.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="7" customFormat="1">
@@ -1581,20 +1626,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="24.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="22.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="22.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="24.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="22.5703125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="10" customFormat="1">
@@ -2094,10 +2139,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="71.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="71.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="10" customFormat="1">
@@ -2175,16 +2220,16 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="55" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="10" width="17.42578125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="38.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="55.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="4" max="10" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="38.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="10" customFormat="1">
@@ -2357,22 +2402,98 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="8.78125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="19.39453125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.85546875" collapsed="true"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:4">
       <c r="A1" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="C3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D3" t="s">
         <v>161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="C4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="C5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="C6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="C7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="C8" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="C9" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="C10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="C11" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="C12" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="C13" t="s">
+        <v>175</v>
       </c>
     </row>
   </sheetData>

--- a/IVFmilan/src/main/java/com_Milan_TestData/Milandata.xlsx
+++ b/IVFmilan/src/main/java/com_Milan_TestData/Milandata.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Parag\Git\IVFmilan\src\main\java\com_Milan_TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17520" windowHeight="4590" firstSheet="4" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17520" windowHeight="4590" firstSheet="7" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="5" r:id="rId1"/>
@@ -21,8 +21,9 @@
     <sheet name="pastMedicationHistory" sheetId="4" r:id="rId7"/>
     <sheet name="Investigation" sheetId="8" r:id="rId8"/>
     <sheet name="CycleList" sheetId="11" r:id="rId9"/>
-    <sheet name="Investigationlist" sheetId="9" r:id="rId10"/>
-    <sheet name="Allergies" sheetId="10" r:id="rId11"/>
+    <sheet name="Diagnosis" sheetId="12" r:id="rId10"/>
+    <sheet name="Investigationlist" sheetId="9" r:id="rId11"/>
+    <sheet name="Allergies" sheetId="10" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="ERLinked">Investigation!$I$2:$I$3</definedName>
@@ -35,7 +36,7 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="186">
   <si>
     <t>PatientName</t>
   </si>
@@ -54,14 +55,6 @@
     <t>BPSystolicval</t>
   </si>
   <si>
-    <t>Ms.Hema
-PUN-GEM-2018-04-005</t>
-  </si>
-  <si>
-    <t>Mr.Ram
-PUN-GEM-2018-04-006</t>
-  </si>
-  <si>
     <t xml:space="preserve">Pratiksha </t>
   </si>
   <si>
@@ -542,9 +535,44 @@
     <t>ARTSubtype</t>
   </si>
   <si>
+    <t>Expected Result</t>
+  </si>
+  <si>
+    <t>Favourite Diagnosis Deleted Successfully</t>
+  </si>
+  <si>
+    <t>Codevalue</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "Record saved successfully!"</t>
+  </si>
+  <si>
+    <t>favoritedelete</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr.Ram
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms.Hema
+</t>
+  </si>
+  <si>
+    <t>SiemenSize</t>
+  </si>
+  <si>
+    <t>SiemenName</t>
+  </si>
+  <si>
     <t>Select</t>
   </si>
   <si>
+    <t>Agonist Daily</t>
+  </si>
+  <si>
     <t>Agonist Depot</t>
   </si>
   <si>
@@ -575,7 +603,7 @@
     <t>Soft Protocol</t>
   </si>
   <si>
-    <t>Agonist Daily</t>
+    <t>SpermName</t>
   </si>
 </sst>
 </file>
@@ -639,7 +667,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -662,6 +690,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -946,42 +977,42 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="40.28515625" collapsed="true"/>
+    <col min="3" max="3" width="40.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="10" customFormat="1">
       <c r="A1" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" t="s">
         <v>69</v>
-      </c>
-      <c r="C3" t="s">
-        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -991,6 +1022,51 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="38" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
@@ -1000,53 +1076,53 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -1062,7 +1138,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D1:E3"/>
   <sheetViews>
@@ -1072,25 +1148,25 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="53.7109375" collapsed="true"/>
+    <col min="5" max="5" width="53.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="4:5">
       <c r="D1" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="4:5">
       <c r="E2" s="18" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="4:5">
       <c r="E3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -1105,13 +1181,13 @@
   <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="48.7109375" collapsed="true"/>
+    <col min="1" max="1" width="37.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="48.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="10" customFormat="1">
@@ -1119,131 +1195,131 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="19" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>3</v>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="30">
+      <c r="A9" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="30">
+      <c r="A10" s="1" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -1263,22 +1339,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -1298,149 +1374,149 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="15" width="17.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="15" width="13.7109375" collapsed="true"/>
-    <col min="3" max="4" bestFit="true" customWidth="true" style="15" width="13.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="15" width="10.28515625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="15" width="12.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="15" width="29.85546875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="15" width="8.85546875" collapsed="true"/>
-    <col min="9" max="16384" style="15" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="17.85546875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.7109375" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="13.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="29.85546875" style="15" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="8.85546875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="16384" width="9.140625" style="15" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="14" customFormat="1">
       <c r="A1" s="12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B1" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="C1" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>75</v>
-      </c>
       <c r="E1" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="15" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C3" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="D3" s="15" t="s">
-        <v>91</v>
-      </c>
       <c r="E3" s="15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F3" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="G3" s="16" t="s">
         <v>96</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C4" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="D4" s="15" t="s">
-        <v>94</v>
-      </c>
       <c r="E4" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1460,18 +1536,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" customWidth="true" width="17.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="5" max="6" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="31.85546875" collapsed="true"/>
+    <col min="3" max="3" width="17.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="12.42578125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="31.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="7" customFormat="1">
       <c r="A1" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>2</v>
@@ -1480,13 +1556,13 @@
         <v>1</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1497,10 +1573,10 @@
         <v>180</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E2" s="3">
         <v>59</v>
@@ -1521,10 +1597,10 @@
         <v>170</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E3" s="2">
         <v>60</v>
@@ -1545,10 +1621,10 @@
         <v>160</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E4" s="2">
         <v>80</v>
@@ -1569,10 +1645,10 @@
         <v>150</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E5" s="2">
         <v>99</v>
@@ -1593,10 +1669,10 @@
         <v>100</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E6" s="2">
         <v>101</v>
@@ -1626,67 +1702,67 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="22.42578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="24.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="23.7109375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="22.5703125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="22.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="12" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="10" customFormat="1">
       <c r="A1" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="D1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="E1" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="H1" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="I1" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="K1" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="L1" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="M1" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="N1" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="M1" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="N1" s="10" t="s">
-        <v>34</v>
-      </c>
       <c r="O1" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -1703,10 +1779,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" t="s">
         <v>36</v>
-      </c>
-      <c r="F2" t="s">
-        <v>38</v>
       </c>
       <c r="G2" s="2">
         <v>0</v>
@@ -1715,19 +1791,19 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" t="s">
         <v>42</v>
       </c>
-      <c r="J2" t="s">
-        <v>36</v>
-      </c>
-      <c r="K2" t="s">
-        <v>44</v>
-      </c>
       <c r="L2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="O2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -1744,10 +1820,10 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" t="s">
         <v>37</v>
-      </c>
-      <c r="F3" t="s">
-        <v>39</v>
       </c>
       <c r="G3" s="2">
         <v>1</v>
@@ -1756,19 +1832,19 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" t="s">
         <v>43</v>
       </c>
-      <c r="J3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K3" t="s">
-        <v>45</v>
-      </c>
       <c r="L3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -1785,7 +1861,7 @@
         <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G4" s="2">
         <v>2</v>
@@ -1794,7 +1870,7 @@
         <v>2</v>
       </c>
       <c r="K4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -1811,7 +1887,7 @@
         <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G5" s="2">
         <v>3</v>
@@ -1820,7 +1896,7 @@
         <v>3</v>
       </c>
       <c r="K5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -1843,7 +1919,7 @@
         <v>4</v>
       </c>
       <c r="K6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -1866,7 +1942,7 @@
         <v>5</v>
       </c>
       <c r="K7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -2139,64 +2215,64 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="71.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="1" max="1" width="71.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="10" customFormat="1">
       <c r="A1" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="D1" s="10" t="s">
         <v>52</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="10" customFormat="1">
       <c r="A2" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -2220,173 +2296,173 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="55.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="4" max="10" customWidth="true" width="17.42578125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="38.28515625" collapsed="true"/>
+    <col min="2" max="2" width="55" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="10" width="17.42578125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="38.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="10" customFormat="1">
       <c r="A1" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>116</v>
-      </c>
       <c r="C1" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D1" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="I1" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>130</v>
-      </c>
       <c r="K1" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F2" t="s">
         <v>124</v>
       </c>
-      <c r="D2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F2" t="s">
-        <v>126</v>
-      </c>
       <c r="G2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="J2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="L2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="B3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="B4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="B5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="B6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="B7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="B8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -2402,98 +2478,116 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="8.78125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="19.39453125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="A1" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>156</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>173</v>
+      </c>
+      <c r="D2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="C3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="C4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="C5" t="s">
         <v>176</v>
       </c>
-      <c r="D3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="C4" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="C5" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+    </row>
+    <row r="6" spans="1:7">
       <c r="C6" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="C7" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="C8" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="C9" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="C10" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="C11" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="C12" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="C13" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>

--- a/IVFmilan/src/main/java/com_Milan_TestData/Milandata.xlsx
+++ b/IVFmilan/src/main/java/com_Milan_TestData/Milandata.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17520" windowHeight="4590" firstSheet="7" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17520" windowHeight="4590" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="5" r:id="rId1"/>
@@ -355,9 +355,6 @@
     <t>Geeta</t>
   </si>
   <si>
-    <t>Mr.Laxmi Date</t>
-  </si>
-  <si>
     <t>Mitali</t>
   </si>
   <si>
@@ -479,9 +476,6 @@
   </si>
   <si>
     <t>8</t>
-  </si>
-  <si>
-    <t>Laxmi</t>
   </si>
   <si>
     <t>504 IVF SURROGACY PACKAGE</t>
@@ -604,6 +598,12 @@
   </si>
   <si>
     <t>SpermName</t>
+  </si>
+  <si>
+    <t>Ms.Sudha</t>
+  </si>
+  <si>
+    <t>Sudha</t>
   </si>
 </sst>
 </file>
@@ -1038,26 +1038,26 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -1081,48 +1081,48 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>139</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -1153,7 +1153,7 @@
   <sheetData>
     <row r="1" spans="4:5">
       <c r="D1" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>66</v>
@@ -1166,7 +1166,7 @@
     </row>
     <row r="3" spans="4:5">
       <c r="E3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -1180,8 +1180,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1203,7 +1203,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1211,7 +1211,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1219,12 +1219,12 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1234,22 +1234,22 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="19" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>145</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="30">
       <c r="A9" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="30">
       <c r="A10" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1274,22 +1274,22 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>103</v>
+        <v>184</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:1">
@@ -1309,17 +1309,17 @@
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -1349,12 +1349,12 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1433,7 +1433,7 @@
         <v>95</v>
       </c>
       <c r="H2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2310,159 +2310,159 @@
   <sheetData>
     <row r="1" spans="1:12" s="10" customFormat="1">
       <c r="A1" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D1" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="J1" s="7" t="s">
-        <v>128</v>
-      </c>
       <c r="K1" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G2" t="s">
         <v>124</v>
       </c>
-      <c r="G2" t="s">
-        <v>125</v>
-      </c>
       <c r="H2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I2" t="s">
+        <v>123</v>
+      </c>
+      <c r="J2" t="s">
         <v>124</v>
       </c>
-      <c r="J2" t="s">
-        <v>125</v>
-      </c>
       <c r="K2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="B3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="B4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="B5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="B6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="B7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="B8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -2480,7 +2480,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -2497,36 +2497,36 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E2" t="s">
         <v>89</v>
@@ -2534,60 +2534,60 @@
     </row>
     <row r="3" spans="1:7">
       <c r="C3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="C4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="C5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="C6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="C7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="C8" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="C9" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="C10" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="C11" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="C12" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="C13" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/IVFmilan/src/main/java/com_Milan_TestData/Milandata.xlsx
+++ b/IVFmilan/src/main/java/com_Milan_TestData/Milandata.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Parag\Git\IVFmilan\src\main\java\com_Milan_TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17520" windowHeight="4590" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17520" windowHeight="4590" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="5" r:id="rId1"/>
@@ -36,7 +36,7 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="189">
   <si>
     <t>PatientName</t>
   </si>
@@ -542,9 +542,6 @@
   </si>
   <si>
     <t>favoritedelete</t>
-  </si>
-  <si>
-    <t>105</t>
   </si>
   <si>
     <t xml:space="preserve">Mr.Ram
@@ -604,6 +601,18 @@
   </si>
   <si>
     <t>Sudha</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>Partner</t>
+  </si>
+  <si>
+    <t>Partner+Donor</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -982,7 +991,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="40.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="40.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="10" customFormat="1">
@@ -1031,9 +1040,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="38" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="38.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1052,7 +1061,7 @@
         <v>162</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1076,7 +1085,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1148,7 +1157,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="5" max="5" width="53.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="53.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="4:5">
@@ -1180,14 +1189,14 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="48.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="48.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="10" customFormat="1">
@@ -1239,17 +1248,17 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="30">
       <c r="A9" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="30">
       <c r="A10" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1274,7 +1283,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1339,7 +1348,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1374,14 +1383,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.7109375" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="13.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="29.85546875" style="15" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="8.85546875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="16384" width="9.140625" style="15" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="15" width="17.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="15" width="13.7109375" collapsed="true"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" style="15" width="13.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="15" width="10.28515625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="15" width="12.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="15" width="29.85546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="15" width="8.85546875" collapsed="true"/>
+    <col min="9" max="16384" style="15" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="14" customFormat="1">
@@ -1536,10 +1545,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="17.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="6" width="12.42578125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="31.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="5" max="6" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="31.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="7" customFormat="1">
@@ -1702,20 +1711,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="24.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="22.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="22.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="24.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="22.5703125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="10" customFormat="1">
@@ -2215,10 +2224,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="71.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="71.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="10" customFormat="1">
@@ -2301,11 +2310,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="55" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="10" width="17.42578125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="38.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="55.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="4" max="10" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="38.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="10" customFormat="1">
@@ -2480,19 +2489,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="8.78125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2509,85 +2518,94 @@
         <v>154</v>
       </c>
       <c r="E1" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="F1" s="7" t="s">
-        <v>170</v>
-      </c>
       <c r="G1" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>121</v>
+        <v>188</v>
       </c>
       <c r="C2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D2" t="s">
         <v>157</v>
       </c>
-      <c r="E2" t="s">
-        <v>89</v>
+      <c r="G2" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="C3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D3" t="s">
         <v>157</v>
       </c>
+      <c r="G3" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="4" spans="1:7">
       <c r="C4" t="s">
-        <v>173</v>
+        <v>172</v>
+      </c>
+      <c r="G4" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="C5" t="s">
-        <v>174</v>
+        <v>173</v>
+      </c>
+      <c r="G5" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="C6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="C7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="C8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="C9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="C10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="C11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="C12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="C13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>

--- a/IVFmilan/src/main/java/com_Milan_TestData/Milandata.xlsx
+++ b/IVFmilan/src/main/java/com_Milan_TestData/Milandata.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17520" windowHeight="4590" firstSheet="1" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17520" windowHeight="4590" firstSheet="5" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="5" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="191">
   <si>
     <t>PatientName</t>
   </si>
@@ -603,9 +603,6 @@
     <t>Sudha</t>
   </si>
   <si>
-    <t>106</t>
-  </si>
-  <si>
     <t>Partner</t>
   </si>
   <si>
@@ -613,6 +610,15 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>sourceofsperm</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>7</t>
   </si>
 </sst>
 </file>
@@ -622,7 +628,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -647,6 +653,13 @@
     <font>
       <sz val="10"/>
       <color rgb="FF545454"/>
+      <name val="Open_sansregular"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Open_sansregular"/>
     </font>
   </fonts>
@@ -676,7 +689,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -702,6 +715,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1061,7 +1075,7 @@
         <v>162</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1389,7 +1403,7 @@
     <col min="5" max="5" bestFit="true" customWidth="true" style="15" width="10.28515625" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" style="15" width="12.0" collapsed="true"/>
     <col min="7" max="7" customWidth="true" style="15" width="29.85546875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="15" width="8.85546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="15" width="8.8359375" collapsed="true"/>
     <col min="9" max="16384" style="15" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
@@ -1442,7 +1456,7 @@
         <v>95</v>
       </c>
       <c r="H2" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1705,8 +1719,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1775,16 +1789,16 @@
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="2">
+      <c r="A2" s="4">
         <v>0</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="15">
         <v>0</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="15">
         <v>0</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="15">
         <v>0</v>
       </c>
       <c r="E2" t="s">
@@ -1793,10 +1807,10 @@
       <c r="F2" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="15">
         <v>0</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="15">
         <v>0</v>
       </c>
       <c r="I2" t="s">
@@ -1816,16 +1830,16 @@
       </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="2">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="15">
         <v>1</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="15">
         <v>1</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="15">
         <v>1</v>
       </c>
       <c r="E3" t="s">
@@ -1834,10 +1848,10 @@
       <c r="F3" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="15">
         <v>1</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="15">
         <v>1</v>
       </c>
       <c r="I3" t="s">
@@ -1857,25 +1871,25 @@
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="2">
+      <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="15">
         <v>2</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="15">
         <v>2</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="15">
         <v>2</v>
       </c>
       <c r="F4" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="15">
         <v>2</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="15">
         <v>2</v>
       </c>
       <c r="K4" t="s">
@@ -1883,25 +1897,25 @@
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="2">
+      <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="15">
         <v>3</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="15">
         <v>3</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="15">
         <v>3</v>
       </c>
       <c r="F5" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="15">
         <v>3</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="15">
         <v>3</v>
       </c>
       <c r="K5" t="s">
@@ -1909,22 +1923,22 @@
       </c>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="2">
+      <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="15">
         <v>4</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="15">
         <v>4</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="15">
         <v>4</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="15">
         <v>4</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="15">
         <v>4</v>
       </c>
       <c r="K6" t="s">
@@ -1932,22 +1946,22 @@
       </c>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="2">
+      <c r="A7" s="4">
         <v>5</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="15">
         <v>5</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="15">
         <v>5</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="15">
         <v>5</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="15">
         <v>5</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="15">
         <v>5</v>
       </c>
       <c r="K7" t="s">
@@ -1955,257 +1969,292 @@
       </c>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="2">
+      <c r="A8" s="4">
         <v>6</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="15">
         <v>6</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="15">
         <v>6</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="15">
         <v>6</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="15">
         <v>6</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="15">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="2">
+      <c r="A9" s="4">
         <v>7</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="15">
         <v>7</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="15">
         <v>7</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="15">
         <v>7</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="15">
         <v>7</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="15">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="2">
+      <c r="A10" s="4">
         <v>8</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="15">
         <v>8</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="15">
         <v>8</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="15">
         <v>8</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="15">
         <v>8</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="15">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="2">
+      <c r="A11" s="4">
         <v>9</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="15">
         <v>9</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="15">
         <v>9</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="15">
         <v>9</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="15">
         <v>9</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="15">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="2">
+      <c r="A12" s="4">
         <v>10</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="15">
         <v>10</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="15">
         <v>10</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="15">
         <v>10</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="15">
         <v>10</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="15">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="2">
+      <c r="A13" s="4">
         <v>11</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="15">
         <v>11</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="15">
         <v>11</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="15">
         <v>11</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="15">
         <v>11</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="15">
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="2">
+      <c r="A14" s="4">
         <v>12</v>
       </c>
-      <c r="C14" s="2">
+      <c r="B14" s="15"/>
+      <c r="C14" s="15">
         <v>12</v>
       </c>
-      <c r="G14" s="2">
+      <c r="D14" s="15"/>
+      <c r="G14" s="15">
         <v>12</v>
       </c>
+      <c r="H14" s="15"/>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="2">
+      <c r="A15" s="4">
         <v>13</v>
       </c>
-      <c r="C15" s="2">
+      <c r="B15" s="15"/>
+      <c r="C15" s="15">
         <v>13</v>
       </c>
-      <c r="G15" s="2">
+      <c r="D15" s="15"/>
+      <c r="G15" s="15">
         <v>13</v>
       </c>
+      <c r="H15" s="15"/>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="2">
+      <c r="A16" s="4">
         <v>14</v>
       </c>
-      <c r="C16" s="2">
+      <c r="B16" s="15"/>
+      <c r="C16" s="15">
         <v>14</v>
       </c>
-      <c r="G16" s="2">
+      <c r="D16" s="15"/>
+      <c r="G16" s="15">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="2">
+      <c r="H16" s="15"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="4">
         <v>15</v>
       </c>
-      <c r="C17" s="2">
+      <c r="B17" s="15"/>
+      <c r="C17" s="15">
         <v>15</v>
       </c>
-      <c r="G17" s="2">
+      <c r="D17" s="15"/>
+      <c r="G17" s="15">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="2">
+      <c r="H17" s="15"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="4">
         <v>16</v>
       </c>
-      <c r="C18" s="2">
+      <c r="B18" s="15"/>
+      <c r="C18" s="15">
         <v>16</v>
       </c>
-      <c r="G18" s="2">
+      <c r="D18" s="15"/>
+      <c r="G18" s="15">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="2">
+      <c r="H18" s="15"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="4">
         <v>17</v>
       </c>
-      <c r="C19" s="2">
+      <c r="B19" s="15"/>
+      <c r="C19" s="15">
         <v>17</v>
       </c>
-      <c r="G19" s="2">
+      <c r="D19" s="15"/>
+      <c r="G19" s="15">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="2">
+      <c r="H19" s="15"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="4">
         <v>18</v>
       </c>
-      <c r="C20" s="2">
+      <c r="B20" s="15"/>
+      <c r="C20" s="15">
         <v>18</v>
       </c>
-      <c r="G20" s="2">
+      <c r="D20" s="15"/>
+      <c r="G20" s="15">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="2">
+      <c r="H20" s="15"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="4">
         <v>19</v>
       </c>
-      <c r="C21" s="2">
+      <c r="B21" s="15"/>
+      <c r="C21" s="15">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="2">
+      <c r="D21" s="15"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="4">
         <v>20</v>
       </c>
-      <c r="C22" s="2">
+      <c r="B22" s="15"/>
+      <c r="C22" s="15">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="2">
+      <c r="D22" s="15"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="4">
         <v>21</v>
       </c>
-      <c r="C23" s="2">
+      <c r="B23" s="15"/>
+      <c r="C23" s="15">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="2">
+      <c r="D23" s="15"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="4">
         <v>22</v>
       </c>
-      <c r="C24" s="2">
+      <c r="B24" s="15"/>
+      <c r="C24" s="15">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="2">
+      <c r="D24" s="15"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="4">
         <v>23</v>
       </c>
-      <c r="C25" s="2">
+      <c r="B25" s="15"/>
+      <c r="C25" s="15">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="2">
+      <c r="D25" s="15"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="4">
         <v>24</v>
       </c>
-      <c r="C26" s="2">
+      <c r="B26" s="15"/>
+      <c r="C26" s="15">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="2">
+      <c r="D26" s="15"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="4">
         <v>25</v>
       </c>
-      <c r="C27" s="2">
+      <c r="B27" s="15"/>
+      <c r="C27" s="15">
         <v>25</v>
       </c>
+      <c r="D27" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2487,24 +2536,25 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="8.78125" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="19.42578125" collapsed="true"/>
     <col min="4" max="4" customWidth="true" width="13.85546875" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="21.42578125" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="7" t="s">
         <v>159</v>
       </c>
@@ -2526,10 +2576,13 @@
       <c r="G1" s="7" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="7" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C2" t="s">
         <v>170</v>
@@ -2540,8 +2593,11 @@
       <c r="G2" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="21" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="C3" t="s">
         <v>171</v>
       </c>
@@ -2549,10 +2605,13 @@
         <v>157</v>
       </c>
       <c r="G3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>185</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="C4" t="s">
         <v>172</v>
       </c>
@@ -2560,50 +2619,50 @@
         <v>106</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="C5" t="s">
         <v>173</v>
       </c>
       <c r="G5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="C6" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="C7" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="C8" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="C9" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8">
       <c r="C10" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:8">
       <c r="C11" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:8">
       <c r="C12" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:8">
       <c r="C13" t="s">
         <v>181</v>
       </c>

--- a/IVFmilan/src/main/java/com_Milan_TestData/Milandata.xlsx
+++ b/IVFmilan/src/main/java/com_Milan_TestData/Milandata.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Parag\Git\IVFmilan\src\main\java\com_Milan_TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17520" windowHeight="4590" firstSheet="5" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17520" windowHeight="4590" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="5" r:id="rId1"/>
@@ -36,7 +36,7 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="189">
   <si>
     <t>PatientName</t>
   </si>
@@ -386,9 +386,6 @@
   </si>
   <si>
     <t>Searchresult</t>
-  </si>
-  <si>
-    <t>0</t>
   </si>
   <si>
     <t>Nargis</t>
@@ -615,10 +612,7 @@
     <t>sourceofsperm</t>
   </si>
   <si>
-    <t>107</t>
-  </si>
-  <si>
-    <t>7</t>
+    <t>108</t>
   </si>
 </sst>
 </file>
@@ -1005,7 +999,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="40.28515625" collapsed="true"/>
+    <col min="3" max="3" width="40.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="10" customFormat="1">
@@ -1054,33 +1048,33 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="38.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="1" max="1" width="38" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -1099,53 +1093,53 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>138</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -1171,12 +1165,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="53.7109375" collapsed="true"/>
+    <col min="5" max="5" width="53.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="4:5">
       <c r="D1" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>66</v>
@@ -1189,7 +1183,7 @@
     </row>
     <row r="3" spans="4:5">
       <c r="E3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -1201,16 +1195,16 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="48.7109375" collapsed="true"/>
+    <col min="1" max="1" width="37.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="48.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="10" customFormat="1">
@@ -1226,7 +1220,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1256,23 +1250,23 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="19" t="s">
-        <v>156</v>
+      <c r="A7" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="30">
       <c r="A9" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="30">
       <c r="A10" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1297,22 +1291,22 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:1">
@@ -1342,6 +1336,11 @@
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="19" t="s">
         <v>155</v>
       </c>
     </row>
@@ -1362,7 +1361,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1397,14 +1396,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="15" width="17.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="15" width="13.7109375" collapsed="true"/>
-    <col min="3" max="4" bestFit="true" customWidth="true" style="15" width="13.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="15" width="10.28515625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="15" width="12.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="15" width="29.85546875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="15" width="8.8359375" collapsed="true"/>
-    <col min="9" max="16384" style="15" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="17.85546875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.7109375" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="13.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="29.85546875" style="15" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="8.85546875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="16384" width="9.140625" style="15" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="14" customFormat="1">
@@ -1456,7 +1455,7 @@
         <v>95</v>
       </c>
       <c r="H2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1559,10 +1558,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" customWidth="true" width="17.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="5" max="6" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="31.85546875" collapsed="true"/>
+    <col min="3" max="3" width="17.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="12.42578125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="31.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="7" customFormat="1">
@@ -1719,26 +1718,26 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="22.42578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="24.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="23.7109375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="22.5703125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="22.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="12" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="10" customFormat="1">
@@ -2273,10 +2272,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="71.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="1" max="1" width="71.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="10" customFormat="1">
@@ -2359,11 +2358,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="55.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="4" max="10" customWidth="true" width="17.42578125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="38.28515625" collapsed="true"/>
+    <col min="2" max="2" width="55" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="10" width="17.42578125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="38.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="10" customFormat="1">
@@ -2374,34 +2373,34 @@
         <v>113</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D1" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="J1" s="7" t="s">
-        <v>127</v>
-      </c>
       <c r="K1" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -2409,118 +2408,118 @@
         <v>112</v>
       </c>
       <c r="B2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G2" t="s">
         <v>123</v>
       </c>
-      <c r="G2" t="s">
-        <v>124</v>
-      </c>
       <c r="H2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I2" t="s">
+        <v>122</v>
+      </c>
+      <c r="J2" t="s">
         <v>123</v>
       </c>
-      <c r="J2" t="s">
-        <v>124</v>
-      </c>
       <c r="K2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="B3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="B4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="B5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="B6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="B7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="B8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -2544,68 +2543,68 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="19.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="21.42578125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>160</v>
-      </c>
       <c r="C1" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E1" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="F1" s="7" t="s">
-        <v>169</v>
-      </c>
       <c r="G1" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H2" s="21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="C3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H3" s="21" t="s">
         <v>106</v>
@@ -2613,7 +2612,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="C4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G4" t="s">
         <v>106</v>
@@ -2621,50 +2620,50 @@
     </row>
     <row r="5" spans="1:8">
       <c r="C5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="C6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="C7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="C8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="C9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="C10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="C11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="C12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="C13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/IVFmilan/src/main/java/com_Milan_TestData/Milandata.xlsx
+++ b/IVFmilan/src/main/java/com_Milan_TestData/Milandata.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Parag\Git\IVFmilan\src\main\java\com_Milan_TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17520" windowHeight="4590" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17520" windowHeight="4590"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="5" r:id="rId1"/>
@@ -36,7 +36,7 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="190">
   <si>
     <t>PatientName</t>
   </si>
@@ -613,6 +613,9 @@
   </si>
   <si>
     <t>108</t>
+  </si>
+  <si>
+    <t>cyclenotfound</t>
   </si>
 </sst>
 </file>
@@ -993,13 +996,13 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="40.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="40.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="10" customFormat="1">
@@ -1048,9 +1051,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="38" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="38.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1093,7 +1096,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1165,7 +1168,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="5" max="5" width="53.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="53.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="4:5">
@@ -1197,14 +1200,14 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="48.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="48.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="10" customFormat="1">
@@ -1361,7 +1364,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1396,14 +1399,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.7109375" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="13.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="29.85546875" style="15" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="8.85546875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="16384" width="9.140625" style="15" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="15" width="17.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="15" width="13.7109375" collapsed="true"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" style="15" width="13.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="15" width="10.28515625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="15" width="12.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="15" width="29.85546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="15" width="8.85546875" collapsed="true"/>
+    <col min="9" max="16384" style="15" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="14" customFormat="1">
@@ -1558,10 +1561,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="17.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="6" width="12.42578125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="31.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="5" max="6" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="31.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="7" customFormat="1">
@@ -1724,20 +1727,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="24.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="22.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="22.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="24.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="22.5703125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="10" customFormat="1">
@@ -2272,10 +2275,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="71.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="71.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="10" customFormat="1">
@@ -2353,16 +2356,16 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="55" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="10" width="17.42578125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="38.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="55.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="4" max="10" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="38.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="10" customFormat="1">
@@ -2496,6 +2499,9 @@
       </c>
       <c r="H5" t="s">
         <v>130</v>
+      </c>
+      <c r="L5" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -2543,14 +2549,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="21.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="8.78125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -2581,7 +2587,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>186</v>
+        <v>120</v>
       </c>
       <c r="C2" t="s">
         <v>169</v>

--- a/IVFmilan/src/main/java/com_Milan_TestData/Milandata.xlsx
+++ b/IVFmilan/src/main/java/com_Milan_TestData/Milandata.xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="193">
   <si>
     <t>PatientName</t>
   </si>
@@ -616,6 +616,15 @@
   </si>
   <si>
     <t>cyclenotfound</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>7</t>
   </si>
 </sst>
 </file>
@@ -1052,7 +1061,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="38.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.5625" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
   </cols>
   <sheetData>
@@ -1072,7 +1081,7 @@
         <v>161</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1405,7 +1414,7 @@
     <col min="5" max="5" bestFit="true" customWidth="true" style="15" width="10.28515625" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" style="15" width="12.0" collapsed="true"/>
     <col min="7" max="7" customWidth="true" style="15" width="29.85546875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="15" width="8.85546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="15" width="8.8359375" collapsed="true"/>
     <col min="9" max="16384" style="15" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
@@ -2275,7 +2284,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="71.7109375" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="71.66796875" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
@@ -2364,7 +2373,7 @@
     <col min="2" max="2" bestFit="true" customWidth="true" width="55.0" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
     <col min="4" max="10" customWidth="true" width="17.42578125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="17.875" collapsed="true"/>
     <col min="12" max="12" bestFit="true" customWidth="true" width="38.28515625" collapsed="true"/>
   </cols>
   <sheetData>

--- a/IVFmilan/src/main/java/com_Milan_TestData/Milandata.xlsx
+++ b/IVFmilan/src/main/java/com_Milan_TestData/Milandata.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17520" windowHeight="4590"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17520" windowHeight="4590" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="5" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="198">
   <si>
     <t>PatientName</t>
   </si>
@@ -482,9 +482,6 @@
   </si>
   <si>
     <t>Allergies</t>
-  </si>
-  <si>
-    <t>Ms.Nandita</t>
   </si>
   <si>
     <t>All</t>
@@ -606,22 +603,40 @@
     <t>Partner+Donor</t>
   </si>
   <si>
+    <t>sourceofsperm</t>
+  </si>
+  <si>
+    <t>cyclenotfound</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>Cycle Already available</t>
+  </si>
+  <si>
+    <t>Neeta</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>sourceofsperm</t>
-  </si>
-  <si>
-    <t>108</t>
-  </si>
-  <si>
-    <t>cyclenotfound</t>
-  </si>
-  <si>
-    <t>109</t>
-  </si>
-  <si>
-    <t>0</t>
+    <t>Ejaculation</t>
+  </si>
+  <si>
+    <t>Surgical Extraction</t>
+  </si>
+  <si>
+    <t>Electrostimulation</t>
+  </si>
+  <si>
+    <t>Retrograde Ejaculation</t>
+  </si>
+  <si>
+    <t>Ms.Neeta </t>
+  </si>
+  <si>
+    <t>IndicationNames</t>
   </si>
   <si>
     <t>7</t>
@@ -634,7 +649,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -655,11 +670,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF545454"/>
-      <name val="Open_sansregular"/>
     </font>
     <font>
       <b/>
@@ -695,7 +705,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -717,11 +727,10 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1005,8 +1014,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1061,32 +1070,32 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="38.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.5625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>161</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>190</v>
+        <v>160</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -1172,7 +1181,7 @@
   <dimension ref="D1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1207,10 +1216,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1232,7 +1241,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1263,22 +1272,22 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>107</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="30">
       <c r="A9" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="30">
       <c r="A10" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1303,17 +1312,17 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>146</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:1">
@@ -1348,12 +1357,17 @@
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="19" t="s">
-        <v>155</v>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -1402,8 +1416,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1467,7 +1481,7 @@
         <v>95</v>
       </c>
       <c r="H2" t="s">
-        <v>142</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2284,7 +2298,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="71.66796875" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="71.7109375" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
@@ -2364,8 +2378,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2373,7 +2387,7 @@
     <col min="2" max="2" bestFit="true" customWidth="true" width="55.0" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
     <col min="4" max="10" customWidth="true" width="17.42578125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="17.875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
     <col min="12" max="12" bestFit="true" customWidth="true" width="38.28515625" collapsed="true"/>
   </cols>
   <sheetData>
@@ -2412,7 +2426,7 @@
         <v>139</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -2450,7 +2464,7 @@
         <v>142</v>
       </c>
       <c r="L2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2473,7 +2487,7 @@
         <v>136</v>
       </c>
       <c r="L3" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2493,7 +2507,7 @@
         <v>129</v>
       </c>
       <c r="L4" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2510,7 +2524,7 @@
         <v>130</v>
       </c>
       <c r="L5" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -2520,6 +2534,9 @@
       <c r="C6" t="s">
         <v>124</v>
       </c>
+      <c r="L6" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="7" spans="1:12">
       <c r="B7" t="s">
@@ -2531,7 +2548,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="B8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C8" t="s">
         <v>126</v>
@@ -2550,135 +2567,151 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="8.78125" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="19.42578125" collapsed="true"/>
     <col min="4" max="4" customWidth="true" width="13.85546875" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>159</v>
-      </c>
       <c r="C1" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E1" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C2" t="s">
         <v>168</v>
       </c>
-      <c r="G1" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F2" t="s">
+        <v>191</v>
+      </c>
+      <c r="G2" t="s">
+        <v>168</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="C3" t="s">
         <v>169</v>
       </c>
-      <c r="D2" t="s">
-        <v>156</v>
-      </c>
-      <c r="G2" t="s">
-        <v>169</v>
-      </c>
-      <c r="H2" s="21" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>155</v>
+      </c>
+      <c r="F3" t="s">
+        <v>192</v>
+      </c>
+      <c r="G3" t="s">
+        <v>183</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="C4" t="s">
         <v>170</v>
       </c>
-      <c r="D3" t="s">
-        <v>156</v>
-      </c>
-      <c r="G3" t="s">
-        <v>184</v>
-      </c>
-      <c r="H3" s="21" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="C4" t="s">
-        <v>171</v>
+      <c r="F4" t="s">
+        <v>193</v>
       </c>
       <c r="G4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="C5" t="s">
+        <v>171</v>
+      </c>
+      <c r="F5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="C6" t="s">
         <v>172</v>
       </c>
-      <c r="G5" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="C6" t="s">
+    </row>
+    <row r="7" spans="1:9">
+      <c r="C7" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
-      <c r="C7" t="s">
+    <row r="8" spans="1:9">
+      <c r="C8" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="C8" t="s">
+    <row r="9" spans="1:9">
+      <c r="C9" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
-      <c r="C9" t="s">
+    <row r="10" spans="1:9">
+      <c r="C10" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
-      <c r="C10" t="s">
+    <row r="11" spans="1:9">
+      <c r="C11" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
-      <c r="C11" t="s">
+    <row r="12" spans="1:9">
+      <c r="C12" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
-      <c r="C12" t="s">
+    <row r="13" spans="1:9">
+      <c r="C13" t="s">
         <v>179</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="C13" t="s">
-        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/IVFmilan/src/main/java/com_Milan_TestData/Milandata.xlsx
+++ b/IVFmilan/src/main/java/com_Milan_TestData/Milandata.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17520" windowHeight="4590" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17520" windowHeight="4590" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="5" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="199">
   <si>
     <t>PatientName</t>
   </si>
@@ -618,9 +618,6 @@
     <t>Neeta</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Ejaculation</t>
   </si>
   <si>
@@ -639,7 +636,13 @@
     <t>IndicationNames</t>
   </si>
   <si>
-    <t>7</t>
+    <t>Ms.Abhilash Desai</t>
+  </si>
+  <si>
+    <t>Complaints/FU</t>
+  </si>
+  <si>
+    <t>110</t>
   </si>
 </sst>
 </file>
@@ -1070,7 +1073,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="38.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.5625" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
   </cols>
   <sheetData>
@@ -1090,7 +1093,7 @@
         <v>160</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1216,10 +1219,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1272,7 +1275,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>189</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1317,57 +1320,67 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" t="s">
-        <v>150</v>
+      <c r="A17" s="1" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="1" t="s">
+    <row r="20" spans="1:1">
+      <c r="A20" s="1" t="s">
         <v>99</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>153</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
         <v>107</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -1379,11 +1392,9 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1403,6 +1414,11 @@
     <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -1416,7 +1432,7 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
@@ -1428,7 +1444,7 @@
     <col min="5" max="5" bestFit="true" customWidth="true" style="15" width="10.28515625" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" style="15" width="12.0" collapsed="true"/>
     <col min="7" max="7" customWidth="true" style="15" width="29.85546875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="15" width="8.8359375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="15" width="8.85546875" collapsed="true"/>
     <col min="9" max="16384" style="15" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
@@ -2387,7 +2403,7 @@
     <col min="2" max="2" bestFit="true" customWidth="true" width="55.0" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
     <col min="4" max="10" customWidth="true" width="17.42578125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="17.875" collapsed="true"/>
     <col min="12" max="12" bestFit="true" customWidth="true" width="38.28515625" collapsed="true"/>
   </cols>
   <sheetData>
@@ -2580,7 +2596,7 @@
     <col min="3" max="3" bestFit="true" customWidth="true" width="19.42578125" collapsed="true"/>
     <col min="4" max="4" customWidth="true" width="13.85546875" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="21.28515625" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
@@ -2612,12 +2628,12 @@
         <v>185</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>190</v>
+        <v>120</v>
       </c>
       <c r="C2" t="s">
         <v>168</v>
@@ -2626,7 +2642,7 @@
         <v>155</v>
       </c>
       <c r="F2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G2" t="s">
         <v>168</v>
@@ -2643,7 +2659,7 @@
         <v>155</v>
       </c>
       <c r="F3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G3" t="s">
         <v>183</v>
@@ -2657,7 +2673,7 @@
         <v>170</v>
       </c>
       <c r="F4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G4" t="s">
         <v>106</v>
@@ -2668,7 +2684,7 @@
         <v>171</v>
       </c>
       <c r="F5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G5" t="s">
         <v>184</v>

--- a/IVFmilan/src/main/java/com_Milan_TestData/Milandata.xlsx
+++ b/IVFmilan/src/main/java/com_Milan_TestData/Milandata.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Parag\Git\IVFmilan\src\main\java\com_Milan_TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17520" windowHeight="4590" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17520" windowHeight="4590" firstSheet="5" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="5" r:id="rId1"/>
@@ -17,13 +17,14 @@
     <sheet name="EMRPage" sheetId="7" r:id="rId3"/>
     <sheet name="Addictions" sheetId="6" r:id="rId4"/>
     <sheet name="Vitals" sheetId="2" r:id="rId5"/>
-    <sheet name="SexualHistory" sheetId="3" r:id="rId6"/>
-    <sheet name="pastMedicationHistory" sheetId="4" r:id="rId7"/>
-    <sheet name="Investigation" sheetId="8" r:id="rId8"/>
-    <sheet name="CycleList" sheetId="11" r:id="rId9"/>
-    <sheet name="Diagnosis" sheetId="12" r:id="rId10"/>
-    <sheet name="Investigationlist" sheetId="9" r:id="rId11"/>
-    <sheet name="Allergies" sheetId="10" r:id="rId12"/>
+    <sheet name="Complaints" sheetId="13" r:id="rId6"/>
+    <sheet name="SexualHistory" sheetId="3" r:id="rId7"/>
+    <sheet name="pastMedicationHistory" sheetId="4" r:id="rId8"/>
+    <sheet name="Investigation" sheetId="8" r:id="rId9"/>
+    <sheet name="CycleList" sheetId="11" r:id="rId10"/>
+    <sheet name="Diagnosis" sheetId="12" r:id="rId11"/>
+    <sheet name="Investigationlist" sheetId="9" r:id="rId12"/>
+    <sheet name="Allergies" sheetId="10" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="ERLinked">Investigation!$I$2:$I$3</definedName>
@@ -36,7 +37,7 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="202">
   <si>
     <t>PatientName</t>
   </si>
@@ -609,9 +610,6 @@
     <t>cyclenotfound</t>
   </si>
   <si>
-    <t>109</t>
-  </si>
-  <si>
     <t>Cycle Already available</t>
   </si>
   <si>
@@ -643,6 +641,18 @@
   </si>
   <si>
     <t>110</t>
+  </si>
+  <si>
+    <t>Nafisa</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>CYpFtUmzq0lITFyM0QS1gmJ7wPQZmxQCogZDfpEIbli7cnferqutf3FI9FV3MX08YQ2S71Zil5KG3a8cy9PKK1arr7zzV72dZ8JRBv32rAxC4YgjssvZrnQplz7MsMN2wC5MrSpdEZihjLoIrZWmY8Sidr999C43Hb0HxCMCQXskwiAqdZxMXTF1qpQ1xUOjWTU0pRwWu4KTnEd5xNXL0qLEHsfluMsOdaHNSamz3EnTNtjLApKgTFY5pddwNpIm</t>
+  </si>
+  <si>
+    <t>Date</t>
   </si>
 </sst>
 </file>
@@ -708,7 +718,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -734,6 +744,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1023,7 +1037,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="40.28515625" collapsed="true"/>
+    <col min="3" max="3" width="40.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="10" customFormat="1">
@@ -1064,41 +1078,169 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="38.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.5625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="16.140625" customWidth="1"/>
+    <col min="11" max="11" width="255.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:11">
       <c r="A1" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>156</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>160</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>162</v>
+        <v>120</v>
+      </c>
+      <c r="C2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F2" t="s">
+        <v>189</v>
+      </c>
+      <c r="G2" t="s">
+        <v>168</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="J2" s="22">
+        <f ca="1">(TODAY() )</f>
+        <v>43262</v>
+      </c>
+      <c r="K2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="C3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D3" t="s">
+        <v>155</v>
+      </c>
+      <c r="F3" t="s">
+        <v>190</v>
+      </c>
+      <c r="G3" t="s">
+        <v>183</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="K3" s="21" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="C4" t="s">
+        <v>170</v>
+      </c>
+      <c r="F4" t="s">
+        <v>191</v>
+      </c>
+      <c r="G4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="C5" t="s">
+        <v>171</v>
+      </c>
+      <c r="F5" t="s">
+        <v>192</v>
+      </c>
+      <c r="G5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="C6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="C7" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="C8" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="C9" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="C10" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="C11" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="C12" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="C13" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -1108,6 +1250,51 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="38" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
@@ -1117,7 +1304,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1179,7 +1366,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D1:E3"/>
   <sheetViews>
@@ -1189,7 +1376,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="53.7109375" collapsed="true"/>
+    <col min="5" max="5" width="53.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="4:5">
@@ -1221,14 +1408,14 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="48.7109375" collapsed="true"/>
+    <col min="1" max="1" width="37.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="48.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="10" customFormat="1">
@@ -1275,7 +1462,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>107</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1320,12 +1507,12 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:1">
@@ -1380,7 +1567,7 @@
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -1398,7 +1585,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1418,7 +1605,7 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -1438,14 +1625,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="15" width="17.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="15" width="13.7109375" collapsed="true"/>
-    <col min="3" max="4" bestFit="true" customWidth="true" style="15" width="13.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="15" width="10.28515625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="15" width="12.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="15" width="29.85546875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="15" width="8.85546875" collapsed="true"/>
-    <col min="9" max="16384" style="15" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="17.85546875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.7109375" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="13.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="29.85546875" style="15" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="8.85546875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="16384" width="9.140625" style="15" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="14" customFormat="1">
@@ -1600,10 +1787,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" customWidth="true" width="17.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="5" max="6" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="31.85546875" collapsed="true"/>
+    <col min="3" max="3" width="17.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="12.42578125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="31.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="7" customFormat="1">
@@ -1756,6 +1943,40 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="27.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:O27"/>
@@ -1766,20 +1987,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="22.42578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="24.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="23.7109375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="22.5703125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="22.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="12" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="10" customFormat="1">
@@ -2303,7 +2524,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G13"/>
@@ -2314,10 +2535,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="71.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="1" max="1" width="71.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="10" customFormat="1">
@@ -2389,7 +2610,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:L8"/>
@@ -2400,11 +2621,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="55.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="4" max="10" customWidth="true" width="17.42578125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="17.875" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="38.28515625" collapsed="true"/>
+    <col min="2" max="2" width="55" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="10" width="17.42578125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="38.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="10" customFormat="1">
@@ -2551,7 +2772,7 @@
         <v>124</v>
       </c>
       <c r="L6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -2579,159 +2800,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="19.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="21.28515625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C2" t="s">
-        <v>168</v>
-      </c>
-      <c r="D2" t="s">
-        <v>155</v>
-      </c>
-      <c r="F2" t="s">
-        <v>190</v>
-      </c>
-      <c r="G2" t="s">
-        <v>168</v>
-      </c>
-      <c r="H2" s="20" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="C3" t="s">
-        <v>169</v>
-      </c>
-      <c r="D3" t="s">
-        <v>155</v>
-      </c>
-      <c r="F3" t="s">
-        <v>191</v>
-      </c>
-      <c r="G3" t="s">
-        <v>183</v>
-      </c>
-      <c r="H3" s="20" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="C4" t="s">
-        <v>170</v>
-      </c>
-      <c r="F4" t="s">
-        <v>192</v>
-      </c>
-      <c r="G4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="C5" t="s">
-        <v>171</v>
-      </c>
-      <c r="F5" t="s">
-        <v>193</v>
-      </c>
-      <c r="G5" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="C6" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="C7" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="C8" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="C9" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="C10" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="C11" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="C12" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="C13" t="s">
-        <v>179</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/IVFmilan/src/main/java/com_Milan_TestData/Milandata.xlsx
+++ b/IVFmilan/src/main/java/com_Milan_TestData/Milandata.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17520" windowHeight="4590" firstSheet="5" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17520" windowHeight="4590" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="5" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="211">
   <si>
     <t>PatientName</t>
   </si>
@@ -471,9 +471,6 @@
   </si>
   <si>
     <t xml:space="preserve">F-ICSI </t>
-  </si>
-  <si>
-    <t>8</t>
   </si>
   <si>
     <t>504 IVF SURROGACY PACKAGE</t>
@@ -607,9 +604,6 @@
     <t>sourceofsperm</t>
   </si>
   <si>
-    <t>cyclenotfound</t>
-  </si>
-  <si>
     <t>Cycle Already available</t>
   </si>
   <si>
@@ -653,6 +647,39 @@
   </si>
   <si>
     <t>Date</t>
+  </si>
+  <si>
+    <t>SaveMessage</t>
+  </si>
+  <si>
+    <t>Fill all mandetory fields.</t>
+  </si>
+  <si>
+    <t>Close existing cycle first.</t>
+  </si>
+  <si>
+    <t>Nilma</t>
+  </si>
+  <si>
+    <t>Record already saved.</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>Cycle List</t>
+  </si>
+  <si>
+    <t>Cycle is not created or already available</t>
+  </si>
+  <si>
+    <t>Stimulation Drug</t>
+  </si>
+  <si>
+    <t>Jafari</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
 </sst>
 </file>
@@ -1078,10 +1105,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1096,151 +1123,168 @@
     <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="16.140625" customWidth="1"/>
-    <col min="11" max="11" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="36.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="16.140625" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="255.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:13">
       <c r="A1" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>158</v>
-      </c>
       <c r="C1" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E1" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C2" t="s">
         <v>167</v>
       </c>
-      <c r="G1" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F2" t="s">
+        <v>187</v>
+      </c>
+      <c r="G2" t="s">
+        <v>167</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="K2" t="s">
+        <v>148</v>
+      </c>
+      <c r="L2" s="22">
+        <f ca="1">(TODAY() )</f>
+        <v>43268</v>
+      </c>
+      <c r="M2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="C3" t="s">
         <v>168</v>
       </c>
-      <c r="D2" t="s">
-        <v>155</v>
-      </c>
-      <c r="F2" t="s">
-        <v>189</v>
-      </c>
-      <c r="G2" t="s">
-        <v>168</v>
-      </c>
-      <c r="H2" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="J2" s="22">
-        <f ca="1">(TODAY() )</f>
-        <v>43262</v>
-      </c>
-      <c r="K2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="C3" t="s">
-        <v>169</v>
-      </c>
       <c r="D3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H3" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="K3" s="21" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="K3" t="s">
+        <v>201</v>
+      </c>
+      <c r="M3" s="21" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="C4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G4" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="K4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="C5" t="s">
+        <v>170</v>
+      </c>
+      <c r="F5" t="s">
+        <v>190</v>
+      </c>
+      <c r="G5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="C6" t="s">
         <v>171</v>
       </c>
-      <c r="F5" t="s">
-        <v>192</v>
-      </c>
-      <c r="G5" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="C6" t="s">
+    </row>
+    <row r="7" spans="1:13">
+      <c r="C7" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
-      <c r="C7" t="s">
+    <row r="8" spans="1:13">
+      <c r="C8" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
-      <c r="C8" t="s">
+    <row r="9" spans="1:13">
+      <c r="C9" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
-      <c r="C9" t="s">
+    <row r="10" spans="1:13">
+      <c r="C10" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
-      <c r="C10" t="s">
+    <row r="11" spans="1:13">
+      <c r="C11" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
-      <c r="C11" t="s">
+    <row r="12" spans="1:13">
+      <c r="C12" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
-      <c r="C12" t="s">
+    <row r="13" spans="1:13">
+      <c r="C13" t="s">
         <v>178</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="C13" t="s">
-        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -1266,26 +1310,26 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -1381,7 +1425,7 @@
   <sheetData>
     <row r="1" spans="4:5">
       <c r="D1" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>66</v>
@@ -1394,7 +1438,7 @@
     </row>
     <row r="3" spans="4:5">
       <c r="E3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -1406,10 +1450,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1431,7 +1475,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1462,22 +1506,28 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>198</v>
+        <v>209</v>
+      </c>
+      <c r="B7" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>182</v>
+        <v>181</v>
+      </c>
+      <c r="B8" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="30">
       <c r="A9" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="30">
       <c r="A10" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1502,22 +1552,22 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="19" spans="1:1">
@@ -1552,12 +1602,12 @@
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="27" spans="1:1">
@@ -1567,7 +1617,17 @@
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>188</v>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -1605,7 +1665,7 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -1952,7 +2012,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -2613,10 +2673,10 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2663,7 +2723,7 @@
         <v>139</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -2698,10 +2758,10 @@
         <v>123</v>
       </c>
       <c r="K2" t="s">
-        <v>142</v>
+        <v>205</v>
       </c>
       <c r="L2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2724,7 +2784,7 @@
         <v>136</v>
       </c>
       <c r="L3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2761,7 +2821,7 @@
         <v>130</v>
       </c>
       <c r="L5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -2772,23 +2832,34 @@
         <v>124</v>
       </c>
       <c r="L6" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="B7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C7" t="s">
         <v>125</v>
       </c>
+      <c r="L7" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="8" spans="1:12">
       <c r="B8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C8" t="s">
         <v>126</v>
+      </c>
+      <c r="L8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="L9" t="s">
+        <v>206</v>
       </c>
     </row>
   </sheetData>

--- a/IVFmilan/src/main/java/com_Milan_TestData/Milandata.xlsx
+++ b/IVFmilan/src/main/java/com_Milan_TestData/Milandata.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Parag\Git\IVFmilan\src\main\java\com_Milan_TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17520" windowHeight="4590" firstSheet="1" activeTab="1"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="17520" windowHeight="4590" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="5" r:id="rId1"/>
@@ -37,7 +37,7 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1785" uniqueCount="922">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1781" uniqueCount="924">
   <si>
     <t>PatientName</t>
   </si>
@@ -676,9 +676,6 @@
     <t>Jafari</t>
   </si>
   <si>
-    <t>111</t>
-  </si>
-  <si>
     <t>Anamika </t>
   </si>
   <si>
@@ -2813,6 +2810,15 @@
   </si>
   <si>
     <t>Monika</t>
+  </si>
+  <si>
+    <t>Namrata </t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>Sonia</t>
   </si>
 </sst>
 </file>
@@ -3197,7 +3203,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="40.28515625" collapsed="true"/>
+    <col min="3" max="3" width="40.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="10" customFormat="1">
@@ -3240,25 +3246,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M1502"/>
   <sheetViews>
-    <sheetView topLeftCell="G10" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="19.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="21.28515625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="20.93359375" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="96.0" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="36.7109375" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="255.7109375" collapsed="true"/>
+    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="21" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="96" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="36.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="16.140625" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="255.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -3304,7 +3310,7 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C2" t="s">
         <v>167</v>
@@ -3322,17 +3328,17 @@
         <v>182</v>
       </c>
       <c r="I2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K2" t="s">
         <v>148</v>
       </c>
       <c r="L2" s="22">
         <f ca="1">(TODAY() )</f>
-        <v>43270</v>
+        <v>43271</v>
       </c>
       <c r="M2" t="s">
         <v>197</v>
@@ -3355,10 +3361,10 @@
         <v>106</v>
       </c>
       <c r="I3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K3" t="s">
         <v>200</v>
@@ -3378,7 +3384,7 @@
         <v>106</v>
       </c>
       <c r="J4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K4" t="s">
         <v>206</v>
@@ -3395,7 +3401,7 @@
         <v>183</v>
       </c>
       <c r="J5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -3403,7 +3409,7 @@
         <v>171</v>
       </c>
       <c r="J6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -3411,7 +3417,7 @@
         <v>172</v>
       </c>
       <c r="J7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -3419,7 +3425,7 @@
         <v>173</v>
       </c>
       <c r="J8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -3427,7 +3433,7 @@
         <v>174</v>
       </c>
       <c r="J9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -3435,7 +3441,7 @@
         <v>175</v>
       </c>
       <c r="J10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -3443,7 +3449,7 @@
         <v>176</v>
       </c>
       <c r="J11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -3451,7 +3457,7 @@
         <v>177</v>
       </c>
       <c r="J12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -3459,7452 +3465,7452 @@
         <v>178</v>
       </c>
       <c r="J13" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="J14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="J15" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="J16" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="17" spans="10:10">
       <c r="J17" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="18" spans="10:10">
       <c r="J18" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="19" spans="10:10">
       <c r="J19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="20" spans="10:10">
       <c r="J20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="21" spans="10:10">
       <c r="J21" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="22" spans="10:10">
       <c r="J22" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="23" spans="10:10">
       <c r="J23" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="24" spans="10:10">
       <c r="J24" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="25" spans="10:10">
       <c r="J25" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="26" spans="10:10">
       <c r="J26" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="27" spans="10:10">
       <c r="J27" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="28" spans="10:10">
       <c r="J28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="29" spans="10:10">
       <c r="J29" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="30" spans="10:10">
       <c r="J30" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="31" spans="10:10">
       <c r="J31" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="32" spans="10:10">
       <c r="J32" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="33" spans="10:10">
       <c r="J33" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="34" spans="10:10">
       <c r="J34" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="35" spans="10:10">
       <c r="J35" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="36" spans="10:10">
       <c r="J36" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="37" spans="10:10">
       <c r="J37" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="38" spans="10:10">
       <c r="J38" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="39" spans="10:10">
       <c r="J39" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="40" spans="10:10">
       <c r="J40" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="41" spans="10:10">
       <c r="J41" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="42" spans="10:10">
       <c r="J42" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="43" spans="10:10">
       <c r="J43" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="44" spans="10:10">
       <c r="J44" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="45" spans="10:10">
       <c r="J45" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="46" spans="10:10">
       <c r="J46" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="47" spans="10:10">
       <c r="J47" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="48" spans="10:10">
       <c r="J48" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="49" spans="10:10">
       <c r="J49" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="50" spans="10:10">
       <c r="J50" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="51" spans="10:10">
       <c r="J51" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="52" spans="10:10">
       <c r="J52" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="53" spans="10:10">
       <c r="J53" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="54" spans="10:10">
       <c r="J54" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="55" spans="10:10">
       <c r="J55" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="56" spans="10:10">
       <c r="J56" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="57" spans="10:10">
       <c r="J57" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="58" spans="10:10">
       <c r="J58" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="59" spans="10:10">
       <c r="J59" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="60" spans="10:10">
       <c r="J60" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="61" spans="10:10">
       <c r="J61" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="62" spans="10:10">
       <c r="J62" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="63" spans="10:10">
       <c r="J63" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="64" spans="10:10">
       <c r="J64" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="65" spans="10:10">
       <c r="J65" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="66" spans="10:10">
       <c r="J66" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="67" spans="10:10">
       <c r="J67" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="68" spans="10:10">
       <c r="J68" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="69" spans="10:10">
       <c r="J69" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="70" spans="10:10">
       <c r="J70" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="71" spans="10:10">
       <c r="J71" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="72" spans="10:10">
       <c r="J72" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="73" spans="10:10">
       <c r="J73" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="74" spans="10:10">
       <c r="J74" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="75" spans="10:10">
       <c r="J75" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="76" spans="10:10">
       <c r="J76" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="77" spans="10:10">
       <c r="J77" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="78" spans="10:10">
       <c r="J78" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="79" spans="10:10">
       <c r="J79" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="80" spans="10:10">
       <c r="J80" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="81" spans="10:10">
       <c r="J81" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="82" spans="10:10">
       <c r="J82" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="83" spans="10:10">
       <c r="J83" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="84" spans="10:10">
       <c r="J84" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="85" spans="10:10">
       <c r="J85" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="86" spans="10:10">
       <c r="J86" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="87" spans="10:10">
       <c r="J87" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="88" spans="10:10">
       <c r="J88" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="89" spans="10:10">
       <c r="J89" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="90" spans="10:10">
       <c r="J90" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="91" spans="10:10">
       <c r="J91" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="92" spans="10:10">
       <c r="J92" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="93" spans="10:10">
       <c r="J93" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="94" spans="10:10">
       <c r="J94" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="95" spans="10:10">
       <c r="J95" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="96" spans="10:10">
       <c r="J96" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="97" spans="10:10">
       <c r="J97" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="98" spans="10:10">
       <c r="J98" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="99" spans="10:10">
       <c r="J99" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="100" spans="10:10">
       <c r="J100" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="101" spans="10:10">
       <c r="J101" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="102" spans="10:10">
       <c r="J102" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="103" spans="10:10">
       <c r="J103" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="104" spans="10:10">
       <c r="J104" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="105" spans="10:10">
       <c r="J105" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="106" spans="10:10">
       <c r="J106" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="107" spans="10:10">
       <c r="J107" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="108" spans="10:10">
       <c r="J108" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="109" spans="10:10">
       <c r="J109" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="110" spans="10:10">
       <c r="J110" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="111" spans="10:10">
       <c r="J111" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="112" spans="10:10">
       <c r="J112" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="113" spans="10:10">
       <c r="J113" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="114" spans="10:10">
       <c r="J114" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="115" spans="10:10">
       <c r="J115" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="116" spans="10:10">
       <c r="J116" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="117" spans="10:10">
       <c r="J117" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="118" spans="10:10">
       <c r="J118" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="119" spans="10:10">
       <c r="J119" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="120" spans="10:10">
       <c r="J120" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="121" spans="10:10">
       <c r="J121" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="122" spans="10:10">
       <c r="J122" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="123" spans="10:10">
       <c r="J123" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="124" spans="10:10">
       <c r="J124" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="125" spans="10:10">
       <c r="J125" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="126" spans="10:10">
       <c r="J126" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="127" spans="10:10">
       <c r="J127" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="128" spans="10:10">
       <c r="J128" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="129" spans="10:10">
       <c r="J129" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="130" spans="10:10">
       <c r="J130" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="131" spans="10:10">
       <c r="J131" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="132" spans="10:10">
       <c r="J132" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="133" spans="10:10">
       <c r="J133" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="134" spans="10:10">
       <c r="J134" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="135" spans="10:10">
       <c r="J135" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="136" spans="10:10">
       <c r="J136" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="137" spans="10:10">
       <c r="J137" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="138" spans="10:10">
       <c r="J138" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="139" spans="10:10">
       <c r="J139" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="140" spans="10:10">
       <c r="J140" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="141" spans="10:10">
       <c r="J141" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="142" spans="10:10">
       <c r="J142" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="143" spans="10:10">
       <c r="J143" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="144" spans="10:10">
       <c r="J144" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="145" spans="10:10">
       <c r="J145" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="146" spans="10:10">
       <c r="J146" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="147" spans="10:10">
       <c r="J147" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="148" spans="10:10">
       <c r="J148" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="149" spans="10:10">
       <c r="J149" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="150" spans="10:10">
       <c r="J150" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="151" spans="10:10">
       <c r="J151" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="152" spans="10:10">
       <c r="J152" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="153" spans="10:10">
       <c r="J153" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="154" spans="10:10">
       <c r="J154" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="155" spans="10:10">
       <c r="J155" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="156" spans="10:10">
       <c r="J156" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="157" spans="10:10">
       <c r="J157" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="158" spans="10:10">
       <c r="J158" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="159" spans="10:10">
       <c r="J159" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="160" spans="10:10">
       <c r="J160" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="161" spans="10:10">
       <c r="J161" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="162" spans="10:10">
       <c r="J162" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="163" spans="10:10">
       <c r="J163" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="164" spans="10:10">
       <c r="J164" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="165" spans="10:10">
       <c r="J165" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="166" spans="10:10">
       <c r="J166" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="167" spans="10:10">
       <c r="J167" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="168" spans="10:10">
       <c r="J168" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="169" spans="10:10">
       <c r="J169" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="170" spans="10:10">
       <c r="J170" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="171" spans="10:10">
       <c r="J171" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="172" spans="10:10">
       <c r="J172" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="173" spans="10:10">
       <c r="J173" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="174" spans="10:10">
       <c r="J174" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="175" spans="10:10">
       <c r="J175" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="176" spans="10:10">
       <c r="J176" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="177" spans="10:10">
       <c r="J177" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="178" spans="10:10">
       <c r="J178" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="179" spans="10:10">
       <c r="J179" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="180" spans="10:10">
       <c r="J180" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="181" spans="10:10">
       <c r="J181" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="182" spans="10:10">
       <c r="J182" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="183" spans="10:10">
       <c r="J183" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="184" spans="10:10">
       <c r="J184" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="185" spans="10:10">
       <c r="J185" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="186" spans="10:10">
       <c r="J186" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="187" spans="10:10">
       <c r="J187" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="188" spans="10:10">
       <c r="J188" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="189" spans="10:10">
       <c r="J189" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="190" spans="10:10">
       <c r="J190" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="191" spans="10:10">
       <c r="J191" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="192" spans="10:10">
       <c r="J192" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="193" spans="10:10">
       <c r="J193" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="194" spans="10:10">
       <c r="J194" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="195" spans="10:10">
       <c r="J195" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="196" spans="10:10">
       <c r="J196" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="197" spans="10:10">
       <c r="J197" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="198" spans="10:10">
       <c r="J198" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="199" spans="10:10">
       <c r="J199" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="200" spans="10:10">
       <c r="J200" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="201" spans="10:10">
       <c r="J201" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="202" spans="10:10">
       <c r="J202" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="203" spans="10:10">
       <c r="J203" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="204" spans="10:10">
       <c r="J204" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="205" spans="10:10">
       <c r="J205" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="206" spans="10:10">
       <c r="J206" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="207" spans="10:10">
       <c r="J207" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="208" spans="10:10">
       <c r="J208" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="209" spans="10:10">
       <c r="J209" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="210" spans="10:10">
       <c r="J210" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="211" spans="10:10">
       <c r="J211" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="212" spans="10:10">
       <c r="J212" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="213" spans="10:10">
       <c r="J213" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="214" spans="10:10">
       <c r="J214" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="215" spans="10:10">
       <c r="J215" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="216" spans="10:10">
       <c r="J216" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="217" spans="10:10">
       <c r="J217" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="218" spans="10:10">
       <c r="J218" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="219" spans="10:10">
       <c r="J219" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="220" spans="10:10">
       <c r="J220" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="221" spans="10:10">
       <c r="J221" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="222" spans="10:10">
       <c r="J222" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="223" spans="10:10">
       <c r="J223" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="224" spans="10:10">
       <c r="J224" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="225" spans="10:10">
       <c r="J225" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="226" spans="10:10">
       <c r="J226" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="227" spans="10:10">
       <c r="J227" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="228" spans="10:10">
       <c r="J228" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="229" spans="10:10">
       <c r="J229" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="230" spans="10:10">
       <c r="J230" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="231" spans="10:10">
       <c r="J231" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="232" spans="10:10">
       <c r="J232" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="233" spans="10:10">
       <c r="J233" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="234" spans="10:10">
       <c r="J234" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="235" spans="10:10">
       <c r="J235" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="236" spans="10:10">
       <c r="J236" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="237" spans="10:10">
       <c r="J237" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="238" spans="10:10">
       <c r="J238" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="239" spans="10:10">
       <c r="J239" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="240" spans="10:10">
       <c r="J240" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="241" spans="10:10">
       <c r="J241" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="242" spans="10:10">
       <c r="J242" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="243" spans="10:10">
       <c r="J243" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="244" spans="10:10">
       <c r="J244" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="245" spans="10:10">
       <c r="J245" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="246" spans="10:10">
       <c r="J246" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="247" spans="10:10">
       <c r="J247" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="248" spans="10:10">
       <c r="J248" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="249" spans="10:10">
       <c r="J249" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="250" spans="10:10">
       <c r="J250" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="251" spans="10:10">
       <c r="J251" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="252" spans="10:10">
       <c r="J252" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="253" spans="10:10">
       <c r="J253" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="254" spans="10:10">
       <c r="J254" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="255" spans="10:10">
       <c r="J255" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="256" spans="10:10">
       <c r="J256" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="257" spans="10:10">
       <c r="J257" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="258" spans="10:10">
       <c r="J258" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="259" spans="10:10">
       <c r="J259" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="260" spans="10:10">
       <c r="J260" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="261" spans="10:10">
       <c r="J261" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="262" spans="10:10">
       <c r="J262" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="263" spans="10:10">
       <c r="J263" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="264" spans="10:10">
       <c r="J264" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="265" spans="10:10">
       <c r="J265" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="266" spans="10:10">
       <c r="J266" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="267" spans="10:10">
       <c r="J267" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="268" spans="10:10">
       <c r="J268" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="269" spans="10:10">
       <c r="J269" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="270" spans="10:10">
       <c r="J270" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="271" spans="10:10">
       <c r="J271" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="272" spans="10:10">
       <c r="J272" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="273" spans="10:10">
       <c r="J273" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="274" spans="10:10">
       <c r="J274" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="275" spans="10:10">
       <c r="J275" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="276" spans="10:10">
       <c r="J276" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="277" spans="10:10">
       <c r="J277" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="278" spans="10:10">
       <c r="J278" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="279" spans="10:10">
       <c r="J279" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="280" spans="10:10">
       <c r="J280" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="281" spans="10:10">
       <c r="J281" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="282" spans="10:10">
       <c r="J282" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="283" spans="10:10">
       <c r="J283" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="284" spans="10:10">
       <c r="J284" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="285" spans="10:10">
       <c r="J285" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="286" spans="10:10">
       <c r="J286" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="287" spans="10:10">
       <c r="J287" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="288" spans="10:10">
       <c r="J288" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="289" spans="10:10">
       <c r="J289" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="290" spans="10:10">
       <c r="J290" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="291" spans="10:10">
       <c r="J291" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="292" spans="10:10">
       <c r="J292" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="293" spans="10:10">
       <c r="J293" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="294" spans="10:10">
       <c r="J294" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="295" spans="10:10">
       <c r="J295" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="296" spans="10:10">
       <c r="J296" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="297" spans="10:10">
       <c r="J297" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="298" spans="10:10">
       <c r="J298" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="299" spans="10:10">
       <c r="J299" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="300" spans="10:10">
       <c r="J300" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="301" spans="10:10">
       <c r="J301" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="302" spans="10:10">
       <c r="J302" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="303" spans="10:10">
       <c r="J303" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="304" spans="10:10">
       <c r="J304" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="305" spans="10:10">
       <c r="J305" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="306" spans="10:10">
       <c r="J306" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="307" spans="10:10">
       <c r="J307" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="308" spans="10:10">
       <c r="J308" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="309" spans="10:10">
       <c r="J309" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="310" spans="10:10">
       <c r="J310" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="311" spans="10:10">
       <c r="J311" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="312" spans="10:10">
       <c r="J312" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="313" spans="10:10">
       <c r="J313" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="314" spans="10:10">
       <c r="J314" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="315" spans="10:10">
       <c r="J315" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="316" spans="10:10">
       <c r="J316" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="317" spans="10:10">
       <c r="J317" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="318" spans="10:10">
       <c r="J318" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="319" spans="10:10">
       <c r="J319" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="320" spans="10:10">
       <c r="J320" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="321" spans="10:10">
       <c r="J321" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="322" spans="10:10">
       <c r="J322" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="323" spans="10:10">
       <c r="J323" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="324" spans="10:10">
       <c r="J324" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="325" spans="10:10">
       <c r="J325" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="326" spans="10:10">
       <c r="J326" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="327" spans="10:10">
       <c r="J327" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="328" spans="10:10">
       <c r="J328" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="329" spans="10:10">
       <c r="J329" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="330" spans="10:10">
       <c r="J330" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="331" spans="10:10">
       <c r="J331" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="332" spans="10:10">
       <c r="J332" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="333" spans="10:10">
       <c r="J333" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="334" spans="10:10">
       <c r="J334" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="335" spans="10:10">
       <c r="J335" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="336" spans="10:10">
       <c r="J336" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="337" spans="10:10">
       <c r="J337" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="338" spans="10:10">
       <c r="J338" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="339" spans="10:10">
       <c r="J339" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="340" spans="10:10">
       <c r="J340" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="341" spans="10:10">
       <c r="J341" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="342" spans="10:10">
       <c r="J342" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="343" spans="10:10">
       <c r="J343" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="344" spans="10:10">
       <c r="J344" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="345" spans="10:10">
       <c r="J345" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="346" spans="10:10">
       <c r="J346" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="347" spans="10:10">
       <c r="J347" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="348" spans="10:10">
       <c r="J348" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="349" spans="10:10">
       <c r="J349" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="350" spans="10:10">
       <c r="J350" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="351" spans="10:10">
       <c r="J351" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="352" spans="10:10">
       <c r="J352" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="353" spans="10:10">
       <c r="J353" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="354" spans="10:10">
       <c r="J354" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="355" spans="10:10">
       <c r="J355" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="356" spans="10:10">
       <c r="J356" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="357" spans="10:10">
       <c r="J357" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="358" spans="10:10">
       <c r="J358" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="359" spans="10:10">
       <c r="J359" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="360" spans="10:10">
       <c r="J360" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="361" spans="10:10">
       <c r="J361" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="362" spans="10:10">
       <c r="J362" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="363" spans="10:10">
       <c r="J363" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="364" spans="10:10">
       <c r="J364" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="365" spans="10:10">
       <c r="J365" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="366" spans="10:10">
       <c r="J366" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="367" spans="10:10">
       <c r="J367" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="368" spans="10:10">
       <c r="J368" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="369" spans="10:10">
       <c r="J369" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="370" spans="10:10">
       <c r="J370" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="371" spans="10:10">
       <c r="J371" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="372" spans="10:10">
       <c r="J372" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="373" spans="10:10">
       <c r="J373" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="374" spans="10:10">
       <c r="J374" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="375" spans="10:10">
       <c r="J375" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="376" spans="10:10">
       <c r="J376" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="377" spans="10:10">
       <c r="J377" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="378" spans="10:10">
       <c r="J378" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="379" spans="10:10">
       <c r="J379" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="380" spans="10:10">
       <c r="J380" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="381" spans="10:10">
       <c r="J381" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="382" spans="10:10">
       <c r="J382" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="383" spans="10:10">
       <c r="J383" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="384" spans="10:10">
       <c r="J384" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="385" spans="10:10">
       <c r="J385" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="386" spans="10:10">
       <c r="J386" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="387" spans="10:10">
       <c r="J387" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="388" spans="10:10">
       <c r="J388" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="389" spans="10:10">
       <c r="J389" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="390" spans="10:10">
       <c r="J390" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="391" spans="10:10">
       <c r="J391" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="392" spans="10:10">
       <c r="J392" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="393" spans="10:10">
       <c r="J393" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="394" spans="10:10">
       <c r="J394" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="395" spans="10:10">
       <c r="J395" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="396" spans="10:10">
       <c r="J396" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="397" spans="10:10">
       <c r="J397" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="398" spans="10:10">
       <c r="J398" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="399" spans="10:10">
       <c r="J399" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="400" spans="10:10">
       <c r="J400" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="401" spans="10:10">
       <c r="J401" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="402" spans="10:10">
       <c r="J402" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="403" spans="10:10">
       <c r="J403" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="404" spans="10:10">
       <c r="J404" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="405" spans="10:10">
       <c r="J405" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="406" spans="10:10">
       <c r="J406" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="407" spans="10:10">
       <c r="J407" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="408" spans="10:10">
       <c r="J408" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="409" spans="10:10">
       <c r="J409" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="410" spans="10:10">
       <c r="J410" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="411" spans="10:10">
       <c r="J411" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="412" spans="10:10">
       <c r="J412" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="413" spans="10:10">
       <c r="J413" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="414" spans="10:10">
       <c r="J414" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="415" spans="10:10">
       <c r="J415" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="416" spans="10:10">
       <c r="J416" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="417" spans="10:10">
       <c r="J417" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="418" spans="10:10">
       <c r="J418" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="419" spans="10:10">
       <c r="J419" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="420" spans="10:10">
       <c r="J420" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="421" spans="10:10">
       <c r="J421" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="422" spans="10:10">
       <c r="J422" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="423" spans="10:10">
       <c r="J423" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="424" spans="10:10">
       <c r="J424" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="425" spans="10:10">
       <c r="J425" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="426" spans="10:10">
       <c r="J426" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="427" spans="10:10">
       <c r="J427" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="428" spans="10:10">
       <c r="J428" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="429" spans="10:10">
       <c r="J429" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="430" spans="10:10">
       <c r="J430" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="431" spans="10:10">
       <c r="J431" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="432" spans="10:10">
       <c r="J432" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="433" spans="10:10">
       <c r="J433" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="434" spans="10:10">
       <c r="J434" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="435" spans="10:10">
       <c r="J435" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="436" spans="10:10">
       <c r="J436" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="437" spans="10:10">
       <c r="J437" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="438" spans="10:10">
       <c r="J438" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="439" spans="10:10">
       <c r="J439" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="440" spans="10:10">
       <c r="J440" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="441" spans="10:10">
       <c r="J441" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="442" spans="10:10">
       <c r="J442" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="443" spans="10:10">
       <c r="J443" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="444" spans="10:10">
       <c r="J444" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="445" spans="10:10">
       <c r="J445" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="446" spans="10:10">
       <c r="J446" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="447" spans="10:10">
       <c r="J447" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="448" spans="10:10">
       <c r="J448" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="449" spans="10:10">
       <c r="J449" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="450" spans="10:10">
       <c r="J450" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="451" spans="10:10">
       <c r="J451" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="452" spans="10:10">
       <c r="J452" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="453" spans="10:10">
       <c r="J453" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="454" spans="10:10">
       <c r="J454" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="455" spans="10:10">
       <c r="J455" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="456" spans="10:10">
       <c r="J456" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="457" spans="10:10">
       <c r="J457" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="458" spans="10:10">
       <c r="J458" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="459" spans="10:10">
       <c r="J459" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="460" spans="10:10">
       <c r="J460" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="461" spans="10:10">
       <c r="J461" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="462" spans="10:10">
       <c r="J462" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="463" spans="10:10">
       <c r="J463" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="464" spans="10:10">
       <c r="J464" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="465" spans="10:10">
       <c r="J465" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="466" spans="10:10">
       <c r="J466" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="467" spans="10:10">
       <c r="J467" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="468" spans="10:10">
       <c r="J468" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="469" spans="10:10">
       <c r="J469" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="470" spans="10:10">
       <c r="J470" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="471" spans="10:10">
       <c r="J471" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="472" spans="10:10">
       <c r="J472" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="473" spans="10:10">
       <c r="J473" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="474" spans="10:10">
       <c r="J474" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="475" spans="10:10">
       <c r="J475" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="476" spans="10:10">
       <c r="J476" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="477" spans="10:10">
       <c r="J477" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="478" spans="10:10">
       <c r="J478" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="479" spans="10:10">
       <c r="J479" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="480" spans="10:10">
       <c r="J480" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="481" spans="10:10">
       <c r="J481" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="482" spans="10:10">
       <c r="J482" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="483" spans="10:10">
       <c r="J483" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="484" spans="10:10">
       <c r="J484" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="485" spans="10:10">
       <c r="J485" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="486" spans="10:10">
       <c r="J486" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="487" spans="10:10">
       <c r="J487" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="488" spans="10:10">
       <c r="J488" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="489" spans="10:10">
       <c r="J489" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="490" spans="10:10">
       <c r="J490" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="491" spans="10:10">
       <c r="J491" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="492" spans="10:10">
       <c r="J492" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="493" spans="10:10">
       <c r="J493" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="494" spans="10:10">
       <c r="J494" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="495" spans="10:10">
       <c r="J495" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="496" spans="10:10">
       <c r="J496" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="497" spans="10:10">
       <c r="J497" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="498" spans="10:10">
       <c r="J498" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="499" spans="10:10">
       <c r="J499" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="500" spans="10:10">
       <c r="J500" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="501" spans="10:10">
       <c r="J501" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="502" spans="10:10">
       <c r="J502" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="503" spans="10:10">
       <c r="J503" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="504" spans="10:10">
       <c r="J504" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="505" spans="10:10">
       <c r="J505" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="506" spans="10:10">
       <c r="J506" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="507" spans="10:10">
       <c r="J507" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="508" spans="10:10">
       <c r="J508" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="509" spans="10:10">
       <c r="J509" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="510" spans="10:10">
       <c r="J510" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="511" spans="10:10">
       <c r="J511" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="512" spans="10:10">
       <c r="J512" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="513" spans="10:10">
       <c r="J513" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="514" spans="10:10">
       <c r="J514" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="515" spans="10:10">
       <c r="J515" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="516" spans="10:10">
       <c r="J516" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="517" spans="10:10">
       <c r="J517" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="518" spans="10:10">
       <c r="J518" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="519" spans="10:10">
       <c r="J519" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="520" spans="10:10">
       <c r="J520" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="521" spans="10:10">
       <c r="J521" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="522" spans="10:10">
       <c r="J522" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="523" spans="10:10">
       <c r="J523" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="524" spans="10:10">
       <c r="J524" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="525" spans="10:10">
       <c r="J525" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="526" spans="10:10">
       <c r="J526" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="527" spans="10:10">
       <c r="J527" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="528" spans="10:10">
       <c r="J528" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="529" spans="10:10">
       <c r="J529" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="530" spans="10:10">
       <c r="J530" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="531" spans="10:10">
       <c r="J531" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="532" spans="10:10">
       <c r="J532" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="533" spans="10:10">
       <c r="J533" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="534" spans="10:10">
       <c r="J534" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="535" spans="10:10">
       <c r="J535" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="536" spans="10:10">
       <c r="J536" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="537" spans="10:10">
       <c r="J537" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="538" spans="10:10">
       <c r="J538" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="539" spans="10:10">
       <c r="J539" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="540" spans="10:10">
       <c r="J540" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="541" spans="10:10">
       <c r="J541" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="542" spans="10:10">
       <c r="J542" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="543" spans="10:10">
       <c r="J543" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="544" spans="10:10">
       <c r="J544" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="545" spans="10:10">
       <c r="J545" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="546" spans="10:10">
       <c r="J546" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="547" spans="10:10">
       <c r="J547" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="548" spans="10:10">
       <c r="J548" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="549" spans="10:10">
       <c r="J549" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="550" spans="10:10">
       <c r="J550" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="551" spans="10:10">
       <c r="J551" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="552" spans="10:10">
       <c r="J552" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="553" spans="10:10">
       <c r="J553" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="554" spans="10:10">
       <c r="J554" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="555" spans="10:10">
       <c r="J555" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="556" spans="10:10">
       <c r="J556" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="557" spans="10:10">
       <c r="J557" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="558" spans="10:10">
       <c r="J558" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="559" spans="10:10">
       <c r="J559" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="560" spans="10:10">
       <c r="J560" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="561" spans="10:10">
       <c r="J561" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="562" spans="10:10">
       <c r="J562" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="563" spans="10:10">
       <c r="J563" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="564" spans="10:10">
       <c r="J564" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="565" spans="10:10">
       <c r="J565" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="566" spans="10:10">
       <c r="J566" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="567" spans="10:10">
       <c r="J567" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="568" spans="10:10">
       <c r="J568" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="569" spans="10:10">
       <c r="J569" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="570" spans="10:10">
       <c r="J570" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="571" spans="10:10">
       <c r="J571" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="572" spans="10:10">
       <c r="J572" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="573" spans="10:10">
       <c r="J573" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="574" spans="10:10">
       <c r="J574" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="575" spans="10:10">
       <c r="J575" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="576" spans="10:10">
       <c r="J576" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="577" spans="10:10">
       <c r="J577" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="578" spans="10:10">
       <c r="J578" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="579" spans="10:10">
       <c r="J579" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="580" spans="10:10">
       <c r="J580" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="581" spans="10:10">
       <c r="J581" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="582" spans="10:10">
       <c r="J582" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="583" spans="10:10">
       <c r="J583" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="584" spans="10:10">
       <c r="J584" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="585" spans="10:10">
       <c r="J585" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="586" spans="10:10">
       <c r="J586" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="587" spans="10:10">
       <c r="J587" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="588" spans="10:10">
       <c r="J588" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="589" spans="10:10">
       <c r="J589" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="590" spans="10:10">
       <c r="J590" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="591" spans="10:10">
       <c r="J591" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="592" spans="10:10">
       <c r="J592" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="593" spans="10:10">
       <c r="J593" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="594" spans="10:10">
       <c r="J594" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="595" spans="10:10">
       <c r="J595" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="596" spans="10:10">
       <c r="J596" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="597" spans="10:10">
       <c r="J597" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="598" spans="10:10">
       <c r="J598" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="599" spans="10:10">
       <c r="J599" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="600" spans="10:10">
       <c r="J600" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="601" spans="10:10">
       <c r="J601" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="602" spans="10:10">
       <c r="J602" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="603" spans="10:10">
       <c r="J603" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="604" spans="10:10">
       <c r="J604" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="605" spans="10:10">
       <c r="J605" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="606" spans="10:10">
       <c r="J606" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="607" spans="10:10">
       <c r="J607" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="608" spans="10:10">
       <c r="J608" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="609" spans="10:10">
       <c r="J609" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="610" spans="10:10">
       <c r="J610" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="611" spans="10:10">
       <c r="J611" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="612" spans="10:10">
       <c r="J612" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="613" spans="10:10">
       <c r="J613" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="614" spans="10:10">
       <c r="J614" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="615" spans="10:10">
       <c r="J615" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="616" spans="10:10">
       <c r="J616" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="617" spans="10:10">
       <c r="J617" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="618" spans="10:10">
       <c r="J618" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="619" spans="10:10">
       <c r="J619" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="620" spans="10:10">
       <c r="J620" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="621" spans="10:10">
       <c r="J621" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="622" spans="10:10">
       <c r="J622" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="623" spans="10:10">
       <c r="J623" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="624" spans="10:10">
       <c r="J624" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="625" spans="10:10">
       <c r="J625" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="626" spans="10:10">
       <c r="J626" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="627" spans="10:10">
       <c r="J627" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="628" spans="10:10">
       <c r="J628" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="629" spans="10:10">
       <c r="J629" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="630" spans="10:10">
       <c r="J630" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="631" spans="10:10">
       <c r="J631" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="632" spans="10:10">
       <c r="J632" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="633" spans="10:10">
       <c r="J633" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="634" spans="10:10">
       <c r="J634" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="635" spans="10:10">
       <c r="J635" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="636" spans="10:10">
       <c r="J636" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="637" spans="10:10">
       <c r="J637" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="638" spans="10:10">
       <c r="J638" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="639" spans="10:10">
       <c r="J639" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="640" spans="10:10">
       <c r="J640" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="641" spans="10:10">
       <c r="J641" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="642" spans="10:10">
       <c r="J642" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="643" spans="10:10">
       <c r="J643" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="644" spans="10:10">
       <c r="J644" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="645" spans="10:10">
       <c r="J645" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="646" spans="10:10">
       <c r="J646" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="647" spans="10:10">
       <c r="J647" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="648" spans="10:10">
       <c r="J648" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="649" spans="10:10">
       <c r="J649" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="650" spans="10:10">
       <c r="J650" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="651" spans="10:10">
       <c r="J651" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="652" spans="10:10">
       <c r="J652" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="653" spans="10:10">
       <c r="J653" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="654" spans="10:10">
       <c r="J654" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="655" spans="10:10">
       <c r="J655" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="656" spans="10:10">
       <c r="J656" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="657" spans="10:10">
       <c r="J657" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="658" spans="10:10">
       <c r="J658" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="659" spans="10:10">
       <c r="J659" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="660" spans="10:10">
       <c r="J660" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="661" spans="10:10">
       <c r="J661" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="662" spans="10:10">
       <c r="J662" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="663" spans="10:10">
       <c r="J663" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="664" spans="10:10">
       <c r="J664" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="665" spans="10:10">
       <c r="J665" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="666" spans="10:10">
       <c r="J666" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="667" spans="10:10">
       <c r="J667" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="668" spans="10:10">
       <c r="J668" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="669" spans="10:10">
       <c r="J669" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="670" spans="10:10">
       <c r="J670" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="671" spans="10:10">
       <c r="J671" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="672" spans="10:10">
       <c r="J672" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="673" spans="10:10">
       <c r="J673" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="674" spans="10:10">
       <c r="J674" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="675" spans="10:10">
       <c r="J675" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="676" spans="10:10">
       <c r="J676" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="677" spans="10:10">
       <c r="J677" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="678" spans="10:10">
       <c r="J678" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="679" spans="10:10">
       <c r="J679" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="680" spans="10:10">
       <c r="J680" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="681" spans="10:10">
       <c r="J681" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="682" spans="10:10">
       <c r="J682" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="683" spans="10:10">
       <c r="J683" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="684" spans="10:10">
       <c r="J684" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="685" spans="10:10">
       <c r="J685" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="686" spans="10:10">
       <c r="J686" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="687" spans="10:10">
       <c r="J687" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="688" spans="10:10">
       <c r="J688" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="689" spans="10:10">
       <c r="J689" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="690" spans="10:10">
       <c r="J690" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="691" spans="10:10">
       <c r="J691" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="692" spans="10:10">
       <c r="J692" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="693" spans="10:10">
       <c r="J693" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="694" spans="10:10">
       <c r="J694" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="695" spans="10:10">
       <c r="J695" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="696" spans="10:10">
       <c r="J696" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="697" spans="10:10">
       <c r="J697" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="698" spans="10:10">
       <c r="J698" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="699" spans="10:10">
       <c r="J699" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="700" spans="10:10">
       <c r="J700" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="701" spans="10:10">
       <c r="J701" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="702" spans="10:10">
       <c r="J702" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="703" spans="10:10">
       <c r="J703" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="704" spans="10:10">
       <c r="J704" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="705" spans="10:10">
       <c r="J705" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="706" spans="10:10">
       <c r="J706" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="707" spans="10:10">
       <c r="J707" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="708" spans="10:10">
       <c r="J708" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="709" spans="10:10">
       <c r="J709" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="710" spans="10:10">
       <c r="J710" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="711" spans="10:10">
       <c r="J711" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="712" spans="10:10">
       <c r="J712" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="713" spans="10:10">
       <c r="J713" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="714" spans="10:10">
       <c r="J714" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="715" spans="10:10">
       <c r="J715" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="716" spans="10:10">
       <c r="J716" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="717" spans="10:10">
       <c r="J717" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="718" spans="10:10">
       <c r="J718" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="719" spans="10:10">
       <c r="J719" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="720" spans="10:10">
       <c r="J720" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="721" spans="10:10">
       <c r="J721" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="722" spans="10:10">
       <c r="J722" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="723" spans="10:10">
       <c r="J723" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="724" spans="10:10">
       <c r="J724" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="725" spans="10:10">
       <c r="J725" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="726" spans="10:10">
       <c r="J726" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="727" spans="10:10">
       <c r="J727" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="728" spans="10:10">
       <c r="J728" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="729" spans="10:10">
       <c r="J729" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="730" spans="10:10">
       <c r="J730" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="731" spans="10:10">
       <c r="J731" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="732" spans="10:10">
       <c r="J732" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="733" spans="10:10">
       <c r="J733" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="734" spans="10:10">
       <c r="J734" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="735" spans="10:10">
       <c r="J735" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="736" spans="10:10">
       <c r="J736" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="737" spans="10:10">
       <c r="J737" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="738" spans="10:10">
       <c r="J738" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="739" spans="10:10">
       <c r="J739" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="740" spans="10:10">
       <c r="J740" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="741" spans="10:10">
       <c r="J741" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="742" spans="10:10">
       <c r="J742" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="743" spans="10:10">
       <c r="J743" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="744" spans="10:10">
       <c r="J744" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="745" spans="10:10">
       <c r="J745" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="746" spans="10:10">
       <c r="J746" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="747" spans="10:10">
       <c r="J747" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="748" spans="10:10">
       <c r="J748" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="749" spans="10:10">
       <c r="J749" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="750" spans="10:10">
       <c r="J750" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="751" spans="10:10">
       <c r="J751" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="752" spans="10:10">
       <c r="J752" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="753" spans="10:10">
       <c r="J753" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="754" spans="10:10">
       <c r="J754" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="755" spans="10:10">
       <c r="J755" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="756" spans="10:10">
       <c r="J756" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="757" spans="10:10">
       <c r="J757" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="758" spans="10:10">
       <c r="J758" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="759" spans="10:10">
       <c r="J759" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="760" spans="10:10">
       <c r="J760" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="761" spans="10:10">
       <c r="J761" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="762" spans="10:10">
       <c r="J762" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="763" spans="10:10">
       <c r="J763" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="764" spans="10:10">
       <c r="J764" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="765" spans="10:10">
       <c r="J765" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="766" spans="10:10">
       <c r="J766" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="767" spans="10:10">
       <c r="J767" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="768" spans="10:10">
       <c r="J768" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="769" spans="10:10">
       <c r="J769" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="770" spans="10:10">
       <c r="J770" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="771" spans="10:10">
       <c r="J771" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="772" spans="10:10">
       <c r="J772" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="773" spans="10:10">
       <c r="J773" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="774" spans="10:10">
       <c r="J774" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="775" spans="10:10">
       <c r="J775" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="776" spans="10:10">
       <c r="J776" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="777" spans="10:10">
       <c r="J777" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="778" spans="10:10">
       <c r="J778" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="779" spans="10:10">
       <c r="J779" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="780" spans="10:10">
       <c r="J780" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="781" spans="10:10">
       <c r="J781" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="782" spans="10:10">
       <c r="J782" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="783" spans="10:10">
       <c r="J783" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="784" spans="10:10">
       <c r="J784" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="785" spans="10:10">
       <c r="J785" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="786" spans="10:10">
       <c r="J786" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="787" spans="10:10">
       <c r="J787" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="788" spans="10:10">
       <c r="J788" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="789" spans="10:10">
       <c r="J789" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="790" spans="10:10">
       <c r="J790" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="791" spans="10:10">
       <c r="J791" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="792" spans="10:10">
       <c r="J792" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="793" spans="10:10">
       <c r="J793" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="794" spans="10:10">
       <c r="J794" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="795" spans="10:10">
       <c r="J795" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="796" spans="10:10">
       <c r="J796" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="797" spans="10:10">
       <c r="J797" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="798" spans="10:10">
       <c r="J798" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="799" spans="10:10">
       <c r="J799" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="800" spans="10:10">
       <c r="J800" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="801" spans="10:10">
       <c r="J801" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="802" spans="10:10">
       <c r="J802" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="803" spans="10:10">
       <c r="J803" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="804" spans="10:10">
       <c r="J804" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="805" spans="10:10">
       <c r="J805" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="806" spans="10:10">
       <c r="J806" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="807" spans="10:10">
       <c r="J807" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="808" spans="10:10">
       <c r="J808" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="809" spans="10:10">
       <c r="J809" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="810" spans="10:10">
       <c r="J810" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="811" spans="10:10">
       <c r="J811" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="812" spans="10:10">
       <c r="J812" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="813" spans="10:10">
       <c r="J813" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="814" spans="10:10">
       <c r="J814" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="815" spans="10:10">
       <c r="J815" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="816" spans="10:10">
       <c r="J816" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="817" spans="10:10">
       <c r="J817" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="818" spans="10:10">
       <c r="J818" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="819" spans="10:10">
       <c r="J819" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="820" spans="10:10">
       <c r="J820" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="821" spans="10:10">
       <c r="J821" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="822" spans="10:10">
       <c r="J822" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="823" spans="10:10">
       <c r="J823" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="824" spans="10:10">
       <c r="J824" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="825" spans="10:10">
       <c r="J825" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="826" spans="10:10">
       <c r="J826" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="827" spans="10:10">
       <c r="J827" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="828" spans="10:10">
       <c r="J828" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="829" spans="10:10">
       <c r="J829" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="830" spans="10:10">
       <c r="J830" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="831" spans="10:10">
       <c r="J831" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="832" spans="10:10">
       <c r="J832" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="833" spans="10:10">
       <c r="J833" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="834" spans="10:10">
       <c r="J834" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="835" spans="10:10">
       <c r="J835" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="836" spans="10:10">
       <c r="J836" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="837" spans="10:10">
       <c r="J837" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="838" spans="10:10">
       <c r="J838" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="839" spans="10:10">
       <c r="J839" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="840" spans="10:10">
       <c r="J840" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="841" spans="10:10">
       <c r="J841" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="842" spans="10:10">
       <c r="J842" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="843" spans="10:10">
       <c r="J843" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="844" spans="10:10">
       <c r="J844" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="845" spans="10:10">
       <c r="J845" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="846" spans="10:10">
       <c r="J846" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="847" spans="10:10">
       <c r="J847" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="848" spans="10:10">
       <c r="J848" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="849" spans="10:10">
       <c r="J849" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="850" spans="10:10">
       <c r="J850" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="851" spans="10:10">
       <c r="J851" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="852" spans="10:10">
       <c r="J852" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="853" spans="10:10">
       <c r="J853" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="854" spans="10:10">
       <c r="J854" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="855" spans="10:10">
       <c r="J855" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="856" spans="10:10">
       <c r="J856" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="857" spans="10:10">
       <c r="J857" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="858" spans="10:10">
       <c r="J858" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="859" spans="10:10">
       <c r="J859" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="860" spans="10:10">
       <c r="J860" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="861" spans="10:10">
       <c r="J861" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="862" spans="10:10">
       <c r="J862" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="863" spans="10:10">
       <c r="J863" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="864" spans="10:10">
       <c r="J864" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="865" spans="10:10">
       <c r="J865" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="866" spans="10:10">
       <c r="J866" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="867" spans="10:10">
       <c r="J867" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="868" spans="10:10">
       <c r="J868" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="869" spans="10:10">
       <c r="J869" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="870" spans="10:10">
       <c r="J870" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="871" spans="10:10">
       <c r="J871" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="872" spans="10:10">
       <c r="J872" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="873" spans="10:10">
       <c r="J873" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="874" spans="10:10">
       <c r="J874" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="875" spans="10:10">
       <c r="J875" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="876" spans="10:10">
       <c r="J876" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="877" spans="10:10">
       <c r="J877" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="878" spans="10:10">
       <c r="J878" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="879" spans="10:10">
       <c r="J879" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="880" spans="10:10">
       <c r="J880" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="881" spans="10:10">
       <c r="J881" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="882" spans="10:10">
       <c r="J882" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="883" spans="10:10">
       <c r="J883" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="884" spans="10:10">
       <c r="J884" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="885" spans="10:10">
       <c r="J885" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="886" spans="10:10">
       <c r="J886" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="887" spans="10:10">
       <c r="J887" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="888" spans="10:10">
       <c r="J888" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="889" spans="10:10">
       <c r="J889" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="890" spans="10:10">
       <c r="J890" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="891" spans="10:10">
       <c r="J891" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="892" spans="10:10">
       <c r="J892" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="893" spans="10:10">
       <c r="J893" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="894" spans="10:10">
       <c r="J894" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="895" spans="10:10">
       <c r="J895" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="896" spans="10:10">
       <c r="J896" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="897" spans="10:10">
       <c r="J897" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="898" spans="10:10">
       <c r="J898" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="899" spans="10:10">
       <c r="J899" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="900" spans="10:10">
       <c r="J900" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="901" spans="10:10">
       <c r="J901" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="902" spans="10:10">
       <c r="J902" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="903" spans="10:10">
       <c r="J903" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="904" spans="10:10">
       <c r="J904" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="905" spans="10:10">
       <c r="J905" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="906" spans="10:10">
       <c r="J906" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="907" spans="10:10">
       <c r="J907" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="908" spans="10:10">
       <c r="J908" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="909" spans="10:10">
       <c r="J909" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="910" spans="10:10">
       <c r="J910" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="911" spans="10:10">
       <c r="J911" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="912" spans="10:10">
       <c r="J912" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="913" spans="10:10">
       <c r="J913" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="914" spans="10:10">
       <c r="J914" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="915" spans="10:10">
       <c r="J915" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="916" spans="10:10">
       <c r="J916" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="917" spans="10:10">
       <c r="J917" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="918" spans="10:10">
       <c r="J918" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="919" spans="10:10">
       <c r="J919" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="920" spans="10:10">
       <c r="J920" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="921" spans="10:10">
       <c r="J921" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="922" spans="10:10">
       <c r="J922" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="923" spans="10:10">
       <c r="J923" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="924" spans="10:10">
       <c r="J924" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="925" spans="10:10">
       <c r="J925" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="926" spans="10:10">
       <c r="J926" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="927" spans="10:10">
       <c r="J927" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="928" spans="10:10">
       <c r="J928" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="929" spans="10:10">
       <c r="J929" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="930" spans="10:10">
       <c r="J930" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="931" spans="10:10">
       <c r="J931" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="932" spans="10:10">
       <c r="J932" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="933" spans="10:10">
       <c r="J933" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="934" spans="10:10">
       <c r="J934" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="935" spans="10:10">
       <c r="J935" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="936" spans="10:10">
       <c r="J936" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="937" spans="10:10">
       <c r="J937" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="938" spans="10:10">
       <c r="J938" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="939" spans="10:10">
       <c r="J939" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="940" spans="10:10">
       <c r="J940" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="941" spans="10:10">
       <c r="J941" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="942" spans="10:10">
       <c r="J942" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="943" spans="10:10">
       <c r="J943" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="944" spans="10:10">
       <c r="J944" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="945" spans="10:10">
       <c r="J945" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="946" spans="10:10">
       <c r="J946" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="947" spans="10:10">
       <c r="J947" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="948" spans="10:10">
       <c r="J948" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="949" spans="10:10">
       <c r="J949" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="950" spans="10:10">
       <c r="J950" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="951" spans="10:10">
       <c r="J951" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="952" spans="10:10">
       <c r="J952" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="953" spans="10:10">
       <c r="J953" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="954" spans="10:10">
       <c r="J954" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="955" spans="10:10">
       <c r="J955" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="956" spans="10:10">
       <c r="J956" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="957" spans="10:10">
       <c r="J957" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="958" spans="10:10">
       <c r="J958" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="959" spans="10:10">
       <c r="J959" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="960" spans="10:10">
       <c r="J960" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="961" spans="10:10">
       <c r="J961" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="962" spans="10:10">
       <c r="J962" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="963" spans="10:10">
       <c r="J963" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="964" spans="10:10">
       <c r="J964" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="965" spans="10:10">
       <c r="J965" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="966" spans="10:10">
       <c r="J966" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="967" spans="10:10">
       <c r="J967" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="968" spans="10:10">
       <c r="J968" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="969" spans="10:10">
       <c r="J969" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="970" spans="10:10">
       <c r="J970" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="971" spans="10:10">
       <c r="J971" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="972" spans="10:10">
       <c r="J972" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="973" spans="10:10">
       <c r="J973" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="974" spans="10:10">
       <c r="J974" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="975" spans="10:10">
       <c r="J975" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="976" spans="10:10">
       <c r="J976" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="977" spans="10:10">
       <c r="J977" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="978" spans="10:10">
       <c r="J978" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="979" spans="10:10">
       <c r="J979" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="980" spans="10:10">
       <c r="J980" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="981" spans="10:10">
       <c r="J981" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="982" spans="10:10">
       <c r="J982" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="983" spans="10:10">
       <c r="J983" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="984" spans="10:10">
       <c r="J984" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="985" spans="10:10">
       <c r="J985" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="986" spans="10:10">
       <c r="J986" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="987" spans="10:10">
       <c r="J987" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="988" spans="10:10">
       <c r="J988" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="989" spans="10:10">
       <c r="J989" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="990" spans="10:10">
       <c r="J990" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="991" spans="10:10">
       <c r="J991" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="992" spans="10:10">
       <c r="J992" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="993" spans="10:10">
       <c r="J993" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="994" spans="10:10">
       <c r="J994" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="995" spans="10:10">
       <c r="J995" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="996" spans="10:10">
       <c r="J996" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="997" spans="10:10">
       <c r="J997" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="998" spans="10:10">
       <c r="J998" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="999" spans="10:10">
       <c r="J999" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="1000" spans="10:10">
       <c r="J1000" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="1001" spans="10:10">
       <c r="J1001" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="1002" spans="10:10">
       <c r="J1002" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="1003" spans="10:10">
       <c r="J1003" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="1004" spans="10:10">
       <c r="J1004" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="1005" spans="10:10">
       <c r="J1005" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="1006" spans="10:10">
       <c r="J1006" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="1007" spans="10:10">
       <c r="J1007" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="1008" spans="10:10">
       <c r="J1008" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="1009" spans="10:10">
       <c r="J1009" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="1010" spans="10:10">
       <c r="J1010" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="1011" spans="10:10">
       <c r="J1011" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="1012" spans="10:10">
       <c r="J1012" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="1013" spans="10:10">
       <c r="J1013" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="1014" spans="10:10">
       <c r="J1014" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="1015" spans="10:10">
       <c r="J1015" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="1016" spans="10:10">
       <c r="J1016" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="1017" spans="10:10">
       <c r="J1017" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="1018" spans="10:10">
       <c r="J1018" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="1019" spans="10:10">
       <c r="J1019" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="1020" spans="10:10">
       <c r="J1020" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="1021" spans="10:10">
       <c r="J1021" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="1022" spans="10:10">
       <c r="J1022" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="1023" spans="10:10">
       <c r="J1023" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="1024" spans="10:10">
       <c r="J1024" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="1025" spans="10:10">
       <c r="J1025" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="1026" spans="10:10">
       <c r="J1026" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="1027" spans="10:10">
       <c r="J1027" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="1028" spans="10:10">
       <c r="J1028" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="1029" spans="10:10">
       <c r="J1029" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="1030" spans="10:10">
       <c r="J1030" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="1031" spans="10:10">
       <c r="J1031" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="1032" spans="10:10">
       <c r="J1032" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="1033" spans="10:10">
       <c r="J1033" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="1034" spans="10:10">
       <c r="J1034" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="1035" spans="10:10">
       <c r="J1035" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="1036" spans="10:10">
       <c r="J1036" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="1037" spans="10:10">
       <c r="J1037" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="1038" spans="10:10">
       <c r="J1038" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="1039" spans="10:10">
       <c r="J1039" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="1040" spans="10:10">
       <c r="J1040" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="1041" spans="10:10">
       <c r="J1041" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="1042" spans="10:10">
       <c r="J1042" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="1043" spans="10:10">
       <c r="J1043" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="1044" spans="10:10">
       <c r="J1044" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="1045" spans="10:10">
       <c r="J1045" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="1046" spans="10:10">
       <c r="J1046" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="1047" spans="10:10">
       <c r="J1047" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="1048" spans="10:10">
       <c r="J1048" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="1049" spans="10:10">
       <c r="J1049" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="1050" spans="10:10">
       <c r="J1050" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="1051" spans="10:10">
       <c r="J1051" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="1052" spans="10:10">
       <c r="J1052" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="1053" spans="10:10">
       <c r="J1053" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="1054" spans="10:10">
       <c r="J1054" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="1055" spans="10:10">
       <c r="J1055" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="1056" spans="10:10">
       <c r="J1056" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="1057" spans="10:10">
       <c r="J1057" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="1058" spans="10:10">
       <c r="J1058" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="1059" spans="10:10">
       <c r="J1059" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="1060" spans="10:10">
       <c r="J1060" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="1061" spans="10:10">
       <c r="J1061" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="1062" spans="10:10">
       <c r="J1062" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="1063" spans="10:10">
       <c r="J1063" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="1064" spans="10:10">
       <c r="J1064" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="1065" spans="10:10">
       <c r="J1065" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="1066" spans="10:10">
       <c r="J1066" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="1067" spans="10:10">
       <c r="J1067" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="1068" spans="10:10">
       <c r="J1068" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="1069" spans="10:10">
       <c r="J1069" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="1070" spans="10:10">
       <c r="J1070" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="1071" spans="10:10">
       <c r="J1071" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="1072" spans="10:10">
       <c r="J1072" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="1073" spans="10:10">
       <c r="J1073" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="1074" spans="10:10">
       <c r="J1074" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="1075" spans="10:10">
       <c r="J1075" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="1076" spans="10:10">
       <c r="J1076" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="1077" spans="10:10">
       <c r="J1077" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="1078" spans="10:10">
       <c r="J1078" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="1079" spans="10:10">
       <c r="J1079" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="1080" spans="10:10">
       <c r="J1080" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="1081" spans="10:10">
       <c r="J1081" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="1082" spans="10:10">
       <c r="J1082" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="1083" spans="10:10">
       <c r="J1083" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="1084" spans="10:10">
       <c r="J1084" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="1085" spans="10:10">
       <c r="J1085" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="1086" spans="10:10">
       <c r="J1086" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="1087" spans="10:10">
       <c r="J1087" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="1088" spans="10:10">
       <c r="J1088" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="1089" spans="10:10">
       <c r="J1089" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="1090" spans="10:10">
       <c r="J1090" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="1091" spans="10:10">
       <c r="J1091" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="1092" spans="10:10">
       <c r="J1092" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="1093" spans="10:10">
       <c r="J1093" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="1094" spans="10:10">
       <c r="J1094" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="1095" spans="10:10">
       <c r="J1095" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="1096" spans="10:10">
       <c r="J1096" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="1097" spans="10:10">
       <c r="J1097" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="1098" spans="10:10">
       <c r="J1098" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="1099" spans="10:10">
       <c r="J1099" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="1100" spans="10:10">
       <c r="J1100" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="1101" spans="10:10">
       <c r="J1101" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="1102" spans="10:10">
       <c r="J1102" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="1103" spans="10:10">
       <c r="J1103" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="1104" spans="10:10">
       <c r="J1104" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="1105" spans="10:10">
       <c r="J1105" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="1106" spans="10:10">
       <c r="J1106" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="1107" spans="10:10">
       <c r="J1107" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="1108" spans="10:10">
       <c r="J1108" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="1109" spans="10:10">
       <c r="J1109" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="1110" spans="10:10">
       <c r="J1110" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="1111" spans="10:10">
       <c r="J1111" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="1112" spans="10:10">
       <c r="J1112" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="1113" spans="10:10">
       <c r="J1113" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="1114" spans="10:10">
       <c r="J1114" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="1115" spans="10:10">
       <c r="J1115" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="1116" spans="10:10">
       <c r="J1116" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="1117" spans="10:10">
       <c r="J1117" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="1118" spans="10:10">
       <c r="J1118" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="1119" spans="10:10">
       <c r="J1119" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="1120" spans="10:10">
       <c r="J1120" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="1121" spans="10:10">
       <c r="J1121" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="1122" spans="10:10">
       <c r="J1122" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="1123" spans="10:10">
       <c r="J1123" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="1124" spans="10:10">
       <c r="J1124" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="1125" spans="10:10">
       <c r="J1125" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="1126" spans="10:10">
       <c r="J1126" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="1127" spans="10:10">
       <c r="J1127" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="1128" spans="10:10">
       <c r="J1128" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="1129" spans="10:10">
       <c r="J1129" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="1130" spans="10:10">
       <c r="J1130" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="1131" spans="10:10">
       <c r="J1131" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="1132" spans="10:10">
       <c r="J1132" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="1133" spans="10:10">
       <c r="J1133" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="1134" spans="10:10">
       <c r="J1134" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="1135" spans="10:10">
       <c r="J1135" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="1136" spans="10:10">
       <c r="J1136" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="1137" spans="10:10">
       <c r="J1137" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="1138" spans="10:10">
       <c r="J1138" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="1139" spans="10:10">
       <c r="J1139" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="1140" spans="10:10">
       <c r="J1140" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="1141" spans="10:10">
       <c r="J1141" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="1142" spans="10:10">
       <c r="J1142" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="1143" spans="10:10">
       <c r="J1143" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="1144" spans="10:10">
       <c r="J1144" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="1145" spans="10:10">
       <c r="J1145" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="1146" spans="10:10">
       <c r="J1146" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="1147" spans="10:10">
       <c r="J1147" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="1148" spans="10:10">
       <c r="J1148" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="1149" spans="10:10">
       <c r="J1149" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="1150" spans="10:10">
       <c r="J1150" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="1151" spans="10:10">
       <c r="J1151" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="1152" spans="10:10">
       <c r="J1152" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="1153" spans="10:10">
       <c r="J1153" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="1154" spans="10:10">
       <c r="J1154" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="1155" spans="10:10">
       <c r="J1155" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="1156" spans="10:10">
       <c r="J1156" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="1157" spans="10:10">
       <c r="J1157" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="1158" spans="10:10">
       <c r="J1158" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="1159" spans="10:10">
       <c r="J1159" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="1160" spans="10:10">
       <c r="J1160" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="1161" spans="10:10">
       <c r="J1161" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="1162" spans="10:10">
       <c r="J1162" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="1163" spans="10:10">
       <c r="J1163" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="1164" spans="10:10">
       <c r="J1164" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="1165" spans="10:10">
       <c r="J1165" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="1166" spans="10:10">
       <c r="J1166" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="1167" spans="10:10">
       <c r="J1167" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="1168" spans="10:10">
       <c r="J1168" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="1169" spans="10:10">
       <c r="J1169" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="1170" spans="10:10">
       <c r="J1170" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="1171" spans="10:10">
       <c r="J1171" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="1172" spans="10:10">
       <c r="J1172" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="1173" spans="10:10">
       <c r="J1173" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="1174" spans="10:10">
       <c r="J1174" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="1175" spans="10:10">
       <c r="J1175" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="1176" spans="10:10">
       <c r="J1176" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="1177" spans="10:10">
       <c r="J1177" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="1178" spans="10:10">
       <c r="J1178" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="1179" spans="10:10">
       <c r="J1179" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="1180" spans="10:10">
       <c r="J1180" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="1181" spans="10:10">
       <c r="J1181" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="1182" spans="10:10">
       <c r="J1182" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="1183" spans="10:10">
       <c r="J1183" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="1184" spans="10:10">
       <c r="J1184" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="1185" spans="10:10">
       <c r="J1185" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="1186" spans="10:10">
       <c r="J1186" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="1187" spans="10:10">
       <c r="J1187" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="1188" spans="10:10">
       <c r="J1188" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="1189" spans="10:10">
       <c r="J1189" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="1190" spans="10:10">
       <c r="J1190" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="1191" spans="10:10">
       <c r="J1191" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="1192" spans="10:10">
       <c r="J1192" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="1193" spans="10:10">
       <c r="J1193" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="1194" spans="10:10">
       <c r="J1194" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="1195" spans="10:10">
       <c r="J1195" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="1196" spans="10:10">
       <c r="J1196" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="1197" spans="10:10">
       <c r="J1197" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="1198" spans="10:10">
       <c r="J1198" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="1199" spans="10:10">
       <c r="J1199" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="1200" spans="10:10">
       <c r="J1200" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="1201" spans="10:10">
       <c r="J1201" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="1202" spans="10:10">
       <c r="J1202" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="1203" spans="10:10">
       <c r="J1203" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="1204" spans="10:10">
       <c r="J1204" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="1205" spans="10:10">
       <c r="J1205" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="1206" spans="10:10">
       <c r="J1206" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="1207" spans="10:10">
       <c r="J1207" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="1208" spans="10:10">
       <c r="J1208" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="1209" spans="10:10">
       <c r="J1209" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="1210" spans="10:10">
       <c r="J1210" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="1211" spans="10:10">
       <c r="J1211" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="1212" spans="10:10">
       <c r="J1212" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="1213" spans="10:10">
       <c r="J1213" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="1214" spans="10:10">
       <c r="J1214" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="1215" spans="10:10">
       <c r="J1215" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="1216" spans="10:10">
       <c r="J1216" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="1217" spans="10:10">
       <c r="J1217" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="1218" spans="10:10">
       <c r="J1218" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="1219" spans="10:10">
       <c r="J1219" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="1220" spans="10:10">
       <c r="J1220" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="1221" spans="10:10">
       <c r="J1221" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="1222" spans="10:10">
       <c r="J1222" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="1223" spans="10:10">
       <c r="J1223" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="1224" spans="10:10">
       <c r="J1224" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="1225" spans="10:10">
       <c r="J1225" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="1226" spans="10:10">
       <c r="J1226" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="1227" spans="10:10">
       <c r="J1227" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="1228" spans="10:10">
       <c r="J1228" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="1229" spans="10:10">
       <c r="J1229" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="1230" spans="10:10">
       <c r="J1230" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="1231" spans="10:10">
       <c r="J1231" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="1232" spans="10:10">
       <c r="J1232" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="1233" spans="10:10">
       <c r="J1233" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="1234" spans="10:10">
       <c r="J1234" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="1235" spans="10:10">
       <c r="J1235" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="1236" spans="10:10">
       <c r="J1236" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="1237" spans="10:10">
       <c r="J1237" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="1238" spans="10:10">
       <c r="J1238" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="1239" spans="10:10">
       <c r="J1239" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="1240" spans="10:10">
       <c r="J1240" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="1241" spans="10:10">
       <c r="J1241" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="1242" spans="10:10">
       <c r="J1242" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="1243" spans="10:10">
       <c r="J1243" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="1244" spans="10:10">
       <c r="J1244" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="1245" spans="10:10">
       <c r="J1245" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="1246" spans="10:10">
       <c r="J1246" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="1247" spans="10:10">
       <c r="J1247" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="1248" spans="10:10">
       <c r="J1248" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="1249" spans="10:10">
       <c r="J1249" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="1250" spans="10:10">
       <c r="J1250" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="1251" spans="10:10">
       <c r="J1251" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="1252" spans="10:10">
       <c r="J1252" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="1253" spans="10:10">
       <c r="J1253" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="1254" spans="10:10">
       <c r="J1254" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="1255" spans="10:10">
       <c r="J1255" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="1256" spans="10:10">
       <c r="J1256" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="1257" spans="10:10">
       <c r="J1257" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="1258" spans="10:10">
       <c r="J1258" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="1259" spans="10:10">
       <c r="J1259" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="1260" spans="10:10">
       <c r="J1260" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="1261" spans="10:10">
       <c r="J1261" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="1262" spans="10:10">
       <c r="J1262" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="1263" spans="10:10">
       <c r="J1263" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="1264" spans="10:10">
       <c r="J1264" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="1265" spans="10:10">
       <c r="J1265" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="1266" spans="10:10">
       <c r="J1266" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="1267" spans="10:10">
       <c r="J1267" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="1268" spans="10:10">
       <c r="J1268" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="1269" spans="10:10">
       <c r="J1269" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="1270" spans="10:10">
       <c r="J1270" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="1271" spans="10:10">
       <c r="J1271" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="1272" spans="10:10">
       <c r="J1272" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="1273" spans="10:10">
       <c r="J1273" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="1274" spans="10:10">
       <c r="J1274" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="1275" spans="10:10">
       <c r="J1275" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="1276" spans="10:10">
       <c r="J1276" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="1277" spans="10:10">
       <c r="J1277" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="1278" spans="10:10">
       <c r="J1278" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="1279" spans="10:10">
       <c r="J1279" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="1280" spans="10:10">
       <c r="J1280" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="1281" spans="10:10">
       <c r="J1281" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="1282" spans="10:10">
       <c r="J1282" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="1283" spans="10:10">
       <c r="J1283" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="1284" spans="10:10">
       <c r="J1284" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="1285" spans="10:10">
       <c r="J1285" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="1286" spans="10:10">
       <c r="J1286" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="1287" spans="10:10">
       <c r="J1287" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="1288" spans="10:10">
       <c r="J1288" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="1289" spans="10:10">
       <c r="J1289" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="1290" spans="10:10">
       <c r="J1290" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="1291" spans="10:10">
       <c r="J1291" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="1292" spans="10:10">
       <c r="J1292" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="1293" spans="10:10">
       <c r="J1293" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="1294" spans="10:10">
       <c r="J1294" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="1295" spans="10:10">
       <c r="J1295" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="1296" spans="10:10">
       <c r="J1296" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="1297" spans="10:10">
       <c r="J1297" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="1298" spans="10:10">
       <c r="J1298" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="1299" spans="10:10">
       <c r="J1299" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="1300" spans="10:10">
       <c r="J1300" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="1301" spans="10:10">
       <c r="J1301" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="1302" spans="10:10">
       <c r="J1302" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="1303" spans="10:10">
       <c r="J1303" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="1304" spans="10:10">
       <c r="J1304" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="1305" spans="10:10">
       <c r="J1305" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="1306" spans="10:10">
       <c r="J1306" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="1307" spans="10:10">
       <c r="J1307" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="1308" spans="10:10">
       <c r="J1308" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="1309" spans="10:10">
       <c r="J1309" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="1310" spans="10:10">
       <c r="J1310" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="1311" spans="10:10">
       <c r="J1311" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="1312" spans="10:10">
       <c r="J1312" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="1313" spans="10:10">
       <c r="J1313" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="1314" spans="10:10">
       <c r="J1314" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="1315" spans="10:10">
       <c r="J1315" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="1316" spans="10:10">
       <c r="J1316" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="1317" spans="10:10">
       <c r="J1317" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="1318" spans="10:10">
       <c r="J1318" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="1319" spans="10:10">
       <c r="J1319" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="1320" spans="10:10">
       <c r="J1320" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="1321" spans="10:10">
       <c r="J1321" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="1322" spans="10:10">
       <c r="J1322" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="1323" spans="10:10">
       <c r="J1323" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="1324" spans="10:10">
       <c r="J1324" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="1325" spans="10:10">
       <c r="J1325" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="1326" spans="10:10">
       <c r="J1326" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="1327" spans="10:10">
       <c r="J1327" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="1328" spans="10:10">
       <c r="J1328" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="1329" spans="10:10">
       <c r="J1329" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="1330" spans="10:10">
       <c r="J1330" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="1331" spans="10:10">
       <c r="J1331" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="1332" spans="10:10">
       <c r="J1332" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="1333" spans="10:10">
       <c r="J1333" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="1334" spans="10:10">
       <c r="J1334" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="1335" spans="10:10">
       <c r="J1335" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="1336" spans="10:10">
       <c r="J1336" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="1337" spans="10:10">
       <c r="J1337" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="1338" spans="10:10">
       <c r="J1338" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="1339" spans="10:10">
       <c r="J1339" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="1340" spans="10:10">
       <c r="J1340" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="1341" spans="10:10">
       <c r="J1341" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="1342" spans="10:10">
       <c r="J1342" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="1343" spans="10:10">
       <c r="J1343" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="1344" spans="10:10">
       <c r="J1344" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="1345" spans="10:10">
       <c r="J1345" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="1346" spans="10:10">
       <c r="J1346" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="1347" spans="10:10">
       <c r="J1347" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="1348" spans="10:10">
       <c r="J1348" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="1349" spans="10:10">
       <c r="J1349" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="1350" spans="10:10">
       <c r="J1350" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="1351" spans="10:10">
       <c r="J1351" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="1352" spans="10:10">
       <c r="J1352" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="1353" spans="10:10">
       <c r="J1353" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="1354" spans="10:10">
       <c r="J1354" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="1355" spans="10:10">
       <c r="J1355" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="1356" spans="10:10">
       <c r="J1356" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="1357" spans="10:10">
       <c r="J1357" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="1358" spans="10:10">
       <c r="J1358" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="1359" spans="10:10">
       <c r="J1359" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="1360" spans="10:10">
       <c r="J1360" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="1361" spans="10:10">
       <c r="J1361" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="1362" spans="10:10">
       <c r="J1362" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="1363" spans="10:10">
       <c r="J1363" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="1364" spans="10:10">
       <c r="J1364" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="1365" spans="10:10">
       <c r="J1365" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="1366" spans="10:10">
       <c r="J1366" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="1367" spans="10:10">
       <c r="J1367" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="1368" spans="10:10">
       <c r="J1368" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="1369" spans="10:10">
       <c r="J1369" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="1370" spans="10:10">
       <c r="J1370" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="1371" spans="10:10">
       <c r="J1371" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="1372" spans="10:10">
       <c r="J1372" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="1373" spans="10:10">
       <c r="J1373" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="1374" spans="10:10">
       <c r="J1374" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="1375" spans="10:10">
       <c r="J1375" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="1376" spans="10:10">
       <c r="J1376" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="1377" spans="10:10">
       <c r="J1377" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="1378" spans="10:10">
       <c r="J1378" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="1379" spans="10:10">
       <c r="J1379" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="1380" spans="10:10">
       <c r="J1380" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="1381" spans="10:10">
       <c r="J1381" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="1382" spans="10:10">
       <c r="J1382" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="1383" spans="10:10">
       <c r="J1383" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="1384" spans="10:10">
       <c r="J1384" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="1385" spans="10:10">
       <c r="J1385" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="1386" spans="10:10">
       <c r="J1386" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="1387" spans="10:10">
       <c r="J1387" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="1388" spans="10:10">
       <c r="J1388" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="1389" spans="10:10">
       <c r="J1389" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="1390" spans="10:10">
       <c r="J1390" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="1391" spans="10:10">
       <c r="J1391" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="1392" spans="10:10">
       <c r="J1392" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="1393" spans="10:10">
       <c r="J1393" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="1394" spans="10:10">
       <c r="J1394" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="1395" spans="10:10">
       <c r="J1395" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="1396" spans="10:10">
       <c r="J1396" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="1397" spans="10:10">
       <c r="J1397" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="1398" spans="10:10">
       <c r="J1398" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="1399" spans="10:10">
       <c r="J1399" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="1400" spans="10:10">
       <c r="J1400" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="1401" spans="10:10">
       <c r="J1401" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="1402" spans="10:10">
       <c r="J1402" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="1403" spans="10:10">
       <c r="J1403" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="1404" spans="10:10">
       <c r="J1404" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="1405" spans="10:10">
       <c r="J1405" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="1406" spans="10:10">
       <c r="J1406" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="1407" spans="10:10">
       <c r="J1407" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="1408" spans="10:10">
       <c r="J1408" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="1409" spans="10:10">
       <c r="J1409" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="1410" spans="10:10">
       <c r="J1410" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="1411" spans="10:10">
       <c r="J1411" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="1412" spans="10:10">
       <c r="J1412" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="1413" spans="10:10">
       <c r="J1413" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="1414" spans="10:10">
       <c r="J1414" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="1415" spans="10:10">
       <c r="J1415" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="1416" spans="10:10">
       <c r="J1416" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="1417" spans="10:10">
       <c r="J1417" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="1418" spans="10:10">
       <c r="J1418" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="1419" spans="10:10">
       <c r="J1419" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="1420" spans="10:10">
       <c r="J1420" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="1421" spans="10:10">
       <c r="J1421" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="1422" spans="10:10">
       <c r="J1422" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="1423" spans="10:10">
       <c r="J1423" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="1424" spans="10:10">
       <c r="J1424" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="1425" spans="10:10">
       <c r="J1425" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="1426" spans="10:10">
       <c r="J1426" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="1427" spans="10:10">
       <c r="J1427" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="1428" spans="10:10">
       <c r="J1428" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="1429" spans="10:10">
       <c r="J1429" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="1430" spans="10:10">
       <c r="J1430" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="1431" spans="10:10">
       <c r="J1431" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="1432" spans="10:10">
       <c r="J1432" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="1433" spans="10:10">
       <c r="J1433" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="1434" spans="10:10">
       <c r="J1434" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="1435" spans="10:10">
       <c r="J1435" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="1436" spans="10:10">
       <c r="J1436" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="1437" spans="10:10">
       <c r="J1437" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="1438" spans="10:10">
       <c r="J1438" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="1439" spans="10:10">
       <c r="J1439" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="1440" spans="10:10">
       <c r="J1440" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="1441" spans="10:10">
       <c r="J1441" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="1442" spans="10:10">
       <c r="J1442" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="1443" spans="10:10">
       <c r="J1443" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="1444" spans="10:10">
       <c r="J1444" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="1445" spans="10:10">
       <c r="J1445" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="1446" spans="10:10">
       <c r="J1446" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="1447" spans="10:10">
       <c r="J1447" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="1448" spans="10:10">
       <c r="J1448" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="1449" spans="10:10">
       <c r="J1449" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="1450" spans="10:10">
       <c r="J1450" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="1451" spans="10:10">
       <c r="J1451" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="1452" spans="10:10">
       <c r="J1452" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="1453" spans="10:10">
       <c r="J1453" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="1454" spans="10:10">
       <c r="J1454" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="1455" spans="10:10">
       <c r="J1455" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="1456" spans="10:10">
       <c r="J1456" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="1457" spans="10:10">
       <c r="J1457" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="1458" spans="10:10">
       <c r="J1458" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="1459" spans="10:10">
       <c r="J1459" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="1460" spans="10:10">
       <c r="J1460" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="1461" spans="10:10">
       <c r="J1461" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="1462" spans="10:10">
       <c r="J1462" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="1463" spans="10:10">
       <c r="J1463" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="1464" spans="10:10">
       <c r="J1464" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="1465" spans="10:10">
       <c r="J1465" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="1466" spans="10:10">
       <c r="J1466" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="1467" spans="10:10">
       <c r="J1467" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="1468" spans="10:10">
       <c r="J1468" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="1469" spans="10:10">
       <c r="J1469" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="1470" spans="10:10">
       <c r="J1470" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="1471" spans="10:10">
       <c r="J1471" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="1472" spans="10:10">
       <c r="J1472" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="1473" spans="10:10">
       <c r="J1473" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="1474" spans="10:10">
       <c r="J1474" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="1475" spans="10:10">
       <c r="J1475" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="1476" spans="10:10">
       <c r="J1476" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="1477" spans="10:10">
       <c r="J1477" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="1478" spans="10:10">
       <c r="J1478" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="1479" spans="10:10">
       <c r="J1479" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="1480" spans="10:10">
       <c r="J1480" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="1481" spans="10:10">
       <c r="J1481" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="1482" spans="10:10">
       <c r="J1482" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="1483" spans="10:10">
       <c r="J1483" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="1484" spans="10:10">
       <c r="J1484" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="1485" spans="10:10">
       <c r="J1485" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="1486" spans="10:10">
       <c r="J1486" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="1487" spans="10:10">
       <c r="J1487" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="1488" spans="10:10">
       <c r="J1488" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="1489" spans="10:10">
       <c r="J1489" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="1490" spans="10:10">
       <c r="J1490" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="1491" spans="10:10">
       <c r="J1491" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="1492" spans="10:10">
       <c r="J1492" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="1493" spans="10:10">
       <c r="J1493" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="1494" spans="10:10">
       <c r="J1494" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="1495" spans="10:10">
       <c r="J1495" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="1496" spans="10:10">
       <c r="J1496" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="1497" spans="10:10">
       <c r="J1497" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="1498" spans="10:10">
       <c r="J1498" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="1499" spans="10:10">
       <c r="J1499" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="1500" spans="10:10">
       <c r="J1500" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="1501" spans="10:10">
       <c r="J1501" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="1502" spans="10:10">
       <c r="J1502" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -10923,9 +10929,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="38.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="1" max="1" width="38" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -10944,7 +10950,7 @@
         <v>159</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>209</v>
+        <v>922</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -10963,12 +10969,12 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -11040,7 +11046,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="53.7109375" collapsed="true"/>
+    <col min="5" max="5" width="53.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="4:5">
@@ -11073,13 +11079,13 @@
   <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="48.7109375" collapsed="true"/>
+    <col min="1" max="1" width="37.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="48.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="10" customFormat="1">
@@ -11126,7 +11132,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="B7" t="s">
         <v>202</v>
@@ -11153,7 +11159,7 @@
         <v>164</v>
       </c>
       <c r="B10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -11161,7 +11167,7 @@
         <v>63</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -11169,7 +11175,7 @@
         <v>102</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -11177,17 +11183,23 @@
         <v>61</v>
       </c>
       <c r="B13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>62</v>
       </c>
+      <c r="B14" t="s">
+        <v>920</v>
+      </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
         <v>180</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>921</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -11280,7 +11292,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -11320,14 +11332,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="15" width="17.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="15" width="13.7109375" collapsed="true"/>
-    <col min="3" max="4" bestFit="true" customWidth="true" style="15" width="13.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="15" width="10.28515625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="15" width="12.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="15" width="29.85546875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="15" width="8.85546875" collapsed="true"/>
-    <col min="9" max="16384" style="15" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="17.85546875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.7109375" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="13.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="29.85546875" style="15" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="8.85546875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="16384" width="9.140625" style="15" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="14" customFormat="1">
@@ -11482,10 +11494,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" customWidth="true" width="17.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="5" max="6" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="31.85546875" collapsed="true"/>
+    <col min="3" max="3" width="17.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="12.42578125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="31.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="7" customFormat="1">
@@ -11647,7 +11659,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="27.42578125" collapsed="true"/>
+    <col min="1" max="1" width="27.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -11682,20 +11694,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="22.42578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="24.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="23.7109375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="22.5703125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="22.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="12" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="10" customFormat="1">
@@ -12230,10 +12242,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="71.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="1" max="1" width="71.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="10" customFormat="1">
@@ -12316,11 +12328,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="55.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="4" max="10" customWidth="true" width="17.42578125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="38.28515625" collapsed="true"/>
+    <col min="2" max="2" width="55" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="10" width="17.42578125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="38.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="10" customFormat="1">

--- a/IVFmilan/src/main/java/com_Milan_TestData/Milandata.xlsx
+++ b/IVFmilan/src/main/java/com_Milan_TestData/Milandata.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1781" uniqueCount="924">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1783" uniqueCount="926">
   <si>
     <t>PatientName</t>
   </si>
@@ -2815,10 +2815,16 @@
     <t>Namrata </t>
   </si>
   <si>
-    <t>112</t>
-  </si>
-  <si>
     <t>Sonia</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>Sakshi</t>
+  </si>
+  <si>
+    <t>Asawari </t>
   </si>
 </sst>
 </file>
@@ -3338,7 +3344,7 @@
       </c>
       <c r="L2" s="22">
         <f ca="1">(TODAY() )</f>
-        <v>43271</v>
+        <v>43272</v>
       </c>
       <c r="M2" t="s">
         <v>197</v>
@@ -10950,7 +10956,7 @@
         <v>159</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -11078,7 +11084,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
@@ -11132,7 +11138,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="B7" t="s">
         <v>202</v>
@@ -11206,73 +11212,79 @@
       <c r="A16" s="1" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16" s="1" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17" s="1" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>202</v>
       </c>

--- a/IVFmilan/src/main/java/com_Milan_TestData/Milandata.xlsx
+++ b/IVFmilan/src/main/java/com_Milan_TestData/Milandata.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="17520" windowHeight="4590" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17520" windowHeight="4590" firstSheet="6" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="5" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1783" uniqueCount="926">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1785" uniqueCount="929">
   <si>
     <t>PatientName</t>
   </si>
@@ -640,9 +640,6 @@
     <t>Remarks</t>
   </si>
   <si>
-    <t>CYpFtUmzq0lITFyM0QS1gmJ7wPQZmxQCogZDfpEIbli7cnferqutf3FI9FV3MX08YQ2S71Zil5KG3a8cy9PKK1arr7zzV72dZ8JRBv32rAxC4YgjssvZrnQplz7MsMN2wC5MrSpdEZihjLoIrZWmY8Sidr999C43Hb0HxCMCQXskwiAqdZxMXTF1qpQ1xUOjWTU0pRwWu4KTnEd5xNXL0qLEHsfluMsOdaHNSamz3EnTNtjLApKgTFY5pddwNpIm</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
@@ -2818,13 +2815,25 @@
     <t>Sonia</t>
   </si>
   <si>
-    <t>113</t>
-  </si>
-  <si>
     <t>Sakshi</t>
   </si>
   <si>
     <t>Asawari </t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>CYpFtUmzq0lITFyM0QS1gmJ7wPQZmxQCogZDfpEIbli7cnferqutf3FI9FV3MX08YQ2S71Zil5KG3a8cy9PKK1arr7zzV72dZ8JRBv32r  AxC  4YgjssvZrnQplz7MsMN2wC5MrSpdEZihjLoIrZWmY8Sidr999C43H b0HxCMCQXskwiAqdZxMXTF1qpQ1xUOjWTU0pRwWu4KTnEd5xNXL0qLEHsfluMsOdaHNSamz3EnTNtjLApKgTFY5pddwNpIm</t>
+  </si>
+  <si>
+    <t>CYpFtUmzq0lITFyM0QS1 gmJ7wPQZmxQCogZDfp  EIbli7cnferqutf3F I9FV3MX08YQ2S71Zil5KG3a8cy 9PKK1arr7zzV72dZ8JR Bv3 2r AxC4Y  gjssvZrnQplz7MsMN2wC5MrSpdEZihjLoIrZWmY8Sidr999C43Hb0 HxCMCQXskwiAqdZxMXTF1qpQ1xUOjWTU0pRwWu4KTnEd5xNXL0qLEHsfluMsOdaHNSamz3EnTNtjLApKgTFY5pddwNpIm</t>
+  </si>
+  <si>
+    <t>Roopashree</t>
+  </si>
+  <si>
+    <t>Please Fill Mandatory value</t>
   </si>
 </sst>
 </file>
@@ -2916,10 +2925,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3252,8 +3261,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M1502"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3302,21 +3311,21 @@
         <v>192</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="M1" s="7" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" ht="30">
       <c r="A2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C2" t="s">
         <v>167</v>
@@ -3334,23 +3343,23 @@
         <v>182</v>
       </c>
       <c r="I2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K2" t="s">
         <v>148</v>
       </c>
-      <c r="L2" s="22">
+      <c r="L2" s="21">
         <f ca="1">(TODAY() )</f>
-        <v>43272</v>
-      </c>
-      <c r="M2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>43276</v>
+      </c>
+      <c r="M2" s="22" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="30">
       <c r="C3" t="s">
         <v>168</v>
       </c>
@@ -3367,16 +3376,16 @@
         <v>106</v>
       </c>
       <c r="I3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K3" t="s">
-        <v>200</v>
-      </c>
-      <c r="M3" s="21" t="s">
-        <v>197</v>
+        <v>199</v>
+      </c>
+      <c r="M3" s="22" t="s">
+        <v>925</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -3390,10 +3399,10 @@
         <v>106</v>
       </c>
       <c r="J4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -3407,7 +3416,7 @@
         <v>183</v>
       </c>
       <c r="J5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -3415,7 +3424,7 @@
         <v>171</v>
       </c>
       <c r="J6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -3423,7 +3432,7 @@
         <v>172</v>
       </c>
       <c r="J7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -3431,7 +3440,7 @@
         <v>173</v>
       </c>
       <c r="J8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -3439,7 +3448,7 @@
         <v>174</v>
       </c>
       <c r="J9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -3447,7 +3456,7 @@
         <v>175</v>
       </c>
       <c r="J10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -3455,7 +3464,10 @@
         <v>176</v>
       </c>
       <c r="J11" t="s">
-        <v>210</v>
+        <v>209</v>
+      </c>
+      <c r="K11" t="s">
+        <v>928</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -3463,7 +3475,7 @@
         <v>177</v>
       </c>
       <c r="J12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -3471,7452 +3483,7452 @@
         <v>178</v>
       </c>
       <c r="J13" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="J14" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="J15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="J16" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="17" spans="10:10">
       <c r="J17" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="18" spans="10:10">
       <c r="J18" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="19" spans="10:10">
       <c r="J19" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="20" spans="10:10">
       <c r="J20" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="21" spans="10:10">
       <c r="J21" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="22" spans="10:10">
       <c r="J22" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="23" spans="10:10">
       <c r="J23" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="24" spans="10:10">
       <c r="J24" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="25" spans="10:10">
       <c r="J25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="26" spans="10:10">
       <c r="J26" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="27" spans="10:10">
       <c r="J27" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="28" spans="10:10">
       <c r="J28" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="29" spans="10:10">
       <c r="J29" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="30" spans="10:10">
       <c r="J30" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="31" spans="10:10">
       <c r="J31" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="32" spans="10:10">
       <c r="J32" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="33" spans="10:10">
       <c r="J33" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="34" spans="10:10">
       <c r="J34" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="35" spans="10:10">
       <c r="J35" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="36" spans="10:10">
       <c r="J36" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="37" spans="10:10">
       <c r="J37" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="38" spans="10:10">
       <c r="J38" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="39" spans="10:10">
       <c r="J39" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="40" spans="10:10">
       <c r="J40" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="41" spans="10:10">
       <c r="J41" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="42" spans="10:10">
       <c r="J42" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="43" spans="10:10">
       <c r="J43" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="44" spans="10:10">
       <c r="J44" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="45" spans="10:10">
       <c r="J45" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="46" spans="10:10">
       <c r="J46" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="47" spans="10:10">
       <c r="J47" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="48" spans="10:10">
       <c r="J48" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="49" spans="10:10">
       <c r="J49" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="50" spans="10:10">
       <c r="J50" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="51" spans="10:10">
       <c r="J51" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="52" spans="10:10">
       <c r="J52" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="53" spans="10:10">
       <c r="J53" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="54" spans="10:10">
       <c r="J54" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="55" spans="10:10">
       <c r="J55" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="56" spans="10:10">
       <c r="J56" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="57" spans="10:10">
       <c r="J57" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="58" spans="10:10">
       <c r="J58" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="59" spans="10:10">
       <c r="J59" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="60" spans="10:10">
       <c r="J60" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="61" spans="10:10">
       <c r="J61" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="62" spans="10:10">
       <c r="J62" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="63" spans="10:10">
       <c r="J63" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="64" spans="10:10">
       <c r="J64" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="65" spans="10:10">
       <c r="J65" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="66" spans="10:10">
       <c r="J66" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="67" spans="10:10">
       <c r="J67" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="68" spans="10:10">
       <c r="J68" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="69" spans="10:10">
       <c r="J69" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="70" spans="10:10">
       <c r="J70" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="71" spans="10:10">
       <c r="J71" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="72" spans="10:10">
       <c r="J72" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="73" spans="10:10">
       <c r="J73" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="74" spans="10:10">
       <c r="J74" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="75" spans="10:10">
       <c r="J75" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="76" spans="10:10">
       <c r="J76" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="77" spans="10:10">
       <c r="J77" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="78" spans="10:10">
       <c r="J78" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="79" spans="10:10">
       <c r="J79" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="80" spans="10:10">
       <c r="J80" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="81" spans="10:10">
       <c r="J81" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="82" spans="10:10">
       <c r="J82" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="83" spans="10:10">
       <c r="J83" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="84" spans="10:10">
       <c r="J84" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="85" spans="10:10">
       <c r="J85" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="86" spans="10:10">
       <c r="J86" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="87" spans="10:10">
       <c r="J87" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="88" spans="10:10">
       <c r="J88" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="89" spans="10:10">
       <c r="J89" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="90" spans="10:10">
       <c r="J90" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="91" spans="10:10">
       <c r="J91" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="92" spans="10:10">
       <c r="J92" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="93" spans="10:10">
       <c r="J93" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="94" spans="10:10">
       <c r="J94" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="95" spans="10:10">
       <c r="J95" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="96" spans="10:10">
       <c r="J96" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="97" spans="10:10">
       <c r="J97" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="98" spans="10:10">
       <c r="J98" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="99" spans="10:10">
       <c r="J99" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="100" spans="10:10">
       <c r="J100" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="101" spans="10:10">
       <c r="J101" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="102" spans="10:10">
       <c r="J102" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="103" spans="10:10">
       <c r="J103" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="104" spans="10:10">
       <c r="J104" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="105" spans="10:10">
       <c r="J105" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="106" spans="10:10">
       <c r="J106" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="107" spans="10:10">
       <c r="J107" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="108" spans="10:10">
       <c r="J108" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="109" spans="10:10">
       <c r="J109" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="110" spans="10:10">
       <c r="J110" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="111" spans="10:10">
       <c r="J111" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="112" spans="10:10">
       <c r="J112" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="113" spans="10:10">
       <c r="J113" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="114" spans="10:10">
       <c r="J114" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="115" spans="10:10">
       <c r="J115" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="116" spans="10:10">
       <c r="J116" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="117" spans="10:10">
       <c r="J117" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="118" spans="10:10">
       <c r="J118" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="119" spans="10:10">
       <c r="J119" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="120" spans="10:10">
       <c r="J120" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="121" spans="10:10">
       <c r="J121" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="122" spans="10:10">
       <c r="J122" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="123" spans="10:10">
       <c r="J123" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="124" spans="10:10">
       <c r="J124" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="125" spans="10:10">
       <c r="J125" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="126" spans="10:10">
       <c r="J126" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="127" spans="10:10">
       <c r="J127" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="128" spans="10:10">
       <c r="J128" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="129" spans="10:10">
       <c r="J129" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="130" spans="10:10">
       <c r="J130" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="131" spans="10:10">
       <c r="J131" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="132" spans="10:10">
       <c r="J132" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="133" spans="10:10">
       <c r="J133" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="134" spans="10:10">
       <c r="J134" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="135" spans="10:10">
       <c r="J135" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="136" spans="10:10">
       <c r="J136" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="137" spans="10:10">
       <c r="J137" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="138" spans="10:10">
       <c r="J138" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="139" spans="10:10">
       <c r="J139" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="140" spans="10:10">
       <c r="J140" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="141" spans="10:10">
       <c r="J141" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="142" spans="10:10">
       <c r="J142" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="143" spans="10:10">
       <c r="J143" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="144" spans="10:10">
       <c r="J144" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="145" spans="10:10">
       <c r="J145" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="146" spans="10:10">
       <c r="J146" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="147" spans="10:10">
       <c r="J147" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="148" spans="10:10">
       <c r="J148" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="149" spans="10:10">
       <c r="J149" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="150" spans="10:10">
       <c r="J150" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="151" spans="10:10">
       <c r="J151" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="152" spans="10:10">
       <c r="J152" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="153" spans="10:10">
       <c r="J153" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="154" spans="10:10">
       <c r="J154" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="155" spans="10:10">
       <c r="J155" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="156" spans="10:10">
       <c r="J156" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="157" spans="10:10">
       <c r="J157" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="158" spans="10:10">
       <c r="J158" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="159" spans="10:10">
       <c r="J159" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="160" spans="10:10">
       <c r="J160" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="161" spans="10:10">
       <c r="J161" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="162" spans="10:10">
       <c r="J162" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="163" spans="10:10">
       <c r="J163" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="164" spans="10:10">
       <c r="J164" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="165" spans="10:10">
       <c r="J165" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="166" spans="10:10">
       <c r="J166" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="167" spans="10:10">
       <c r="J167" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="168" spans="10:10">
       <c r="J168" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="169" spans="10:10">
       <c r="J169" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="170" spans="10:10">
       <c r="J170" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="171" spans="10:10">
       <c r="J171" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="172" spans="10:10">
       <c r="J172" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="173" spans="10:10">
       <c r="J173" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="174" spans="10:10">
       <c r="J174" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="175" spans="10:10">
       <c r="J175" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="176" spans="10:10">
       <c r="J176" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="177" spans="10:10">
       <c r="J177" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="178" spans="10:10">
       <c r="J178" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="179" spans="10:10">
       <c r="J179" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="180" spans="10:10">
       <c r="J180" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="181" spans="10:10">
       <c r="J181" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="182" spans="10:10">
       <c r="J182" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="183" spans="10:10">
       <c r="J183" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="184" spans="10:10">
       <c r="J184" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="185" spans="10:10">
       <c r="J185" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="186" spans="10:10">
       <c r="J186" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="187" spans="10:10">
       <c r="J187" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="188" spans="10:10">
       <c r="J188" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="189" spans="10:10">
       <c r="J189" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="190" spans="10:10">
       <c r="J190" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="191" spans="10:10">
       <c r="J191" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="192" spans="10:10">
       <c r="J192" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="193" spans="10:10">
       <c r="J193" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="194" spans="10:10">
       <c r="J194" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="195" spans="10:10">
       <c r="J195" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="196" spans="10:10">
       <c r="J196" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="197" spans="10:10">
       <c r="J197" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="198" spans="10:10">
       <c r="J198" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="199" spans="10:10">
       <c r="J199" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="200" spans="10:10">
       <c r="J200" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="201" spans="10:10">
       <c r="J201" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="202" spans="10:10">
       <c r="J202" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="203" spans="10:10">
       <c r="J203" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="204" spans="10:10">
       <c r="J204" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="205" spans="10:10">
       <c r="J205" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="206" spans="10:10">
       <c r="J206" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="207" spans="10:10">
       <c r="J207" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="208" spans="10:10">
       <c r="J208" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="209" spans="10:10">
       <c r="J209" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="210" spans="10:10">
       <c r="J210" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="211" spans="10:10">
       <c r="J211" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="212" spans="10:10">
       <c r="J212" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="213" spans="10:10">
       <c r="J213" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="214" spans="10:10">
       <c r="J214" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="215" spans="10:10">
       <c r="J215" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="216" spans="10:10">
       <c r="J216" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="217" spans="10:10">
       <c r="J217" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="218" spans="10:10">
       <c r="J218" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="219" spans="10:10">
       <c r="J219" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="220" spans="10:10">
       <c r="J220" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="221" spans="10:10">
       <c r="J221" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="222" spans="10:10">
       <c r="J222" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="223" spans="10:10">
       <c r="J223" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="224" spans="10:10">
       <c r="J224" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="225" spans="10:10">
       <c r="J225" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="226" spans="10:10">
       <c r="J226" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="227" spans="10:10">
       <c r="J227" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="228" spans="10:10">
       <c r="J228" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="229" spans="10:10">
       <c r="J229" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="230" spans="10:10">
       <c r="J230" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="231" spans="10:10">
       <c r="J231" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="232" spans="10:10">
       <c r="J232" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="233" spans="10:10">
       <c r="J233" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="234" spans="10:10">
       <c r="J234" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="235" spans="10:10">
       <c r="J235" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="236" spans="10:10">
       <c r="J236" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="237" spans="10:10">
       <c r="J237" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="238" spans="10:10">
       <c r="J238" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="239" spans="10:10">
       <c r="J239" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="240" spans="10:10">
       <c r="J240" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="241" spans="10:10">
       <c r="J241" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="242" spans="10:10">
       <c r="J242" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="243" spans="10:10">
       <c r="J243" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="244" spans="10:10">
       <c r="J244" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="245" spans="10:10">
       <c r="J245" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="246" spans="10:10">
       <c r="J246" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="247" spans="10:10">
       <c r="J247" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="248" spans="10:10">
       <c r="J248" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="249" spans="10:10">
       <c r="J249" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="250" spans="10:10">
       <c r="J250" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="251" spans="10:10">
       <c r="J251" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="252" spans="10:10">
       <c r="J252" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="253" spans="10:10">
       <c r="J253" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="254" spans="10:10">
       <c r="J254" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="255" spans="10:10">
       <c r="J255" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="256" spans="10:10">
       <c r="J256" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="257" spans="10:10">
       <c r="J257" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="258" spans="10:10">
       <c r="J258" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="259" spans="10:10">
       <c r="J259" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="260" spans="10:10">
       <c r="J260" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="261" spans="10:10">
       <c r="J261" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="262" spans="10:10">
       <c r="J262" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="263" spans="10:10">
       <c r="J263" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="264" spans="10:10">
       <c r="J264" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="265" spans="10:10">
       <c r="J265" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="266" spans="10:10">
       <c r="J266" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="267" spans="10:10">
       <c r="J267" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="268" spans="10:10">
       <c r="J268" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="269" spans="10:10">
       <c r="J269" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="270" spans="10:10">
       <c r="J270" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="271" spans="10:10">
       <c r="J271" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="272" spans="10:10">
       <c r="J272" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="273" spans="10:10">
       <c r="J273" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="274" spans="10:10">
       <c r="J274" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="275" spans="10:10">
       <c r="J275" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="276" spans="10:10">
       <c r="J276" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="277" spans="10:10">
       <c r="J277" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="278" spans="10:10">
       <c r="J278" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="279" spans="10:10">
       <c r="J279" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="280" spans="10:10">
       <c r="J280" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="281" spans="10:10">
       <c r="J281" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="282" spans="10:10">
       <c r="J282" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="283" spans="10:10">
       <c r="J283" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="284" spans="10:10">
       <c r="J284" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="285" spans="10:10">
       <c r="J285" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="286" spans="10:10">
       <c r="J286" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="287" spans="10:10">
       <c r="J287" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="288" spans="10:10">
       <c r="J288" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="289" spans="10:10">
       <c r="J289" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="290" spans="10:10">
       <c r="J290" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="291" spans="10:10">
       <c r="J291" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="292" spans="10:10">
       <c r="J292" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="293" spans="10:10">
       <c r="J293" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="294" spans="10:10">
       <c r="J294" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="295" spans="10:10">
       <c r="J295" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="296" spans="10:10">
       <c r="J296" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="297" spans="10:10">
       <c r="J297" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="298" spans="10:10">
       <c r="J298" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="299" spans="10:10">
       <c r="J299" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="300" spans="10:10">
       <c r="J300" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="301" spans="10:10">
       <c r="J301" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="302" spans="10:10">
       <c r="J302" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="303" spans="10:10">
       <c r="J303" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="304" spans="10:10">
       <c r="J304" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="305" spans="10:10">
       <c r="J305" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="306" spans="10:10">
       <c r="J306" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="307" spans="10:10">
       <c r="J307" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="308" spans="10:10">
       <c r="J308" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="309" spans="10:10">
       <c r="J309" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="310" spans="10:10">
       <c r="J310" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="311" spans="10:10">
       <c r="J311" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="312" spans="10:10">
       <c r="J312" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="313" spans="10:10">
       <c r="J313" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="314" spans="10:10">
       <c r="J314" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="315" spans="10:10">
       <c r="J315" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="316" spans="10:10">
       <c r="J316" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="317" spans="10:10">
       <c r="J317" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="318" spans="10:10">
       <c r="J318" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="319" spans="10:10">
       <c r="J319" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="320" spans="10:10">
       <c r="J320" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="321" spans="10:10">
       <c r="J321" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="322" spans="10:10">
       <c r="J322" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="323" spans="10:10">
       <c r="J323" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="324" spans="10:10">
       <c r="J324" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="325" spans="10:10">
       <c r="J325" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="326" spans="10:10">
       <c r="J326" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="327" spans="10:10">
       <c r="J327" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="328" spans="10:10">
       <c r="J328" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="329" spans="10:10">
       <c r="J329" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="330" spans="10:10">
       <c r="J330" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="331" spans="10:10">
       <c r="J331" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="332" spans="10:10">
       <c r="J332" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="333" spans="10:10">
       <c r="J333" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="334" spans="10:10">
       <c r="J334" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="335" spans="10:10">
       <c r="J335" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="336" spans="10:10">
       <c r="J336" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="337" spans="10:10">
       <c r="J337" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="338" spans="10:10">
       <c r="J338" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="339" spans="10:10">
       <c r="J339" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="340" spans="10:10">
       <c r="J340" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="341" spans="10:10">
       <c r="J341" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="342" spans="10:10">
       <c r="J342" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="343" spans="10:10">
       <c r="J343" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="344" spans="10:10">
       <c r="J344" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="345" spans="10:10">
       <c r="J345" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="346" spans="10:10">
       <c r="J346" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="347" spans="10:10">
       <c r="J347" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="348" spans="10:10">
       <c r="J348" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="349" spans="10:10">
       <c r="J349" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="350" spans="10:10">
       <c r="J350" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="351" spans="10:10">
       <c r="J351" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="352" spans="10:10">
       <c r="J352" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="353" spans="10:10">
       <c r="J353" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="354" spans="10:10">
       <c r="J354" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="355" spans="10:10">
       <c r="J355" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="356" spans="10:10">
       <c r="J356" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="357" spans="10:10">
       <c r="J357" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="358" spans="10:10">
       <c r="J358" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="359" spans="10:10">
       <c r="J359" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="360" spans="10:10">
       <c r="J360" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="361" spans="10:10">
       <c r="J361" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="362" spans="10:10">
       <c r="J362" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="363" spans="10:10">
       <c r="J363" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="364" spans="10:10">
       <c r="J364" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="365" spans="10:10">
       <c r="J365" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="366" spans="10:10">
       <c r="J366" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="367" spans="10:10">
       <c r="J367" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="368" spans="10:10">
       <c r="J368" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="369" spans="10:10">
       <c r="J369" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="370" spans="10:10">
       <c r="J370" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="371" spans="10:10">
       <c r="J371" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="372" spans="10:10">
       <c r="J372" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="373" spans="10:10">
       <c r="J373" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="374" spans="10:10">
       <c r="J374" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="375" spans="10:10">
       <c r="J375" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="376" spans="10:10">
       <c r="J376" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="377" spans="10:10">
       <c r="J377" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="378" spans="10:10">
       <c r="J378" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="379" spans="10:10">
       <c r="J379" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="380" spans="10:10">
       <c r="J380" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="381" spans="10:10">
       <c r="J381" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="382" spans="10:10">
       <c r="J382" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="383" spans="10:10">
       <c r="J383" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="384" spans="10:10">
       <c r="J384" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="385" spans="10:10">
       <c r="J385" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="386" spans="10:10">
       <c r="J386" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="387" spans="10:10">
       <c r="J387" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="388" spans="10:10">
       <c r="J388" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="389" spans="10:10">
       <c r="J389" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="390" spans="10:10">
       <c r="J390" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="391" spans="10:10">
       <c r="J391" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="392" spans="10:10">
       <c r="J392" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="393" spans="10:10">
       <c r="J393" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="394" spans="10:10">
       <c r="J394" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="395" spans="10:10">
       <c r="J395" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="396" spans="10:10">
       <c r="J396" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="397" spans="10:10">
       <c r="J397" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="398" spans="10:10">
       <c r="J398" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="399" spans="10:10">
       <c r="J399" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="400" spans="10:10">
       <c r="J400" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="401" spans="10:10">
       <c r="J401" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="402" spans="10:10">
       <c r="J402" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="403" spans="10:10">
       <c r="J403" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="404" spans="10:10">
       <c r="J404" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="405" spans="10:10">
       <c r="J405" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="406" spans="10:10">
       <c r="J406" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="407" spans="10:10">
       <c r="J407" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="408" spans="10:10">
       <c r="J408" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="409" spans="10:10">
       <c r="J409" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="410" spans="10:10">
       <c r="J410" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="411" spans="10:10">
       <c r="J411" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="412" spans="10:10">
       <c r="J412" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="413" spans="10:10">
       <c r="J413" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="414" spans="10:10">
       <c r="J414" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="415" spans="10:10">
       <c r="J415" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="416" spans="10:10">
       <c r="J416" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="417" spans="10:10">
       <c r="J417" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="418" spans="10:10">
       <c r="J418" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="419" spans="10:10">
       <c r="J419" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="420" spans="10:10">
       <c r="J420" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="421" spans="10:10">
       <c r="J421" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="422" spans="10:10">
       <c r="J422" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="423" spans="10:10">
       <c r="J423" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="424" spans="10:10">
       <c r="J424" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="425" spans="10:10">
       <c r="J425" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="426" spans="10:10">
       <c r="J426" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="427" spans="10:10">
       <c r="J427" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="428" spans="10:10">
       <c r="J428" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="429" spans="10:10">
       <c r="J429" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="430" spans="10:10">
       <c r="J430" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="431" spans="10:10">
       <c r="J431" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="432" spans="10:10">
       <c r="J432" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="433" spans="10:10">
       <c r="J433" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="434" spans="10:10">
       <c r="J434" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="435" spans="10:10">
       <c r="J435" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="436" spans="10:10">
       <c r="J436" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="437" spans="10:10">
       <c r="J437" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="438" spans="10:10">
       <c r="J438" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="439" spans="10:10">
       <c r="J439" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="440" spans="10:10">
       <c r="J440" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="441" spans="10:10">
       <c r="J441" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="442" spans="10:10">
       <c r="J442" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="443" spans="10:10">
       <c r="J443" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="444" spans="10:10">
       <c r="J444" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="445" spans="10:10">
       <c r="J445" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="446" spans="10:10">
       <c r="J446" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="447" spans="10:10">
       <c r="J447" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="448" spans="10:10">
       <c r="J448" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="449" spans="10:10">
       <c r="J449" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="450" spans="10:10">
       <c r="J450" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="451" spans="10:10">
       <c r="J451" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="452" spans="10:10">
       <c r="J452" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="453" spans="10:10">
       <c r="J453" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="454" spans="10:10">
       <c r="J454" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="455" spans="10:10">
       <c r="J455" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="456" spans="10:10">
       <c r="J456" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="457" spans="10:10">
       <c r="J457" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="458" spans="10:10">
       <c r="J458" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="459" spans="10:10">
       <c r="J459" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="460" spans="10:10">
       <c r="J460" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="461" spans="10:10">
       <c r="J461" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="462" spans="10:10">
       <c r="J462" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="463" spans="10:10">
       <c r="J463" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="464" spans="10:10">
       <c r="J464" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="465" spans="10:10">
       <c r="J465" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="466" spans="10:10">
       <c r="J466" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="467" spans="10:10">
       <c r="J467" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="468" spans="10:10">
       <c r="J468" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="469" spans="10:10">
       <c r="J469" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="470" spans="10:10">
       <c r="J470" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="471" spans="10:10">
       <c r="J471" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="472" spans="10:10">
       <c r="J472" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="473" spans="10:10">
       <c r="J473" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="474" spans="10:10">
       <c r="J474" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="475" spans="10:10">
       <c r="J475" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="476" spans="10:10">
       <c r="J476" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="477" spans="10:10">
       <c r="J477" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="478" spans="10:10">
       <c r="J478" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="479" spans="10:10">
       <c r="J479" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="480" spans="10:10">
       <c r="J480" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="481" spans="10:10">
       <c r="J481" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="482" spans="10:10">
       <c r="J482" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="483" spans="10:10">
       <c r="J483" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="484" spans="10:10">
       <c r="J484" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="485" spans="10:10">
       <c r="J485" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="486" spans="10:10">
       <c r="J486" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="487" spans="10:10">
       <c r="J487" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="488" spans="10:10">
       <c r="J488" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="489" spans="10:10">
       <c r="J489" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="490" spans="10:10">
       <c r="J490" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="491" spans="10:10">
       <c r="J491" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="492" spans="10:10">
       <c r="J492" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="493" spans="10:10">
       <c r="J493" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="494" spans="10:10">
       <c r="J494" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="495" spans="10:10">
       <c r="J495" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="496" spans="10:10">
       <c r="J496" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="497" spans="10:10">
       <c r="J497" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="498" spans="10:10">
       <c r="J498" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="499" spans="10:10">
       <c r="J499" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="500" spans="10:10">
       <c r="J500" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="501" spans="10:10">
       <c r="J501" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="502" spans="10:10">
       <c r="J502" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="503" spans="10:10">
       <c r="J503" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="504" spans="10:10">
       <c r="J504" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="505" spans="10:10">
       <c r="J505" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="506" spans="10:10">
       <c r="J506" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="507" spans="10:10">
       <c r="J507" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="508" spans="10:10">
       <c r="J508" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="509" spans="10:10">
       <c r="J509" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="510" spans="10:10">
       <c r="J510" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="511" spans="10:10">
       <c r="J511" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="512" spans="10:10">
       <c r="J512" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="513" spans="10:10">
       <c r="J513" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="514" spans="10:10">
       <c r="J514" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="515" spans="10:10">
       <c r="J515" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="516" spans="10:10">
       <c r="J516" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="517" spans="10:10">
       <c r="J517" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="518" spans="10:10">
       <c r="J518" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="519" spans="10:10">
       <c r="J519" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="520" spans="10:10">
       <c r="J520" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="521" spans="10:10">
       <c r="J521" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="522" spans="10:10">
       <c r="J522" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="523" spans="10:10">
       <c r="J523" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="524" spans="10:10">
       <c r="J524" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="525" spans="10:10">
       <c r="J525" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="526" spans="10:10">
       <c r="J526" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="527" spans="10:10">
       <c r="J527" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="528" spans="10:10">
       <c r="J528" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="529" spans="10:10">
       <c r="J529" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="530" spans="10:10">
       <c r="J530" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="531" spans="10:10">
       <c r="J531" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="532" spans="10:10">
       <c r="J532" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="533" spans="10:10">
       <c r="J533" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="534" spans="10:10">
       <c r="J534" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="535" spans="10:10">
       <c r="J535" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="536" spans="10:10">
       <c r="J536" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="537" spans="10:10">
       <c r="J537" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="538" spans="10:10">
       <c r="J538" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="539" spans="10:10">
       <c r="J539" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="540" spans="10:10">
       <c r="J540" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="541" spans="10:10">
       <c r="J541" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="542" spans="10:10">
       <c r="J542" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="543" spans="10:10">
       <c r="J543" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="544" spans="10:10">
       <c r="J544" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="545" spans="10:10">
       <c r="J545" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="546" spans="10:10">
       <c r="J546" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="547" spans="10:10">
       <c r="J547" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="548" spans="10:10">
       <c r="J548" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="549" spans="10:10">
       <c r="J549" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="550" spans="10:10">
       <c r="J550" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="551" spans="10:10">
       <c r="J551" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="552" spans="10:10">
       <c r="J552" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="553" spans="10:10">
       <c r="J553" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="554" spans="10:10">
       <c r="J554" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="555" spans="10:10">
       <c r="J555" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="556" spans="10:10">
       <c r="J556" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="557" spans="10:10">
       <c r="J557" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="558" spans="10:10">
       <c r="J558" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="559" spans="10:10">
       <c r="J559" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="560" spans="10:10">
       <c r="J560" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="561" spans="10:10">
       <c r="J561" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="562" spans="10:10">
       <c r="J562" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="563" spans="10:10">
       <c r="J563" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="564" spans="10:10">
       <c r="J564" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="565" spans="10:10">
       <c r="J565" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="566" spans="10:10">
       <c r="J566" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="567" spans="10:10">
       <c r="J567" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="568" spans="10:10">
       <c r="J568" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="569" spans="10:10">
       <c r="J569" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="570" spans="10:10">
       <c r="J570" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="571" spans="10:10">
       <c r="J571" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="572" spans="10:10">
       <c r="J572" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="573" spans="10:10">
       <c r="J573" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="574" spans="10:10">
       <c r="J574" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="575" spans="10:10">
       <c r="J575" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="576" spans="10:10">
       <c r="J576" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="577" spans="10:10">
       <c r="J577" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="578" spans="10:10">
       <c r="J578" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="579" spans="10:10">
       <c r="J579" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="580" spans="10:10">
       <c r="J580" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="581" spans="10:10">
       <c r="J581" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="582" spans="10:10">
       <c r="J582" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="583" spans="10:10">
       <c r="J583" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="584" spans="10:10">
       <c r="J584" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="585" spans="10:10">
       <c r="J585" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="586" spans="10:10">
       <c r="J586" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="587" spans="10:10">
       <c r="J587" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="588" spans="10:10">
       <c r="J588" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="589" spans="10:10">
       <c r="J589" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="590" spans="10:10">
       <c r="J590" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="591" spans="10:10">
       <c r="J591" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="592" spans="10:10">
       <c r="J592" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="593" spans="10:10">
       <c r="J593" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="594" spans="10:10">
       <c r="J594" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="595" spans="10:10">
       <c r="J595" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="596" spans="10:10">
       <c r="J596" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="597" spans="10:10">
       <c r="J597" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="598" spans="10:10">
       <c r="J598" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="599" spans="10:10">
       <c r="J599" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="600" spans="10:10">
       <c r="J600" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="601" spans="10:10">
       <c r="J601" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="602" spans="10:10">
       <c r="J602" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="603" spans="10:10">
       <c r="J603" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="604" spans="10:10">
       <c r="J604" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="605" spans="10:10">
       <c r="J605" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="606" spans="10:10">
       <c r="J606" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="607" spans="10:10">
       <c r="J607" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="608" spans="10:10">
       <c r="J608" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="609" spans="10:10">
       <c r="J609" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="610" spans="10:10">
       <c r="J610" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="611" spans="10:10">
       <c r="J611" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="612" spans="10:10">
       <c r="J612" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="613" spans="10:10">
       <c r="J613" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="614" spans="10:10">
       <c r="J614" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="615" spans="10:10">
       <c r="J615" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="616" spans="10:10">
       <c r="J616" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="617" spans="10:10">
       <c r="J617" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="618" spans="10:10">
       <c r="J618" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="619" spans="10:10">
       <c r="J619" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="620" spans="10:10">
       <c r="J620" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="621" spans="10:10">
       <c r="J621" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="622" spans="10:10">
       <c r="J622" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="623" spans="10:10">
       <c r="J623" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="624" spans="10:10">
       <c r="J624" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="625" spans="10:10">
       <c r="J625" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="626" spans="10:10">
       <c r="J626" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="627" spans="10:10">
       <c r="J627" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="628" spans="10:10">
       <c r="J628" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="629" spans="10:10">
       <c r="J629" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="630" spans="10:10">
       <c r="J630" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="631" spans="10:10">
       <c r="J631" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="632" spans="10:10">
       <c r="J632" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="633" spans="10:10">
       <c r="J633" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="634" spans="10:10">
       <c r="J634" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="635" spans="10:10">
       <c r="J635" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="636" spans="10:10">
       <c r="J636" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="637" spans="10:10">
       <c r="J637" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="638" spans="10:10">
       <c r="J638" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="639" spans="10:10">
       <c r="J639" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="640" spans="10:10">
       <c r="J640" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="641" spans="10:10">
       <c r="J641" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="642" spans="10:10">
       <c r="J642" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="643" spans="10:10">
       <c r="J643" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="644" spans="10:10">
       <c r="J644" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="645" spans="10:10">
       <c r="J645" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="646" spans="10:10">
       <c r="J646" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="647" spans="10:10">
       <c r="J647" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="648" spans="10:10">
       <c r="J648" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="649" spans="10:10">
       <c r="J649" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="650" spans="10:10">
       <c r="J650" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="651" spans="10:10">
       <c r="J651" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="652" spans="10:10">
       <c r="J652" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="653" spans="10:10">
       <c r="J653" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="654" spans="10:10">
       <c r="J654" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="655" spans="10:10">
       <c r="J655" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="656" spans="10:10">
       <c r="J656" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="657" spans="10:10">
       <c r="J657" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="658" spans="10:10">
       <c r="J658" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="659" spans="10:10">
       <c r="J659" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="660" spans="10:10">
       <c r="J660" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="661" spans="10:10">
       <c r="J661" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="662" spans="10:10">
       <c r="J662" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="663" spans="10:10">
       <c r="J663" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="664" spans="10:10">
       <c r="J664" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="665" spans="10:10">
       <c r="J665" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="666" spans="10:10">
       <c r="J666" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="667" spans="10:10">
       <c r="J667" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="668" spans="10:10">
       <c r="J668" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="669" spans="10:10">
       <c r="J669" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="670" spans="10:10">
       <c r="J670" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="671" spans="10:10">
       <c r="J671" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="672" spans="10:10">
       <c r="J672" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="673" spans="10:10">
       <c r="J673" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="674" spans="10:10">
       <c r="J674" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="675" spans="10:10">
       <c r="J675" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="676" spans="10:10">
       <c r="J676" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="677" spans="10:10">
       <c r="J677" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="678" spans="10:10">
       <c r="J678" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="679" spans="10:10">
       <c r="J679" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="680" spans="10:10">
       <c r="J680" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="681" spans="10:10">
       <c r="J681" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="682" spans="10:10">
       <c r="J682" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="683" spans="10:10">
       <c r="J683" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="684" spans="10:10">
       <c r="J684" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="685" spans="10:10">
       <c r="J685" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="686" spans="10:10">
       <c r="J686" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="687" spans="10:10">
       <c r="J687" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="688" spans="10:10">
       <c r="J688" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="689" spans="10:10">
       <c r="J689" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="690" spans="10:10">
       <c r="J690" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="691" spans="10:10">
       <c r="J691" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="692" spans="10:10">
       <c r="J692" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="693" spans="10:10">
       <c r="J693" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="694" spans="10:10">
       <c r="J694" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="695" spans="10:10">
       <c r="J695" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="696" spans="10:10">
       <c r="J696" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="697" spans="10:10">
       <c r="J697" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="698" spans="10:10">
       <c r="J698" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="699" spans="10:10">
       <c r="J699" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="700" spans="10:10">
       <c r="J700" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="701" spans="10:10">
       <c r="J701" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="702" spans="10:10">
       <c r="J702" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="703" spans="10:10">
       <c r="J703" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="704" spans="10:10">
       <c r="J704" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="705" spans="10:10">
       <c r="J705" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="706" spans="10:10">
       <c r="J706" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="707" spans="10:10">
       <c r="J707" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="708" spans="10:10">
       <c r="J708" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="709" spans="10:10">
       <c r="J709" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="710" spans="10:10">
       <c r="J710" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="711" spans="10:10">
       <c r="J711" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="712" spans="10:10">
       <c r="J712" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="713" spans="10:10">
       <c r="J713" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="714" spans="10:10">
       <c r="J714" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="715" spans="10:10">
       <c r="J715" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="716" spans="10:10">
       <c r="J716" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="717" spans="10:10">
       <c r="J717" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="718" spans="10:10">
       <c r="J718" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="719" spans="10:10">
       <c r="J719" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="720" spans="10:10">
       <c r="J720" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="721" spans="10:10">
       <c r="J721" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="722" spans="10:10">
       <c r="J722" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="723" spans="10:10">
       <c r="J723" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="724" spans="10:10">
       <c r="J724" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="725" spans="10:10">
       <c r="J725" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="726" spans="10:10">
       <c r="J726" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="727" spans="10:10">
       <c r="J727" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="728" spans="10:10">
       <c r="J728" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="729" spans="10:10">
       <c r="J729" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="730" spans="10:10">
       <c r="J730" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="731" spans="10:10">
       <c r="J731" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="732" spans="10:10">
       <c r="J732" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="733" spans="10:10">
       <c r="J733" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="734" spans="10:10">
       <c r="J734" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="735" spans="10:10">
       <c r="J735" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="736" spans="10:10">
       <c r="J736" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="737" spans="10:10">
       <c r="J737" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="738" spans="10:10">
       <c r="J738" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="739" spans="10:10">
       <c r="J739" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="740" spans="10:10">
       <c r="J740" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="741" spans="10:10">
       <c r="J741" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="742" spans="10:10">
       <c r="J742" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="743" spans="10:10">
       <c r="J743" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="744" spans="10:10">
       <c r="J744" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="745" spans="10:10">
       <c r="J745" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="746" spans="10:10">
       <c r="J746" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="747" spans="10:10">
       <c r="J747" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="748" spans="10:10">
       <c r="J748" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="749" spans="10:10">
       <c r="J749" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="750" spans="10:10">
       <c r="J750" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="751" spans="10:10">
       <c r="J751" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="752" spans="10:10">
       <c r="J752" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="753" spans="10:10">
       <c r="J753" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="754" spans="10:10">
       <c r="J754" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="755" spans="10:10">
       <c r="J755" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="756" spans="10:10">
       <c r="J756" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="757" spans="10:10">
       <c r="J757" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="758" spans="10:10">
       <c r="J758" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="759" spans="10:10">
       <c r="J759" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="760" spans="10:10">
       <c r="J760" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="761" spans="10:10">
       <c r="J761" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="762" spans="10:10">
       <c r="J762" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="763" spans="10:10">
       <c r="J763" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="764" spans="10:10">
       <c r="J764" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="765" spans="10:10">
       <c r="J765" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="766" spans="10:10">
       <c r="J766" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="767" spans="10:10">
       <c r="J767" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="768" spans="10:10">
       <c r="J768" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="769" spans="10:10">
       <c r="J769" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="770" spans="10:10">
       <c r="J770" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="771" spans="10:10">
       <c r="J771" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="772" spans="10:10">
       <c r="J772" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="773" spans="10:10">
       <c r="J773" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="774" spans="10:10">
       <c r="J774" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="775" spans="10:10">
       <c r="J775" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="776" spans="10:10">
       <c r="J776" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="777" spans="10:10">
       <c r="J777" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="778" spans="10:10">
       <c r="J778" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="779" spans="10:10">
       <c r="J779" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="780" spans="10:10">
       <c r="J780" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="781" spans="10:10">
       <c r="J781" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="782" spans="10:10">
       <c r="J782" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="783" spans="10:10">
       <c r="J783" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="784" spans="10:10">
       <c r="J784" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="785" spans="10:10">
       <c r="J785" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="786" spans="10:10">
       <c r="J786" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="787" spans="10:10">
       <c r="J787" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="788" spans="10:10">
       <c r="J788" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="789" spans="10:10">
       <c r="J789" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="790" spans="10:10">
       <c r="J790" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="791" spans="10:10">
       <c r="J791" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="792" spans="10:10">
       <c r="J792" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="793" spans="10:10">
       <c r="J793" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="794" spans="10:10">
       <c r="J794" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="795" spans="10:10">
       <c r="J795" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="796" spans="10:10">
       <c r="J796" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="797" spans="10:10">
       <c r="J797" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="798" spans="10:10">
       <c r="J798" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="799" spans="10:10">
       <c r="J799" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="800" spans="10:10">
       <c r="J800" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="801" spans="10:10">
       <c r="J801" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="802" spans="10:10">
       <c r="J802" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="803" spans="10:10">
       <c r="J803" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="804" spans="10:10">
       <c r="J804" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="805" spans="10:10">
       <c r="J805" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="806" spans="10:10">
       <c r="J806" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="807" spans="10:10">
       <c r="J807" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="808" spans="10:10">
       <c r="J808" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="809" spans="10:10">
       <c r="J809" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="810" spans="10:10">
       <c r="J810" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="811" spans="10:10">
       <c r="J811" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="812" spans="10:10">
       <c r="J812" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="813" spans="10:10">
       <c r="J813" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="814" spans="10:10">
       <c r="J814" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="815" spans="10:10">
       <c r="J815" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="816" spans="10:10">
       <c r="J816" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="817" spans="10:10">
       <c r="J817" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="818" spans="10:10">
       <c r="J818" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="819" spans="10:10">
       <c r="J819" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="820" spans="10:10">
       <c r="J820" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="821" spans="10:10">
       <c r="J821" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="822" spans="10:10">
       <c r="J822" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="823" spans="10:10">
       <c r="J823" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="824" spans="10:10">
       <c r="J824" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="825" spans="10:10">
       <c r="J825" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="826" spans="10:10">
       <c r="J826" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="827" spans="10:10">
       <c r="J827" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="828" spans="10:10">
       <c r="J828" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="829" spans="10:10">
       <c r="J829" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="830" spans="10:10">
       <c r="J830" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="831" spans="10:10">
       <c r="J831" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="832" spans="10:10">
       <c r="J832" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="833" spans="10:10">
       <c r="J833" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="834" spans="10:10">
       <c r="J834" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="835" spans="10:10">
       <c r="J835" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="836" spans="10:10">
       <c r="J836" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="837" spans="10:10">
       <c r="J837" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="838" spans="10:10">
       <c r="J838" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="839" spans="10:10">
       <c r="J839" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="840" spans="10:10">
       <c r="J840" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="841" spans="10:10">
       <c r="J841" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="842" spans="10:10">
       <c r="J842" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="843" spans="10:10">
       <c r="J843" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="844" spans="10:10">
       <c r="J844" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="845" spans="10:10">
       <c r="J845" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="846" spans="10:10">
       <c r="J846" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="847" spans="10:10">
       <c r="J847" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="848" spans="10:10">
       <c r="J848" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="849" spans="10:10">
       <c r="J849" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="850" spans="10:10">
       <c r="J850" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="851" spans="10:10">
       <c r="J851" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="852" spans="10:10">
       <c r="J852" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="853" spans="10:10">
       <c r="J853" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="854" spans="10:10">
       <c r="J854" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="855" spans="10:10">
       <c r="J855" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="856" spans="10:10">
       <c r="J856" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="857" spans="10:10">
       <c r="J857" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="858" spans="10:10">
       <c r="J858" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="859" spans="10:10">
       <c r="J859" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="860" spans="10:10">
       <c r="J860" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="861" spans="10:10">
       <c r="J861" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="862" spans="10:10">
       <c r="J862" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="863" spans="10:10">
       <c r="J863" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="864" spans="10:10">
       <c r="J864" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="865" spans="10:10">
       <c r="J865" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="866" spans="10:10">
       <c r="J866" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="867" spans="10:10">
       <c r="J867" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="868" spans="10:10">
       <c r="J868" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="869" spans="10:10">
       <c r="J869" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="870" spans="10:10">
       <c r="J870" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="871" spans="10:10">
       <c r="J871" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="872" spans="10:10">
       <c r="J872" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="873" spans="10:10">
       <c r="J873" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="874" spans="10:10">
       <c r="J874" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="875" spans="10:10">
       <c r="J875" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="876" spans="10:10">
       <c r="J876" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="877" spans="10:10">
       <c r="J877" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="878" spans="10:10">
       <c r="J878" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="879" spans="10:10">
       <c r="J879" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="880" spans="10:10">
       <c r="J880" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="881" spans="10:10">
       <c r="J881" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="882" spans="10:10">
       <c r="J882" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="883" spans="10:10">
       <c r="J883" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="884" spans="10:10">
       <c r="J884" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="885" spans="10:10">
       <c r="J885" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="886" spans="10:10">
       <c r="J886" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="887" spans="10:10">
       <c r="J887" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="888" spans="10:10">
       <c r="J888" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="889" spans="10:10">
       <c r="J889" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="890" spans="10:10">
       <c r="J890" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="891" spans="10:10">
       <c r="J891" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="892" spans="10:10">
       <c r="J892" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="893" spans="10:10">
       <c r="J893" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="894" spans="10:10">
       <c r="J894" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="895" spans="10:10">
       <c r="J895" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="896" spans="10:10">
       <c r="J896" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="897" spans="10:10">
       <c r="J897" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="898" spans="10:10">
       <c r="J898" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="899" spans="10:10">
       <c r="J899" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="900" spans="10:10">
       <c r="J900" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="901" spans="10:10">
       <c r="J901" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="902" spans="10:10">
       <c r="J902" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="903" spans="10:10">
       <c r="J903" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="904" spans="10:10">
       <c r="J904" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="905" spans="10:10">
       <c r="J905" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="906" spans="10:10">
       <c r="J906" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="907" spans="10:10">
       <c r="J907" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="908" spans="10:10">
       <c r="J908" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="909" spans="10:10">
       <c r="J909" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="910" spans="10:10">
       <c r="J910" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="911" spans="10:10">
       <c r="J911" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="912" spans="10:10">
       <c r="J912" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="913" spans="10:10">
       <c r="J913" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="914" spans="10:10">
       <c r="J914" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="915" spans="10:10">
       <c r="J915" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="916" spans="10:10">
       <c r="J916" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="917" spans="10:10">
       <c r="J917" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="918" spans="10:10">
       <c r="J918" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="919" spans="10:10">
       <c r="J919" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="920" spans="10:10">
       <c r="J920" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="921" spans="10:10">
       <c r="J921" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="922" spans="10:10">
       <c r="J922" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="923" spans="10:10">
       <c r="J923" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="924" spans="10:10">
       <c r="J924" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="925" spans="10:10">
       <c r="J925" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="926" spans="10:10">
       <c r="J926" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="927" spans="10:10">
       <c r="J927" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="928" spans="10:10">
       <c r="J928" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="929" spans="10:10">
       <c r="J929" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="930" spans="10:10">
       <c r="J930" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="931" spans="10:10">
       <c r="J931" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="932" spans="10:10">
       <c r="J932" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="933" spans="10:10">
       <c r="J933" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="934" spans="10:10">
       <c r="J934" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="935" spans="10:10">
       <c r="J935" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="936" spans="10:10">
       <c r="J936" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="937" spans="10:10">
       <c r="J937" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="938" spans="10:10">
       <c r="J938" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="939" spans="10:10">
       <c r="J939" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="940" spans="10:10">
       <c r="J940" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="941" spans="10:10">
       <c r="J941" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="942" spans="10:10">
       <c r="J942" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="943" spans="10:10">
       <c r="J943" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="944" spans="10:10">
       <c r="J944" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="945" spans="10:10">
       <c r="J945" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="946" spans="10:10">
       <c r="J946" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="947" spans="10:10">
       <c r="J947" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="948" spans="10:10">
       <c r="J948" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="949" spans="10:10">
       <c r="J949" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="950" spans="10:10">
       <c r="J950" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="951" spans="10:10">
       <c r="J951" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="952" spans="10:10">
       <c r="J952" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="953" spans="10:10">
       <c r="J953" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="954" spans="10:10">
       <c r="J954" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="955" spans="10:10">
       <c r="J955" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="956" spans="10:10">
       <c r="J956" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="957" spans="10:10">
       <c r="J957" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="958" spans="10:10">
       <c r="J958" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="959" spans="10:10">
       <c r="J959" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="960" spans="10:10">
       <c r="J960" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="961" spans="10:10">
       <c r="J961" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="962" spans="10:10">
       <c r="J962" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="963" spans="10:10">
       <c r="J963" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="964" spans="10:10">
       <c r="J964" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="965" spans="10:10">
       <c r="J965" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="966" spans="10:10">
       <c r="J966" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="967" spans="10:10">
       <c r="J967" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="968" spans="10:10">
       <c r="J968" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="969" spans="10:10">
       <c r="J969" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="970" spans="10:10">
       <c r="J970" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="971" spans="10:10">
       <c r="J971" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="972" spans="10:10">
       <c r="J972" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="973" spans="10:10">
       <c r="J973" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="974" spans="10:10">
       <c r="J974" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="975" spans="10:10">
       <c r="J975" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="976" spans="10:10">
       <c r="J976" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="977" spans="10:10">
       <c r="J977" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="978" spans="10:10">
       <c r="J978" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="979" spans="10:10">
       <c r="J979" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="980" spans="10:10">
       <c r="J980" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="981" spans="10:10">
       <c r="J981" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="982" spans="10:10">
       <c r="J982" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="983" spans="10:10">
       <c r="J983" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="984" spans="10:10">
       <c r="J984" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="985" spans="10:10">
       <c r="J985" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="986" spans="10:10">
       <c r="J986" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="987" spans="10:10">
       <c r="J987" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="988" spans="10:10">
       <c r="J988" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="989" spans="10:10">
       <c r="J989" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="990" spans="10:10">
       <c r="J990" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="991" spans="10:10">
       <c r="J991" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="992" spans="10:10">
       <c r="J992" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="993" spans="10:10">
       <c r="J993" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="994" spans="10:10">
       <c r="J994" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="995" spans="10:10">
       <c r="J995" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="996" spans="10:10">
       <c r="J996" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="997" spans="10:10">
       <c r="J997" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="998" spans="10:10">
       <c r="J998" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="999" spans="10:10">
       <c r="J999" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="1000" spans="10:10">
       <c r="J1000" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="1001" spans="10:10">
       <c r="J1001" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="1002" spans="10:10">
       <c r="J1002" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="1003" spans="10:10">
       <c r="J1003" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="1004" spans="10:10">
       <c r="J1004" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="1005" spans="10:10">
       <c r="J1005" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="1006" spans="10:10">
       <c r="J1006" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="1007" spans="10:10">
       <c r="J1007" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="1008" spans="10:10">
       <c r="J1008" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="1009" spans="10:10">
       <c r="J1009" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="1010" spans="10:10">
       <c r="J1010" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="1011" spans="10:10">
       <c r="J1011" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="1012" spans="10:10">
       <c r="J1012" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="1013" spans="10:10">
       <c r="J1013" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="1014" spans="10:10">
       <c r="J1014" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="1015" spans="10:10">
       <c r="J1015" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="1016" spans="10:10">
       <c r="J1016" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="1017" spans="10:10">
       <c r="J1017" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="1018" spans="10:10">
       <c r="J1018" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="1019" spans="10:10">
       <c r="J1019" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="1020" spans="10:10">
       <c r="J1020" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="1021" spans="10:10">
       <c r="J1021" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="1022" spans="10:10">
       <c r="J1022" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="1023" spans="10:10">
       <c r="J1023" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="1024" spans="10:10">
       <c r="J1024" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="1025" spans="10:10">
       <c r="J1025" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="1026" spans="10:10">
       <c r="J1026" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="1027" spans="10:10">
       <c r="J1027" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="1028" spans="10:10">
       <c r="J1028" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="1029" spans="10:10">
       <c r="J1029" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="1030" spans="10:10">
       <c r="J1030" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="1031" spans="10:10">
       <c r="J1031" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="1032" spans="10:10">
       <c r="J1032" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="1033" spans="10:10">
       <c r="J1033" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="1034" spans="10:10">
       <c r="J1034" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="1035" spans="10:10">
       <c r="J1035" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="1036" spans="10:10">
       <c r="J1036" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="1037" spans="10:10">
       <c r="J1037" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="1038" spans="10:10">
       <c r="J1038" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="1039" spans="10:10">
       <c r="J1039" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="1040" spans="10:10">
       <c r="J1040" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="1041" spans="10:10">
       <c r="J1041" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="1042" spans="10:10">
       <c r="J1042" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="1043" spans="10:10">
       <c r="J1043" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="1044" spans="10:10">
       <c r="J1044" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="1045" spans="10:10">
       <c r="J1045" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="1046" spans="10:10">
       <c r="J1046" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="1047" spans="10:10">
       <c r="J1047" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="1048" spans="10:10">
       <c r="J1048" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="1049" spans="10:10">
       <c r="J1049" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="1050" spans="10:10">
       <c r="J1050" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="1051" spans="10:10">
       <c r="J1051" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="1052" spans="10:10">
       <c r="J1052" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="1053" spans="10:10">
       <c r="J1053" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="1054" spans="10:10">
       <c r="J1054" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="1055" spans="10:10">
       <c r="J1055" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="1056" spans="10:10">
       <c r="J1056" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="1057" spans="10:10">
       <c r="J1057" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="1058" spans="10:10">
       <c r="J1058" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="1059" spans="10:10">
       <c r="J1059" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="1060" spans="10:10">
       <c r="J1060" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="1061" spans="10:10">
       <c r="J1061" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="1062" spans="10:10">
       <c r="J1062" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="1063" spans="10:10">
       <c r="J1063" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="1064" spans="10:10">
       <c r="J1064" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="1065" spans="10:10">
       <c r="J1065" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="1066" spans="10:10">
       <c r="J1066" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="1067" spans="10:10">
       <c r="J1067" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="1068" spans="10:10">
       <c r="J1068" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="1069" spans="10:10">
       <c r="J1069" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="1070" spans="10:10">
       <c r="J1070" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="1071" spans="10:10">
       <c r="J1071" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="1072" spans="10:10">
       <c r="J1072" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="1073" spans="10:10">
       <c r="J1073" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="1074" spans="10:10">
       <c r="J1074" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="1075" spans="10:10">
       <c r="J1075" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="1076" spans="10:10">
       <c r="J1076" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="1077" spans="10:10">
       <c r="J1077" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="1078" spans="10:10">
       <c r="J1078" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="1079" spans="10:10">
       <c r="J1079" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="1080" spans="10:10">
       <c r="J1080" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="1081" spans="10:10">
       <c r="J1081" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="1082" spans="10:10">
       <c r="J1082" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="1083" spans="10:10">
       <c r="J1083" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="1084" spans="10:10">
       <c r="J1084" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="1085" spans="10:10">
       <c r="J1085" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="1086" spans="10:10">
       <c r="J1086" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="1087" spans="10:10">
       <c r="J1087" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="1088" spans="10:10">
       <c r="J1088" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="1089" spans="10:10">
       <c r="J1089" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="1090" spans="10:10">
       <c r="J1090" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="1091" spans="10:10">
       <c r="J1091" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="1092" spans="10:10">
       <c r="J1092" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="1093" spans="10:10">
       <c r="J1093" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="1094" spans="10:10">
       <c r="J1094" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="1095" spans="10:10">
       <c r="J1095" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="1096" spans="10:10">
       <c r="J1096" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="1097" spans="10:10">
       <c r="J1097" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="1098" spans="10:10">
       <c r="J1098" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="1099" spans="10:10">
       <c r="J1099" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="1100" spans="10:10">
       <c r="J1100" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="1101" spans="10:10">
       <c r="J1101" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="1102" spans="10:10">
       <c r="J1102" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="1103" spans="10:10">
       <c r="J1103" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="1104" spans="10:10">
       <c r="J1104" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="1105" spans="10:10">
       <c r="J1105" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="1106" spans="10:10">
       <c r="J1106" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="1107" spans="10:10">
       <c r="J1107" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="1108" spans="10:10">
       <c r="J1108" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="1109" spans="10:10">
       <c r="J1109" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="1110" spans="10:10">
       <c r="J1110" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="1111" spans="10:10">
       <c r="J1111" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="1112" spans="10:10">
       <c r="J1112" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="1113" spans="10:10">
       <c r="J1113" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="1114" spans="10:10">
       <c r="J1114" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="1115" spans="10:10">
       <c r="J1115" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="1116" spans="10:10">
       <c r="J1116" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="1117" spans="10:10">
       <c r="J1117" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="1118" spans="10:10">
       <c r="J1118" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="1119" spans="10:10">
       <c r="J1119" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="1120" spans="10:10">
       <c r="J1120" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="1121" spans="10:10">
       <c r="J1121" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="1122" spans="10:10">
       <c r="J1122" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="1123" spans="10:10">
       <c r="J1123" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="1124" spans="10:10">
       <c r="J1124" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="1125" spans="10:10">
       <c r="J1125" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="1126" spans="10:10">
       <c r="J1126" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="1127" spans="10:10">
       <c r="J1127" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="1128" spans="10:10">
       <c r="J1128" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="1129" spans="10:10">
       <c r="J1129" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="1130" spans="10:10">
       <c r="J1130" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="1131" spans="10:10">
       <c r="J1131" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="1132" spans="10:10">
       <c r="J1132" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="1133" spans="10:10">
       <c r="J1133" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="1134" spans="10:10">
       <c r="J1134" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="1135" spans="10:10">
       <c r="J1135" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="1136" spans="10:10">
       <c r="J1136" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="1137" spans="10:10">
       <c r="J1137" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="1138" spans="10:10">
       <c r="J1138" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="1139" spans="10:10">
       <c r="J1139" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="1140" spans="10:10">
       <c r="J1140" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="1141" spans="10:10">
       <c r="J1141" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="1142" spans="10:10">
       <c r="J1142" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="1143" spans="10:10">
       <c r="J1143" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="1144" spans="10:10">
       <c r="J1144" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="1145" spans="10:10">
       <c r="J1145" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="1146" spans="10:10">
       <c r="J1146" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="1147" spans="10:10">
       <c r="J1147" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="1148" spans="10:10">
       <c r="J1148" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="1149" spans="10:10">
       <c r="J1149" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="1150" spans="10:10">
       <c r="J1150" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="1151" spans="10:10">
       <c r="J1151" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="1152" spans="10:10">
       <c r="J1152" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="1153" spans="10:10">
       <c r="J1153" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="1154" spans="10:10">
       <c r="J1154" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="1155" spans="10:10">
       <c r="J1155" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="1156" spans="10:10">
       <c r="J1156" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="1157" spans="10:10">
       <c r="J1157" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="1158" spans="10:10">
       <c r="J1158" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="1159" spans="10:10">
       <c r="J1159" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="1160" spans="10:10">
       <c r="J1160" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="1161" spans="10:10">
       <c r="J1161" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="1162" spans="10:10">
       <c r="J1162" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="1163" spans="10:10">
       <c r="J1163" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="1164" spans="10:10">
       <c r="J1164" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="1165" spans="10:10">
       <c r="J1165" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="1166" spans="10:10">
       <c r="J1166" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="1167" spans="10:10">
       <c r="J1167" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="1168" spans="10:10">
       <c r="J1168" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="1169" spans="10:10">
       <c r="J1169" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="1170" spans="10:10">
       <c r="J1170" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="1171" spans="10:10">
       <c r="J1171" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="1172" spans="10:10">
       <c r="J1172" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="1173" spans="10:10">
       <c r="J1173" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="1174" spans="10:10">
       <c r="J1174" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="1175" spans="10:10">
       <c r="J1175" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="1176" spans="10:10">
       <c r="J1176" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="1177" spans="10:10">
       <c r="J1177" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="1178" spans="10:10">
       <c r="J1178" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="1179" spans="10:10">
       <c r="J1179" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="1180" spans="10:10">
       <c r="J1180" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="1181" spans="10:10">
       <c r="J1181" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="1182" spans="10:10">
       <c r="J1182" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="1183" spans="10:10">
       <c r="J1183" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="1184" spans="10:10">
       <c r="J1184" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="1185" spans="10:10">
       <c r="J1185" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="1186" spans="10:10">
       <c r="J1186" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="1187" spans="10:10">
       <c r="J1187" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="1188" spans="10:10">
       <c r="J1188" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="1189" spans="10:10">
       <c r="J1189" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="1190" spans="10:10">
       <c r="J1190" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="1191" spans="10:10">
       <c r="J1191" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="1192" spans="10:10">
       <c r="J1192" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="1193" spans="10:10">
       <c r="J1193" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="1194" spans="10:10">
       <c r="J1194" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="1195" spans="10:10">
       <c r="J1195" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="1196" spans="10:10">
       <c r="J1196" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="1197" spans="10:10">
       <c r="J1197" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="1198" spans="10:10">
       <c r="J1198" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="1199" spans="10:10">
       <c r="J1199" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="1200" spans="10:10">
       <c r="J1200" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="1201" spans="10:10">
       <c r="J1201" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="1202" spans="10:10">
       <c r="J1202" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="1203" spans="10:10">
       <c r="J1203" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="1204" spans="10:10">
       <c r="J1204" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="1205" spans="10:10">
       <c r="J1205" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="1206" spans="10:10">
       <c r="J1206" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="1207" spans="10:10">
       <c r="J1207" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="1208" spans="10:10">
       <c r="J1208" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="1209" spans="10:10">
       <c r="J1209" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="1210" spans="10:10">
       <c r="J1210" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="1211" spans="10:10">
       <c r="J1211" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="1212" spans="10:10">
       <c r="J1212" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="1213" spans="10:10">
       <c r="J1213" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="1214" spans="10:10">
       <c r="J1214" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="1215" spans="10:10">
       <c r="J1215" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="1216" spans="10:10">
       <c r="J1216" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="1217" spans="10:10">
       <c r="J1217" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="1218" spans="10:10">
       <c r="J1218" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="1219" spans="10:10">
       <c r="J1219" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="1220" spans="10:10">
       <c r="J1220" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="1221" spans="10:10">
       <c r="J1221" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="1222" spans="10:10">
       <c r="J1222" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="1223" spans="10:10">
       <c r="J1223" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="1224" spans="10:10">
       <c r="J1224" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="1225" spans="10:10">
       <c r="J1225" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="1226" spans="10:10">
       <c r="J1226" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="1227" spans="10:10">
       <c r="J1227" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="1228" spans="10:10">
       <c r="J1228" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="1229" spans="10:10">
       <c r="J1229" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="1230" spans="10:10">
       <c r="J1230" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="1231" spans="10:10">
       <c r="J1231" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="1232" spans="10:10">
       <c r="J1232" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="1233" spans="10:10">
       <c r="J1233" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="1234" spans="10:10">
       <c r="J1234" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="1235" spans="10:10">
       <c r="J1235" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="1236" spans="10:10">
       <c r="J1236" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="1237" spans="10:10">
       <c r="J1237" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="1238" spans="10:10">
       <c r="J1238" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="1239" spans="10:10">
       <c r="J1239" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="1240" spans="10:10">
       <c r="J1240" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="1241" spans="10:10">
       <c r="J1241" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="1242" spans="10:10">
       <c r="J1242" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="1243" spans="10:10">
       <c r="J1243" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="1244" spans="10:10">
       <c r="J1244" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="1245" spans="10:10">
       <c r="J1245" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="1246" spans="10:10">
       <c r="J1246" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="1247" spans="10:10">
       <c r="J1247" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="1248" spans="10:10">
       <c r="J1248" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="1249" spans="10:10">
       <c r="J1249" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="1250" spans="10:10">
       <c r="J1250" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="1251" spans="10:10">
       <c r="J1251" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="1252" spans="10:10">
       <c r="J1252" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="1253" spans="10:10">
       <c r="J1253" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="1254" spans="10:10">
       <c r="J1254" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="1255" spans="10:10">
       <c r="J1255" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="1256" spans="10:10">
       <c r="J1256" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="1257" spans="10:10">
       <c r="J1257" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="1258" spans="10:10">
       <c r="J1258" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="1259" spans="10:10">
       <c r="J1259" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="1260" spans="10:10">
       <c r="J1260" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="1261" spans="10:10">
       <c r="J1261" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="1262" spans="10:10">
       <c r="J1262" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="1263" spans="10:10">
       <c r="J1263" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="1264" spans="10:10">
       <c r="J1264" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="1265" spans="10:10">
       <c r="J1265" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="1266" spans="10:10">
       <c r="J1266" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="1267" spans="10:10">
       <c r="J1267" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="1268" spans="10:10">
       <c r="J1268" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="1269" spans="10:10">
       <c r="J1269" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="1270" spans="10:10">
       <c r="J1270" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="1271" spans="10:10">
       <c r="J1271" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="1272" spans="10:10">
       <c r="J1272" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="1273" spans="10:10">
       <c r="J1273" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="1274" spans="10:10">
       <c r="J1274" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="1275" spans="10:10">
       <c r="J1275" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="1276" spans="10:10">
       <c r="J1276" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="1277" spans="10:10">
       <c r="J1277" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="1278" spans="10:10">
       <c r="J1278" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="1279" spans="10:10">
       <c r="J1279" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="1280" spans="10:10">
       <c r="J1280" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="1281" spans="10:10">
       <c r="J1281" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="1282" spans="10:10">
       <c r="J1282" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="1283" spans="10:10">
       <c r="J1283" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="1284" spans="10:10">
       <c r="J1284" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="1285" spans="10:10">
       <c r="J1285" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="1286" spans="10:10">
       <c r="J1286" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="1287" spans="10:10">
       <c r="J1287" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="1288" spans="10:10">
       <c r="J1288" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="1289" spans="10:10">
       <c r="J1289" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="1290" spans="10:10">
       <c r="J1290" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="1291" spans="10:10">
       <c r="J1291" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="1292" spans="10:10">
       <c r="J1292" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="1293" spans="10:10">
       <c r="J1293" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="1294" spans="10:10">
       <c r="J1294" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="1295" spans="10:10">
       <c r="J1295" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="1296" spans="10:10">
       <c r="J1296" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="1297" spans="10:10">
       <c r="J1297" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="1298" spans="10:10">
       <c r="J1298" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="1299" spans="10:10">
       <c r="J1299" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="1300" spans="10:10">
       <c r="J1300" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="1301" spans="10:10">
       <c r="J1301" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="1302" spans="10:10">
       <c r="J1302" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="1303" spans="10:10">
       <c r="J1303" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="1304" spans="10:10">
       <c r="J1304" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="1305" spans="10:10">
       <c r="J1305" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="1306" spans="10:10">
       <c r="J1306" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="1307" spans="10:10">
       <c r="J1307" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="1308" spans="10:10">
       <c r="J1308" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="1309" spans="10:10">
       <c r="J1309" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="1310" spans="10:10">
       <c r="J1310" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="1311" spans="10:10">
       <c r="J1311" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="1312" spans="10:10">
       <c r="J1312" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="1313" spans="10:10">
       <c r="J1313" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="1314" spans="10:10">
       <c r="J1314" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="1315" spans="10:10">
       <c r="J1315" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="1316" spans="10:10">
       <c r="J1316" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="1317" spans="10:10">
       <c r="J1317" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="1318" spans="10:10">
       <c r="J1318" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="1319" spans="10:10">
       <c r="J1319" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="1320" spans="10:10">
       <c r="J1320" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="1321" spans="10:10">
       <c r="J1321" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="1322" spans="10:10">
       <c r="J1322" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="1323" spans="10:10">
       <c r="J1323" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="1324" spans="10:10">
       <c r="J1324" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="1325" spans="10:10">
       <c r="J1325" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="1326" spans="10:10">
       <c r="J1326" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="1327" spans="10:10">
       <c r="J1327" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="1328" spans="10:10">
       <c r="J1328" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="1329" spans="10:10">
       <c r="J1329" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="1330" spans="10:10">
       <c r="J1330" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="1331" spans="10:10">
       <c r="J1331" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="1332" spans="10:10">
       <c r="J1332" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="1333" spans="10:10">
       <c r="J1333" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="1334" spans="10:10">
       <c r="J1334" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="1335" spans="10:10">
       <c r="J1335" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="1336" spans="10:10">
       <c r="J1336" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="1337" spans="10:10">
       <c r="J1337" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="1338" spans="10:10">
       <c r="J1338" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="1339" spans="10:10">
       <c r="J1339" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="1340" spans="10:10">
       <c r="J1340" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="1341" spans="10:10">
       <c r="J1341" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="1342" spans="10:10">
       <c r="J1342" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="1343" spans="10:10">
       <c r="J1343" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="1344" spans="10:10">
       <c r="J1344" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="1345" spans="10:10">
       <c r="J1345" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="1346" spans="10:10">
       <c r="J1346" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="1347" spans="10:10">
       <c r="J1347" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="1348" spans="10:10">
       <c r="J1348" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="1349" spans="10:10">
       <c r="J1349" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="1350" spans="10:10">
       <c r="J1350" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="1351" spans="10:10">
       <c r="J1351" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="1352" spans="10:10">
       <c r="J1352" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="1353" spans="10:10">
       <c r="J1353" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="1354" spans="10:10">
       <c r="J1354" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="1355" spans="10:10">
       <c r="J1355" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="1356" spans="10:10">
       <c r="J1356" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="1357" spans="10:10">
       <c r="J1357" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="1358" spans="10:10">
       <c r="J1358" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="1359" spans="10:10">
       <c r="J1359" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="1360" spans="10:10">
       <c r="J1360" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="1361" spans="10:10">
       <c r="J1361" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="1362" spans="10:10">
       <c r="J1362" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="1363" spans="10:10">
       <c r="J1363" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="1364" spans="10:10">
       <c r="J1364" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="1365" spans="10:10">
       <c r="J1365" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="1366" spans="10:10">
       <c r="J1366" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="1367" spans="10:10">
       <c r="J1367" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="1368" spans="10:10">
       <c r="J1368" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="1369" spans="10:10">
       <c r="J1369" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="1370" spans="10:10">
       <c r="J1370" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="1371" spans="10:10">
       <c r="J1371" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="1372" spans="10:10">
       <c r="J1372" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="1373" spans="10:10">
       <c r="J1373" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="1374" spans="10:10">
       <c r="J1374" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="1375" spans="10:10">
       <c r="J1375" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="1376" spans="10:10">
       <c r="J1376" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="1377" spans="10:10">
       <c r="J1377" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="1378" spans="10:10">
       <c r="J1378" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="1379" spans="10:10">
       <c r="J1379" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="1380" spans="10:10">
       <c r="J1380" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="1381" spans="10:10">
       <c r="J1381" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="1382" spans="10:10">
       <c r="J1382" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="1383" spans="10:10">
       <c r="J1383" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="1384" spans="10:10">
       <c r="J1384" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="1385" spans="10:10">
       <c r="J1385" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="1386" spans="10:10">
       <c r="J1386" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="1387" spans="10:10">
       <c r="J1387" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="1388" spans="10:10">
       <c r="J1388" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="1389" spans="10:10">
       <c r="J1389" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="1390" spans="10:10">
       <c r="J1390" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="1391" spans="10:10">
       <c r="J1391" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="1392" spans="10:10">
       <c r="J1392" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="1393" spans="10:10">
       <c r="J1393" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="1394" spans="10:10">
       <c r="J1394" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="1395" spans="10:10">
       <c r="J1395" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="1396" spans="10:10">
       <c r="J1396" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="1397" spans="10:10">
       <c r="J1397" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="1398" spans="10:10">
       <c r="J1398" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="1399" spans="10:10">
       <c r="J1399" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="1400" spans="10:10">
       <c r="J1400" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="1401" spans="10:10">
       <c r="J1401" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="1402" spans="10:10">
       <c r="J1402" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="1403" spans="10:10">
       <c r="J1403" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="1404" spans="10:10">
       <c r="J1404" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="1405" spans="10:10">
       <c r="J1405" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="1406" spans="10:10">
       <c r="J1406" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="1407" spans="10:10">
       <c r="J1407" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="1408" spans="10:10">
       <c r="J1408" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="1409" spans="10:10">
       <c r="J1409" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="1410" spans="10:10">
       <c r="J1410" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="1411" spans="10:10">
       <c r="J1411" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="1412" spans="10:10">
       <c r="J1412" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="1413" spans="10:10">
       <c r="J1413" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="1414" spans="10:10">
       <c r="J1414" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="1415" spans="10:10">
       <c r="J1415" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="1416" spans="10:10">
       <c r="J1416" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="1417" spans="10:10">
       <c r="J1417" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="1418" spans="10:10">
       <c r="J1418" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="1419" spans="10:10">
       <c r="J1419" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="1420" spans="10:10">
       <c r="J1420" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="1421" spans="10:10">
       <c r="J1421" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="1422" spans="10:10">
       <c r="J1422" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="1423" spans="10:10">
       <c r="J1423" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="1424" spans="10:10">
       <c r="J1424" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="1425" spans="10:10">
       <c r="J1425" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="1426" spans="10:10">
       <c r="J1426" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="1427" spans="10:10">
       <c r="J1427" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="1428" spans="10:10">
       <c r="J1428" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="1429" spans="10:10">
       <c r="J1429" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="1430" spans="10:10">
       <c r="J1430" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="1431" spans="10:10">
       <c r="J1431" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="1432" spans="10:10">
       <c r="J1432" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="1433" spans="10:10">
       <c r="J1433" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="1434" spans="10:10">
       <c r="J1434" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="1435" spans="10:10">
       <c r="J1435" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="1436" spans="10:10">
       <c r="J1436" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="1437" spans="10:10">
       <c r="J1437" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="1438" spans="10:10">
       <c r="J1438" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="1439" spans="10:10">
       <c r="J1439" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="1440" spans="10:10">
       <c r="J1440" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="1441" spans="10:10">
       <c r="J1441" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="1442" spans="10:10">
       <c r="J1442" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="1443" spans="10:10">
       <c r="J1443" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="1444" spans="10:10">
       <c r="J1444" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="1445" spans="10:10">
       <c r="J1445" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="1446" spans="10:10">
       <c r="J1446" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="1447" spans="10:10">
       <c r="J1447" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="1448" spans="10:10">
       <c r="J1448" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="1449" spans="10:10">
       <c r="J1449" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="1450" spans="10:10">
       <c r="J1450" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="1451" spans="10:10">
       <c r="J1451" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="1452" spans="10:10">
       <c r="J1452" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="1453" spans="10:10">
       <c r="J1453" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="1454" spans="10:10">
       <c r="J1454" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="1455" spans="10:10">
       <c r="J1455" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="1456" spans="10:10">
       <c r="J1456" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="1457" spans="10:10">
       <c r="J1457" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="1458" spans="10:10">
       <c r="J1458" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="1459" spans="10:10">
       <c r="J1459" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="1460" spans="10:10">
       <c r="J1460" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="1461" spans="10:10">
       <c r="J1461" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="1462" spans="10:10">
       <c r="J1462" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="1463" spans="10:10">
       <c r="J1463" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="1464" spans="10:10">
       <c r="J1464" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="1465" spans="10:10">
       <c r="J1465" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="1466" spans="10:10">
       <c r="J1466" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="1467" spans="10:10">
       <c r="J1467" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="1468" spans="10:10">
       <c r="J1468" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="1469" spans="10:10">
       <c r="J1469" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="1470" spans="10:10">
       <c r="J1470" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="1471" spans="10:10">
       <c r="J1471" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="1472" spans="10:10">
       <c r="J1472" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="1473" spans="10:10">
       <c r="J1473" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="1474" spans="10:10">
       <c r="J1474" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="1475" spans="10:10">
       <c r="J1475" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="1476" spans="10:10">
       <c r="J1476" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="1477" spans="10:10">
       <c r="J1477" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="1478" spans="10:10">
       <c r="J1478" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="1479" spans="10:10">
       <c r="J1479" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="1480" spans="10:10">
       <c r="J1480" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="1481" spans="10:10">
       <c r="J1481" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="1482" spans="10:10">
       <c r="J1482" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="1483" spans="10:10">
       <c r="J1483" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="1484" spans="10:10">
       <c r="J1484" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="1485" spans="10:10">
       <c r="J1485" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="1486" spans="10:10">
       <c r="J1486" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="1487" spans="10:10">
       <c r="J1487" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="1488" spans="10:10">
       <c r="J1488" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="1489" spans="10:10">
       <c r="J1489" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="1490" spans="10:10">
       <c r="J1490" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="1491" spans="10:10">
       <c r="J1491" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="1492" spans="10:10">
       <c r="J1492" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="1493" spans="10:10">
       <c r="J1493" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="1494" spans="10:10">
       <c r="J1494" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="1495" spans="10:10">
       <c r="J1495" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="1496" spans="10:10">
       <c r="J1496" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="1497" spans="10:10">
       <c r="J1497" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="1498" spans="10:10">
       <c r="J1498" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="1499" spans="10:10">
       <c r="J1499" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="1500" spans="10:10">
       <c r="J1500" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="1501" spans="10:10">
       <c r="J1501" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="1502" spans="10:10">
       <c r="J1502" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -10956,7 +10968,7 @@
         <v>159</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -11084,8 +11096,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11138,10 +11150,10 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="B7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -11157,7 +11169,7 @@
         <v>163</v>
       </c>
       <c r="B9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="30">
@@ -11165,7 +11177,7 @@
         <v>164</v>
       </c>
       <c r="B10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -11173,7 +11185,7 @@
         <v>63</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -11181,7 +11193,7 @@
         <v>102</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -11189,7 +11201,7 @@
         <v>61</v>
       </c>
       <c r="B13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -11197,7 +11209,7 @@
         <v>62</v>
       </c>
       <c r="B14" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -11205,7 +11217,7 @@
         <v>180</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -11213,7 +11225,7 @@
         <v>191</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -11221,13 +11233,16 @@
         <v>193</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>149</v>
       </c>
+      <c r="B18" s="1" t="s">
+        <v>927</v>
+      </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
@@ -11286,7 +11301,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -11666,7 +11681,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12334,7 +12349,7 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
@@ -12417,7 +12432,7 @@
         <v>123</v>
       </c>
       <c r="K2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="L2" t="s">
         <v>148</v>
@@ -12491,7 +12506,7 @@
         <v>124</v>
       </c>
       <c r="L6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -12502,7 +12517,7 @@
         <v>125</v>
       </c>
       <c r="L7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -12518,7 +12533,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="L9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>

--- a/IVFmilan/src/main/java/com_Milan_TestData/Milandata.xlsx
+++ b/IVFmilan/src/main/java/com_Milan_TestData/Milandata.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Parag\Git\IVFmilan\src\main\java\com_Milan_TestData\"/>
     </mc:Choice>
@@ -38,7 +38,7 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1912" uniqueCount="1044">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1958" uniqueCount="1046">
   <si>
     <t>PatientName</t>
   </si>
@@ -3180,6 +3180,12 @@
   </si>
   <si>
     <t>OVITROP 75 IU INJ-SUN PHARMA</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
   </si>
 </sst>
 </file>
@@ -3567,7 +3573,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="40.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="40.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="10" customFormat="1">
@@ -3616,19 +3622,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="21.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="21" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="96" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="36.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="16.140625" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="255.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="21.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="96.0" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="36.7109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="255.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -11288,14 +11294,14 @@
   <dimension ref="A1:C116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="55.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="55.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="33.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="33.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -11930,9 +11936,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="38" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="38.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -11975,7 +11981,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -12047,7 +12053,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="5" max="5" width="53.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="53.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="4:5">
@@ -12085,8 +12091,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="48.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="48.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="10" customFormat="1">
@@ -12302,7 +12308,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -12342,14 +12348,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.7109375" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="13.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="29.85546875" style="15" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="8.85546875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="16384" width="9.140625" style="15" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="15" width="17.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="15" width="13.7109375" collapsed="true"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" style="15" width="13.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="15" width="10.28515625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="15" width="12.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="15" width="29.85546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="15" width="8.8359375" collapsed="true"/>
+    <col min="9" max="16384" style="15" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="14" customFormat="1">
@@ -12504,10 +12510,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="17.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="6" width="12.42578125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="31.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="5" max="6" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="31.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="7" customFormat="1">
@@ -12669,7 +12675,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="27.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -12704,20 +12710,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="24.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="22.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="22.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="24.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="22.5703125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="10" customFormat="1">
@@ -13252,10 +13258,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="71.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="71.66796875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="10" customFormat="1">
@@ -13338,11 +13344,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="55" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="10" width="17.42578125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="38.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="55.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="4" max="10" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="17.875" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="38.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="10" customFormat="1">

--- a/IVFmilan/src/main/java/com_Milan_TestData/Milandata.xlsx
+++ b/IVFmilan/src/main/java/com_Milan_TestData/Milandata.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Parag\Git\IVFmilan\src\main\java\com_Milan_TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17520" windowHeight="4590" firstSheet="6" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17520" windowHeight="4590" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="5" r:id="rId1"/>
@@ -38,7 +38,7 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1958" uniqueCount="1046">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1914" uniqueCount="1045">
   <si>
     <t>PatientName</t>
   </si>
@@ -3182,10 +3182,7 @@
     <t>OVITROP 75 IU INJ-SUN PHARMA</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
+    <t>Cycle Overview</t>
   </si>
 </sst>
 </file>
@@ -3288,7 +3285,18 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -3573,7 +3581,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="40.28515625" collapsed="true"/>
+    <col min="3" max="3" width="40.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="10" customFormat="1">
@@ -3617,24 +3625,24 @@
   <dimension ref="A1:M1502"/>
   <sheetViews>
     <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="19.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="21.28515625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="96.0" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="36.7109375" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="255.7109375" collapsed="true"/>
+    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="21" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="96" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="36.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="16.140625" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="255.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -3707,8 +3715,8 @@
         <v>148</v>
       </c>
       <c r="L2" s="21">
-        <f ca="1">(TODAY() )</f>
-        <v>43276</v>
+        <f ca="1">(TODAY())</f>
+        <v>43277</v>
       </c>
       <c r="M2" s="22" t="s">
         <v>925</v>
@@ -11291,20 +11299,21 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C116"/>
+  <dimension ref="A1:D116"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="55.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="33.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="33.0" collapsed="true"/>
+    <col min="1" max="1" width="55.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="33" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="23" t="s">
         <v>66</v>
       </c>
@@ -11314,8 +11323,11 @@
       <c r="C1" s="23" t="s">
         <v>1038</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="23" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>927</v>
       </c>
@@ -11325,8 +11337,12 @@
       <c r="C2" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" s="21">
+        <f ca="1">(TODAY())</f>
+        <v>43277</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>1037</v>
       </c>
@@ -11336,32 +11352,39 @@
       <c r="C3" t="s">
         <v>1039</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" s="21"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>1044</v>
+      </c>
       <c r="B4" t="s">
         <v>930</v>
       </c>
       <c r="C4" t="s">
         <v>1040</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" s="21"/>
+    </row>
+    <row r="5" spans="1:4">
       <c r="B5" t="s">
         <v>931</v>
       </c>
       <c r="C5" t="s">
         <v>1039</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" s="21"/>
+    </row>
+    <row r="6" spans="1:4">
       <c r="B6" t="s">
         <v>932</v>
       </c>
       <c r="C6" t="s">
         <v>1041</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" s="21"/>
+    </row>
+    <row r="7" spans="1:4">
       <c r="B7" t="s">
         <v>933</v>
       </c>
@@ -11369,7 +11392,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:4">
       <c r="B8" t="s">
         <v>934</v>
       </c>
@@ -11377,7 +11400,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:4">
       <c r="B9" t="s">
         <v>935</v>
       </c>
@@ -11385,37 +11408,37 @@
         <v>996</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:4">
       <c r="B10" t="s">
         <v>936</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:4">
       <c r="B11" t="s">
         <v>937</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:4">
       <c r="B12" t="s">
         <v>938</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:4">
       <c r="B13" t="s">
         <v>939</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:4">
       <c r="B14" t="s">
         <v>940</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:4">
       <c r="B15" t="s">
         <v>941</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:4">
       <c r="B16" t="s">
         <v>942</v>
       </c>
@@ -11921,6 +11944,11 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="D2:D6">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>43277</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -11936,9 +11964,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="38.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="1" max="1" width="38" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -11981,7 +12009,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -12053,7 +12081,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="53.7109375" collapsed="true"/>
+    <col min="5" max="5" width="53.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="4:5">
@@ -12085,14 +12113,14 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="48.7109375" collapsed="true"/>
+    <col min="1" max="1" width="37.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="48.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="10" customFormat="1">
@@ -12139,7 +12167,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>922</v>
+        <v>926</v>
       </c>
       <c r="B7" t="s">
         <v>201</v>
@@ -12230,7 +12258,7 @@
         <v>149</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -12308,7 +12336,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -12348,14 +12376,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="15" width="17.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="15" width="13.7109375" collapsed="true"/>
-    <col min="3" max="4" bestFit="true" customWidth="true" style="15" width="13.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="15" width="10.28515625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="15" width="12.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="15" width="29.85546875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="15" width="8.8359375" collapsed="true"/>
-    <col min="9" max="16384" style="15" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="17.85546875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.7109375" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="13.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="29.85546875" style="15" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="8.85546875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="16384" width="9.140625" style="15" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="14" customFormat="1">
@@ -12510,10 +12538,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" customWidth="true" width="17.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="5" max="6" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="31.85546875" collapsed="true"/>
+    <col min="3" max="3" width="17.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="12.42578125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="31.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="7" customFormat="1">
@@ -12675,7 +12703,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="27.42578125" collapsed="true"/>
+    <col min="1" max="1" width="27.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -12710,20 +12738,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="22.42578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="24.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="23.7109375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="22.5703125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="22.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="12" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="10" customFormat="1">
@@ -13258,10 +13286,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="71.66796875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="1" max="1" width="71.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="10" customFormat="1">
@@ -13344,11 +13372,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="55.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="4" max="10" customWidth="true" width="17.42578125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="17.875" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="38.28515625" collapsed="true"/>
+    <col min="2" max="2" width="55" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="10" width="17.42578125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="38.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="10" customFormat="1">

--- a/IVFmilan/src/main/java/com_Milan_TestData/Milandata.xlsx
+++ b/IVFmilan/src/main/java/com_Milan_TestData/Milandata.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Parag\Git\IVFmilan\src\main\java\com_Milan_TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17520" windowHeight="4590" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17520" windowHeight="4590" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="5" r:id="rId1"/>
@@ -38,7 +38,7 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1914" uniqueCount="1045">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1926" uniqueCount="1053">
   <si>
     <t>PatientName</t>
   </si>
@@ -3183,6 +3183,30 @@
   </si>
   <si>
     <t>Cycle Overview</t>
+  </si>
+  <si>
+    <t>Zeenath </t>
+  </si>
+  <si>
+    <t>cyclenotfound</t>
+  </si>
+  <si>
+    <t>this user has cycle saved but no package</t>
+  </si>
+  <si>
+    <t>this user has package saved but no cycle saved till 27062018</t>
+  </si>
+  <si>
+    <t>Prathyusha </t>
+  </si>
+  <si>
+    <t>New Paitent</t>
+  </si>
+  <si>
+    <t>Prathima </t>
+  </si>
+  <si>
+    <t>Add atleast 1 service.</t>
   </si>
 </sst>
 </file>
@@ -3576,12 +3600,12 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="40.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="40.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="10" customFormat="1">
@@ -3630,19 +3654,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="21.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="21" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="96" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="36.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="16.140625" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="255.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="21.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="20.93359375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="96.0" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="36.7109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="255.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -3716,7 +3740,7 @@
       </c>
       <c r="L2" s="21">
         <f ca="1">(TODAY())</f>
-        <v>43277</v>
+        <v>43278</v>
       </c>
       <c r="M2" s="22" t="s">
         <v>925</v>
@@ -11307,10 +11331,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="55.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="55.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="33.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="33.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="9.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -11339,7 +11363,7 @@
       </c>
       <c r="D2" s="21">
         <f ca="1">(TODAY())</f>
-        <v>43277</v>
+        <v>43278</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -11964,9 +11988,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="38" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="38.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -12009,7 +12033,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -12081,7 +12105,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="5" max="5" width="53.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="53.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="4:5">
@@ -12111,19 +12135,20 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="48.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="48.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="54.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="10" customFormat="1">
+    <row r="1" spans="1:3" s="10" customFormat="1">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -12131,7 +12156,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -12139,7 +12164,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -12147,7 +12172,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -12155,25 +12180,25 @@
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>926</v>
+        <v>1051</v>
       </c>
       <c r="B7" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>181</v>
       </c>
@@ -12181,7 +12206,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="30">
+    <row r="9" spans="1:3" ht="30">
       <c r="A9" s="1" t="s">
         <v>163</v>
       </c>
@@ -12189,7 +12214,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="30">
+    <row r="10" spans="1:3" ht="30">
       <c r="A10" s="1" t="s">
         <v>164</v>
       </c>
@@ -12197,7 +12222,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>63</v>
       </c>
@@ -12205,7 +12230,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>102</v>
       </c>
@@ -12213,7 +12238,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>61</v>
       </c>
@@ -12221,7 +12246,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>62</v>
       </c>
@@ -12229,7 +12254,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
         <v>180</v>
       </c>
@@ -12237,86 +12262,116 @@
         <v>919</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
         <v>191</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>920</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="C16" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>193</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>921</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>149</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>922</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="B19" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="B20" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="B21" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="C22" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>201</v>
       </c>
@@ -12336,7 +12391,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -12376,14 +12431,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.7109375" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="13.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="29.85546875" style="15" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="8.85546875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="16384" width="9.140625" style="15" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="15" width="17.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="15" width="13.7109375" collapsed="true"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" style="15" width="13.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="15" width="10.28515625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="15" width="12.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="15" width="29.85546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="15" width="8.85546875" collapsed="true"/>
+    <col min="9" max="16384" style="15" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="14" customFormat="1">
@@ -12538,10 +12593,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="17.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="6" width="12.42578125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="31.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="5" max="6" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="31.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="7" customFormat="1">
@@ -12703,7 +12758,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="27.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -12738,20 +12793,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="24.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="22.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="22.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="24.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="22.5703125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="10" customFormat="1">
@@ -13286,10 +13341,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="71.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="71.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="10" customFormat="1">
@@ -13364,19 +13419,19 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="55" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="10" width="17.42578125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="38.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="55.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="4" max="10" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="38.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="10" customFormat="1">
@@ -13448,9 +13503,6 @@
       <c r="J2" t="s">
         <v>123</v>
       </c>
-      <c r="K2" t="s">
-        <v>84</v>
-      </c>
       <c r="L2" t="s">
         <v>148</v>
       </c>
@@ -13495,7 +13547,7 @@
         <v>129</v>
       </c>
       <c r="L4" t="s">
-        <v>127</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -13534,7 +13586,7 @@
         <v>125</v>
       </c>
       <c r="L7" t="s">
-        <v>200</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -13545,12 +13597,17 @@
         <v>126</v>
       </c>
       <c r="L8" t="s">
-        <v>148</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="L9" t="s">
         <v>203</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="L10" t="s">
+        <v>1046</v>
       </c>
     </row>
   </sheetData>

--- a/IVFmilan/src/main/java/com_Milan_TestData/Milandata.xlsx
+++ b/IVFmilan/src/main/java/com_Milan_TestData/Milandata.xlsx
@@ -3727,7 +3727,7 @@
     </row>
     <row r="2" spans="1:13" ht="30">
       <c r="A2" t="s">
-        <v>205</v>
+        <v>118</v>
       </c>
       <c r="C2" t="s">
         <v>165</v>
@@ -3755,7 +3755,7 @@
       </c>
       <c r="L2" s="21">
         <f ca="1">(TODAY())</f>
-        <v>43279</v>
+        <v>43280</v>
       </c>
       <c r="M2" s="22" t="s">
         <v>922</v>
@@ -11378,7 +11378,7 @@
       </c>
       <c r="D2" s="21">
         <f ca="1">(TODAY())</f>
-        <v>43279</v>
+        <v>43280</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -12153,7 +12153,7 @@
   <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/IVFmilan/src/main/java/com_Milan_TestData/Milandata.xlsx
+++ b/IVFmilan/src/main/java/com_Milan_TestData/Milandata.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Parag\Git\IVFmilan\src\main\java\com_Milan_TestData\"/>
     </mc:Choice>
@@ -39,7 +39,7 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1973" uniqueCount="1095">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1988" uniqueCount="1099">
   <si>
     <t>PatientName</t>
   </si>
@@ -3321,9 +3321,6 @@
     <t>MMMMM</t>
   </si>
   <si>
-    <t xml:space="preserve">Madhubala </t>
-  </si>
-  <si>
     <t>SearchResult</t>
   </si>
   <si>
@@ -3334,6 +3331,21 @@
   </si>
   <si>
     <t>Set Favorite</t>
+  </si>
+  <si>
+    <t>Sanika </t>
+  </si>
+  <si>
+    <t>Madhubala</t>
+  </si>
+  <si>
+    <t>Smriti </t>
+  </si>
+  <si>
+    <t>Lisa</t>
+  </si>
+  <si>
+    <t>Akansha</t>
   </si>
 </sst>
 </file>
@@ -3742,7 +3754,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="40.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="40.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="10" customFormat="1">
@@ -3791,21 +3803,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="21.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="21" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="96" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="36.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="21.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="21.7109375" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="255.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="8.78125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="21.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="96.0" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="36.7109375" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="255.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -3885,7 +3897,7 @@
       </c>
       <c r="L2" s="28">
         <f ca="1">(TODAY())</f>
-        <v>43285</v>
+        <v>43286</v>
       </c>
       <c r="M2" s="26"/>
       <c r="N2" s="15" t="s">
@@ -11608,10 +11620,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="55.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="9.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="55.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="33.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="33.0" collapsed="true"/>
+    <col min="4" max="5" bestFit="true" customWidth="true" width="9.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -11643,11 +11655,11 @@
       </c>
       <c r="D2" s="24">
         <f ca="1">(TODAY())</f>
-        <v>43285</v>
+        <v>43286</v>
       </c>
       <c r="E2" s="25">
         <f ca="1">(TODAY())</f>
-        <v>43285</v>
+        <v>43286</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -12272,9 +12284,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="38" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="38.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -12315,9 +12327,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="26.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="7" customFormat="1">
@@ -12328,10 +12340,10 @@
         <v>136</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>1090</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>1091</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>1092</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -12371,7 +12383,7 @@
         <v>122</v>
       </c>
       <c r="D6" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -12379,7 +12391,7 @@
         <v>123</v>
       </c>
       <c r="D7" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -12411,9 +12423,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -12512,12 +12524,12 @@
   <dimension ref="D1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="5" max="5" width="53.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="53.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="4:5">
@@ -12547,17 +12559,17 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="48.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="54.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="48.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="54.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="10" customFormat="1">
@@ -12603,8 +12615,8 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
-        <v>1090</v>
+      <c r="A7" t="s">
+        <v>1098</v>
       </c>
       <c r="B7" t="s">
         <v>196</v>
@@ -12828,24 +12840,44 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="33" spans="2:2">
+    <row r="33" spans="1:2">
       <c r="B33" t="s">
         <v>1056</v>
       </c>
     </row>
-    <row r="34" spans="2:2">
+    <row r="34" spans="1:2">
       <c r="B34" t="s">
         <v>911</v>
       </c>
     </row>
-    <row r="35" spans="2:2">
+    <row r="35" spans="1:2">
       <c r="B35" t="s">
         <v>1063</v>
       </c>
     </row>
-    <row r="36" spans="2:2">
+    <row r="36" spans="1:2">
       <c r="B36" t="s">
         <v>1065</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="B37" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="B38" s="1" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="B39" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>1096</v>
       </c>
     </row>
   </sheetData>
@@ -12863,7 +12895,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -12903,14 +12935,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.7109375" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="13.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="29.85546875" style="15" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="8.85546875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="16384" width="9.140625" style="15" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="15" width="17.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="15" width="13.7109375" collapsed="true"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" style="15" width="13.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="15" width="10.28515625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="15" width="12.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="15" width="29.85546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="15" width="8.85546875" collapsed="true"/>
+    <col min="9" max="16384" style="15" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="14" customFormat="1">
@@ -13065,10 +13097,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="17.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="6" width="12.42578125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="31.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="5" max="6" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="31.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="7" customFormat="1">
@@ -13225,7 +13257,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="27.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -13260,20 +13292,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="24.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="22.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="22.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="24.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="22.5703125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="10" customFormat="1">
@@ -13808,10 +13840,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="71.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="71.66796875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="10" customFormat="1">
@@ -13894,11 +13926,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="55" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="10" width="17.42578125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="59.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="55.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="4" max="10" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="17.875" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="59.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="10" customFormat="1">

--- a/IVFmilan/src/main/java/com_Milan_TestData/Milandata.xlsx
+++ b/IVFmilan/src/main/java/com_Milan_TestData/Milandata.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Parag\Git\IVFmilan\src\main\java\com_Milan_TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17520" windowHeight="4590" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17520" windowHeight="4590" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="5" r:id="rId1"/>
@@ -39,7 +39,7 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1988" uniqueCount="1099">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1977" uniqueCount="1099">
   <si>
     <t>PatientName</t>
   </si>
@@ -3754,7 +3754,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="40.28515625" collapsed="true"/>
+    <col min="3" max="3" width="40.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="10" customFormat="1">
@@ -3803,21 +3803,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="8.78125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="19.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="21.28515625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="96.0" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="36.7109375" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="21.7109375" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="255.7109375" collapsed="true"/>
+    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="21" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="96" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="36.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="21.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="21.7109375" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="255.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -3897,7 +3897,7 @@
       </c>
       <c r="L2" s="28">
         <f ca="1">(TODAY())</f>
-        <v>43286</v>
+        <v>43288</v>
       </c>
       <c r="M2" s="26"/>
       <c r="N2" s="15" t="s">
@@ -11620,10 +11620,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="55.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="33.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="33.0" collapsed="true"/>
-    <col min="4" max="5" bestFit="true" customWidth="true" width="9.7109375" collapsed="true"/>
+    <col min="1" max="1" width="55.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="33" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="9.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -11655,11 +11655,11 @@
       </c>
       <c r="D2" s="24">
         <f ca="1">(TODAY())</f>
-        <v>43286</v>
+        <v>43288</v>
       </c>
       <c r="E2" s="25">
         <f ca="1">(TODAY())</f>
-        <v>43286</v>
+        <v>43288</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -12279,14 +12279,14 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="38.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="1" max="1" width="38" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -12327,9 +12327,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="26.7109375" collapsed="true"/>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="26.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="7" customFormat="1">
@@ -12423,9 +12423,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -12524,12 +12524,12 @@
   <dimension ref="D1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="53.7109375" collapsed="true"/>
+    <col min="5" max="5" width="53.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="4:5">
@@ -12567,9 +12567,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="48.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="54.5703125" collapsed="true"/>
+    <col min="1" max="1" width="37.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="48.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="54.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="10" customFormat="1">
@@ -12895,7 +12895,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -12935,14 +12935,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="15" width="17.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="15" width="13.7109375" collapsed="true"/>
-    <col min="3" max="4" bestFit="true" customWidth="true" style="15" width="13.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="15" width="10.28515625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="15" width="12.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="15" width="29.85546875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="15" width="8.85546875" collapsed="true"/>
-    <col min="9" max="16384" style="15" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="17.85546875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.7109375" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="13.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="29.85546875" style="15" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="8.85546875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="16384" width="9.140625" style="15" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="14" customFormat="1">
@@ -13097,10 +13097,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" customWidth="true" width="17.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="5" max="6" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="31.85546875" collapsed="true"/>
+    <col min="3" max="3" width="17.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="12.42578125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="31.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="7" customFormat="1">
@@ -13257,7 +13257,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="27.42578125" collapsed="true"/>
+    <col min="1" max="1" width="27.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -13292,20 +13292,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="22.42578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="24.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="23.7109375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="22.5703125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="22.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="12" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="10" customFormat="1">
@@ -13840,10 +13840,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="71.66796875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="1" max="1" width="71.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="10" customFormat="1">
@@ -13926,11 +13926,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="55.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="4" max="10" customWidth="true" width="17.42578125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="17.875" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="59.5703125" collapsed="true"/>
+    <col min="2" max="2" width="55" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="10" width="17.42578125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="59.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="10" customFormat="1">

--- a/IVFmilan/src/main/java/com_Milan_TestData/Milandata.xlsx
+++ b/IVFmilan/src/main/java/com_Milan_TestData/Milandata.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17520" windowHeight="4590" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17520" windowHeight="4590" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="5" r:id="rId1"/>
@@ -26,7 +26,8 @@
     <sheet name="Diagnosis" sheetId="12" r:id="rId12"/>
     <sheet name="InvestigationList" sheetId="9" r:id="rId13"/>
     <sheet name="Family History" sheetId="16" r:id="rId14"/>
-    <sheet name="Allergies" sheetId="10" r:id="rId15"/>
+    <sheet name="OverviewPage" sheetId="17" r:id="rId15"/>
+    <sheet name="Allergies" sheetId="10" r:id="rId16"/>
   </sheets>
   <definedNames>
     <definedName name="ERLinked">Investigation!$I$2:$I$3</definedName>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1977" uniqueCount="1099">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1985" uniqueCount="1104">
   <si>
     <t>PatientName</t>
   </si>
@@ -3243,9 +3244,6 @@
     <t>Ritu</t>
   </si>
   <si>
-    <t>Stimulation Chart</t>
-  </si>
-  <si>
     <t>Navya </t>
   </si>
   <si>
@@ -3345,7 +3343,25 @@
     <t>Lisa</t>
   </si>
   <si>
-    <t>Akansha</t>
+    <t>Ankansha</t>
+  </si>
+  <si>
+    <t>Ishita </t>
+  </si>
+  <si>
+    <t>Cycle Overview</t>
+  </si>
+  <si>
+    <t>Noorjaha</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Nainlala </t>
+  </si>
+  <si>
+    <t>Hemlata </t>
   </si>
 </sst>
 </file>
@@ -3749,7 +3765,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3897,7 +3913,7 @@
       </c>
       <c r="L2" s="28">
         <f ca="1">(TODAY())</f>
-        <v>43288</v>
+        <v>43291</v>
       </c>
       <c r="M2" s="26"/>
       <c r="N2" s="15" t="s">
@@ -11615,7 +11631,7 @@
   <dimension ref="A1:E116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11648,18 +11664,18 @@
         <v>918</v>
       </c>
       <c r="B2" t="s">
-        <v>202</v>
+        <v>164</v>
       </c>
       <c r="C2" t="s">
         <v>164</v>
       </c>
       <c r="D2" s="24">
         <f ca="1">(TODAY())</f>
-        <v>43288</v>
+        <v>43291</v>
       </c>
       <c r="E2" s="25">
         <f ca="1">(TODAY())</f>
-        <v>43288</v>
+        <v>43291</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -11676,7 +11692,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>1064</v>
+        <v>1099</v>
       </c>
       <c r="B4" t="s">
         <v>921</v>
@@ -12340,10 +12356,10 @@
         <v>136</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>1090</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>1091</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -12383,7 +12399,7 @@
         <v>122</v>
       </c>
       <c r="D6" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -12391,7 +12407,7 @@
         <v>123</v>
       </c>
       <c r="D7" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -12430,16 +12446,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="7" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="D1" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="E1" t="s">
         <v>191</v>
@@ -12447,57 +12463,57 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B2" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="C2" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="D2" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="E2" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="B3" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="C3" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="D3" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="C4" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C5" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="C6" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -12505,12 +12521,12 @@
         <v>171</v>
       </c>
       <c r="C7" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="C8" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
   </sheetData>
@@ -12521,10 +12537,39 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12542,12 +12587,12 @@
     </row>
     <row r="2" spans="4:5">
       <c r="E2" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="4:5">
       <c r="E3" s="18" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -12559,7 +12604,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
@@ -12615,8 +12660,8 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>1098</v>
+      <c r="A7" s="1" t="s">
+        <v>1103</v>
       </c>
       <c r="B7" t="s">
         <v>196</v>
@@ -12624,7 +12669,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B8" t="s">
         <v>190</v>
@@ -12680,10 +12725,10 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>1066</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>1067</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -12840,44 +12885,70 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:3">
       <c r="B33" t="s">
         <v>1056</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:3">
       <c r="B34" t="s">
         <v>911</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:3">
       <c r="B35" t="s">
         <v>1063</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:3">
       <c r="B36" t="s">
-        <v>1065</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="B37" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="B38" s="1" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="B39" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
         <v>1095</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="B38" s="1" t="s">
-        <v>1094</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="B39" t="s">
+      <c r="B40" t="s">
         <v>1097</v>
       </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" t="s">
-        <v>1096</v>
+      <c r="C40" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="B42" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="B43" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="B44" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="B45" t="s">
+        <v>1103</v>
       </c>
     </row>
   </sheetData>
@@ -12930,7 +13001,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12994,7 +13065,7 @@
         <v>93</v>
       </c>
       <c r="H2" t="s">
-        <v>91</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="3" spans="1:8">

--- a/IVFmilan/src/main/java/com_Milan_TestData/Milandata.xlsx
+++ b/IVFmilan/src/main/java/com_Milan_TestData/Milandata.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Parag\Git\IVFmilan\src\main\java\com_Milan_TestData\"/>
     </mc:Choice>
@@ -28,6 +28,7 @@
     <sheet name="Family History" sheetId="16" r:id="rId14"/>
     <sheet name="OverviewPage" sheetId="17" r:id="rId15"/>
     <sheet name="Allergies" sheetId="10" r:id="rId16"/>
+    <sheet name="ObstetricHistory" sheetId="18" r:id="rId17"/>
   </sheets>
   <definedNames>
     <definedName name="ERLinked">Investigation!$I$2:$I$3</definedName>
@@ -40,7 +41,7 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1985" uniqueCount="1104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2132" uniqueCount="1113">
   <si>
     <t>PatientName</t>
   </si>
@@ -3355,13 +3356,40 @@
     <t>Noorjaha</t>
   </si>
   <si>
+    <t>Nainlala </t>
+  </si>
+  <si>
+    <t>Hemlata </t>
+  </si>
+  <si>
+    <t>Hemlata</t>
+  </si>
+  <si>
+    <t>Trusha</t>
+  </si>
+  <si>
+    <t>Trushita </t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
     <t>0</t>
   </si>
   <si>
-    <t>Nainlala </t>
-  </si>
-  <si>
-    <t>Hemlata </t>
+    <t>7</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
   </si>
 </sst>
 </file>
@@ -3770,7 +3798,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="40.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="40.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="10" customFormat="1">
@@ -3814,26 +3842,26 @@
   <dimension ref="A1:O1502"/>
   <sheetViews>
     <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="21.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="21" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="96" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="36.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="21.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="21.7109375" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="255.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="21.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="20.93359375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="96.0" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="36.7109375" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="255.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -3913,7 +3941,7 @@
       </c>
       <c r="L2" s="28">
         <f ca="1">(TODAY())</f>
-        <v>43291</v>
+        <v>43293</v>
       </c>
       <c r="M2" s="26"/>
       <c r="N2" s="15" t="s">
@@ -11636,10 +11664,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="55.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="9.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="55.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="33.15234375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="33.0" collapsed="true"/>
+    <col min="4" max="5" bestFit="true" customWidth="true" width="9.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -11671,11 +11699,11 @@
       </c>
       <c r="D2" s="24">
         <f ca="1">(TODAY())</f>
-        <v>43291</v>
+        <v>43293</v>
       </c>
       <c r="E2" s="25">
         <f ca="1">(TODAY())</f>
-        <v>43291</v>
+        <v>43293</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -12300,9 +12328,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="38" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="38.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -12338,14 +12366,14 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="26.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="26.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="7" customFormat="1">
@@ -12439,9 +12467,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -12545,7 +12573,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -12574,7 +12602,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="5" max="5" width="53.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="53.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="4:5">
@@ -12593,6 +12621,30 @@
     <row r="3" spans="4:5">
       <c r="E3" s="18" t="s">
         <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="6.140625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="10" t="s">
+        <v>1106</v>
       </c>
     </row>
   </sheetData>
@@ -12604,17 +12656,17 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="48.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="54.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="48.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="54.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="10" customFormat="1">
@@ -12653,15 +12705,21 @@
       <c r="A5" t="s">
         <v>101</v>
       </c>
+      <c r="B5" t="s">
+        <v>1104</v>
+      </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="B6" t="s">
+        <v>1105</v>
+      </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
-        <v>1103</v>
+      <c r="A7" t="s">
+        <v>1105</v>
       </c>
       <c r="B7" t="s">
         <v>196</v>
@@ -12943,12 +13001,22 @@
     </row>
     <row r="44" spans="1:3">
       <c r="B44" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="B45" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="B46" t="s">
         <v>1103</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="B47" s="1" t="s">
+        <v>1104</v>
       </c>
     </row>
   </sheetData>
@@ -12966,7 +13034,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -13006,14 +13074,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.7109375" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="13.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="29.85546875" style="15" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="8.85546875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="16384" width="9.140625" style="15" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="15" width="17.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="15" width="13.7109375" collapsed="true"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" style="15" width="13.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="15" width="10.28515625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="15" width="12.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="15" width="29.85546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="15" width="8.8359375" collapsed="true"/>
+    <col min="9" max="16384" style="15" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="14" customFormat="1">
@@ -13065,7 +13133,7 @@
         <v>93</v>
       </c>
       <c r="H2" t="s">
-        <v>1101</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -13168,10 +13236,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="17.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="6" width="12.42578125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="31.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="5" max="6" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="31.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="7" customFormat="1">
@@ -13328,7 +13396,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="27.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -13363,20 +13431,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="24.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="22.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="22.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="24.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="22.5703125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="10" customFormat="1">
@@ -13911,10 +13979,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="71.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="71.66796875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="10" customFormat="1">
@@ -13997,11 +14065,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="55" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="10" width="17.42578125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="59.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="55.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="4" max="10" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="17.875" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="59.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="10" customFormat="1">

--- a/IVFmilan/src/main/java/com_Milan_TestData/Milandata.xlsx
+++ b/IVFmilan/src/main/java/com_Milan_TestData/Milandata.xlsx
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2132" uniqueCount="1113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1993" uniqueCount="1111">
   <si>
     <t>PatientName</t>
   </si>
@@ -3374,22 +3374,16 @@
     <t>count</t>
   </si>
   <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>Neerali</t>
+  </si>
+  <si>
+    <t>Rashami </t>
+  </si>
+  <si>
     <t>0</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>17</t>
   </si>
 </sst>
 </file>
@@ -3855,7 +3849,7 @@
     <col min="6" max="6" bestFit="true" customWidth="true" width="21.28515625" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="20.93359375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
     <col min="10" max="10" bestFit="true" customWidth="true" width="96.0" collapsed="true"/>
     <col min="11" max="11" bestFit="true" customWidth="true" width="36.7109375" collapsed="true"/>
     <col min="12" max="12" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
@@ -3941,7 +3935,7 @@
       </c>
       <c r="L2" s="28">
         <f ca="1">(TODAY())</f>
-        <v>43293</v>
+        <v>43296</v>
       </c>
       <c r="M2" s="26"/>
       <c r="N2" s="15" t="s">
@@ -11665,7 +11659,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="55.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="33.15234375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="33.140625" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="33.0" collapsed="true"/>
     <col min="4" max="5" bestFit="true" customWidth="true" width="9.7109375" collapsed="true"/>
   </cols>
@@ -11699,11 +11693,11 @@
       </c>
       <c r="D2" s="24">
         <f ca="1">(TODAY())</f>
-        <v>43293</v>
+        <v>43296</v>
       </c>
       <c r="E2" s="25">
         <f ca="1">(TODAY())</f>
-        <v>43293</v>
+        <v>43296</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -12656,10 +12650,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C47"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12718,8 +12712,8 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>1105</v>
+      <c r="A7" s="1" t="s">
+        <v>1109</v>
       </c>
       <c r="B7" t="s">
         <v>196</v>
@@ -13017,6 +13011,16 @@
     <row r="47" spans="1:3">
       <c r="B47" s="1" t="s">
         <v>1104</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="B48" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" t="s">
+        <v>1108</v>
       </c>
     </row>
   </sheetData>
@@ -13133,7 +13137,7 @@
         <v>93</v>
       </c>
       <c r="H2" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -13979,7 +13983,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="71.66796875" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="71.7109375" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
@@ -14068,7 +14072,7 @@
     <col min="2" max="2" bestFit="true" customWidth="true" width="55.0" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
     <col min="4" max="10" customWidth="true" width="17.42578125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="17.875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
     <col min="12" max="12" bestFit="true" customWidth="true" width="59.5703125" collapsed="true"/>
   </cols>
   <sheetData>

--- a/IVFmilan/src/main/java/com_Milan_TestData/Milandata.xlsx
+++ b/IVFmilan/src/main/java/com_Milan_TestData/Milandata.xlsx
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1993" uniqueCount="1111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2061" uniqueCount="1129">
   <si>
     <t>PatientName</t>
   </si>
@@ -3374,16 +3374,70 @@
     <t>count</t>
   </si>
   <si>
+    <t>Neerali</t>
+  </si>
+  <si>
+    <t>Rashami </t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haseena </t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
     <t>30</t>
-  </si>
-  <si>
-    <t>Neerali</t>
-  </si>
-  <si>
-    <t>Rashami </t>
-  </si>
-  <si>
-    <t>0</t>
   </si>
 </sst>
 </file>
@@ -3841,7 +3895,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="8.78125" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="19.42578125" collapsed="true"/>
     <col min="4" max="4" customWidth="true" width="13.85546875" collapsed="true"/>
@@ -3849,7 +3903,7 @@
     <col min="6" max="6" bestFit="true" customWidth="true" width="21.28515625" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="20.93359375" collapsed="true"/>
     <col min="10" max="10" bestFit="true" customWidth="true" width="96.0" collapsed="true"/>
     <col min="11" max="11" bestFit="true" customWidth="true" width="36.7109375" collapsed="true"/>
     <col min="12" max="12" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
@@ -3907,7 +3961,7 @@
     </row>
     <row r="2" spans="1:15" ht="30">
       <c r="A2" t="s">
-        <v>118</v>
+        <v>202</v>
       </c>
       <c r="C2" t="s">
         <v>164</v>
@@ -3935,7 +3989,7 @@
       </c>
       <c r="L2" s="28">
         <f ca="1">(TODAY())</f>
-        <v>43296</v>
+        <v>43297</v>
       </c>
       <c r="M2" s="26"/>
       <c r="N2" s="15" t="s">
@@ -11659,7 +11713,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="55.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="33.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="33.15234375" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="33.0" collapsed="true"/>
     <col min="4" max="5" bestFit="true" customWidth="true" width="9.7109375" collapsed="true"/>
   </cols>
@@ -11686,18 +11740,18 @@
         <v>918</v>
       </c>
       <c r="B2" t="s">
-        <v>164</v>
+        <v>202</v>
       </c>
       <c r="C2" t="s">
         <v>164</v>
       </c>
       <c r="D2" s="24">
         <f ca="1">(TODAY())</f>
-        <v>43296</v>
+        <v>43297</v>
       </c>
       <c r="E2" s="25">
         <f ca="1">(TODAY())</f>
-        <v>43296</v>
+        <v>43297</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -12652,8 +12706,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12713,7 +12767,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="B7" t="s">
         <v>196</v>
@@ -12983,6 +13037,11 @@
         <v>1055</v>
       </c>
     </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>1108</v>
+      </c>
+    </row>
     <row r="42" spans="1:3">
       <c r="B42" t="s">
         <v>1098</v>
@@ -13020,7 +13079,7 @@
     </row>
     <row r="49" spans="2:2">
       <c r="B49" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
   </sheetData>
@@ -13137,7 +13196,7 @@
         <v>93</v>
       </c>
       <c r="H2" t="s">
-        <v>1110</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -13983,7 +14042,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="71.7109375" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="71.66796875" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
@@ -14072,7 +14131,7 @@
     <col min="2" max="2" bestFit="true" customWidth="true" width="55.0" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
     <col min="4" max="10" customWidth="true" width="17.42578125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="17.875" collapsed="true"/>
     <col min="12" max="12" bestFit="true" customWidth="true" width="59.5703125" collapsed="true"/>
   </cols>
   <sheetData>

--- a/IVFmilan/src/main/java/com_Milan_TestData/Milandata.xlsx
+++ b/IVFmilan/src/main/java/com_Milan_TestData/Milandata.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Parag\Git\IVFmilan\src\main\java\com_Milan_TestData\"/>
     </mc:Choice>
@@ -41,7 +41,7 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2061" uniqueCount="1129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1995" uniqueCount="1113">
   <si>
     <t>PatientName</t>
   </si>
@@ -3380,64 +3380,16 @@
     <t>Rashami </t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t xml:space="preserve">Haseena </t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
     <t>30</t>
+  </si>
+  <si>
+    <t>Aarasihlka </t>
+  </si>
+  <si>
+    <t>New patient</t>
   </si>
 </sst>
 </file>
@@ -3846,7 +3798,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="40.28515625" collapsed="true"/>
+    <col min="3" max="3" width="40.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="10" customFormat="1">
@@ -3895,21 +3847,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="8.78125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="19.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="21.28515625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="20.93359375" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="96.0" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="36.7109375" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="21.7109375" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="255.7109375" collapsed="true"/>
+    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="21" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="96" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="36.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="21.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="21.7109375" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="255.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -3989,7 +3941,7 @@
       </c>
       <c r="L2" s="28">
         <f ca="1">(TODAY())</f>
-        <v>43297</v>
+        <v>43300</v>
       </c>
       <c r="M2" s="26"/>
       <c r="N2" s="15" t="s">
@@ -11712,10 +11664,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="55.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="33.15234375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="33.0" collapsed="true"/>
-    <col min="4" max="5" bestFit="true" customWidth="true" width="9.7109375" collapsed="true"/>
+    <col min="1" max="1" width="55.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="33" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="9.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -11747,11 +11699,11 @@
       </c>
       <c r="D2" s="24">
         <f ca="1">(TODAY())</f>
-        <v>43297</v>
+        <v>43300</v>
       </c>
       <c r="E2" s="25">
         <f ca="1">(TODAY())</f>
-        <v>43297</v>
+        <v>43300</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -12376,9 +12328,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="38.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="1" max="1" width="38" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -12419,9 +12371,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="26.7109375" collapsed="true"/>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="26.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="7" customFormat="1">
@@ -12515,9 +12467,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -12621,7 +12573,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -12650,7 +12602,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="53.7109375" collapsed="true"/>
+    <col min="5" max="5" width="53.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="4:5">
@@ -12687,7 +12639,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="6.140625" collapsed="true"/>
+    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -12704,17 +12656,17 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="48.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="54.5703125" collapsed="true"/>
+    <col min="1" max="1" width="37.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="48.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="54.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="10" customFormat="1">
@@ -12767,7 +12719,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="B7" t="s">
         <v>196</v>
@@ -13077,9 +13029,17 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="49" spans="2:2">
+    <row r="49" spans="1:2">
       <c r="B49" t="s">
         <v>1107</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1112</v>
       </c>
     </row>
   </sheetData>
@@ -13097,7 +13057,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -13137,14 +13097,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="15" width="17.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="15" width="13.7109375" collapsed="true"/>
-    <col min="3" max="4" bestFit="true" customWidth="true" style="15" width="13.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="15" width="10.28515625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="15" width="12.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="15" width="29.85546875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="15" width="8.8359375" collapsed="true"/>
-    <col min="9" max="16384" style="15" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="17.85546875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.7109375" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="13.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="29.85546875" style="15" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="8.85546875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="16384" width="9.140625" style="15" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="14" customFormat="1">
@@ -13196,7 +13156,7 @@
         <v>93</v>
       </c>
       <c r="H2" t="s">
-        <v>1128</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -13299,10 +13259,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" customWidth="true" width="17.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="5" max="6" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="31.85546875" collapsed="true"/>
+    <col min="3" max="3" width="17.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="12.42578125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="31.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="7" customFormat="1">
@@ -13459,7 +13419,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="27.42578125" collapsed="true"/>
+    <col min="1" max="1" width="27.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -13494,20 +13454,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="22.42578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="24.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="23.7109375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="22.5703125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="22.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="12" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="10" customFormat="1">
@@ -14042,10 +14002,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="71.66796875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="1" max="1" width="71.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="10" customFormat="1">
@@ -14128,11 +14088,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="55.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="4" max="10" customWidth="true" width="17.42578125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="17.875" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="59.5703125" collapsed="true"/>
+    <col min="2" max="2" width="55" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="10" width="17.42578125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="59.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="10" customFormat="1">

--- a/IVFmilan/src/main/java/com_Milan_TestData/Milandata.xlsx
+++ b/IVFmilan/src/main/java/com_Milan_TestData/Milandata.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Parag\Git\IVFmilan\src\main\java\com_Milan_TestData\"/>
     </mc:Choice>
@@ -41,7 +41,7 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1995" uniqueCount="1113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2262" uniqueCount="1130">
   <si>
     <t>PatientName</t>
   </si>
@@ -3380,16 +3380,67 @@
     <t>Rashami </t>
   </si>
   <si>
-    <t xml:space="preserve">Haseena </t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
     <t>Aarasihlka </t>
   </si>
   <si>
     <t>New patient</t>
+  </si>
+  <si>
+    <t>Haseena</t>
+  </si>
+  <si>
+    <t>84% pass percentage seen</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mrunali</t>
+  </si>
+  <si>
+    <t>79%pass for new user</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
   </si>
 </sst>
 </file>
@@ -3798,7 +3849,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="40.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="40.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="10" customFormat="1">
@@ -3847,21 +3898,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="21.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="21" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="96" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="36.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="21.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="21.7109375" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="255.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="21.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="20.93359375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="96.0" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="36.7109375" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="255.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -3941,7 +3992,7 @@
       </c>
       <c r="L2" s="28">
         <f ca="1">(TODAY())</f>
-        <v>43300</v>
+        <v>43301</v>
       </c>
       <c r="M2" s="26"/>
       <c r="N2" s="15" t="s">
@@ -11664,10 +11715,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="55.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="9.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="55.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="33.15234375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="33.0" collapsed="true"/>
+    <col min="4" max="5" bestFit="true" customWidth="true" width="9.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -11692,18 +11743,18 @@
         <v>918</v>
       </c>
       <c r="B2" t="s">
-        <v>202</v>
+        <v>164</v>
       </c>
       <c r="C2" t="s">
         <v>164</v>
       </c>
       <c r="D2" s="24">
         <f ca="1">(TODAY())</f>
-        <v>43300</v>
+        <v>43301</v>
       </c>
       <c r="E2" s="25">
         <f ca="1">(TODAY())</f>
-        <v>43300</v>
+        <v>43301</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -12328,9 +12379,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="38" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="38.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -12371,9 +12422,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="26.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="26.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="7" customFormat="1">
@@ -12467,9 +12518,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -12573,7 +12624,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -12602,7 +12653,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="5" max="5" width="53.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="53.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="4:5">
@@ -12639,7 +12690,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="6.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -12656,17 +12707,17 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="48.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="54.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="48.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="54.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="10" customFormat="1">
@@ -12719,7 +12770,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>1109</v>
+        <v>1114</v>
       </c>
       <c r="B7" t="s">
         <v>196</v>
@@ -13036,10 +13087,26 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
         <v>1111</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B51" t="s">
         <v>1112</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1115</v>
       </c>
     </row>
   </sheetData>
@@ -13057,7 +13124,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -13097,14 +13164,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.7109375" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="13.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="29.85546875" style="15" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="8.85546875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="16384" width="9.140625" style="15" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="15" width="17.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="15" width="13.7109375" collapsed="true"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" style="15" width="13.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="15" width="10.28515625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="15" width="12.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="15" width="29.85546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="15" width="8.8359375" collapsed="true"/>
+    <col min="9" max="16384" style="15" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="14" customFormat="1">
@@ -13156,7 +13223,7 @@
         <v>93</v>
       </c>
       <c r="H2" t="s">
-        <v>1110</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -13259,10 +13326,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="17.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="6" width="12.42578125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="31.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="5" max="6" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="31.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="7" customFormat="1">
@@ -13419,7 +13486,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="27.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -13454,20 +13521,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="24.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="22.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="22.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="24.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="22.5703125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="10" customFormat="1">
@@ -14002,10 +14069,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="71.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="71.66796875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="10" customFormat="1">
@@ -14088,11 +14155,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="55" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="10" width="17.42578125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="59.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="55.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="4" max="10" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="17.875" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="59.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="10" customFormat="1">

--- a/IVFmilan/src/main/java/com_Milan_TestData/Milandata.xlsx
+++ b/IVFmilan/src/main/java/com_Milan_TestData/Milandata.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Parag\Git\IVFmilan\src\main\java\com_Milan_TestData\"/>
     </mc:Choice>
@@ -41,7 +41,7 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2262" uniqueCount="1130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2001" uniqueCount="1116">
   <si>
     <t>PatientName</t>
   </si>
@@ -3392,55 +3392,13 @@
     <t>84% pass percentage seen</t>
   </si>
   <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Mrunali</t>
-  </si>
-  <si>
     <t>79%pass for new user</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>28</t>
+    <t>30</t>
+  </si>
+  <si>
+    <t>Mrunali</t>
   </si>
 </sst>
 </file>
@@ -3849,7 +3807,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="40.28515625" collapsed="true"/>
+    <col min="3" max="3" width="40.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="10" customFormat="1">
@@ -3898,21 +3856,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="19.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="21.28515625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="20.93359375" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="96.0" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="36.7109375" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="21.7109375" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="255.7109375" collapsed="true"/>
+    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="21" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="96" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="36.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="21.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="21.7109375" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="255.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -3992,7 +3950,7 @@
       </c>
       <c r="L2" s="28">
         <f ca="1">(TODAY())</f>
-        <v>43301</v>
+        <v>43302</v>
       </c>
       <c r="M2" s="26"/>
       <c r="N2" s="15" t="s">
@@ -11715,10 +11673,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="55.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="33.15234375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="33.0" collapsed="true"/>
-    <col min="4" max="5" bestFit="true" customWidth="true" width="9.7109375" collapsed="true"/>
+    <col min="1" max="1" width="55.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="33" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="9.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -11750,11 +11708,11 @@
       </c>
       <c r="D2" s="24">
         <f ca="1">(TODAY())</f>
-        <v>43301</v>
+        <v>43302</v>
       </c>
       <c r="E2" s="25">
         <f ca="1">(TODAY())</f>
-        <v>43301</v>
+        <v>43302</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -12379,9 +12337,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="38.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="1" max="1" width="38" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -12422,9 +12380,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="26.7109375" collapsed="true"/>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="26.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="7" customFormat="1">
@@ -12518,9 +12476,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -12624,7 +12582,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -12653,7 +12611,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="53.7109375" collapsed="true"/>
+    <col min="5" max="5" width="53.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="4:5">
@@ -12690,7 +12648,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="6.140625" collapsed="true"/>
+    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -12707,17 +12665,17 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="48.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="54.5703125" collapsed="true"/>
+    <col min="1" max="1" width="37.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="48.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="54.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="10" customFormat="1">
@@ -12770,7 +12728,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>1114</v>
+        <v>912</v>
       </c>
       <c r="B7" t="s">
         <v>196</v>
@@ -13106,7 +13064,15 @@
         <v>1109</v>
       </c>
       <c r="B52" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
         <v>1115</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1113</v>
       </c>
     </row>
   </sheetData>
@@ -13124,7 +13090,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -13164,14 +13130,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="15" width="17.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="15" width="13.7109375" collapsed="true"/>
-    <col min="3" max="4" bestFit="true" customWidth="true" style="15" width="13.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="15" width="10.28515625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="15" width="12.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="15" width="29.85546875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="15" width="8.8359375" collapsed="true"/>
-    <col min="9" max="16384" style="15" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="17.85546875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.7109375" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="13.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="29.85546875" style="15" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="8.85546875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="16384" width="9.140625" style="15" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="14" customFormat="1">
@@ -13223,7 +13189,7 @@
         <v>93</v>
       </c>
       <c r="H2" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -13326,10 +13292,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" customWidth="true" width="17.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="5" max="6" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="31.85546875" collapsed="true"/>
+    <col min="3" max="3" width="17.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="12.42578125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="31.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="7" customFormat="1">
@@ -13486,7 +13452,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="27.42578125" collapsed="true"/>
+    <col min="1" max="1" width="27.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -13521,20 +13487,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="22.42578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="24.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="23.7109375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="22.5703125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="22.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="12" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="10" customFormat="1">
@@ -14069,10 +14035,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="71.66796875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="1" max="1" width="71.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="10" customFormat="1">
@@ -14155,11 +14121,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="55.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="4" max="10" customWidth="true" width="17.42578125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="17.875" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="59.5703125" collapsed="true"/>
+    <col min="2" max="2" width="55" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="10" width="17.42578125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="59.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="10" customFormat="1">

--- a/IVFmilan/src/main/java/com_Milan_TestData/Milandata.xlsx
+++ b/IVFmilan/src/main/java/com_Milan_TestData/Milandata.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Parag\Git\IVFmilan\src\main\java\com_Milan_TestData\"/>
     </mc:Choice>
@@ -41,7 +41,7 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2001" uniqueCount="1116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2035" uniqueCount="1131">
   <si>
     <t>PatientName</t>
   </si>
@@ -3395,10 +3395,55 @@
     <t>79%pass for new user</t>
   </si>
   <si>
-    <t>30</t>
-  </si>
-  <si>
     <t>Mrunali</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mrunali </t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
   </si>
 </sst>
 </file>
@@ -3807,7 +3852,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="40.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="40.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="10" customFormat="1">
@@ -3856,21 +3901,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="21.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="21" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="96" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="36.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="21.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="21.7109375" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="255.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="21.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="20.93359375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="96.0" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="36.7109375" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="255.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -3922,7 +3967,7 @@
     </row>
     <row r="2" spans="1:15" ht="30">
       <c r="A2" t="s">
-        <v>202</v>
+        <v>118</v>
       </c>
       <c r="C2" t="s">
         <v>164</v>
@@ -3950,7 +3995,7 @@
       </c>
       <c r="L2" s="28">
         <f ca="1">(TODAY())</f>
-        <v>43302</v>
+        <v>43303</v>
       </c>
       <c r="M2" s="26"/>
       <c r="N2" s="15" t="s">
@@ -11673,10 +11718,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="55.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="9.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="55.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="33.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="33.0" collapsed="true"/>
+    <col min="4" max="5" bestFit="true" customWidth="true" width="9.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -11708,11 +11753,11 @@
       </c>
       <c r="D2" s="24">
         <f ca="1">(TODAY())</f>
-        <v>43302</v>
+        <v>43303</v>
       </c>
       <c r="E2" s="25">
         <f ca="1">(TODAY())</f>
-        <v>43302</v>
+        <v>43303</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -12337,9 +12382,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="38" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="38.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -12380,9 +12425,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="26.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="26.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="7" customFormat="1">
@@ -12476,9 +12521,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -12582,7 +12627,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -12611,7 +12656,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="5" max="5" width="53.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="53.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="4:5">
@@ -12648,7 +12693,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="6.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -12665,17 +12710,17 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C53"/>
+  <dimension ref="A1:C54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="48.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="54.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="48.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="54.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="10" customFormat="1">
@@ -12728,7 +12773,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>912</v>
+        <v>1116</v>
       </c>
       <c r="B7" t="s">
         <v>196</v>
@@ -13069,9 +13114,17 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="B53" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>912</v>
+      </c>
+      <c r="B54" t="s">
         <v>1113</v>
       </c>
     </row>
@@ -13090,7 +13143,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -13130,14 +13183,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.7109375" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="13.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="29.85546875" style="15" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="8.85546875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="16384" width="9.140625" style="15" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="15" width="17.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="15" width="13.7109375" collapsed="true"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" style="15" width="13.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="15" width="10.28515625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="15" width="12.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="15" width="29.85546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="15" width="8.8359375" collapsed="true"/>
+    <col min="9" max="16384" style="15" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="14" customFormat="1">
@@ -13189,7 +13242,7 @@
         <v>93</v>
       </c>
       <c r="H2" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -13292,10 +13345,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="17.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="6" width="12.42578125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="31.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="5" max="6" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="31.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="7" customFormat="1">
@@ -13452,7 +13505,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="27.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -13487,20 +13540,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="24.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="22.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="22.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="24.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="22.5703125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="10" customFormat="1">
@@ -14035,10 +14088,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="71.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="71.66796875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="10" customFormat="1">
@@ -14121,11 +14174,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="55" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="10" width="17.42578125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="59.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="55.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="4" max="10" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="17.875" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="59.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="10" customFormat="1">

--- a/IVFmilan/src/main/java/com_Milan_TestData/Milandata.xlsx
+++ b/IVFmilan/src/main/java/com_Milan_TestData/Milandata.xlsx
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2035" uniqueCount="1131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2070" uniqueCount="1135">
   <si>
     <t>PatientName</t>
   </si>
@@ -3444,6 +3444,18 @@
   </si>
   <si>
     <t>28</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>30</t>
   </si>
 </sst>
 </file>
@@ -3914,7 +3926,7 @@
     <col min="11" max="11" bestFit="true" customWidth="true" width="36.7109375" collapsed="true"/>
     <col min="12" max="12" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
     <col min="13" max="13" customWidth="true" width="21.7109375" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="9.26953125" collapsed="true"/>
     <col min="15" max="15" bestFit="true" customWidth="true" width="255.7109375" collapsed="true"/>
   </cols>
   <sheetData>
@@ -13242,7 +13254,7 @@
         <v>93</v>
       </c>
       <c r="H2" t="s">
-        <v>1115</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="3" spans="1:8">

--- a/IVFmilan/src/main/java/com_Milan_TestData/Milandata.xlsx
+++ b/IVFmilan/src/main/java/com_Milan_TestData/Milandata.xlsx
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2070" uniqueCount="1135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2074" uniqueCount="1138">
   <si>
     <t>PatientName</t>
   </si>
@@ -3398,54 +3398,66 @@
     <t>Mrunali</t>
   </si>
   <si>
+    <t xml:space="preserve">Mrunali </t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>90% pass percentage seen</t>
+  </si>
+  <si>
+    <t>Payal</t>
+  </si>
+  <si>
+    <t>23-Jul-2018</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
     <t>29</t>
   </si>
   <si>
-    <t xml:space="preserve">Mrunali </t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
     <t>12</t>
   </si>
   <si>
@@ -3453,9 +3465,6 @@
   </si>
   <si>
     <t>24</t>
-  </si>
-  <si>
-    <t>30</t>
   </si>
 </sst>
 </file>
@@ -4007,7 +4016,7 @@
       </c>
       <c r="L2" s="28">
         <f ca="1">(TODAY())</f>
-        <v>43303</v>
+        <v>43304</v>
       </c>
       <c r="M2" s="26"/>
       <c r="N2" s="15" t="s">
@@ -11765,11 +11774,11 @@
       </c>
       <c r="D2" s="24">
         <f ca="1">(TODAY())</f>
-        <v>43303</v>
+        <v>43304</v>
       </c>
       <c r="E2" s="25">
         <f ca="1">(TODAY())</f>
-        <v>43303</v>
+        <v>43304</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -12722,10 +12731,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C54"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12785,7 +12794,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>1116</v>
+        <v>1118</v>
       </c>
       <c r="B7" t="s">
         <v>196</v>
@@ -13138,6 +13147,14 @@
       </c>
       <c r="B54" t="s">
         <v>1113</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1117</v>
       </c>
     </row>
   </sheetData>
@@ -13254,7 +13271,7 @@
         <v>93</v>
       </c>
       <c r="H2" t="s">
-        <v>1134</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="3" spans="1:8">

--- a/IVFmilan/src/main/java/com_Milan_TestData/Milandata.xlsx
+++ b/IVFmilan/src/main/java/com_Milan_TestData/Milandata.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Parag\Git\IVFmilan\src\main\java\com_Milan_TestData\"/>
     </mc:Choice>
@@ -41,7 +41,7 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2074" uniqueCount="1138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2006" uniqueCount="1121">
   <si>
     <t>PatientName</t>
   </si>
@@ -3407,64 +3407,13 @@
     <t>90% pass percentage seen</t>
   </si>
   <si>
+    <t>Surkha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nilma </t>
+  </si>
+  <si>
     <t>Payal</t>
-  </si>
-  <si>
-    <t>23-Jul-2018</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>24</t>
   </si>
 </sst>
 </file>
@@ -3535,7 +3484,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3573,6 +3522,9 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3873,7 +3825,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="40.28515625" collapsed="true"/>
+    <col min="3" max="3" width="40.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="10" customFormat="1">
@@ -3922,21 +3874,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="19.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="21.28515625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="20.93359375" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="96.0" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="36.7109375" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="21.7109375" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="9.26953125" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="255.7109375" collapsed="true"/>
+    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="21" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="96" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="36.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="21.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="21.7109375" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="255.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -4016,7 +3968,7 @@
       </c>
       <c r="L2" s="28">
         <f ca="1">(TODAY())</f>
-        <v>43304</v>
+        <v>43306</v>
       </c>
       <c r="M2" s="26"/>
       <c r="N2" s="15" t="s">
@@ -11739,10 +11691,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="55.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="33.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="33.0" collapsed="true"/>
-    <col min="4" max="5" bestFit="true" customWidth="true" width="9.7109375" collapsed="true"/>
+    <col min="1" max="1" width="55.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="33" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="9.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -11774,11 +11726,11 @@
       </c>
       <c r="D2" s="24">
         <f ca="1">(TODAY())</f>
-        <v>43304</v>
+        <v>43306</v>
       </c>
       <c r="E2" s="25">
         <f ca="1">(TODAY())</f>
-        <v>43304</v>
+        <v>43306</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -12403,9 +12355,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="38.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="1" max="1" width="38" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -12446,9 +12398,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="26.7109375" collapsed="true"/>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="26.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="7" customFormat="1">
@@ -12542,9 +12494,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -12648,7 +12600,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -12677,7 +12629,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="53.7109375" collapsed="true"/>
+    <col min="5" max="5" width="53.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="4:5">
@@ -12714,7 +12666,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="6.140625" collapsed="true"/>
+    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -12731,17 +12683,17 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C55"/>
+  <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="48.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="54.5703125" collapsed="true"/>
+    <col min="1" max="1" width="37.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="48.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="54.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="10" customFormat="1">
@@ -12797,7 +12749,7 @@
         <v>1118</v>
       </c>
       <c r="B7" t="s">
-        <v>196</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -13155,6 +13107,14 @@
       </c>
       <c r="B55" t="s">
         <v>1117</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B56" s="29">
+        <v>0.93</v>
       </c>
     </row>
   </sheetData>
@@ -13172,7 +13132,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -13212,14 +13172,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="15" width="17.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="15" width="13.7109375" collapsed="true"/>
-    <col min="3" max="4" bestFit="true" customWidth="true" style="15" width="13.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="15" width="10.28515625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="15" width="12.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="15" width="29.85546875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="15" width="8.8359375" collapsed="true"/>
-    <col min="9" max="16384" style="15" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="17.85546875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.7109375" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="13.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="29.85546875" style="15" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="8.85546875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="16384" width="9.140625" style="15" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="14" customFormat="1">
@@ -13374,10 +13334,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" customWidth="true" width="17.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="5" max="6" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="31.85546875" collapsed="true"/>
+    <col min="3" max="3" width="17.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="12.42578125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="31.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="7" customFormat="1">
@@ -13534,7 +13494,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="27.42578125" collapsed="true"/>
+    <col min="1" max="1" width="27.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -13569,20 +13529,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="22.42578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="24.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="23.7109375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="22.5703125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="22.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="12" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="10" customFormat="1">
@@ -14117,10 +14077,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="71.66796875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="1" max="1" width="71.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="10" customFormat="1">
@@ -14203,11 +14163,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="55.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="4" max="10" customWidth="true" width="17.42578125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="17.875" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="59.5703125" collapsed="true"/>
+    <col min="2" max="2" width="55" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="10" width="17.42578125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="59.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="10" customFormat="1">

--- a/IVFmilan/src/main/java/com_Milan_TestData/Milandata.xlsx
+++ b/IVFmilan/src/main/java/com_Milan_TestData/Milandata.xlsx
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2006" uniqueCount="1121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2007" uniqueCount="1122">
   <si>
     <t>PatientName</t>
   </si>
@@ -3401,9 +3401,6 @@
     <t xml:space="preserve">Mrunali </t>
   </si>
   <si>
-    <t>30</t>
-  </si>
-  <si>
     <t>90% pass percentage seen</t>
   </si>
   <si>
@@ -3414,6 +3411,12 @@
   </si>
   <si>
     <t>Payal</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>Ishita</t>
   </si>
 </sst>
 </file>
@@ -3484,7 +3487,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3525,6 +3528,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3968,7 +3972,7 @@
       </c>
       <c r="L2" s="28">
         <f ca="1">(TODAY())</f>
-        <v>43306</v>
+        <v>43307</v>
       </c>
       <c r="M2" s="26"/>
       <c r="N2" s="15" t="s">
@@ -11726,11 +11730,11 @@
       </c>
       <c r="D2" s="24">
         <f ca="1">(TODAY())</f>
-        <v>43306</v>
+        <v>43307</v>
       </c>
       <c r="E2" s="25">
         <f ca="1">(TODAY())</f>
-        <v>43306</v>
+        <v>43307</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -12683,10 +12687,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C56"/>
+  <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12746,10 +12750,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B7" t="s">
         <v>1118</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1119</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -13106,15 +13110,23 @@
         <v>1115</v>
       </c>
       <c r="B55" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="B56" s="29">
         <v>0.93</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B57" s="30">
+        <v>0.69</v>
       </c>
     </row>
   </sheetData>
@@ -13231,7 +13243,7 @@
         <v>93</v>
       </c>
       <c r="H2" t="s">
-        <v>1116</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="3" spans="1:8">

--- a/IVFmilan/src/main/java/com_Milan_TestData/Milandata.xlsx
+++ b/IVFmilan/src/main/java/com_Milan_TestData/Milandata.xlsx
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2007" uniqueCount="1122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2008" uniqueCount="1123">
   <si>
     <t>PatientName</t>
   </si>
@@ -3417,6 +3417,9 @@
   </si>
   <si>
     <t>Ishita</t>
+  </si>
+  <si>
+    <t>Praniti</t>
   </si>
 </sst>
 </file>
@@ -3487,7 +3490,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3528,7 +3531,6 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3972,7 +3974,7 @@
       </c>
       <c r="L2" s="28">
         <f ca="1">(TODAY())</f>
-        <v>43307</v>
+        <v>43308</v>
       </c>
       <c r="M2" s="26"/>
       <c r="N2" s="15" t="s">
@@ -11730,11 +11732,11 @@
       </c>
       <c r="D2" s="24">
         <f ca="1">(TODAY())</f>
-        <v>43307</v>
+        <v>43308</v>
       </c>
       <c r="E2" s="25">
         <f ca="1">(TODAY())</f>
-        <v>43307</v>
+        <v>43308</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -12687,10 +12689,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C57"/>
+  <dimension ref="A1:C58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12750,7 +12752,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="B7" t="s">
         <v>1118</v>
@@ -13125,8 +13127,16 @@
       <c r="A57" t="s">
         <v>1117</v>
       </c>
-      <c r="B57" s="30">
+      <c r="B57" s="29">
         <v>0.69</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B58" s="29">
+        <v>0.76</v>
       </c>
     </row>
   </sheetData>

--- a/IVFmilan/src/main/java/com_Milan_TestData/Milandata.xlsx
+++ b/IVFmilan/src/main/java/com_Milan_TestData/Milandata.xlsx
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2008" uniqueCount="1123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2009" uniqueCount="1124">
   <si>
     <t>PatientName</t>
   </si>
@@ -3413,13 +3413,16 @@
     <t>Payal</t>
   </si>
   <si>
-    <t>29</t>
-  </si>
-  <si>
     <t>Ishita</t>
   </si>
   <si>
     <t>Praniti</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Shamita</t>
   </si>
 </sst>
 </file>
@@ -3974,7 +3977,7 @@
       </c>
       <c r="L2" s="28">
         <f ca="1">(TODAY())</f>
-        <v>43308</v>
+        <v>43309</v>
       </c>
       <c r="M2" s="26"/>
       <c r="N2" s="15" t="s">
@@ -11732,11 +11735,11 @@
       </c>
       <c r="D2" s="24">
         <f ca="1">(TODAY())</f>
-        <v>43308</v>
+        <v>43309</v>
       </c>
       <c r="E2" s="25">
         <f ca="1">(TODAY())</f>
-        <v>43308</v>
+        <v>43309</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -12689,10 +12692,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C58"/>
+  <dimension ref="A1:C59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12752,7 +12755,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="B7" t="s">
         <v>1118</v>
@@ -13133,10 +13136,18 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="B58" s="29">
         <v>0.76</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B59" s="29">
+        <v>0.84</v>
       </c>
     </row>
   </sheetData>
@@ -13253,7 +13264,7 @@
         <v>93</v>
       </c>
       <c r="H2" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="3" spans="1:8">

--- a/IVFmilan/src/main/java/com_Milan_TestData/Milandata.xlsx
+++ b/IVFmilan/src/main/java/com_Milan_TestData/Milandata.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Parag\Git\IVFmilan\src\main\java\com_Milan_TestData\"/>
     </mc:Choice>
@@ -41,7 +41,7 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2009" uniqueCount="1124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2077" uniqueCount="1142">
   <si>
     <t>PatientName</t>
   </si>
@@ -3423,6 +3423,60 @@
   </si>
   <si>
     <t xml:space="preserve"> Shamita</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>30</t>
   </si>
 </sst>
 </file>
@@ -3834,7 +3888,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="40.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="40.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="10" customFormat="1">
@@ -3883,21 +3937,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="21.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="21" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="96" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="36.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="21.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="21.7109375" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="255.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="21.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="20.93359375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="96.0" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="36.7109375" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="9.26953125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="255.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -11700,10 +11754,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="55.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="9.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="55.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="33.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="33.0" collapsed="true"/>
+    <col min="4" max="5" bestFit="true" customWidth="true" width="9.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -12364,9 +12418,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="38" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="38.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -12407,9 +12461,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="26.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="26.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="7" customFormat="1">
@@ -12503,9 +12557,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -12609,7 +12663,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -12638,7 +12692,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="5" max="5" width="53.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="53.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="4:5">
@@ -12675,7 +12729,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="6.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -12700,9 +12754,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="48.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="54.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="48.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="54.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="10" customFormat="1">
@@ -13165,7 +13219,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -13205,14 +13259,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.7109375" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="13.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="29.85546875" style="15" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="8.85546875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="16384" width="9.140625" style="15" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="15" width="17.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="15" width="13.7109375" collapsed="true"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" style="15" width="13.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="15" width="10.28515625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="15" width="12.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="15" width="29.85546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="15" width="8.8359375" collapsed="true"/>
+    <col min="9" max="16384" style="15" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="14" customFormat="1">
@@ -13264,7 +13318,7 @@
         <v>93</v>
       </c>
       <c r="H2" t="s">
-        <v>1122</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -13367,10 +13421,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="17.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="6" width="12.42578125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="31.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="5" max="6" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="31.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="7" customFormat="1">
@@ -13527,7 +13581,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="27.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -13562,20 +13616,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="24.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="22.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="22.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="24.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="22.5703125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="10" customFormat="1">
@@ -14110,10 +14164,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="71.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="71.66796875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="10" customFormat="1">
@@ -14196,11 +14250,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="55" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="10" width="17.42578125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="59.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="55.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="4" max="10" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="17.875" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="59.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="10" customFormat="1">

--- a/IVFmilan/src/main/java/com_Milan_TestData/Milandata.xlsx
+++ b/IVFmilan/src/main/java/com_Milan_TestData/Milandata.xlsx
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2077" uniqueCount="1142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2146" uniqueCount="1142">
   <si>
     <t>PatientName</t>
   </si>

--- a/IVFmilan/src/main/java/com_Milan_TestData/Milandata.xlsx
+++ b/IVFmilan/src/main/java/com_Milan_TestData/Milandata.xlsx
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2146" uniqueCount="1142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2048" uniqueCount="1139">
   <si>
     <t>PatientName</t>
   </si>
@@ -3419,40 +3419,40 @@
     <t>Praniti</t>
   </si>
   <si>
+    <t xml:space="preserve"> Shamita</t>
+  </si>
+  <si>
+    <t>Purva</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
     <t>23</t>
   </si>
   <si>
-    <t xml:space="preserve"> Shamita</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>25</t>
+    <t>24</t>
   </si>
   <si>
     <t>26</t>
@@ -3465,15 +3465,6 @@
   </si>
   <si>
     <t>29</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>24</t>
   </si>
   <si>
     <t>30</t>
@@ -3547,7 +3538,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3588,6 +3579,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3945,7 +3937,7 @@
     <col min="6" max="6" bestFit="true" customWidth="true" width="21.28515625" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="20.93359375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
     <col min="10" max="10" bestFit="true" customWidth="true" width="96.0" collapsed="true"/>
     <col min="11" max="11" bestFit="true" customWidth="true" width="36.7109375" collapsed="true"/>
     <col min="12" max="12" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
@@ -4031,7 +4023,7 @@
       </c>
       <c r="L2" s="28">
         <f ca="1">(TODAY())</f>
-        <v>43309</v>
+        <v>43312</v>
       </c>
       <c r="M2" s="26"/>
       <c r="N2" s="15" t="s">
@@ -11789,11 +11781,11 @@
       </c>
       <c r="D2" s="24">
         <f ca="1">(TODAY())</f>
-        <v>43309</v>
+        <v>43312</v>
       </c>
       <c r="E2" s="25">
         <f ca="1">(TODAY())</f>
-        <v>43309</v>
+        <v>43312</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -12746,10 +12738,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C59"/>
+  <dimension ref="A1:C63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+      <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13202,6 +13194,38 @@
       </c>
       <c r="B59" s="29">
         <v>0.84</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="1" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B60" s="29">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="1" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B61" s="29">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="1" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B62" s="30">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="1" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B63" s="29">
+        <v>0.96</v>
       </c>
     </row>
   </sheetData>
@@ -13318,7 +13342,7 @@
         <v>93</v>
       </c>
       <c r="H2" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="3" spans="1:8">

--- a/IVFmilan/src/main/java/com_Milan_TestData/Milandata.xlsx
+++ b/IVFmilan/src/main/java/com_Milan_TestData/Milandata.xlsx
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2048" uniqueCount="1139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2023" uniqueCount="1125">
   <si>
     <t>PatientName</t>
   </si>
@@ -3423,48 +3423,6 @@
   </si>
   <si>
     <t>Purva</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>29</t>
   </si>
   <si>
     <t>30</t>
@@ -3937,12 +3895,12 @@
     <col min="6" max="6" bestFit="true" customWidth="true" width="21.28515625" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="20.93359375" collapsed="true"/>
     <col min="10" max="10" bestFit="true" customWidth="true" width="96.0" collapsed="true"/>
     <col min="11" max="11" bestFit="true" customWidth="true" width="36.7109375" collapsed="true"/>
     <col min="12" max="12" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
     <col min="13" max="13" customWidth="true" width="21.7109375" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="9.26953125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
     <col min="15" max="15" bestFit="true" customWidth="true" width="255.7109375" collapsed="true"/>
   </cols>
   <sheetData>
@@ -12740,8 +12698,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12801,7 +12759,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="B7" t="s">
         <v>1118</v>
@@ -13289,7 +13247,7 @@
     <col min="5" max="5" bestFit="true" customWidth="true" style="15" width="10.28515625" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" style="15" width="12.0" collapsed="true"/>
     <col min="7" max="7" customWidth="true" style="15" width="29.85546875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="15" width="8.8359375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="15" width="8.85546875" collapsed="true"/>
     <col min="9" max="16384" style="15" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
@@ -13342,7 +13300,7 @@
         <v>93</v>
       </c>
       <c r="H2" t="s">
-        <v>1138</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -14277,7 +14235,7 @@
     <col min="2" max="2" bestFit="true" customWidth="true" width="55.0" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
     <col min="4" max="10" customWidth="true" width="17.42578125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="17.875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
     <col min="12" max="12" bestFit="true" customWidth="true" width="59.5703125" collapsed="true"/>
   </cols>
   <sheetData>

--- a/IVFmilan/src/main/java/com_Milan_TestData/Milandata.xlsx
+++ b/IVFmilan/src/main/java/com_Milan_TestData/Milandata.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Parag\Git\IVFmilan\src\main\java\com_Milan_TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17520" windowHeight="4590" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17520" windowHeight="4590" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="5" r:id="rId1"/>
@@ -41,7 +41,7 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2023" uniqueCount="1125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2015" uniqueCount="1127">
   <si>
     <t>PatientName</t>
   </si>
@@ -3248,9 +3248,6 @@
     <t>Navya </t>
   </si>
   <si>
-    <t>Ms.Sunanda</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Ms.Sudha </t>
   </si>
   <si>
@@ -3426,6 +3423,15 @@
   </si>
   <si>
     <t>30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abhilash </t>
+  </si>
+  <si>
+    <t>*Finalize stimulation to save OPU.</t>
+  </si>
+  <si>
+    <t>Semen Processing</t>
   </si>
 </sst>
 </file>
@@ -3838,7 +3844,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="40.28515625" collapsed="true"/>
+    <col min="3" max="3" width="40.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="10" customFormat="1">
@@ -3887,21 +3893,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="19.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="21.28515625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="20.93359375" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="96.0" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="36.7109375" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="21.7109375" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="255.7109375" collapsed="true"/>
+    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="21" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="96" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="36.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="21.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="21.7109375" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="255.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -3981,7 +3987,7 @@
       </c>
       <c r="L2" s="28">
         <f ca="1">(TODAY())</f>
-        <v>43312</v>
+        <v>43320</v>
       </c>
       <c r="M2" s="26"/>
       <c r="N2" s="15" t="s">
@@ -11699,15 +11705,15 @@
   <dimension ref="A1:E116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="55.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="33.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="33.0" collapsed="true"/>
-    <col min="4" max="5" bestFit="true" customWidth="true" width="9.7109375" collapsed="true"/>
+    <col min="1" max="1" width="55.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="33" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="9.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -11739,11 +11745,11 @@
       </c>
       <c r="D2" s="24">
         <f ca="1">(TODAY())</f>
-        <v>43312</v>
+        <v>43320</v>
       </c>
       <c r="E2" s="25">
         <f ca="1">(TODAY())</f>
-        <v>43312</v>
+        <v>43320</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -11760,7 +11766,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="B4" t="s">
         <v>921</v>
@@ -11771,6 +11777,9 @@
       <c r="D4" s="21"/>
     </row>
     <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>1125</v>
+      </c>
       <c r="B5" t="s">
         <v>922</v>
       </c>
@@ -12368,9 +12377,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="38.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="1" max="1" width="38" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -12411,9 +12420,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="26.7109375" collapsed="true"/>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="26.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="7" customFormat="1">
@@ -12424,10 +12433,10 @@
         <v>136</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>1089</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>1090</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -12467,7 +12476,7 @@
         <v>122</v>
       </c>
       <c r="D6" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -12475,7 +12484,7 @@
         <v>123</v>
       </c>
       <c r="D7" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -12507,23 +12516,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="7" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="D1" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="E1" t="s">
         <v>191</v>
@@ -12531,57 +12540,57 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B2" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="C2" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="D2" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="E2" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B3" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="C3" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="D3" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="C4" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="C5" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C6" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -12589,12 +12598,12 @@
         <v>171</v>
       </c>
       <c r="C7" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="C8" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
   </sheetData>
@@ -12613,7 +12622,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -12642,7 +12651,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="53.7109375" collapsed="true"/>
+    <col min="5" max="5" width="53.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="4:5">
@@ -12679,12 +12688,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="6.140625" collapsed="true"/>
+    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="10" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
   </sheetData>
@@ -12698,15 +12707,15 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="48.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="54.5703125" collapsed="true"/>
+    <col min="1" max="1" width="37.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="48.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="54.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="10" customFormat="1">
@@ -12746,7 +12755,7 @@
         <v>101</v>
       </c>
       <c r="B5" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -12754,20 +12763,20 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="B7" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="B8" t="s">
         <v>190</v>
@@ -12823,10 +12832,10 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>1065</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>1066</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -13005,25 +13014,25 @@
     </row>
     <row r="37" spans="1:3">
       <c r="B37" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="B38" s="1" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="B39" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="B40" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="C40" t="s">
         <v>1055</v>
@@ -13031,79 +13040,79 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="B42" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="B43" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="B44" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="B45" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="B46" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="B47" s="1" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="B48" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="B49" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B50" t="s">
         <v>1109</v>
-      </c>
-      <c r="B50" t="s">
-        <v>1110</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B51" t="s">
         <v>1111</v>
-      </c>
-      <c r="B51" t="s">
-        <v>1112</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="B52" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="B53" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -13111,20 +13120,20 @@
         <v>912</v>
       </c>
       <c r="B54" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B55" t="s">
         <v>1115</v>
-      </c>
-      <c r="B55" t="s">
-        <v>1116</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="B56" s="29">
         <v>0.93</v>
@@ -13132,7 +13141,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="B57" s="29">
         <v>0.69</v>
@@ -13140,7 +13149,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="B58" s="29">
         <v>0.76</v>
@@ -13148,7 +13157,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="B59" s="29">
         <v>0.84</v>
@@ -13156,7 +13165,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="B60" s="29">
         <v>0.81</v>
@@ -13164,7 +13173,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="B61" s="29">
         <v>0.81</v>
@@ -13172,7 +13181,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="1" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="B62" s="30">
         <v>0.81</v>
@@ -13180,7 +13189,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="1" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="B63" s="29">
         <v>0.96</v>
@@ -13195,13 +13204,15 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -13222,6 +13233,11 @@
     <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>189</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>1126</v>
       </c>
     </row>
   </sheetData>
@@ -13241,14 +13257,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="15" width="17.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="15" width="13.7109375" collapsed="true"/>
-    <col min="3" max="4" bestFit="true" customWidth="true" style="15" width="13.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="15" width="10.28515625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="15" width="12.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="15" width="29.85546875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="15" width="8.85546875" collapsed="true"/>
-    <col min="9" max="16384" style="15" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="17.85546875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.7109375" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="13.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="29.85546875" style="15" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="8.85546875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="16384" width="9.140625" style="15" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="14" customFormat="1">
@@ -13300,7 +13316,7 @@
         <v>93</v>
       </c>
       <c r="H2" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -13403,10 +13419,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" customWidth="true" width="17.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="5" max="6" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="31.85546875" collapsed="true"/>
+    <col min="3" max="3" width="17.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="12.42578125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="31.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="7" customFormat="1">
@@ -13563,7 +13579,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="27.42578125" collapsed="true"/>
+    <col min="1" max="1" width="27.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -13598,20 +13614,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="22.42578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="24.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="23.7109375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="22.5703125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="22.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="12" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="10" customFormat="1">
@@ -14146,10 +14162,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="71.66796875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="1" max="1" width="71.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="10" customFormat="1">
@@ -14232,11 +14248,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="55.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="4" max="10" customWidth="true" width="17.42578125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="59.5703125" collapsed="true"/>
+    <col min="2" max="2" width="55" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="10" width="17.42578125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="59.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="10" customFormat="1">

--- a/IVFmilan/src/main/java/com_Milan_TestData/Milandata.xlsx
+++ b/IVFmilan/src/main/java/com_Milan_TestData/Milandata.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Parag\Git\IVFmilan\src\main\java\com_Milan_TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17520" windowHeight="4590" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17520" windowHeight="4590" firstSheet="11" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="5" r:id="rId1"/>
@@ -29,6 +29,7 @@
     <sheet name="OverviewPage" sheetId="17" r:id="rId15"/>
     <sheet name="Allergies" sheetId="10" r:id="rId16"/>
     <sheet name="ObstetricHistory" sheetId="18" r:id="rId17"/>
+    <sheet name="SiemenProcessing" sheetId="19" r:id="rId18"/>
   </sheets>
   <definedNames>
     <definedName name="ERLinked">Investigation!$I$2:$I$3</definedName>
@@ -41,7 +42,7 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2015" uniqueCount="1127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2026" uniqueCount="1129">
   <si>
     <t>PatientName</t>
   </si>
@@ -3432,6 +3433,12 @@
   </si>
   <si>
     <t>Semen Processing</t>
+  </si>
+  <si>
+    <t>Progressive</t>
+  </si>
+  <si>
+    <t>NonProgressive</t>
   </si>
 </sst>
 </file>
@@ -3844,7 +3851,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="40.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="40.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="10" customFormat="1">
@@ -3893,21 +3900,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="21.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="21" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="96" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="36.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="21.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="21.7109375" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="255.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="21.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="96.0" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="36.7109375" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="9.26953125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="255.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -3987,7 +3994,7 @@
       </c>
       <c r="L2" s="28">
         <f ca="1">(TODAY())</f>
-        <v>43320</v>
+        <v>43321</v>
       </c>
       <c r="M2" s="26"/>
       <c r="N2" s="15" t="s">
@@ -11710,10 +11717,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="55.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="9.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="55.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="33.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="33.0" collapsed="true"/>
+    <col min="4" max="5" bestFit="true" customWidth="true" width="9.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -11745,11 +11752,11 @@
       </c>
       <c r="D2" s="24">
         <f ca="1">(TODAY())</f>
-        <v>43320</v>
+        <v>43321</v>
       </c>
       <c r="E2" s="25">
         <f ca="1">(TODAY())</f>
-        <v>43320</v>
+        <v>43321</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -12377,9 +12384,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="38" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="38.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -12420,9 +12427,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="26.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="26.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="7" customFormat="1">
@@ -12516,9 +12523,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -12622,7 +12629,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -12651,7 +12658,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="5" max="5" width="53.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="53.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="4:5">
@@ -12688,7 +12695,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="6.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -12699,6 +12706,81 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="17" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>30</v>
+      </c>
+      <c r="B2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>50</v>
+      </c>
+      <c r="B3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>60</v>
+      </c>
+      <c r="B4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>60</v>
+      </c>
+      <c r="B5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>55</v>
+      </c>
+      <c r="B6">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>80</v>
+      </c>
+      <c r="B7">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -12713,9 +12795,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="48.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="54.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="48.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="54.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="10" customFormat="1">
@@ -13206,13 +13288,13 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -13257,14 +13339,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.7109375" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="13.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="29.85546875" style="15" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="8.85546875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="16384" width="9.140625" style="15" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="15" width="17.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="15" width="13.7109375" collapsed="true"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" style="15" width="13.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="15" width="10.28515625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="15" width="12.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="15" width="29.85546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="15" width="8.85546875" collapsed="true"/>
+    <col min="9" max="16384" style="15" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="14" customFormat="1">
@@ -13419,10 +13501,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="17.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="6" width="12.42578125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="31.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="5" max="6" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="31.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="7" customFormat="1">
@@ -13579,7 +13661,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="27.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -13614,20 +13696,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="24.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="22.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="22.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="24.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="22.5703125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="10" customFormat="1">
@@ -14162,10 +14244,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="71.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="71.66796875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="10" customFormat="1">
@@ -14248,11 +14330,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="55" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="10" width="17.42578125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="59.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="55.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="4" max="10" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="59.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="10" customFormat="1">

--- a/IVFmilan/src/main/java/com_Milan_TestData/Milandata.xlsx
+++ b/IVFmilan/src/main/java/com_Milan_TestData/Milandata.xlsx
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2026" uniqueCount="1129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2088" uniqueCount="1145">
   <si>
     <t>PatientName</t>
   </si>
@@ -3439,6 +3439,54 @@
   </si>
   <si>
     <t>NonProgressive</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
   </si>
 </sst>
 </file>
@@ -13345,7 +13393,7 @@
     <col min="5" max="5" bestFit="true" customWidth="true" style="15" width="10.28515625" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" style="15" width="12.0" collapsed="true"/>
     <col min="7" max="7" customWidth="true" style="15" width="29.85546875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="15" width="8.85546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="15" width="8.8359375" collapsed="true"/>
     <col min="9" max="16384" style="15" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>

--- a/IVFmilan/src/main/java/com_Milan_TestData/Milandata.xlsx
+++ b/IVFmilan/src/main/java/com_Milan_TestData/Milandata.xlsx
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2027" uniqueCount="1131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2035" uniqueCount="1131">
   <si>
     <t>PatientName</t>
   </si>

--- a/IVFmilan/src/main/java/com_Milan_TestData/Milandata.xlsx
+++ b/IVFmilan/src/main/java/com_Milan_TestData/Milandata.xlsx
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2035" uniqueCount="1131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2052" uniqueCount="1131">
   <si>
     <t>PatientName</t>
   </si>
@@ -3919,7 +3919,7 @@
     <col min="11" max="11" bestFit="true" customWidth="true" width="36.7109375" collapsed="true"/>
     <col min="12" max="12" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
     <col min="13" max="13" customWidth="true" width="21.7109375" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="9.26953125" collapsed="true"/>
     <col min="15" max="15" bestFit="true" customWidth="true" width="255.7109375" collapsed="true"/>
   </cols>
   <sheetData>

--- a/IVFmilan/src/main/java/com_Milan_TestData/Milandata.xlsx
+++ b/IVFmilan/src/main/java/com_Milan_TestData/Milandata.xlsx
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2052" uniqueCount="1131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2085" uniqueCount="1131">
   <si>
     <t>PatientName</t>
   </si>

--- a/IVFmilan/src/main/java/com_Milan_TestData/Milandata.xlsx
+++ b/IVFmilan/src/main/java/com_Milan_TestData/Milandata.xlsx
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2085" uniqueCount="1131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2116" uniqueCount="1150">
   <si>
     <t>PatientName</t>
   </si>
@@ -3417,34 +3417,91 @@
     <t>Purva</t>
   </si>
   <si>
+    <t xml:space="preserve">Abhilash </t>
+  </si>
+  <si>
+    <t>*Finalize stimulation to save OPU.</t>
+  </si>
+  <si>
+    <t>Semen Processing</t>
+  </si>
+  <si>
+    <t>Progressive</t>
+  </si>
+  <si>
+    <t>NonProgressive</t>
+  </si>
+  <si>
+    <t>Ms.Nandini </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nandini </t>
+  </si>
+  <si>
+    <t>Ms.Nandini</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>Asmita</t>
+  </si>
+  <si>
+    <t>gAYATRI</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
     <t>30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abhilash </t>
-  </si>
-  <si>
-    <t>*Finalize stimulation to save OPU.</t>
-  </si>
-  <si>
-    <t>Semen Processing</t>
-  </si>
-  <si>
-    <t>Progressive</t>
-  </si>
-  <si>
-    <t>NonProgressive</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Gayatri</t>
-  </si>
-  <si>
-    <t>Ms.Nandini </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nandini </t>
-  </si>
-  <si>
-    <t>Ms.Nandini</t>
   </si>
 </sst>
 </file>
@@ -4000,7 +4057,7 @@
       </c>
       <c r="L2" s="28">
         <f ca="1">(TODAY())</f>
-        <v>43327</v>
+        <v>43335</v>
       </c>
       <c r="M2" s="26"/>
       <c r="N2" s="15" t="s">
@@ -11758,11 +11815,11 @@
       </c>
       <c r="D2" s="24">
         <f ca="1">(TODAY())</f>
-        <v>43327</v>
+        <v>43335</v>
       </c>
       <c r="E2" s="25">
         <f ca="1">(TODAY())</f>
-        <v>43327</v>
+        <v>43335</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -11791,7 +11848,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="B5" t="s">
         <v>921</v>
@@ -12731,10 +12788,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="17" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>1125</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>1126</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -12793,10 +12850,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C65"/>
+  <dimension ref="A1:C66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12856,7 +12913,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>1127</v>
+        <v>1130</v>
       </c>
       <c r="B7" t="s">
         <v>1115</v>
@@ -12864,7 +12921,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="B8" t="s">
         <v>189</v>
@@ -12920,7 +12977,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>1064</v>
@@ -12928,7 +12985,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>911</v>
@@ -13291,9 +13348,17 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>1128</v>
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="1" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B66" s="30">
+        <v>0.9</v>
       </c>
     </row>
   </sheetData>
@@ -13338,7 +13403,7 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
   </sheetData>
@@ -13364,7 +13429,7 @@
     <col min="5" max="5" bestFit="true" customWidth="true" style="15" width="10.28515625" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" style="15" width="12.0" collapsed="true"/>
     <col min="7" max="7" customWidth="true" style="15" width="29.85546875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="15" width="8.85546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="15" width="8.8359375" collapsed="true"/>
     <col min="9" max="16384" style="15" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
@@ -13417,7 +13482,7 @@
         <v>93</v>
       </c>
       <c r="H2" t="s">
-        <v>1121</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="3" spans="1:8">

--- a/IVFmilan/src/main/java/com_Milan_TestData/Milandata.xlsx
+++ b/IVFmilan/src/main/java/com_Milan_TestData/Milandata.xlsx
@@ -12828,7 +12828,7 @@
   <dimension ref="A1:C68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/IVFmilan/src/main/java/com_Milan_TestData/Milandata.xlsx
+++ b/IVFmilan/src/main/java/com_Milan_TestData/Milandata.xlsx
@@ -9,27 +9,28 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17520" windowHeight="4590" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17520" windowHeight="4590" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="5" r:id="rId1"/>
     <sheet name="HomePage" sheetId="1" r:id="rId2"/>
-    <sheet name="EMRPage" sheetId="7" r:id="rId3"/>
-    <sheet name="Addictions" sheetId="6" r:id="rId4"/>
-    <sheet name="Vitals" sheetId="2" r:id="rId5"/>
-    <sheet name="Complaints" sheetId="13" r:id="rId6"/>
-    <sheet name="SexualHistory" sheetId="3" r:id="rId7"/>
-    <sheet name="pastMedicationHistory" sheetId="4" r:id="rId8"/>
-    <sheet name="Investigation" sheetId="8" r:id="rId9"/>
-    <sheet name="CycleList" sheetId="11" r:id="rId10"/>
-    <sheet name="Stimulationchart" sheetId="14" r:id="rId11"/>
-    <sheet name="Diagnosis" sheetId="12" r:id="rId12"/>
-    <sheet name="InvestigationList" sheetId="9" r:id="rId13"/>
-    <sheet name="Family History" sheetId="16" r:id="rId14"/>
-    <sheet name="OverviewPage" sheetId="17" r:id="rId15"/>
-    <sheet name="Allergies" sheetId="10" r:id="rId16"/>
-    <sheet name="ObstetricHistory" sheetId="18" r:id="rId17"/>
-    <sheet name="SiemenProcessing" sheetId="19" r:id="rId18"/>
+    <sheet name="FemaleReportUpload" sheetId="21" r:id="rId3"/>
+    <sheet name="EMRPage" sheetId="7" r:id="rId4"/>
+    <sheet name="Addictions" sheetId="6" r:id="rId5"/>
+    <sheet name="Vitals" sheetId="2" r:id="rId6"/>
+    <sheet name="Complaints" sheetId="13" r:id="rId7"/>
+    <sheet name="SexualHistory" sheetId="3" r:id="rId8"/>
+    <sheet name="pastMedicationHistory" sheetId="4" r:id="rId9"/>
+    <sheet name="Investigation" sheetId="8" r:id="rId10"/>
+    <sheet name="CycleList" sheetId="11" r:id="rId11"/>
+    <sheet name="Stimulationchart" sheetId="14" r:id="rId12"/>
+    <sheet name="Diagnosis" sheetId="12" r:id="rId13"/>
+    <sheet name="InvestigationList" sheetId="9" r:id="rId14"/>
+    <sheet name="Family History" sheetId="16" r:id="rId15"/>
+    <sheet name="OverviewPage" sheetId="17" r:id="rId16"/>
+    <sheet name="Allergies" sheetId="10" r:id="rId17"/>
+    <sheet name="ObstetricHistory" sheetId="18" r:id="rId18"/>
+    <sheet name="SiemenProcessing" sheetId="19" r:id="rId19"/>
   </sheets>
   <definedNames>
     <definedName name="ERLinked">Investigation!$I$2:$I$3</definedName>
@@ -50,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2026" uniqueCount="1137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2038" uniqueCount="1148">
   <si>
     <t>PatientName</t>
   </si>
@@ -3463,6 +3464,39 @@
   </si>
   <si>
     <t>Nilima</t>
+  </si>
+  <si>
+    <t>Laboratory</t>
+  </si>
+  <si>
+    <t>Radiology</t>
+  </si>
+  <si>
+    <t>Procedure</t>
+  </si>
+  <si>
+    <t>Pre Anesthesia</t>
+  </si>
+  <si>
+    <t>Report Category</t>
+  </si>
+  <si>
+    <t>Lab</t>
+  </si>
+  <si>
+    <t>Radio</t>
+  </si>
+  <si>
+    <t>Proce</t>
+  </si>
+  <si>
+    <t>PreAnesthesia</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>ReportName</t>
   </si>
 </sst>
 </file>
@@ -3924,6 +3958,219 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet8"/>
+  <dimension ref="A1:L11"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="55" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="10" width="17.42578125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="59.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="10" customFormat="1">
+      <c r="A1" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G2" t="s">
+        <v>119</v>
+      </c>
+      <c r="H2" t="s">
+        <v>131</v>
+      </c>
+      <c r="I2" t="s">
+        <v>118</v>
+      </c>
+      <c r="J2" t="s">
+        <v>119</v>
+      </c>
+      <c r="K2" t="s">
+        <v>1039</v>
+      </c>
+      <c r="L2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="B3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H3" t="s">
+        <v>124</v>
+      </c>
+      <c r="I3" t="s">
+        <v>132</v>
+      </c>
+      <c r="L3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="B4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E4" t="s">
+        <v>129</v>
+      </c>
+      <c r="H4" t="s">
+        <v>125</v>
+      </c>
+      <c r="L4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="B5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D5" t="s">
+        <v>136</v>
+      </c>
+      <c r="H5" t="s">
+        <v>126</v>
+      </c>
+      <c r="L5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="B6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C6" t="s">
+        <v>120</v>
+      </c>
+      <c r="L6" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="B7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C7" t="s">
+        <v>121</v>
+      </c>
+      <c r="L7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="B8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C8" t="s">
+        <v>122</v>
+      </c>
+      <c r="L8" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="L9" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="L10" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="L11" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10">
+      <formula1>"package+$A$10"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O1502"/>
   <sheetViews>
     <sheetView topLeftCell="I1" workbookViewId="0">
@@ -3945,7 +4192,7 @@
     <col min="11" max="11" width="36.7109375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="12" max="12" width="21.7109375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="13" max="13" width="21.7109375" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="15" max="15" width="255.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
@@ -4026,7 +4273,7 @@
       </c>
       <c r="L2" s="28">
         <f ca="1">(TODAY())</f>
-        <v>43350</v>
+        <v>43355</v>
       </c>
       <c r="M2" s="26"/>
       <c r="N2" s="15" t="s">
@@ -11739,7 +11986,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E116"/>
   <sheetViews>
@@ -11784,11 +12031,11 @@
       </c>
       <c r="D2" s="24">
         <f ca="1">(TODAY())</f>
-        <v>43350</v>
+        <v>43355</v>
       </c>
       <c r="E2" s="25">
         <f ca="1">(TODAY())</f>
-        <v>43350</v>
+        <v>43355</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -12412,7 +12659,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -12455,7 +12702,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
@@ -12551,7 +12798,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
@@ -12657,7 +12904,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -12686,7 +12933,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D1:E3"/>
   <sheetViews>
@@ -12723,7 +12970,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -12747,7 +12994,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
@@ -12827,8 +13074,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13355,11 +13602,79 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="9" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>169</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13398,7 +13713,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:H6"/>
@@ -13560,7 +13875,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G6"/>
@@ -13721,7 +14036,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
@@ -13755,7 +14070,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:O27"/>
@@ -14303,7 +14618,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G13"/>
@@ -14387,217 +14702,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:L11"/>
-  <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="55" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="10" width="17.42578125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="59.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" s="10" customFormat="1">
-      <c r="A1" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F2" t="s">
-        <v>118</v>
-      </c>
-      <c r="G2" t="s">
-        <v>119</v>
-      </c>
-      <c r="H2" t="s">
-        <v>131</v>
-      </c>
-      <c r="I2" t="s">
-        <v>118</v>
-      </c>
-      <c r="J2" t="s">
-        <v>119</v>
-      </c>
-      <c r="K2" t="s">
-        <v>1039</v>
-      </c>
-      <c r="L2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="B3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D3" t="s">
-        <v>125</v>
-      </c>
-      <c r="E3" t="s">
-        <v>128</v>
-      </c>
-      <c r="H3" t="s">
-        <v>124</v>
-      </c>
-      <c r="I3" t="s">
-        <v>132</v>
-      </c>
-      <c r="L3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="B4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C4" t="s">
-        <v>118</v>
-      </c>
-      <c r="D4" t="s">
-        <v>126</v>
-      </c>
-      <c r="E4" t="s">
-        <v>129</v>
-      </c>
-      <c r="H4" t="s">
-        <v>125</v>
-      </c>
-      <c r="L4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="B5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C5" t="s">
-        <v>137</v>
-      </c>
-      <c r="D5" t="s">
-        <v>136</v>
-      </c>
-      <c r="H5" t="s">
-        <v>126</v>
-      </c>
-      <c r="L5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="B6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C6" t="s">
-        <v>120</v>
-      </c>
-      <c r="L6" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="B7" t="s">
-        <v>138</v>
-      </c>
-      <c r="C7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="B8" t="s">
-        <v>141</v>
-      </c>
-      <c r="C8" t="s">
-        <v>122</v>
-      </c>
-      <c r="L8" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="L9" t="s">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="L10" t="s">
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="L11" t="s">
-        <v>1044</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10">
-      <formula1>"package+$A$10"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/IVFmilan/src/main/java/com_Milan_TestData/Milandata.xlsx
+++ b/IVFmilan/src/main/java/com_Milan_TestData/Milandata.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Parag\Git\IVFmilan\src\main\java\com_Milan_TestData\"/>
     </mc:Choice>
@@ -43,7 +43,7 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2038" uniqueCount="1148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2040" uniqueCount="1148">
   <si>
     <t>PatientName</t>
   </si>
@@ -3909,7 +3909,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="40.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="40.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="10" customFormat="1">
@@ -3967,11 +3967,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="55" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="10" width="17.42578125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="59.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="55.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="4" max="10" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="59.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="10" customFormat="1">
@@ -4179,21 +4179,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="21.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="21" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="96" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="36.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="21.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="21.7109375" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="255.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="21.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="96.0" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="36.7109375" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="255.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -11996,10 +11996,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="55.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="9.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="55.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="33.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="33.0" collapsed="true"/>
+    <col min="4" max="5" bestFit="true" customWidth="true" width="9.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -12669,9 +12669,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="38" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="38.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -12712,9 +12712,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="26.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="26.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="7" customFormat="1">
@@ -12808,9 +12808,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -12914,7 +12914,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -12943,7 +12943,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="5" max="5" width="53.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="53.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="4:5">
@@ -12980,7 +12980,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="6.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -13004,8 +13004,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -13080,9 +13080,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="48.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="54.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="48.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="54.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="10" customFormat="1">
@@ -13610,8 +13610,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -13679,7 +13679,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -13724,14 +13724,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.7109375" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="13.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="29.85546875" style="15" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="8.85546875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="16384" width="9.140625" style="15" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="15" width="17.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="15" width="13.7109375" collapsed="true"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" style="15" width="13.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="15" width="10.28515625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="15" width="12.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="15" width="29.85546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="15" width="8.8359375" collapsed="true"/>
+    <col min="9" max="16384" style="15" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="14" customFormat="1">
@@ -13783,7 +13783,7 @@
         <v>91</v>
       </c>
       <c r="H2" t="s">
-        <v>1132</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -13886,10 +13886,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="17.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="6" width="12.42578125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="31.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="5" max="6" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="31.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="7" customFormat="1">
@@ -14046,7 +14046,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="27.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -14081,20 +14081,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="24.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="22.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="22.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="24.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="22.5703125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="10" customFormat="1">
@@ -14629,10 +14629,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="71.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="71.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="10" customFormat="1">

--- a/IVFmilan/src/main/java/com_Milan_TestData/Milandata.xlsx
+++ b/IVFmilan/src/main/java/com_Milan_TestData/Milandata.xlsx
@@ -3,18 +3,18 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Parag\Git\IVFmilan\src\main\java\com_Milan_TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17520" windowHeight="4590" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23325" windowHeight="7845" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="5" r:id="rId1"/>
     <sheet name="HomePage" sheetId="1" r:id="rId2"/>
-    <sheet name="FemaleReportUpload" sheetId="21" r:id="rId3"/>
+    <sheet name="FReportUpload" sheetId="21" r:id="rId3"/>
     <sheet name="EMRPage" sheetId="7" r:id="rId4"/>
     <sheet name="Addictions" sheetId="6" r:id="rId5"/>
     <sheet name="Vitals" sheetId="2" r:id="rId6"/>
@@ -43,7 +43,7 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2040" uniqueCount="1148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2039" uniqueCount="1148">
   <si>
     <t>PatientName</t>
   </si>
@@ -3451,9 +3451,6 @@
     <t>sunil</t>
   </si>
   <si>
-    <t>29</t>
-  </si>
-  <si>
     <t>trigger date should be graeter than or equl to stimulation date.</t>
   </si>
   <si>
@@ -3463,9 +3460,6 @@
     <t>Manisha on baby ivf</t>
   </si>
   <si>
-    <t>Nilima</t>
-  </si>
-  <si>
     <t>Laboratory</t>
   </si>
   <si>
@@ -3478,9 +3472,6 @@
     <t>Pre Anesthesia</t>
   </si>
   <si>
-    <t>Report Category</t>
-  </si>
-  <si>
     <t>Lab</t>
   </si>
   <si>
@@ -3497,6 +3488,15 @@
   </si>
   <si>
     <t>ReportName</t>
+  </si>
+  <si>
+    <t>ReportCategory</t>
+  </si>
+  <si>
+    <t>Gayatri</t>
+  </si>
+  <si>
+    <t>SRNo</t>
   </si>
 </sst>
 </file>
@@ -3909,7 +3909,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="40.28515625" collapsed="true"/>
+    <col min="3" max="3" width="40.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="10" customFormat="1">
@@ -3967,11 +3967,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="55.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="4" max="10" customWidth="true" width="17.42578125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="59.5703125" collapsed="true"/>
+    <col min="2" max="2" width="55" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="10" width="17.42578125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="59.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="10" customFormat="1">
@@ -4179,21 +4179,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="19.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="21.28515625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="96.0" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="36.7109375" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="21.7109375" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="255.7109375" collapsed="true"/>
+    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="21" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="96" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="36.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="21.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="21.7109375" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="255.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -11996,10 +11996,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="55.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="33.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="33.0" collapsed="true"/>
-    <col min="4" max="5" bestFit="true" customWidth="true" width="9.7109375" collapsed="true"/>
+    <col min="1" max="1" width="55.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="33" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="9.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -12076,7 +12076,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="B6" t="s">
         <v>919</v>
@@ -12088,7 +12088,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="B7" t="s">
         <v>920</v>
@@ -12669,9 +12669,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="38.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="1" max="1" width="38" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -12712,9 +12712,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="26.7109375" collapsed="true"/>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="26.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="7" customFormat="1">
@@ -12808,9 +12808,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -12914,7 +12914,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -12943,7 +12943,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="53.7109375" collapsed="true"/>
+    <col min="5" max="5" width="53.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="4:5">
@@ -12980,7 +12980,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="6.140625" collapsed="true"/>
+    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -13004,8 +13004,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -13075,14 +13075,14 @@
   <dimension ref="A1:C68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="48.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="54.5703125" collapsed="true"/>
+    <col min="1" max="1" width="37.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="48.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="54.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="10" customFormat="1">
@@ -13135,7 +13135,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>1136</v>
+        <v>1146</v>
       </c>
       <c r="B7" t="s">
         <v>1112</v>
@@ -13588,7 +13588,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="B68" s="30">
         <v>0.88</v>
@@ -13602,64 +13602,82 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="9" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B4" t="s">
         <v>1141</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>1147</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>1137</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B5" t="s">
         <v>1142</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>1138</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1143</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>1139</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1144</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>1140</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1145</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>169</v>
       </c>
       <c r="B6" t="s">
-        <v>1146</v>
+        <v>1143</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -13679,7 +13697,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -13724,14 +13742,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="15" width="17.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="15" width="13.7109375" collapsed="true"/>
-    <col min="3" max="4" bestFit="true" customWidth="true" style="15" width="13.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="15" width="10.28515625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="15" width="12.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="15" width="29.85546875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="15" width="8.8359375" collapsed="true"/>
-    <col min="9" max="16384" style="15" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="17.85546875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.7109375" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="13.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="29.85546875" style="15" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="8.85546875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="16384" width="9.140625" style="15" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="14" customFormat="1">
@@ -13886,10 +13904,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" customWidth="true" width="17.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="5" max="6" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="31.85546875" collapsed="true"/>
+    <col min="3" max="3" width="17.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="12.42578125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="31.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="7" customFormat="1">
@@ -13934,9 +13952,9 @@
       <c r="F2" s="3">
         <v>96</v>
       </c>
-      <c r="G2" s="5">
-        <f>BMI(A2,B2)</f>
-        <v>18.518518518518519</v>
+      <c r="G2" s="5" t="e">
+        <f ca="1">BMI(A2,B2)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -13958,9 +13976,9 @@
       <c r="F3" s="2">
         <v>97.8</v>
       </c>
-      <c r="G3" s="5">
-        <f>BMI(A3,B3)</f>
-        <v>27.681660899653981</v>
+      <c r="G3" s="5" t="e">
+        <f ca="1">BMI(A3,B3)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -13982,9 +14000,9 @@
       <c r="F4" s="2">
         <v>99</v>
       </c>
-      <c r="G4" s="5">
-        <f>BMI(A4,B4)</f>
-        <v>39.062499999999993</v>
+      <c r="G4" s="5" t="e">
+        <f ca="1">BMI(A4,B4)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -14003,9 +14021,9 @@
       <c r="F5" s="2">
         <v>100</v>
       </c>
-      <c r="G5" s="5">
-        <f>BMI(A5,B5)</f>
-        <v>40</v>
+      <c r="G5" s="5" t="e">
+        <f ca="1">BMI(A5,B5)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -14025,9 +14043,9 @@
       <c r="F6" s="2">
         <v>101</v>
       </c>
-      <c r="G6" s="5">
-        <f>BMI(A6,B6)</f>
-        <v>70</v>
+      <c r="G6" s="5" t="e">
+        <f ca="1">BMI(A6,B6)</f>
+        <v>#NAME?</v>
       </c>
     </row>
   </sheetData>
@@ -14046,7 +14064,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="27.42578125" collapsed="true"/>
+    <col min="1" max="1" width="27.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -14081,20 +14099,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="22.42578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="24.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="23.7109375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="22.5703125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="22.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="12" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="10" customFormat="1">
@@ -14629,10 +14647,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="71.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="1" max="1" width="71.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="10" customFormat="1">
